--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F8C90-915C-4054-A8EC-360B9264DFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDAD940-6437-41E5-B58A-871CEAE68A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40860" yWindow="1680" windowWidth="31215" windowHeight="18270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!system" sheetId="1" r:id="rId1"/>
     <sheet name="!character" sheetId="2" r:id="rId2"/>
-    <sheet name="!Skill" sheetId="6" r:id="rId3"/>
+    <sheet name="!skill" sheetId="6" r:id="rId3"/>
     <sheet name="!item" sheetId="3" r:id="rId4"/>
     <sheet name="!dialog" sheetId="4" r:id="rId5"/>
     <sheet name="!story" sheetId="5" r:id="rId6"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="358">
-  <si>
-    <t>system</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="369">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -160,15 +157,9 @@
     <t>tribe_08</t>
   </si>
   <si>
-    <t>character</t>
-  </si>
-  <si>
     <t>범주 20001 ~ 30000</t>
   </si>
   <si>
-    <t>캐릭터 이름</t>
-  </si>
-  <si>
     <t>title_character_0001</t>
   </si>
   <si>
@@ -280,9 +271,6 @@
     <t>title_itme_0014</t>
   </si>
   <si>
-    <t>시나리오 입장 티켓</t>
-  </si>
-  <si>
     <t>title_itme_0015</t>
   </si>
   <si>
@@ -394,9 +382,6 @@
     <t>나무 지팡이</t>
   </si>
   <si>
-    <t>dialog</t>
-  </si>
-  <si>
     <t>범주 40001 ~ 70000</t>
   </si>
   <si>
@@ -778,12 +763,6 @@
     <t>분명 용서해 주실거야.</t>
   </si>
   <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>범주 70001 ~ 100000</t>
-  </si>
-  <si>
     <t>narration_episode001_chapter_00001</t>
   </si>
   <si>
@@ -965,10 +944,6 @@
   </si>
   <si>
     <t>나무 팔찌</t>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>근접 전방 1명 공격 (1히트)</t>
@@ -1145,17 +1120,67 @@
     <t>title_skill_pc_011</t>
   </si>
   <si>
+    <t>System_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>영어</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본어</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">100001~200000: </t>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">인덱스 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>캐릭터  /  200001</t>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범주</t>
     </r>
     <r>
       <rPr>
@@ -1163,17 +1188,96 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">~400000: </t>
+      <t xml:space="preserve"> 70001 ~ 100000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 범위 설명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주 100001 ~ 400000</t>
+  </si>
+  <si>
+    <t>100001~200000: 캐릭터  /  200001~400000: 몬스터</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시나리오</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>몬스터</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티켓</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1182,7 +1286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1250,18 +1354,47 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,8 +1413,32 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF073763"/>
+        <bgColor rgb="FF073763"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1341,11 +1498,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1372,6 +1568,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1590,9 +1810,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1600,310 +1822,356 @@
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="12.75">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="12.75">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1916,99 +2184,143 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75">
+      <c r="A5" s="5">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="7">
-        <v>10002</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5">
-        <v>10003</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="7">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75">
+      <c r="A7" s="5">
+        <v>10003</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75">
+      <c r="A8" s="7">
+        <v>10004</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2018,346 +2330,395 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B56DAE-9D40-4CC5-82CA-304E2DA30E3A}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" customWidth="1"/>
     <col min="4" max="4" width="71.85546875" customWidth="1"/>
     <col min="5" max="5" width="75.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5">
+    <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="C1" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.5">
+      <c r="A2" s="22" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="F4" s="27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
         <v>100001</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>100002</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>100003</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
-        <v>100004</v>
+        <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>313</v>
+        <v>315</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
-        <v>100005</v>
+        <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
-        <v>100006</v>
+        <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="4">
-        <v>100007</v>
+        <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="4">
-        <v>100008</v>
+        <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="4">
-        <v>100009</v>
+        <v>100007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
-        <v>100010</v>
+        <v>100008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="4">
-        <v>100017</v>
+        <v>100009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="4">
-        <v>100018</v>
+        <v>100010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4">
-        <v>150001</v>
+        <v>100017</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="4">
-        <v>150002</v>
+        <v>100018</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5" ht="13.5">
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
-        <v>150003</v>
+        <v>150001</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>344</v>
+        <v>327</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>328</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5" ht="13.5">
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
-        <v>150004</v>
+        <v>150002</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>349</v>
+        <v>329</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>335</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5" ht="13.5">
       <c r="A19" s="4">
-        <v>150005</v>
+        <v>150003</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="13.5">
       <c r="A20" s="4">
-        <v>150006</v>
+        <v>150004</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>346</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" ht="13.5">
       <c r="A21" s="4">
-        <v>150007</v>
+        <v>150005</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="13.5">
       <c r="A22" s="4">
-        <v>150008</v>
+        <v>150006</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5" ht="13.5">
       <c r="A23" s="4">
-        <v>150009</v>
+        <v>150007</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5" ht="13.5">
       <c r="A24" s="4">
-        <v>150010</v>
+        <v>150008</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="13.5">
       <c r="A25" s="4">
-        <v>150011</v>
+        <v>150009</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="13.5">
+      <c r="A26" s="4">
+        <v>150010</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.5">
+      <c r="A27" s="4">
+        <v>150011</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2370,721 +2731,768 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75">
-      <c r="A2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.5">
+      <c r="A2" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="5">
-        <v>30001</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="7">
-        <v>30002</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="F4" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="5">
-        <v>30003</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>57</v>
+        <v>30001</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
+      <c r="F5" s="30" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="7">
-        <v>30004</v>
+        <v>30002</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="5">
-        <v>30005</v>
+        <v>30003</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="7">
-        <v>30006</v>
+        <v>30004</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="5">
-        <v>30007</v>
+        <v>30005</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="7">
-        <v>30008</v>
+        <v>30006</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="5">
-        <v>30009</v>
+        <v>30007</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="7">
-        <v>30010</v>
+        <v>30008</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="5">
-        <v>30011</v>
+        <v>30009</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="7">
-        <v>30012</v>
+        <v>30010</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="5">
-        <v>30013</v>
+        <v>30011</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="7">
-        <v>30014</v>
+        <v>30012</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="5">
-        <v>30015</v>
+        <v>30013</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="13.5">
       <c r="A18" s="7">
-        <v>30016</v>
+        <v>30014</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>368</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="5">
-        <v>30017</v>
+        <v>30015</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="7">
-        <v>30018</v>
+        <v>30016</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="5">
-        <v>30019</v>
+        <v>30017</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="7">
-        <v>30020</v>
+        <v>30018</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="5">
-        <v>30021</v>
+        <v>30019</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="7">
-        <v>30022</v>
+        <v>30020</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="12.75">
-      <c r="A25" s="4">
-        <v>31001</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>97</v>
+      <c r="A25" s="5">
+        <v>30021</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="12.75">
-      <c r="A26" s="4">
-        <v>31002</v>
+      <c r="A26" s="7">
+        <v>30022</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="4">
-        <v>31003</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>101</v>
+        <v>31001</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="12.75">
       <c r="A28" s="4">
-        <v>32001</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>31002</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="12.75">
       <c r="A29" s="4">
-        <v>32002</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>105</v>
+        <v>31003</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="12.75">
       <c r="A30" s="4">
-        <v>32003</v>
+        <v>32001</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="12.75">
       <c r="A31" s="4">
-        <v>32004</v>
+        <v>32002</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="12.75">
       <c r="A32" s="4">
-        <v>32005</v>
+        <v>32003</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>277</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="12.75">
       <c r="A33" s="4">
-        <v>32006</v>
+        <v>32004</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="12.75">
       <c r="A34" s="4">
-        <v>32007</v>
+        <v>32005</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>115</v>
+        <v>270</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="12.75">
       <c r="A35" s="4">
-        <v>32008</v>
+        <v>32006</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="12.75">
       <c r="A36" s="4">
-        <v>32009</v>
+        <v>32007</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>278</v>
+        <v>111</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+    <row r="37" spans="1:5" ht="12.75">
       <c r="A37" s="4">
-        <v>32010</v>
+        <v>32008</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="4">
-        <v>32011</v>
+        <v>32009</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="4">
-        <v>32012</v>
+        <v>32010</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="4">
-        <v>32013</v>
+        <v>32011</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="4">
-        <v>32014</v>
+        <v>32012</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="4">
-        <v>32015</v>
+        <v>32013</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="4">
-        <v>32016</v>
+        <v>32014</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="4">
-        <v>32017</v>
+        <v>32015</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="4">
-        <v>32018</v>
+        <v>32016</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="4">
-        <v>32019</v>
+        <v>32017</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="4">
-        <v>32020</v>
+        <v>32018</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="4">
-        <v>32021</v>
+        <v>32019</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="4">
-        <v>32022</v>
+        <v>32020</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="4">
-        <v>32023</v>
+        <v>32021</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="4">
-        <v>32024</v>
+        <v>32022</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="4">
-        <v>32025</v>
+        <v>32023</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="4">
-        <v>32026</v>
+        <v>32024</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
       <c r="A54" s="4">
-        <v>32027</v>
+        <v>32025</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="4">
+        <v>32026</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="4">
+        <v>32027</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3097,9 +3505,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -3107,851 +3517,896 @@
     <col min="3" max="3" width="60.7109375" customWidth="1"/>
     <col min="4" max="4" width="76.140625" customWidth="1"/>
     <col min="5" max="5" width="81.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75">
+      <c r="A3" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="F4" s="27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
+      <c r="A5" s="4">
         <v>40001</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
-        <v>40002</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>40003</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
       <c r="A6" s="4">
-        <v>40004</v>
+        <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="4">
-        <v>40005</v>
+        <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="4">
-        <v>40006</v>
+        <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="4">
-        <v>40007</v>
+        <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="4">
-        <v>40008</v>
+        <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="4">
-        <v>40009</v>
+        <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="4">
-        <v>40010</v>
+        <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="4">
-        <v>40011</v>
+        <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="4">
-        <v>40012</v>
+        <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="4">
-        <v>40013</v>
+        <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="4">
-        <v>40014</v>
+        <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="4">
-        <v>40015</v>
+        <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="4">
-        <v>40016</v>
+        <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="4">
-        <v>40017</v>
+        <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="4">
-        <v>40018</v>
+        <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="4">
-        <v>40019</v>
+        <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="4">
-        <v>40020</v>
+        <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="14.25">
       <c r="A23" s="4">
-        <v>40021</v>
+        <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="14.25">
       <c r="A24" s="4">
-        <v>40022</v>
+        <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="14.25">
       <c r="A25" s="4">
-        <v>40023</v>
+        <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="14.25">
       <c r="A26" s="4">
-        <v>40024</v>
+        <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="14.25">
       <c r="A27" s="4">
-        <v>40025</v>
+        <v>40023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="14.25">
       <c r="A28" s="4">
-        <v>40026</v>
+        <v>40024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="14.25">
       <c r="A29" s="4">
-        <v>40027</v>
+        <v>40025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="14.25">
       <c r="A30" s="4">
-        <v>40028</v>
+        <v>40026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>175</v>
+        <v>165</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="14.25">
       <c r="A31" s="4">
-        <v>40029</v>
+        <v>40027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="14.25">
       <c r="A32" s="4">
-        <v>40030</v>
+        <v>40028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="14.25">
       <c r="A33" s="4">
-        <v>40031</v>
+        <v>40029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="14.25">
       <c r="A34" s="4">
-        <v>40032</v>
+        <v>40030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="14.25">
       <c r="A35" s="4">
-        <v>40033</v>
+        <v>40031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="14.25">
       <c r="A36" s="4">
-        <v>40034</v>
+        <v>40032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="14.25">
       <c r="A37" s="4">
-        <v>40035</v>
+        <v>40033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="14.25">
       <c r="A38" s="4">
-        <v>40036</v>
+        <v>40034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="14.25">
       <c r="A39" s="4">
-        <v>40037</v>
+        <v>40035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="14.25">
       <c r="A40" s="4">
-        <v>40038</v>
+        <v>40036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="14.25">
       <c r="A41" s="4">
-        <v>40039</v>
+        <v>40037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="14.25">
       <c r="A42" s="4">
-        <v>40040</v>
+        <v>40038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="14.25">
       <c r="A43" s="4">
-        <v>40041</v>
+        <v>40039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="14.25">
       <c r="A44" s="4">
-        <v>40042</v>
+        <v>40040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="14.25">
       <c r="A45" s="4">
-        <v>40043</v>
+        <v>40041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="14.25">
       <c r="A46" s="4">
-        <v>40044</v>
+        <v>40042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="14.25">
       <c r="A47" s="4">
-        <v>40045</v>
+        <v>40043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="14.25">
       <c r="A48" s="4">
-        <v>40046</v>
+        <v>40044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="14.25">
       <c r="A49" s="4">
-        <v>40047</v>
+        <v>40045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="14.25">
       <c r="A50" s="4">
-        <v>40048</v>
+        <v>40046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="14.25">
       <c r="A51" s="4">
-        <v>40049</v>
+        <v>40047</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="14.25">
       <c r="A52" s="4">
-        <v>40050</v>
+        <v>40048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="14.25">
       <c r="A53" s="4">
-        <v>40051</v>
+        <v>40049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="14.25">
       <c r="A54" s="4">
-        <v>40052</v>
+        <v>40050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="14.25">
       <c r="A55" s="4">
-        <v>40053</v>
+        <v>40051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="14.25">
       <c r="A56" s="4">
-        <v>40054</v>
+        <v>40052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="14.25">
       <c r="A57" s="4">
-        <v>40055</v>
+        <v>40053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="14.25">
       <c r="A58" s="4">
-        <v>40056</v>
+        <v>40054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="14.25">
       <c r="A59" s="4">
-        <v>40057</v>
+        <v>40055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="14.25">
       <c r="A60" s="4">
-        <v>40058</v>
+        <v>40056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="14.25">
       <c r="A61" s="4">
-        <v>40059</v>
+        <v>40057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="14.25">
       <c r="A62" s="4">
-        <v>40060</v>
+        <v>40058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="14.25">
       <c r="A63" s="4">
-        <v>40061</v>
+        <v>40059</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="14.25">
       <c r="A64" s="4">
-        <v>40062</v>
+        <v>40060</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="14.25">
       <c r="A65" s="4">
-        <v>40063</v>
+        <v>40061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.25">
+      <c r="A66" s="4">
+        <v>40062</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.25">
+      <c r="A67" s="4">
+        <v>40063</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3964,259 +4419,304 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.5703125" customWidth="1"/>
-    <col min="4" max="4" width="71.85546875" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="12.75">
+      <c r="A3" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.75">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="F4" s="27" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5">
+      <c r="A5" s="4">
         <v>70001</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
+      <c r="B5" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75">
+      <c r="A6" s="4">
         <v>70002</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
-        <v>70003</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
-        <v>70004</v>
-      </c>
       <c r="B6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>243</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>244</v>
+      </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="4">
-        <v>70005</v>
+        <v>70003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="14"/>
+        <v>245</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>246</v>
+      </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="4">
-        <v>70006</v>
+        <v>70004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="14"/>
+        <v>247</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" ht="12.75">
       <c r="A9" s="4">
-        <v>70007</v>
+        <v>70005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6" ht="12.75">
       <c r="A10" s="4">
-        <v>70008</v>
+        <v>70006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" ht="12.75">
       <c r="A11" s="4">
-        <v>70009</v>
+        <v>70007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" ht="12.75">
       <c r="A12" s="4">
-        <v>70010</v>
+        <v>70008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="4">
-        <v>70011</v>
+        <v>70009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" ht="12.75">
       <c r="A14" s="4">
-        <v>70012</v>
+        <v>70010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" ht="12.75">
       <c r="A15" s="4">
-        <v>70013</v>
+        <v>70011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" ht="12.75">
       <c r="A16" s="4">
-        <v>70014</v>
+        <v>70012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="4">
-        <v>70015</v>
+        <v>70013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="4">
-        <v>70016</v>
+        <v>70014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="4">
-        <v>70017</v>
+        <v>70015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="4">
-        <v>70018</v>
+        <v>70016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="4">
-        <v>70019</v>
+        <v>70017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" ht="12.75">
+      <c r="A22" s="4">
+        <v>70018</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.75">
+      <c r="A23" s="4">
+        <v>70019</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDAD940-6437-41E5-B58A-871CEAE68A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83184223-EA86-467A-B628-10556966D4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40860" yWindow="1680" windowWidth="31215" windowHeight="18270" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="780" windowWidth="29025" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="!system" sheetId="1" r:id="rId1"/>
-    <sheet name="!character" sheetId="2" r:id="rId2"/>
-    <sheet name="!skill" sheetId="6" r:id="rId3"/>
-    <sheet name="!item" sheetId="3" r:id="rId4"/>
-    <sheet name="!dialog" sheetId="4" r:id="rId5"/>
-    <sheet name="!story" sheetId="5" r:id="rId6"/>
+    <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
+    <sheet name="!system" sheetId="1" r:id="rId2"/>
+    <sheet name="!character" sheetId="2" r:id="rId3"/>
+    <sheet name="!skill" sheetId="6" r:id="rId4"/>
+    <sheet name="!item" sheetId="3" r:id="rId5"/>
+    <sheet name="!dialog" sheetId="4" r:id="rId6"/>
+    <sheet name="!story" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="399">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -61,60 +62,39 @@
     <t>UI 워딩, 시스템 메세지, 기반 재화</t>
   </si>
   <si>
-    <t>title_product</t>
-  </si>
-  <si>
     <t>Zero one</t>
   </si>
   <si>
-    <t>answer_accept</t>
-  </si>
-  <si>
     <t>동의</t>
   </si>
   <si>
     <t>Agree</t>
   </si>
   <si>
-    <t>answer_cancel</t>
-  </si>
-  <si>
     <t>취소</t>
   </si>
   <si>
     <t>cancel</t>
   </si>
   <si>
-    <t>answer_ok</t>
-  </si>
-  <si>
     <t>확인</t>
   </si>
   <si>
     <t>Ok</t>
   </si>
   <si>
-    <t>title_window_item</t>
-  </si>
-  <si>
     <t>아이템</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>reward_clear</t>
-  </si>
-  <si>
     <t>클리어 보상</t>
   </si>
   <si>
     <t>clear reward</t>
   </si>
   <si>
-    <t>reward_firstclear</t>
-  </si>
-  <si>
     <t>첫 클리어 보상</t>
   </si>
   <si>
@@ -127,60 +107,24 @@
     <t>조각</t>
   </si>
   <si>
-    <t>tribe_01</t>
-  </si>
-  <si>
     <t>마족</t>
   </si>
   <si>
-    <t>tribe_02</t>
-  </si>
-  <si>
     <t>인간족</t>
   </si>
   <si>
-    <t>tribe_03</t>
-  </si>
-  <si>
-    <t>tribe_04</t>
-  </si>
-  <si>
-    <t>tribe_05</t>
-  </si>
-  <si>
-    <t>tribe_06</t>
-  </si>
-  <si>
-    <t>tribe_07</t>
-  </si>
-  <si>
-    <t>tribe_08</t>
-  </si>
-  <si>
     <t>범주 20001 ~ 30000</t>
   </si>
   <si>
-    <t>title_character_0001</t>
-  </si>
-  <si>
     <t>루시아</t>
   </si>
   <si>
-    <t>title_character_0002</t>
-  </si>
-  <si>
     <t>로망스 경</t>
   </si>
   <si>
-    <t>title_character_0003</t>
-  </si>
-  <si>
     <t>데이지</t>
   </si>
   <si>
-    <t>title_character_0004</t>
-  </si>
-  <si>
     <t>유스티아</t>
   </si>
   <si>
@@ -190,666 +134,300 @@
     <t>아이템 명, 장비 명, 조각 이름</t>
   </si>
   <si>
-    <t>title_itme_0001</t>
-  </si>
-  <si>
     <t>경험치 물약(소)</t>
   </si>
   <si>
-    <t>title_itme_0002</t>
-  </si>
-  <si>
     <t>경험치 물약(중)</t>
   </si>
   <si>
-    <t>title_itme_0003</t>
-  </si>
-  <si>
     <t>경험치 물약(대)</t>
   </si>
   <si>
-    <t>title_itme_0004</t>
-  </si>
-  <si>
     <t>경험치 물약(특대)</t>
   </si>
   <si>
-    <t>title_itme_0005</t>
-  </si>
-  <si>
     <t>경험치 물약(극대)</t>
   </si>
   <si>
-    <t>title_itme_0006</t>
-  </si>
-  <si>
     <t>스테미너 물약(소)</t>
   </si>
   <si>
-    <t>title_itme_0007</t>
-  </si>
-  <si>
     <t>스테미너 물약(중)</t>
   </si>
   <si>
-    <t>title_itme_0008</t>
-  </si>
-  <si>
     <t>스테미너 물약(대)</t>
   </si>
   <si>
-    <t>title_itme_0009</t>
-  </si>
-  <si>
     <t>스테미너 물약(특대)</t>
   </si>
   <si>
-    <t>title_itme_0010</t>
-  </si>
-  <si>
     <t>스테미너 물약(극대)</t>
   </si>
   <si>
-    <t>title_itme_0011</t>
-  </si>
-  <si>
     <t>츄러스</t>
   </si>
   <si>
-    <t>title_itme_0012</t>
-  </si>
-  <si>
     <t>와플</t>
   </si>
   <si>
-    <t>title_itme_0013</t>
-  </si>
-  <si>
     <t>베리 케이크</t>
   </si>
   <si>
-    <t>title_itme_0014</t>
-  </si>
-  <si>
-    <t>title_itme_0015</t>
-  </si>
-  <si>
     <t>던전 입장 티켓</t>
   </si>
   <si>
-    <t>title_itme_0016</t>
-  </si>
-  <si>
     <t>이벤트 입장 티켓</t>
   </si>
   <si>
-    <t>title_itme_0017</t>
-  </si>
-  <si>
     <t>하급 정령석</t>
   </si>
   <si>
-    <t>title_itme_0018</t>
-  </si>
-  <si>
     <t>중급 정련석</t>
   </si>
   <si>
-    <t>title_itme_0019</t>
-  </si>
-  <si>
     <t>상급 정련석</t>
   </si>
   <si>
-    <t>title_itme_0020</t>
-  </si>
-  <si>
     <t>패스 보상: 보상 선택권</t>
   </si>
   <si>
-    <t>title_itme_0021</t>
-  </si>
-  <si>
     <t>패스 보상: 보상 뽑기권</t>
   </si>
   <si>
-    <t>title_itme_0022</t>
-  </si>
-  <si>
     <t>패스 보상: 성장 패키지</t>
   </si>
   <si>
-    <t>title_itemPiece_0001</t>
-  </si>
-  <si>
     <t>하급 정령석 조각</t>
   </si>
   <si>
-    <t>title_itemPiece_0002</t>
-  </si>
-  <si>
     <t>중급 정련석 조각</t>
   </si>
   <si>
-    <t>title_itemPiece_0003</t>
-  </si>
-  <si>
     <t>상급 정련석 조각</t>
   </si>
   <si>
-    <t>title_equipment_0001</t>
-  </si>
-  <si>
     <t>나무 단검</t>
   </si>
   <si>
-    <t>title_equipment_0002</t>
-  </si>
-  <si>
     <t>나무 한손검</t>
   </si>
   <si>
-    <t>title_equipment_0003</t>
-  </si>
-  <si>
-    <t>title_equipment_0004</t>
-  </si>
-  <si>
     <t>나무 양손검</t>
   </si>
   <si>
-    <t>title_equipment_0005</t>
-  </si>
-  <si>
     <t>나무 장창</t>
   </si>
   <si>
-    <t>title_equipment_0006</t>
-  </si>
-  <si>
     <t>나무 도끼</t>
   </si>
   <si>
-    <t>title_equipment_0007</t>
-  </si>
-  <si>
     <t>나무 활</t>
   </si>
   <si>
-    <t>title_equipment_0008</t>
-  </si>
-  <si>
     <t>나무 지팡이</t>
   </si>
   <si>
     <t>범주 40001 ~ 70000</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00001</t>
-  </si>
-  <si>
     <t>에헷♡ 어서와. 못만나서 쓸쓸했어.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00002</t>
-  </si>
-  <si>
     <t>사실은 조금 부탁하고 싶은 게 있어. 괜찮다면 어울려주지 않을래?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00003</t>
-  </si>
-  <si>
     <t>후훗♡ 대장이 그렇게 말한다면 어디든지 따라갈 생각인데?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00004</t>
-  </si>
-  <si>
     <t>어.디.든.지 말야♡</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00005</t>
-  </si>
-  <si>
     <t>우후훗♡</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00006</t>
-  </si>
-  <si>
     <t>천국을 보.여.줄.께♡</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00007</t>
-  </si>
-  <si>
     <t>라던가 그런게 아니라~ 물건 찾는걸 도와줬으면 해.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00008</t>
-  </si>
-  <si>
     <t>사실은 며칠 전에 아끼는 캐셔파우치를 잃어버렸어. 내용물이랑 같이.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00009</t>
-  </si>
-  <si>
     <t>왜 그래? 뿔 만져보고 싶어?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00010</t>
-  </si>
-  <si>
     <t>싫다~ 뿔에 거미줄이 걸려있잖아</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00011</t>
-  </si>
-  <si>
     <t>우훗♡ 알겠어? 이 립스틱 신상인데.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00012</t>
-  </si>
-  <si>
     <t>후훗♡ 대장의 손가락 듬직해서 빨고 싶어지네.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00013</t>
-  </si>
-  <si>
     <t>어라, 또 가슴이 커진걸까?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00014</t>
-  </si>
-  <si>
     <t>맞아~ 산지 얼마 안된 브라가 벌써 꽉 껴~</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00015</t>
-  </si>
-  <si>
     <t>뭐야~? 엄청 크니까 패드라고 생각한거지?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00016</t>
-  </si>
-  <si>
     <t>오, 오빠? 왜 그렇게 보고만 있어…?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00017</t>
-  </si>
-  <si>
     <t>내 몸… 이상해…?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00018</t>
-  </si>
-  <si>
     <t>(분명히 아까 목욕하고 다 체크했는데….)</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00019</t>
-  </si>
-  <si>
     <t>(뭐라고 말 좀 해줘 오빠…!)</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00020</t>
-  </si>
-  <si>
     <t>꺅…! 오, 오빠?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00021</t>
-  </si>
-  <si>
     <t>하, 하지마아~</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00022</t>
-  </si>
-  <si>
     <t>아, 안된다니까!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00023</t>
-  </si>
-  <si>
     <t>오빠 그러다 가이아 님한테 벌 받는다?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00024</t>
-  </si>
-  <si>
     <t>에…?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00025</t>
-  </si>
-  <si>
     <t>우우…!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00026</t>
-  </si>
-  <si>
     <t>자꾸 그래도 안 되는 건 안 돼!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00027</t>
-  </si>
-  <si>
     <t>에에에?! 그건 진짜로 안돼!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00028</t>
-  </si>
-  <si>
     <t>...보, 보기만 할거라구?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00029</t>
-  </si>
-  <si>
     <t>아, 안된다니까아….</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00030</t>
-  </si>
-  <si>
     <t>(그래도 교리상… 맨살만 아니면….)</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00031</t>
-  </si>
-  <si>
     <t>정말… 지, 진짜진짜 보기만 해야된다?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00032</t>
-  </si>
-  <si>
     <t>옷 위로는 아슬아슬하게 세이프니까….</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00033</t>
-  </si>
-  <si>
     <t>이걸로… 괜찮아?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00034</t>
-  </si>
-  <si>
     <t>잠까아아아안! 그런 거 한다고는 안 했잖아!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00035</t>
-  </si>
-  <si>
     <t>가이아 님의 딸들은… 그… 혼전순결, 해야 된단 말야.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00036</t>
-  </si>
-  <si>
     <t>절대로 못 만지게 할 거야.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00037</t>
-  </si>
-  <si>
     <t>헤헷. 아무리 오빠라도 이러면 손 못 대겠지?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00038</t>
-  </si>
-  <si>
     <t>(에? 어, 어떡하지?)</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00039</t>
-  </si>
-  <si>
     <t>(어느 쪽을 막아야…!)</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00040</t>
-  </si>
-  <si>
     <t>(손을 대는거랑, 맨살을 보는 것중에 뭐가 더 중죄더라?!)</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00041</t>
-  </si>
-  <si>
     <t>(으으… 오빠 진짜 바보!)</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00042</t>
-  </si>
-  <si>
     <t>거, 거기까지?!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00043</t>
-  </si>
-  <si>
     <t>으, 으으….</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00044</t>
-  </si>
-  <si>
     <t>엑, 아, 안돼…!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00045</t>
-  </si>
-  <si>
     <t>아아아앗!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00046</t>
-  </si>
-  <si>
     <t>오빠, 봤어? 안 봤지? 응?!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00047</t>
-  </si>
-  <si>
     <t>예뻤다고…? 그, 그러면….</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00048</t>
-  </si>
-  <si>
     <t>본 거지! 봤구나! 내 가, 가슴!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00049</t>
-  </si>
-  <si>
     <t>오빠 진짜 바보!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00050</t>
-  </si>
-  <si>
     <t>수녀의 맨살을 보는 건 진짜 큰 죄란 말야!</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00051</t>
-  </si>
-  <si>
     <t>나는 오빠 생각해서 하지 말라는 거라구우… 훌쩍.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00052</t>
-  </si>
-  <si>
     <t>나도 싫은 건 아니란 말야.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00053</t>
-  </si>
-  <si>
     <t>내가 오빠를 얼마나 좋아하는데….</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00054</t>
-  </si>
-  <si>
     <t>오빠…?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00055</t>
-  </si>
-  <si>
     <t>(오빠가… 머리를 쓰다듬어주고 있어….)</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00056</t>
-  </si>
-  <si>
     <t>아, 아니야. 이건 딱히… 교리 위반은 아니니까….</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00057</t>
-  </si>
-  <si>
     <t>(오빠 손 크다… 뭔가 안심되는 기분….)</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00058</t>
-  </si>
-  <si>
     <t>이건 얼마든지 해줘도 되는데, 다른 건….</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00059</t>
-  </si>
-  <si>
     <t>…….</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00060</t>
-  </si>
-  <si>
     <t xml:space="preserve">결혼하고 나서라면… 다른 곳도 오빠 맘대로 해도 되니까… </t>
   </si>
   <si>
-    <t>dialog_me_lucia_00061</t>
-  </si>
-  <si>
     <t>이제 진짜 안 그럴거지?</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00062</t>
-  </si>
-  <si>
     <t>이따가 나랑 같이 가이아님한테 죄송하다고 기도드리자.</t>
   </si>
   <si>
-    <t>dialog_me_lucia_00063</t>
-  </si>
-  <si>
     <t>분명 용서해 주실거야.</t>
   </si>
   <si>
-    <t>narration_episode001_chapter_00001</t>
-  </si>
-  <si>
     <t>옛날에 호랑이가 담배를 피웠다.</t>
   </si>
   <si>
-    <t>narration_episode001_chapter_00002</t>
-  </si>
-  <si>
     <t>그래서 캐릭터가 담배를 피웠다.</t>
   </si>
   <si>
-    <t>narration_episode001_chapter_00003</t>
-  </si>
-  <si>
     <t>그래서 나는 담배를 끊었다.</t>
   </si>
   <si>
-    <t>narration_episode001_chapter_00004</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00005</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00006</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00007</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00008</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00009</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00010</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00011</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00012</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00013</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00014</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00015</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00016</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00017</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00018</t>
-  </si>
-  <si>
-    <t>narration_episode001_chapter_00019</t>
-  </si>
-  <si>
-    <t>title_equipment_0009</t>
-  </si>
-  <si>
-    <t>title_equipment_0010</t>
-  </si>
-  <si>
-    <t>title_equipment_0011</t>
-  </si>
-  <si>
-    <t>title_equipment_0012</t>
-  </si>
-  <si>
-    <t>title_equipment_0013</t>
-  </si>
-  <si>
-    <t>title_equipment_0014</t>
-  </si>
-  <si>
-    <t>title_equipment_0015</t>
-  </si>
-  <si>
     <t>나무 글러브</t>
   </si>
   <si>
@@ -874,75 +452,39 @@
     <t>낡은 천 신발</t>
   </si>
   <si>
-    <t>title_equipment_0016</t>
-  </si>
-  <si>
     <t>낡은 가죽 신발</t>
   </si>
   <si>
-    <t>title_equipment_0017</t>
-  </si>
-  <si>
     <t>낡은 사슬 신발</t>
   </si>
   <si>
-    <t>title_equipment_0018</t>
-  </si>
-  <si>
     <t>낡은 판금 신발</t>
   </si>
   <si>
-    <t>title_equipment_0019</t>
-  </si>
-  <si>
     <t>구리 반지</t>
   </si>
   <si>
-    <t>title_equipment_0020</t>
-  </si>
-  <si>
     <t>엉성한 반지</t>
   </si>
   <si>
-    <t>title_equipment_0021</t>
-  </si>
-  <si>
     <t>나무 반지</t>
   </si>
   <si>
-    <t>title_equipment_0022</t>
-  </si>
-  <si>
     <t>구리 목걸이</t>
   </si>
   <si>
-    <t>title_equipment_0023</t>
-  </si>
-  <si>
     <t>엉성한 목걸이</t>
   </si>
   <si>
-    <t>title_equipment_0024</t>
-  </si>
-  <si>
     <t>나무 목걸이</t>
   </si>
   <si>
-    <t>title_equipment_0025</t>
-  </si>
-  <si>
     <t>구리 팔찌</t>
   </si>
   <si>
-    <t>title_equipment_0026</t>
-  </si>
-  <si>
     <t>엉성한 팔찌</t>
   </si>
   <si>
-    <t>title_equipment_0027</t>
-  </si>
-  <si>
     <t>나무 팔찌</t>
   </si>
   <si>
@@ -980,43 +522,6 @@
   </si>
   <si>
     <t xml:space="preserve">원거리 전방 적 타겟 </t>
-  </si>
-  <si>
-    <t>desc_skill_pc_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc_skill_pc_002</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_003</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_004</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_005</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_006</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_007</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_008</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_009</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_010</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_017</t>
-  </si>
-  <si>
-    <t>desc_skill_pc_018</t>
   </si>
   <si>
     <r>
@@ -1042,32 +547,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>title_skill_pc_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>강타</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>title_skill_pc_002</t>
-  </si>
-  <si>
-    <t>title_skill_pc_003</t>
-  </si>
-  <si>
-    <t>title_skill_pc_004</t>
-  </si>
-  <si>
-    <t>title_skill_pc_005</t>
-  </si>
-  <si>
-    <t>title_skill_pc_006</t>
-  </si>
-  <si>
-    <t>title_skill_pc_007</t>
-  </si>
-  <si>
     <t>셀프 힐</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1096,28 +579,16 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>title_skill_pc_008</t>
-  </si>
-  <si>
     <t>마나 쇼크</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>title_skill_pc_009</t>
-  </si>
-  <si>
     <t>브레이크 아머</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>브레이크 웨폰</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_skill_pc_010</t>
-  </si>
-  <si>
-    <t>title_skill_pc_011</t>
   </si>
   <si>
     <t>System_Data</t>
@@ -1281,12 +752,958 @@
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>system_answer_accept</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_answer_cancel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_answer_ok</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_reward_clear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_reward_firstclear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_product</t>
+  </si>
+  <si>
+    <t>system_name_window_item</t>
+  </si>
+  <si>
+    <t>system_name_piece</t>
+  </si>
+  <si>
+    <t>system_name_tribe_01</t>
+  </si>
+  <si>
+    <t>system_name_tribe_02</t>
+  </si>
+  <si>
+    <t>system_name_tribe_03</t>
+  </si>
+  <si>
+    <t>system_name_tribe_04</t>
+  </si>
+  <si>
+    <t>system_name_tribe_05</t>
+  </si>
+  <si>
+    <t>system_name_tribe_06</t>
+  </si>
+  <si>
+    <t>system_name_tribe_07</t>
+  </si>
+  <si>
+    <t>system_name_tribe_08</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">예) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_title_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>reward_clear</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">UI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>윈도우 제목</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터, 아이템 등의 이름</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이얼 로그 대화 대사</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이얼 로그 질문(유저의 답변 선택 요구)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다이얼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저가 선택할 답변)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_talk</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_answer</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_question</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 나레이션</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_narration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리어 보상</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_itemPiece_0001</t>
+  </si>
+  <si>
+    <t>item_name_itemPiece_0002</t>
+  </si>
+  <si>
+    <t>item_name_itemPiece_0003</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0001</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0002</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0003</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0004</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0005</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0006</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0007</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0008</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0009</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0010</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0011</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0012</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0013</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0014</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0015</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0016</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0017</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0018</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0019</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0020</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0021</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0022</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0023</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0024</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0025</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0026</t>
+  </si>
+  <si>
+    <t>item_name_equipment_0027</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00001</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00002</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00003</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00004</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00005</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00006</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00007</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00008</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00009</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00010</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00011</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00012</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00013</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00014</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00015</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00016</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00017</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00018</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00019</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00020</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00021</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00022</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00023</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00024</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00025</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00026</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00027</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00028</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00029</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00030</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00031</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00032</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00033</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00034</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00035</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00036</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00037</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00038</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00039</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00040</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00041</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00042</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00043</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00044</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00045</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00046</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00047</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00048</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00049</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00050</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00051</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00052</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00053</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00054</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00055</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00056</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00057</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00058</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00059</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00060</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00061</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00062</t>
+  </si>
+  <si>
+    <t>dialog_talk_me_lucia_00063</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00001</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00002</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00003</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00004</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00005</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00006</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00007</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00008</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00009</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00010</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00012</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00013</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00014</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00015</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00016</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00017</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00018</t>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스트링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 예시</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>story_narration_episode001_chapter_00011</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_usingitem_0001</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0002</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0003</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0004</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0005</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0006</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0007</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0008</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0009</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0010</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0011</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0012</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0013</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0017</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0018</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0019</t>
+  </si>
+  <si>
+    <t>item_name_ticketitem_0014</t>
+  </si>
+  <si>
+    <t>item_name_ticketitem_0015</t>
+  </si>
+  <si>
+    <t>item_name_ticketitem_0016</t>
+  </si>
+  <si>
+    <t>item_name_tickeitem_0020</t>
+  </si>
+  <si>
+    <t>item_name_tickeitem_0021</t>
+  </si>
+  <si>
+    <t>item_name_tickeitem_0022</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_001</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_002</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_003</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_004</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_005</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_006</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_007</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_008</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_009</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_010</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_017</t>
+  </si>
+  <si>
+    <t>skill_desc_pc_018</t>
+  </si>
+  <si>
+    <t>skill_name_pc_001</t>
+  </si>
+  <si>
+    <t>skill_name_pc_002</t>
+  </si>
+  <si>
+    <t>skill_name_pc_003</t>
+  </si>
+  <si>
+    <t>skill_name_pc_004</t>
+  </si>
+  <si>
+    <t>skill_name_pc_005</t>
+  </si>
+  <si>
+    <t>skill_name_pc_006</t>
+  </si>
+  <si>
+    <t>skill_name_pc_007</t>
+  </si>
+  <si>
+    <t>skill_name_pc_008</t>
+  </si>
+  <si>
+    <t>skill_name_pc_009</t>
+  </si>
+  <si>
+    <t>skill_name_pc_010</t>
+  </si>
+  <si>
+    <t>skill_name_pc_011</t>
+  </si>
+  <si>
+    <t>character_name_0001</t>
+  </si>
+  <si>
+    <t>character_name_0002</t>
+  </si>
+  <si>
+    <t>character_name_0003</t>
+  </si>
+  <si>
+    <t>character_name_0004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_사용 용도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 예시 (스트링이 UI에서 출력될 용도에 따라서 구분 )</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_episode01_chapter_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>singitem_001</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_character_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_firstclear</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>시트 오른 쪽 끝에 있는 범주 내에서 넘버링 아이디를 생성해주세요.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 확장이 필요할 경우 협의하에 재조정 진행</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">스트링 아이디를 작성할 때는, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트명</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용 용도</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스트링 이름(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘버링 형식)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로 기재해주세요.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; system</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; character</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; skill</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; item</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; dialog</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt; story</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1393,8 +1810,168 @@
       <name val="Arial Unicode MS"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1434,6 +2011,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,7 +2124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1592,6 +2175,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1806,6 +2399,285 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EFF124-ACE2-4719-AA18-3ED5E3FDF9E4}">
+  <dimension ref="A1:AB55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="28" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" s="32" customFormat="1"/>
+    <row r="2" spans="2:11" s="32" customFormat="1"/>
+    <row r="3" spans="2:11" s="32" customFormat="1">
+      <c r="B3" s="33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="32" customFormat="1"/>
+    <row r="5" spans="2:11" s="32" customFormat="1">
+      <c r="B5" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="32" customFormat="1">
+      <c r="J6" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="32" customFormat="1">
+      <c r="J7" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="32" customFormat="1">
+      <c r="J8" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="32" customFormat="1">
+      <c r="J9" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="32" customFormat="1">
+      <c r="J10" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="32" customFormat="1">
+      <c r="J11" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="32" customFormat="1">
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="2:11" s="32" customFormat="1"/>
+    <row r="14" spans="2:11" s="32" customFormat="1">
+      <c r="J14" s="37" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="32" customFormat="1">
+      <c r="J15" s="37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="32" customFormat="1">
+      <c r="J16" s="37" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="32" customFormat="1">
+      <c r="J17" s="37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="32" customFormat="1">
+      <c r="J18" s="37" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="32" customFormat="1"/>
+    <row r="20" spans="2:10" s="32" customFormat="1"/>
+    <row r="21" spans="2:10" s="32" customFormat="1"/>
+    <row r="22" spans="2:10" s="32" customFormat="1">
+      <c r="B22" s="40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="32" customFormat="1"/>
+    <row r="24" spans="2:10" s="32" customFormat="1">
+      <c r="B24" s="34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15">
+      <c r="B26" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15">
+      <c r="B31" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15">
+      <c r="B36" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="32" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15">
+      <c r="B42" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15">
+      <c r="B48" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15">
+      <c r="B53" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="13.5">
+      <c r="B55" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1813,12 +2685,12 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
@@ -1827,48 +2699,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="19" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -1888,7 +2760,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1897,17 +2769,18 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="30" t="s">
-        <v>0</v>
+      <c r="F5" s="30" t="str">
+        <f>'!_ID_RULE'!B28</f>
+        <v>범주 1 ~ 20000</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -1915,13 +2788,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" t="s">
@@ -1933,13 +2806,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -1948,13 +2821,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -1963,13 +2836,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>199</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -1978,13 +2851,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -1993,13 +2866,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4"/>
     </row>
@@ -2008,13 +2881,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4"/>
     </row>
@@ -2023,10 +2896,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2036,10 +2909,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2049,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2060,7 +2933,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2071,7 +2944,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2082,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2093,7 +2966,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2104,7 +2977,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2179,7 +3052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2187,13 +3060,13 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
@@ -2202,48 +3075,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="19" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -2263,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -2272,15 +3145,16 @@
         <v>10001</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>381</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="30" t="s">
-        <v>39</v>
+      <c r="F5" s="30" t="str">
+        <f>'!_ID_RULE'!B33</f>
+        <v>범주 20001 ~ 30000</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -2288,10 +3162,10 @@
         <v>10002</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>382</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2301,10 +3175,10 @@
         <v>10003</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2314,10 +3188,10 @@
         <v>10004</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>384</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2328,12 +3202,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B56DAE-9D40-4CC5-82CA-304E2DA30E3A}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2348,51 +3222,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="22" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="19" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2412,7 +3286,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2420,15 +3294,16 @@
         <v>100001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>302</v>
+        <v>149</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="30" t="s">
-        <v>366</v>
+      <c r="F5" s="30" t="str">
+        <f>'!_ID_RULE'!B38</f>
+        <v>범주 100001 ~ 400000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2436,15 +3311,16 @@
         <v>100002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" t="s">
-        <v>367</v>
+      <c r="F6" t="str">
+        <f>'!_ID_RULE'!B39</f>
+        <v>100001~200000: 캐릭터  /  200001~400000: 몬스터</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2452,10 +3328,10 @@
         <v>100003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>304</v>
+        <v>151</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2465,10 +3341,10 @@
         <v>100004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>305</v>
+        <v>152</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
@@ -2478,10 +3354,10 @@
         <v>100005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>306</v>
+        <v>153</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -2491,10 +3367,10 @@
         <v>100006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>307</v>
+        <v>154</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -2504,10 +3380,10 @@
         <v>100007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -2517,10 +3393,10 @@
         <v>100008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>309</v>
+        <v>156</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -2530,10 +3406,10 @@
         <v>100009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -2543,10 +3419,10 @@
         <v>100010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -2556,10 +3432,10 @@
         <v>100017</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>312</v>
+        <v>159</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -2569,10 +3445,10 @@
         <v>100018</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -2582,10 +3458,10 @@
         <v>150001</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -2595,10 +3471,10 @@
         <v>150002</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>335</v>
+        <v>163</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -2608,10 +3484,10 @@
         <v>150003</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>336</v>
+        <v>164</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -2621,10 +3497,10 @@
         <v>150004</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>341</v>
+        <v>169</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -2634,10 +3510,10 @@
         <v>150005</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>343</v>
+        <v>170</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -2647,10 +3523,10 @@
         <v>150006</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>338</v>
+        <v>166</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -2660,10 +3536,10 @@
         <v>150007</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>337</v>
+        <v>165</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -2673,10 +3549,10 @@
         <v>150008</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
@@ -2686,10 +3562,10 @@
         <v>150009</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>339</v>
+        <v>167</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
@@ -2699,10 +3575,10 @@
         <v>150010</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>340</v>
+        <v>168</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
@@ -2712,787 +3588,13 @@
         <v>150011</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
-      <c r="A1" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="13.5">
-      <c r="A2" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="5">
-        <v>30001</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="7">
-        <v>30002</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="5">
-        <v>30003</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="7">
-        <v>30004</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="5">
-        <v>30005</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" s="7">
-        <v>30006</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="5">
-        <v>30007</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="7">
-        <v>30008</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="5">
-        <v>30009</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75">
-      <c r="A14" s="7">
-        <v>30010</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75">
-      <c r="A15" s="5">
-        <v>30011</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75">
-      <c r="A16" s="7">
-        <v>30012</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="12.75">
-      <c r="A17" s="5">
-        <v>30013</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.5">
-      <c r="A18" s="7">
-        <v>30014</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="12.75">
-      <c r="A19" s="5">
-        <v>30015</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" s="7">
-        <v>30016</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75">
-      <c r="A21" s="5">
-        <v>30017</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="12.75">
-      <c r="A22" s="7">
-        <v>30018</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="12.75">
-      <c r="A23" s="5">
-        <v>30019</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="12.75">
-      <c r="A24" s="7">
-        <v>30020</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="12.75">
-      <c r="A25" s="5">
-        <v>30021</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="12.75">
-      <c r="A26" s="7">
-        <v>30022</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="12.75">
-      <c r="A27" s="4">
-        <v>31001</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="12.75">
-      <c r="A28" s="4">
-        <v>31002</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75">
-      <c r="A29" s="4">
-        <v>31003</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="12.75">
-      <c r="A30" s="4">
-        <v>32001</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75">
-      <c r="A31" s="4">
-        <v>32002</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" s="4">
-        <v>32003</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75">
-      <c r="A33" s="4">
-        <v>32004</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" s="4">
-        <v>32005</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="12.75">
-      <c r="A35" s="4">
-        <v>32006</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="12.75">
-      <c r="A36" s="4">
-        <v>32007</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="12.75">
-      <c r="A37" s="4">
-        <v>32008</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="4">
-        <v>32009</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="4">
-        <v>32010</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="4">
-        <v>32011</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="4">
-        <v>32012</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="4">
-        <v>32013</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="4">
-        <v>32014</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="4">
-        <v>32015</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="4">
-        <v>32016</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="4">
-        <v>32017</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="4">
-        <v>32018</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="4">
-        <v>32019</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="4">
-        <v>32020</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="4">
-        <v>32021</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="4">
-        <v>32022</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="4">
-        <v>32023</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="4">
-        <v>32024</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="4">
-        <v>32025</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="4">
-        <v>32026</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="4">
-        <v>32027</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3501,20 +3603,796 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="12.75">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="13.5">
+      <c r="A2" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75">
+      <c r="A5" s="5">
+        <v>30001</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="30" t="str">
+        <f>'!_ID_RULE'!B44</f>
+        <v>범주 30001 ~ 40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75">
+      <c r="A6" s="7">
+        <v>30002</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" t="str">
+        <f>'!_ID_RULE'!B45</f>
+        <v>아이템 명, 장비 명, 조각 이름</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75">
+      <c r="A7" s="5">
+        <v>30003</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75">
+      <c r="A8" s="7">
+        <v>30004</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75">
+      <c r="A9" s="5">
+        <v>30005</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
+      <c r="A10" s="7">
+        <v>30006</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75">
+      <c r="A11" s="5">
+        <v>30007</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75">
+      <c r="A12" s="7">
+        <v>30008</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75">
+      <c r="A13" s="5">
+        <v>30009</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75">
+      <c r="A14" s="7">
+        <v>30010</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75">
+      <c r="A15" s="5">
+        <v>30011</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.75">
+      <c r="A16" s="7">
+        <v>30012</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75">
+      <c r="A17" s="5">
+        <v>30013</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="13.5">
+      <c r="A18" s="7">
+        <v>30014</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75">
+      <c r="A19" s="5">
+        <v>30015</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75">
+      <c r="A20" s="7">
+        <v>30016</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="12.75">
+      <c r="A21" s="5">
+        <v>30017</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="12.75">
+      <c r="A22" s="7">
+        <v>30018</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" ht="12.75">
+      <c r="A23" s="5">
+        <v>30019</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75">
+      <c r="A24" s="7">
+        <v>30020</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="12.75">
+      <c r="A25" s="5">
+        <v>30021</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" ht="12.75">
+      <c r="A26" s="7">
+        <v>30022</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" ht="12.75">
+      <c r="A27" s="4">
+        <v>31001</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="12.75">
+      <c r="A28" s="4">
+        <v>31002</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75">
+      <c r="A29" s="4">
+        <v>31003</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.75">
+      <c r="A30" s="4">
+        <v>32001</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75">
+      <c r="A31" s="4">
+        <v>32002</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="12.75">
+      <c r="A32" s="4">
+        <v>32003</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.75">
+      <c r="A33" s="4">
+        <v>32004</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.75">
+      <c r="A34" s="4">
+        <v>32005</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="12.75">
+      <c r="A35" s="4">
+        <v>32006</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.75">
+      <c r="A36" s="4">
+        <v>32007</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="12.75">
+      <c r="A37" s="4">
+        <v>32008</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="4">
+        <v>32009</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="4">
+        <v>32010</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="4">
+        <v>32011</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="4">
+        <v>32012</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="4">
+        <v>32013</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="4">
+        <v>32014</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="4">
+        <v>32015</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="4">
+        <v>32016</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="4">
+        <v>32017</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="4">
+        <v>32018</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="4">
+        <v>32019</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="4">
+        <v>32020</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="4">
+        <v>32021</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="4">
+        <v>32022</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="4">
+        <v>32023</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="4">
+        <v>32024</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="4">
+        <v>32025</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="4">
+        <v>32026</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="4">
+        <v>32027</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.140625" customWidth="1"/>
     <col min="5" max="5" width="81.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -3522,48 +4400,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="19" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -3583,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -3591,26 +4469,27 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5">
+      <c r="F5" s="30" t="str">
+        <f>'!_ID_RULE'!B50</f>
+        <v>범주 40001 ~ 70000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="4">
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -3620,10 +4499,10 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -3633,10 +4512,10 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -3646,10 +4525,10 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>123</v>
+        <v>257</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3659,10 +4538,10 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3672,10 +4551,10 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>259</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3685,10 +4564,10 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -3698,10 +4577,10 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3711,10 +4590,10 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3724,10 +4603,10 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -3737,10 +4616,10 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -3750,10 +4629,10 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -3763,10 +4642,10 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -3776,10 +4655,10 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -3789,10 +4668,10 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -3802,10 +4681,10 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -3815,10 +4694,10 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3828,10 +4707,10 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -3841,10 +4720,10 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -3854,10 +4733,10 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -3867,10 +4746,10 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -3880,10 +4759,10 @@
         <v>40023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -3893,10 +4772,10 @@
         <v>40024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>162</v>
+        <v>86</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -3906,10 +4785,10 @@
         <v>40025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -3919,10 +4798,10 @@
         <v>40026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -3932,10 +4811,10 @@
         <v>40027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3945,10 +4824,10 @@
         <v>40028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>169</v>
+        <v>280</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3958,10 +4837,10 @@
         <v>40029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3971,10 +4850,10 @@
         <v>40030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -3984,10 +4863,10 @@
         <v>40031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>175</v>
+        <v>283</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3997,10 +4876,10 @@
         <v>40032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>178</v>
+        <v>94</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -4010,10 +4889,10 @@
         <v>40033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>179</v>
+        <v>285</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -4023,10 +4902,10 @@
         <v>40034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -4036,10 +4915,10 @@
         <v>40035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -4049,10 +4928,10 @@
         <v>40036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>185</v>
+        <v>288</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -4062,10 +4941,10 @@
         <v>40037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -4075,10 +4954,10 @@
         <v>40038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>189</v>
+        <v>290</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4088,10 +4967,10 @@
         <v>40039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4101,10 +4980,10 @@
         <v>40040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4114,10 +4993,10 @@
         <v>40041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>195</v>
+        <v>293</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -4127,10 +5006,10 @@
         <v>40042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -4140,10 +5019,10 @@
         <v>40043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>199</v>
+        <v>295</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -4153,10 +5032,10 @@
         <v>40044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -4166,10 +5045,10 @@
         <v>40045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -4179,10 +5058,10 @@
         <v>40046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -4192,10 +5071,10 @@
         <v>40047</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -4205,10 +5084,10 @@
         <v>40048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>209</v>
+        <v>300</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -4218,10 +5097,10 @@
         <v>40049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -4231,10 +5110,10 @@
         <v>40050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>214</v>
+        <v>112</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -4244,10 +5123,10 @@
         <v>40051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -4257,10 +5136,10 @@
         <v>40052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4270,10 +5149,10 @@
         <v>40053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>219</v>
+        <v>305</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -4283,10 +5162,10 @@
         <v>40054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4296,10 +5175,10 @@
         <v>40055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>224</v>
+        <v>117</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -4309,10 +5188,10 @@
         <v>40056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -4322,10 +5201,10 @@
         <v>40057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -4335,10 +5214,10 @@
         <v>40058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>229</v>
+        <v>310</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -4348,10 +5227,10 @@
         <v>40059</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -4361,10 +5240,10 @@
         <v>40060</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>233</v>
+        <v>312</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -4374,10 +5253,10 @@
         <v>40061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>236</v>
+        <v>123</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -4387,10 +5266,10 @@
         <v>40062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -4400,10 +5279,10 @@
         <v>40063</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -4414,70 +5293,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="4" width="87" customWidth="1"/>
+    <col min="5" max="5" width="73" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>356</v>
+        <v>180</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>360</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="19" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -4497,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>359</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5">
@@ -4505,15 +5384,16 @@
         <v>70001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="29"/>
-      <c r="F5" s="30" t="s">
-        <v>358</v>
+      <c r="F5" s="30" t="str">
+        <f>'!_ID_RULE'!B55</f>
+        <v>범주 70001 ~ 100000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75">
@@ -4521,10 +5401,10 @@
         <v>70002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>244</v>
+        <v>127</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -4534,10 +5414,10 @@
         <v>70003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -4547,7 +5427,7 @@
         <v>70004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
@@ -4558,7 +5438,7 @@
         <v>70005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>320</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="13"/>
@@ -4569,7 +5449,7 @@
         <v>70006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>249</v>
+        <v>321</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13"/>
@@ -4580,7 +5460,7 @@
         <v>70007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="13"/>
@@ -4591,7 +5471,7 @@
         <v>70008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="13"/>
@@ -4602,7 +5482,7 @@
         <v>70009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>252</v>
+        <v>324</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="13"/>
@@ -4613,7 +5493,7 @@
         <v>70010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="13"/>
@@ -4624,7 +5504,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
@@ -4635,7 +5515,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="13"/>
@@ -4646,7 +5526,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="13"/>
@@ -4657,7 +5537,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="13"/>
@@ -4668,7 +5548,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
@@ -4679,7 +5559,7 @@
         <v>70016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>259</v>
+        <v>330</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="13"/>
@@ -4690,7 +5570,7 @@
         <v>70017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>260</v>
+        <v>331</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="13"/>
@@ -4701,7 +5581,7 @@
         <v>70018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="13"/>
@@ -4712,7 +5592,7 @@
         <v>70019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83184223-EA86-467A-B628-10556966D4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACAE8D4-DC7D-484F-A76F-50FB0636E7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="780" windowWidth="29025" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3135" yWindow="2370" windowWidth="34395" windowHeight="18390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="420">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -113,9 +113,6 @@
     <t>인간족</t>
   </si>
   <si>
-    <t>범주 20001 ~ 30000</t>
-  </si>
-  <si>
     <t>루시아</t>
   </si>
   <si>
@@ -128,12 +125,6 @@
     <t>유스티아</t>
   </si>
   <si>
-    <t>범주 30001 ~ 40000</t>
-  </si>
-  <si>
-    <t>아이템 명, 장비 명, 조각 이름</t>
-  </si>
-  <si>
     <t>경험치 물약(소)</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
   </si>
   <si>
     <t>나무 지팡이</t>
-  </si>
-  <si>
-    <t>범주 40001 ~ 70000</t>
   </si>
   <si>
     <t>에헷♡ 어서와. 못만나서 쓸쓸했어.</t>
@@ -643,29 +631,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>범주</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 70001 ~ 100000</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>#info</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -692,12 +657,6 @@
   <si>
     <t>Character_Data</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>범주 100001 ~ 400000</t>
-  </si>
-  <si>
-    <t>100001~200000: 캐릭터  /  200001~400000: 몬스터</t>
   </si>
   <si>
     <r>
@@ -1697,13 +1656,379 @@
   <si>
     <t>&lt;&lt; story</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 20001 ~ 40000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 40001 ~ 60000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 70001 ~ 100000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100001 ~ 130000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 130001 ~ 160000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20001~30000: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  /  30001~40000: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40001~50000: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  /  50001~60000: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>70001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>80001~90000, 조각 이름 90001~100000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_npc_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_npc_002</t>
+  </si>
+  <si>
+    <t>skill_desc_npc_003</t>
+  </si>
+  <si>
+    <t>skill_desc_npc_004</t>
+  </si>
+  <si>
+    <t>skill_desc_npc_005</t>
+  </si>
+  <si>
+    <t>강타</t>
+  </si>
+  <si>
+    <t>셀프 힐</t>
+  </si>
+  <si>
+    <t>파워 업</t>
+  </si>
+  <si>
+    <t>더블 어택</t>
+  </si>
+  <si>
+    <t>마나 쇼크</t>
+  </si>
+  <si>
+    <t>monster_name_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_002</t>
+  </si>
+  <si>
+    <t>monster_name_003</t>
+  </si>
+  <si>
+    <t>코볼트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_charPiece_0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_EqPiece_0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>루시아 조각</t>
+  </si>
+  <si>
+    <t>나무 단검 조각</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1970,8 +2295,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2020,8 +2374,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2120,19 +2486,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2185,6 +2603,34 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2400,276 +2846,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EFF124-ACE2-4719-AA18-3ED5E3FDF9E4}">
-  <dimension ref="A1:AB55"/>
+  <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="32"/>
+    <col min="1" max="1" width="9.140625" style="31"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="28" width="9.140625" style="32"/>
+    <col min="3" max="28" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="32" customFormat="1"/>
-    <row r="2" spans="2:11" s="32" customFormat="1"/>
-    <row r="3" spans="2:11" s="32" customFormat="1">
-      <c r="B3" s="33" t="s">
+    <row r="1" spans="2:11" s="31" customFormat="1"/>
+    <row r="2" spans="2:11" s="31" customFormat="1"/>
+    <row r="3" spans="2:11" s="31" customFormat="1">
+      <c r="B3" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="31" customFormat="1"/>
+    <row r="5" spans="2:11" s="31" customFormat="1">
+      <c r="B5" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="31" customFormat="1">
+      <c r="J6" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="31" customFormat="1">
+      <c r="J7" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="31" customFormat="1">
+      <c r="J8" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="31" customFormat="1">
+      <c r="J9" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="31" customFormat="1">
+      <c r="J10" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="31" customFormat="1">
+      <c r="J11" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="31" customFormat="1">
+      <c r="B12" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="2:11" s="31" customFormat="1"/>
+    <row r="14" spans="2:11" s="31" customFormat="1">
+      <c r="B14" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="31" customFormat="1">
+      <c r="B15" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="31" customFormat="1" ht="15">
+      <c r="B16" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="31" customFormat="1">
+      <c r="B17" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="31" customFormat="1">
+      <c r="B18" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="31" customFormat="1">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:10" s="31" customFormat="1">
+      <c r="B20" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="31" customFormat="1" ht="15">
+      <c r="B21" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="31" customFormat="1">
+      <c r="B22" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="31" customFormat="1" ht="13.5">
+      <c r="B23" s="29" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="32" customFormat="1"/>
-    <row r="5" spans="2:11" s="32" customFormat="1">
-      <c r="B5" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="32" customFormat="1">
-      <c r="J6" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="32" customFormat="1">
-      <c r="J7" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="32" customFormat="1">
-      <c r="J8" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="32" customFormat="1">
-      <c r="J9" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="32" customFormat="1">
-      <c r="J10" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="32" customFormat="1">
-      <c r="J11" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="32" customFormat="1">
-      <c r="J12" s="35"/>
-    </row>
-    <row r="13" spans="2:11" s="32" customFormat="1"/>
-    <row r="14" spans="2:11" s="32" customFormat="1">
-      <c r="J14" s="37" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="32" customFormat="1">
-      <c r="J15" s="37" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="32" customFormat="1">
-      <c r="J16" s="37" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="32" customFormat="1">
-      <c r="J17" s="37" t="s">
+    <row r="24" spans="2:10" s="31" customFormat="1" ht="13.5">
+      <c r="B24" s="36" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15">
+      <c r="B27" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="2:10" s="32" customFormat="1">
-      <c r="J18" s="37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="32" customFormat="1"/>
-    <row r="20" spans="2:10" s="32" customFormat="1"/>
-    <row r="21" spans="2:10" s="32" customFormat="1"/>
-    <row r="22" spans="2:10" s="32" customFormat="1">
-      <c r="B22" s="40" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="32" customFormat="1"/>
-    <row r="24" spans="2:10" s="32" customFormat="1">
-      <c r="B24" s="34" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="15">
-      <c r="B26" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="41" t="s">
+    <row r="28" spans="2:10">
+      <c r="B28" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="13.5">
+      <c r="B29" s="29" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="15">
-      <c r="B31" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>394</v>
+    <row r="30" spans="2:10" ht="13.5">
+      <c r="B30" s="36" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15">
-      <c r="B36" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" s="41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15">
+      <c r="B33" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="13.5">
+      <c r="B35" s="29" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="13.5">
+      <c r="B36" s="41" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15">
+      <c r="B39" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="13.5">
+      <c r="B41" s="29" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15">
-      <c r="B42" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="41" t="s">
+    <row r="42" spans="2:4">
+      <c r="B42" s="31"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="31"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15">
+      <c r="B45" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="13.5">
+      <c r="B47" s="29" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="15">
-      <c r="B48" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="28" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="15">
-      <c r="B53" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="13.5">
-      <c r="B55" s="30" t="s">
-        <v>182</v>
-      </c>
+    <row r="48" spans="2:4">
+      <c r="B48" s="31"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="31"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="31"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="31"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="31"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="31"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="31"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="31"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="31"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="31"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2685,7 +3162,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2699,48 +3176,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>176</v>
+      <c r="A3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -2759,8 +3236,8 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>183</v>
+      <c r="F4" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -2769,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -2778,17 +3255,18 @@
         <v>7</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="30" t="str">
-        <f>'!_ID_RULE'!B28</f>
+      <c r="F5" s="29" t="str">
+        <f>'!_ID_RULE'!B18</f>
         <v>범주 1 ~ 20000</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="4">
+        <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -2803,10 +3281,11 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
+        <f t="shared" ref="A7:A27" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -2818,10 +3297,11 @@
     </row>
     <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -2833,10 +3313,11 @@
     </row>
     <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -2848,10 +3329,11 @@
     </row>
     <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -2863,10 +3345,11 @@
     </row>
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -2878,10 +3361,11 @@
     </row>
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -2893,10 +3377,11 @@
     </row>
     <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -2906,10 +3391,11 @@
     </row>
     <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -2919,10 +3405,11 @@
     </row>
     <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2930,10 +3417,11 @@
     </row>
     <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -2941,10 +3429,11 @@
     </row>
     <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2952,10 +3441,11 @@
     </row>
     <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -2963,10 +3453,11 @@
     </row>
     <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2974,10 +3465,11 @@
     </row>
     <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2985,6 +3477,7 @@
     </row>
     <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="4"/>
@@ -2994,6 +3487,7 @@
     </row>
     <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="4"/>
@@ -3003,6 +3497,7 @@
     </row>
     <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="4">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
@@ -3012,6 +3507,7 @@
     </row>
     <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="4"/>
@@ -3021,6 +3517,7 @@
     </row>
     <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="4"/>
@@ -3030,6 +3527,7 @@
     </row>
     <row r="26" spans="1:5" ht="12.75">
       <c r="A26" s="4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="4"/>
@@ -3039,6 +3537,7 @@
     </row>
     <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="4">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="4"/>
@@ -3057,10 +3556,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3075,48 +3574,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>176</v>
+      <c r="A3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3135,66 +3634,128 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>183</v>
+      <c r="F4" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="5">
-        <v>10001</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>381</v>
+      <c r="A5" s="44">
+        <v>20001</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="30" t="str">
-        <f>'!_ID_RULE'!B33</f>
-        <v>범주 20001 ~ 30000</v>
+      <c r="F5" s="29" t="str">
+        <f>'!_ID_RULE'!B23</f>
+        <v>범주 20001 ~ 40000</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="7">
-        <v>10002</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>382</v>
+      <c r="A6" s="6">
+        <f>A5+1</f>
+        <v>20002</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+      <c r="F6" t="str">
+        <f>'!_ID_RULE'!B24</f>
+        <v>20001~30000: 캐릭터  /  30001~40000: 몬스터</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="5">
-        <v>10003</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>383</v>
+      <c r="A7" s="6">
+        <f t="shared" ref="A7:A8" si="0">A6+1</f>
+        <v>20003</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>376</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="7">
-        <v>10004</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="52">
+        <f t="shared" si="0"/>
+        <v>20004</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75">
+      <c r="A9" s="48">
+        <v>30001</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>410</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
+      <c r="A10" s="51">
+        <f>A9+1</f>
+        <v>30002</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75">
+      <c r="A11" s="51">
+        <f t="shared" ref="A11:A13" si="1">A10+1</f>
+        <v>30003</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75">
+      <c r="A12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3204,10 +3765,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B56DAE-9D40-4CC5-82CA-304E2DA30E3A}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3222,51 +3783,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="17"/>
+        <v>183</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="13.5">
-      <c r="A2" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>176</v>
+      <c r="A3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3285,316 +3846,519 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>183</v>
+      <c r="F4" s="26" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
-        <v>100001</v>
+      <c r="A5" s="43">
+        <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="30" t="str">
-        <f>'!_ID_RULE'!B38</f>
-        <v>범주 100001 ~ 400000</v>
+        <v>351</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="29" t="str">
+        <f>'!_ID_RULE'!B29</f>
+        <v>범주 40001 ~ 60000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4">
-        <v>100002</v>
+        <f>A5+1</f>
+        <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+        <v>352</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" t="str">
-        <f>'!_ID_RULE'!B39</f>
-        <v>100001~200000: 캐릭터  /  200001~400000: 몬스터</v>
+        <f>'!_ID_RULE'!B30</f>
+        <v>40001~50000: 캐릭터  /  50001~60000: 몬스터</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4">
-        <v>100003</v>
+        <f t="shared" ref="A7:A27" si="0">A6+1</f>
+        <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+        <v>353</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4">
-        <v>100004</v>
+        <f t="shared" si="0"/>
+        <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+        <v>354</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4">
-        <v>100005</v>
+        <f t="shared" si="0"/>
+        <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+        <v>355</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
-        <v>100006</v>
+        <f t="shared" si="0"/>
+        <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+        <v>356</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4">
-        <v>100007</v>
+        <f t="shared" si="0"/>
+        <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+        <v>357</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4">
-        <v>100008</v>
+        <f t="shared" si="0"/>
+        <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+        <v>358</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4">
-        <v>100009</v>
+        <f t="shared" si="0"/>
+        <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+        <v>359</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4">
-        <v>100010</v>
+        <f t="shared" si="0"/>
+        <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+        <v>360</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4">
-        <v>100017</v>
+        <f t="shared" si="0"/>
+        <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+        <v>361</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4">
-        <v>100018</v>
+        <f t="shared" si="0"/>
+        <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+        <v>362</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4">
-        <v>150001</v>
+        <f t="shared" si="0"/>
+        <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+        <v>363</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4">
-        <v>150002</v>
+        <f t="shared" si="0"/>
+        <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+        <v>364</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="13.5">
       <c r="A19" s="4">
-        <v>150003</v>
+        <f t="shared" si="0"/>
+        <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+        <v>365</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="13.5">
       <c r="A20" s="4">
-        <v>150004</v>
+        <f t="shared" si="0"/>
+        <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+        <v>366</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="13.5">
       <c r="A21" s="4">
-        <v>150005</v>
+        <f t="shared" si="0"/>
+        <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+        <v>367</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="13.5">
       <c r="A22" s="4">
-        <v>150006</v>
+        <f t="shared" si="0"/>
+        <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+        <v>368</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="13.5">
       <c r="A23" s="4">
-        <v>150007</v>
+        <f t="shared" si="0"/>
+        <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+        <v>369</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" ht="13.5">
       <c r="A24" s="4">
-        <v>150008</v>
+        <f t="shared" si="0"/>
+        <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+        <v>370</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" ht="13.5">
       <c r="A25" s="4">
-        <v>150009</v>
+        <f t="shared" si="0"/>
+        <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+        <v>371</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" ht="13.5">
       <c r="A26" s="4">
-        <v>150010</v>
+        <f t="shared" si="0"/>
+        <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C26" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.5">
+      <c r="A27" s="45">
+        <f t="shared" si="0"/>
+        <v>40023</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="13.5">
-      <c r="A27" s="4">
-        <v>150011</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="48">
+        <v>50001</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="51">
+        <f>A28+1</f>
+        <v>50002</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="51">
+        <f t="shared" ref="A30:A32" si="1">A29+1</f>
+        <v>50003</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="51">
+        <f t="shared" si="1"/>
+        <v>50004</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="51">
+        <f t="shared" si="1"/>
+        <v>50005</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3607,10 +4371,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3623,48 +4387,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="13.5">
-      <c r="A2" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>176</v>
+      <c r="A3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3683,694 +4447,771 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>183</v>
+      <c r="F4" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="5">
-        <v>30001</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>336</v>
+      <c r="A5" s="44">
+        <v>70001</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>329</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="30" t="str">
-        <f>'!_ID_RULE'!B44</f>
-        <v>범주 30001 ~ 40000</v>
+      <c r="F5" s="29" t="str">
+        <f>'!_ID_RULE'!B35</f>
+        <v>범주 70001 ~ 100000</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="7">
-        <v>30002</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>337</v>
+      <c r="A6" s="6">
+        <f>A5+1</f>
+        <v>70002</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" t="str">
-        <f>'!_ID_RULE'!B45</f>
-        <v>아이템 명, 장비 명, 조각 이름</v>
+        <f>'!_ID_RULE'!B36</f>
+        <v>70001~아이템 명, 장비 명 80001~90000, 조각 이름 90001~100000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="5">
-        <v>30003</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>338</v>
+      <c r="A7" s="6">
+        <f t="shared" ref="A7:A26" si="0">A6+1</f>
+        <v>70003</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="7">
-        <v>30004</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>339</v>
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>70004</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="5">
-        <v>30005</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>340</v>
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>70005</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" s="7">
-        <v>30006</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>341</v>
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>70006</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="5">
-        <v>30007</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>342</v>
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>70007</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="7">
-        <v>30008</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>343</v>
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>70008</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="5">
-        <v>30009</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>344</v>
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>70009</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="12.75">
-      <c r="A14" s="7">
-        <v>30010</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>345</v>
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>70010</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
-      <c r="A15" s="5">
-        <v>30011</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>346</v>
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>70011</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="12.75">
-      <c r="A16" s="7">
-        <v>30012</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>347</v>
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>70012</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="12.75">
-      <c r="A17" s="5">
-        <v>30013</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>348</v>
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>70013</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>341</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="13.5">
-      <c r="A18" s="7">
-        <v>30014</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>192</v>
+      <c r="A18" s="6">
+        <f t="shared" si="0"/>
+        <v>70014</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="12.75">
-      <c r="A19" s="5">
-        <v>30015</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>353</v>
+      <c r="A19" s="6">
+        <f t="shared" si="0"/>
+        <v>70015</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" s="7">
-        <v>30016</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>354</v>
+      <c r="A20" s="6">
+        <f t="shared" si="0"/>
+        <v>70016</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="12.75">
-      <c r="A21" s="5">
-        <v>30017</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>349</v>
+      <c r="A21" s="6">
+        <f t="shared" si="0"/>
+        <v>70017</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>342</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="12.75">
-      <c r="A22" s="7">
-        <v>30018</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>350</v>
+      <c r="A22" s="6">
+        <f t="shared" si="0"/>
+        <v>70018</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="12.75">
-      <c r="A23" s="5">
-        <v>30019</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>351</v>
+      <c r="A23" s="6">
+        <f t="shared" si="0"/>
+        <v>70019</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="12.75">
-      <c r="A24" s="7">
-        <v>30020</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>355</v>
+      <c r="A24" s="6">
+        <f t="shared" si="0"/>
+        <v>70020</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="12.75">
-      <c r="A25" s="5">
-        <v>30021</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>356</v>
+      <c r="A25" s="6">
+        <f t="shared" si="0"/>
+        <v>70021</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="12.75">
-      <c r="A26" s="7">
-        <v>30022</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>357</v>
+      <c r="A26" s="6">
+        <f t="shared" si="0"/>
+        <v>70022</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="12.75">
-      <c r="A27" s="4">
-        <v>31001</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="43">
+        <v>80001</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:5" ht="12.75">
+      <c r="A28" s="42">
+        <f>A27+1</f>
+        <v>80002</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75">
+      <c r="A29" s="42">
+        <f t="shared" ref="A29:A53" si="1">A28+1</f>
+        <v>80003</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.75">
+      <c r="A30" s="42">
+        <f t="shared" si="1"/>
+        <v>80004</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75">
+      <c r="A31" s="42">
+        <f t="shared" si="1"/>
+        <v>80005</v>
+      </c>
+      <c r="B31" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="12.75">
-      <c r="A28" s="4">
-        <v>31002</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="C31" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="1:5" ht="12.75">
+      <c r="A32" s="42">
+        <f t="shared" si="1"/>
+        <v>80006</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75">
-      <c r="A29" s="4">
-        <v>31003</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="C32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.75">
+      <c r="A33" s="42">
+        <f t="shared" si="1"/>
+        <v>80007</v>
+      </c>
+      <c r="B33" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="12.75">
-      <c r="A30" s="4">
-        <v>32001</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="C33" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.75">
+      <c r="A34" s="42">
+        <f t="shared" si="1"/>
+        <v>80008</v>
+      </c>
+      <c r="B34" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75">
-      <c r="A31" s="4">
-        <v>32002</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="C34" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="42">
+        <f t="shared" si="1"/>
+        <v>80009</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" s="4">
-        <v>32003</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="C35" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="42">
+        <f t="shared" si="1"/>
+        <v>80010</v>
+      </c>
+      <c r="B36" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75">
-      <c r="A33" s="4">
-        <v>32004</v>
-      </c>
-      <c r="B33" s="4" t="s">
+      <c r="C36" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="42">
+        <f t="shared" si="1"/>
+        <v>80011</v>
+      </c>
+      <c r="B37" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" s="4">
-        <v>32005</v>
-      </c>
-      <c r="B34" s="4" t="s">
+      <c r="C37" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="42">
+        <f t="shared" si="1"/>
+        <v>80012</v>
+      </c>
+      <c r="B38" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C38" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="12.75">
-      <c r="A35" s="4">
-        <v>32006</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="42">
+        <f t="shared" si="1"/>
+        <v>80013</v>
+      </c>
+      <c r="B39" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="12.75">
-      <c r="A36" s="4">
-        <v>32007</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C39" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="42">
+        <f t="shared" si="1"/>
+        <v>80014</v>
+      </c>
+      <c r="B40" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="12.75">
-      <c r="A37" s="4">
-        <v>32008</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="C40" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="42">
+        <f t="shared" si="1"/>
+        <v>80015</v>
+      </c>
+      <c r="B41" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="4">
-        <v>32009</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="C41" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="42">
+        <f t="shared" si="1"/>
+        <v>80016</v>
+      </c>
+      <c r="B42" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="4">
-        <v>32010</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="C42" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="42">
+        <f t="shared" si="1"/>
+        <v>80017</v>
+      </c>
+      <c r="B43" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="4">
-        <v>32011</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="C43" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="42">
+        <f t="shared" si="1"/>
+        <v>80018</v>
+      </c>
+      <c r="B44" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="4">
-        <v>32012</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="C44" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="42">
+        <f t="shared" si="1"/>
+        <v>80019</v>
+      </c>
+      <c r="B45" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="4">
-        <v>32013</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="C45" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="42">
+        <f t="shared" si="1"/>
+        <v>80020</v>
+      </c>
+      <c r="B46" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="4">
-        <v>32014</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="C46" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="42">
+        <f t="shared" si="1"/>
+        <v>80021</v>
+      </c>
+      <c r="B47" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="4">
-        <v>32015</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="C47" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="42">
+        <f t="shared" si="1"/>
+        <v>80022</v>
+      </c>
+      <c r="B48" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="4">
-        <v>32016</v>
-      </c>
-      <c r="B45" s="4" t="s">
+      <c r="C48" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="42">
+        <f t="shared" si="1"/>
+        <v>80023</v>
+      </c>
+      <c r="B49" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="4">
-        <v>32017</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="C49" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="42">
+        <f t="shared" si="1"/>
+        <v>80024</v>
+      </c>
+      <c r="B50" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="4">
-        <v>32018</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="C50" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="42">
+        <f t="shared" si="1"/>
+        <v>80025</v>
+      </c>
+      <c r="B51" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="4">
-        <v>32019</v>
-      </c>
-      <c r="B48" s="4" t="s">
+      <c r="C51" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="42">
+        <f t="shared" si="1"/>
+        <v>80026</v>
+      </c>
+      <c r="B52" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="4">
-        <v>32020</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="C52" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="42">
+        <f t="shared" si="1"/>
+        <v>80027</v>
+      </c>
+      <c r="B53" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="4">
-        <v>32021</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="4">
-        <v>32022</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="4">
-        <v>32023</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="C53" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="4">
-        <v>32024</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="4">
-        <v>32025</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>250</v>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:5" ht="12.75">
+      <c r="A54" s="57">
+        <v>90001</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="4">
-        <v>32026</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>251</v>
+    <row r="55" spans="1:5" ht="12.75">
+      <c r="A55" s="6">
+        <f>A54+1</f>
+        <v>90002</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="4">
-        <v>32027</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+    <row r="56" spans="1:5" ht="12.75">
+      <c r="A56" s="6">
+        <f>A55+1</f>
+        <v>90003</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+    </row>
+    <row r="57" spans="1:5" ht="12.75">
+      <c r="A57" s="58">
+        <f>A56+1</f>
+        <v>90004</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+    </row>
+    <row r="58" spans="1:5" ht="12.75">
+      <c r="A58" s="58">
+        <f>A57+1</f>
+        <v>90005</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4400,48 +5241,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
-      <c r="A3" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>176</v>
+      <c r="A3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -4460,8 +5301,8 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>183</v>
+      <c r="F4" s="26" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -4469,16 +5310,16 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>63</v>
+        <v>246</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="30" t="str">
-        <f>'!_ID_RULE'!B50</f>
-        <v>범주 40001 ~ 70000</v>
+      <c r="F5" s="29" t="str">
+        <f>'!_ID_RULE'!B41</f>
+        <v>범주 100001 ~ 130000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
@@ -4486,10 +5327,10 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>64</v>
+        <v>247</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4499,10 +5340,10 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>65</v>
+        <v>248</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4512,10 +5353,10 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>66</v>
+        <v>249</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4525,10 +5366,10 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>67</v>
+        <v>250</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4538,10 +5379,10 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>68</v>
+        <v>251</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4551,10 +5392,10 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>69</v>
+        <v>252</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -4564,10 +5405,10 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>70</v>
+        <v>253</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4577,10 +5418,10 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>71</v>
+        <v>254</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4590,10 +5431,10 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>72</v>
+        <v>255</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4603,10 +5444,10 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>73</v>
+        <v>256</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -4616,10 +5457,10 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>74</v>
+        <v>257</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -4629,10 +5470,10 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>75</v>
+        <v>258</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -4642,10 +5483,10 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>76</v>
+        <v>259</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -4655,10 +5496,10 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>77</v>
+        <v>260</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -4668,10 +5509,10 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>78</v>
+        <v>261</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4681,10 +5522,10 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>79</v>
+        <v>262</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -4694,10 +5535,10 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>80</v>
+        <v>263</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4707,10 +5548,10 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>81</v>
+        <v>264</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4720,10 +5561,10 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>82</v>
+        <v>265</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -4733,10 +5574,10 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>83</v>
+        <v>266</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -4746,10 +5587,10 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>84</v>
+        <v>267</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -4759,10 +5600,10 @@
         <v>40023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>85</v>
+        <v>268</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -4772,10 +5613,10 @@
         <v>40024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>86</v>
+        <v>269</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -4785,10 +5626,10 @@
         <v>40025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>87</v>
+        <v>270</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -4798,10 +5639,10 @@
         <v>40026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>88</v>
+        <v>271</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -4811,10 +5652,10 @@
         <v>40027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>89</v>
+        <v>272</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -4824,10 +5665,10 @@
         <v>40028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>90</v>
+        <v>273</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -4837,10 +5678,10 @@
         <v>40029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>91</v>
+        <v>274</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -4850,10 +5691,10 @@
         <v>40030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>92</v>
+        <v>275</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -4863,10 +5704,10 @@
         <v>40031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>93</v>
+        <v>276</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -4876,10 +5717,10 @@
         <v>40032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>94</v>
+        <v>277</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -4889,10 +5730,10 @@
         <v>40033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>95</v>
+        <v>278</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -4902,10 +5743,10 @@
         <v>40034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>96</v>
+        <v>279</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -4915,10 +5756,10 @@
         <v>40035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>97</v>
+        <v>280</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -4928,10 +5769,10 @@
         <v>40036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>98</v>
+        <v>281</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -4941,10 +5782,10 @@
         <v>40037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>99</v>
+        <v>282</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -4954,10 +5795,10 @@
         <v>40038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>100</v>
+        <v>283</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -4967,10 +5808,10 @@
         <v>40039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>101</v>
+        <v>284</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -4980,10 +5821,10 @@
         <v>40040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>102</v>
+        <v>285</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -4993,10 +5834,10 @@
         <v>40041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>103</v>
+        <v>286</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -5006,10 +5847,10 @@
         <v>40042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>104</v>
+        <v>287</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -5019,10 +5860,10 @@
         <v>40043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>105</v>
+        <v>288</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -5032,10 +5873,10 @@
         <v>40044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>106</v>
+        <v>289</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -5045,10 +5886,10 @@
         <v>40045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>107</v>
+        <v>290</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -5058,10 +5899,10 @@
         <v>40046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>108</v>
+        <v>291</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -5071,10 +5912,10 @@
         <v>40047</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>109</v>
+        <v>292</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -5084,10 +5925,10 @@
         <v>40048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>110</v>
+        <v>293</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -5097,10 +5938,10 @@
         <v>40049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>111</v>
+        <v>294</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -5110,10 +5951,10 @@
         <v>40050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>112</v>
+        <v>295</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -5123,10 +5964,10 @@
         <v>40051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>113</v>
+        <v>296</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -5136,10 +5977,10 @@
         <v>40052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>114</v>
+        <v>297</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -5149,10 +5990,10 @@
         <v>40053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>115</v>
+        <v>298</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -5162,10 +6003,10 @@
         <v>40054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>116</v>
+        <v>299</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>112</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -5175,10 +6016,10 @@
         <v>40055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>117</v>
+        <v>300</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -5188,10 +6029,10 @@
         <v>40056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>118</v>
+        <v>301</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -5201,10 +6042,10 @@
         <v>40057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>119</v>
+        <v>302</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -5214,10 +6055,10 @@
         <v>40058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>120</v>
+        <v>303</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -5227,10 +6068,10 @@
         <v>40059</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>121</v>
+        <v>304</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -5240,10 +6081,10 @@
         <v>40060</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>122</v>
+        <v>305</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -5253,10 +6094,10 @@
         <v>40061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>123</v>
+        <v>306</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5266,10 +6107,10 @@
         <v>40062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>124</v>
+        <v>307</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5279,10 +6120,10 @@
         <v>40063</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>125</v>
+        <v>308</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5315,48 +6156,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
-      <c r="A3" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>176</v>
+      <c r="A3" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -5372,28 +6213,28 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.5">
+      <c r="F4" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75">
       <c r="A5" s="4">
         <v>70001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30" t="str">
-        <f>'!_ID_RULE'!B55</f>
-        <v>범주 70001 ~ 100000</v>
+        <v>309</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29" t="str">
+        <f>'!_ID_RULE'!B47</f>
+        <v>범주 130001 ~ 160000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75">
@@ -5401,202 +6242,202 @@
         <v>70002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+        <v>310</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="4">
         <v>70003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+        <v>311</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="4">
         <v>70004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+        <v>312</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="12.75">
       <c r="A9" s="4">
         <v>70005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
+        <v>313</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="12.75">
       <c r="A10" s="4">
         <v>70006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
+        <v>314</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="12.75">
       <c r="A11" s="4">
         <v>70007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+        <v>315</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="12.75">
       <c r="A12" s="4">
         <v>70008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+        <v>316</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="12.75">
       <c r="A13" s="4">
         <v>70009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+        <v>317</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="12.75">
       <c r="A14" s="4">
         <v>70010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+        <v>318</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="12.75">
       <c r="A15" s="4">
         <v>70011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+        <v>328</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="12.75">
       <c r="A16" s="4">
         <v>70012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
+        <v>319</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="4">
         <v>70013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+        <v>320</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="4">
         <v>70014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+        <v>321</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="4">
         <v>70015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
+        <v>322</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="4">
         <v>70016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+        <v>323</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="4">
         <v>70017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+        <v>324</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="4">
         <v>70018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
+        <v>325</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="4">
         <v>70019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
+        <v>326</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACAE8D4-DC7D-484F-A76F-50FB0636E7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B9D73-B020-4A59-BEF8-5DC8DCE26636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2370" windowWidth="34395" windowHeight="18390" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9885" yWindow="2640" windowWidth="26100" windowHeight="16530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="415">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -125,21 +125,6 @@
     <t>유스티아</t>
   </si>
   <si>
-    <t>경험치 물약(소)</t>
-  </si>
-  <si>
-    <t>경험치 물약(중)</t>
-  </si>
-  <si>
-    <t>경험치 물약(대)</t>
-  </si>
-  <si>
-    <t>경험치 물약(특대)</t>
-  </si>
-  <si>
-    <t>경험치 물약(극대)</t>
-  </si>
-  <si>
     <t>스테미너 물약(소)</t>
   </si>
   <si>
@@ -164,12 +149,6 @@
     <t>베리 케이크</t>
   </si>
   <si>
-    <t>던전 입장 티켓</t>
-  </si>
-  <si>
-    <t>이벤트 입장 티켓</t>
-  </si>
-  <si>
     <t>하급 정령석</t>
   </si>
   <si>
@@ -179,15 +158,6 @@
     <t>상급 정련석</t>
   </si>
   <si>
-    <t>패스 보상: 보상 선택권</t>
-  </si>
-  <si>
-    <t>패스 보상: 보상 뽑기권</t>
-  </si>
-  <si>
-    <t>패스 보상: 성장 패키지</t>
-  </si>
-  <si>
     <t>하급 정령석 조각</t>
   </si>
   <si>
@@ -465,15 +435,6 @@
   </si>
   <si>
     <t>나무 목걸이</t>
-  </si>
-  <si>
-    <t>구리 팔찌</t>
-  </si>
-  <si>
-    <t>엉성한 팔찌</t>
-  </si>
-  <si>
-    <t>나무 팔찌</t>
   </si>
   <si>
     <t>근접 전방 1명 공격 (1히트)</t>
@@ -659,59 +620,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시나리오</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스킵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>티켓</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>system_answer_accept</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1014,15 +922,6 @@
     <t>item_name_equipment_0024</t>
   </si>
   <si>
-    <t>item_name_equipment_0025</t>
-  </si>
-  <si>
-    <t>item_name_equipment_0026</t>
-  </si>
-  <si>
-    <t>item_name_equipment_0027</t>
-  </si>
-  <si>
     <t>dialog_talk_me_lucia_00001</t>
   </si>
   <si>
@@ -1360,33 +1259,6 @@
   </si>
   <si>
     <t>item_name_usingitem_0013</t>
-  </si>
-  <si>
-    <t>item_name_etcitem_0017</t>
-  </si>
-  <si>
-    <t>item_name_etcitem_0018</t>
-  </si>
-  <si>
-    <t>item_name_etcitem_0019</t>
-  </si>
-  <si>
-    <t>item_name_ticketitem_0014</t>
-  </si>
-  <si>
-    <t>item_name_ticketitem_0015</t>
-  </si>
-  <si>
-    <t>item_name_ticketitem_0016</t>
-  </si>
-  <si>
-    <t>item_name_tickeitem_0020</t>
-  </si>
-  <si>
-    <t>item_name_tickeitem_0021</t>
-  </si>
-  <si>
-    <t>item_name_tickeitem_0022</t>
   </si>
   <si>
     <t>skill_desc_pc_001</t>
@@ -2010,18 +1882,79 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>item_name_charPiece_0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_EqPiece_0001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>루시아 조각</t>
-  </si>
-  <si>
-    <t>나무 단검 조각</t>
+    <t>item_name_usingitem_0014</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0015</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0016</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0017</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0018</t>
+  </si>
+  <si>
+    <t>item_name_usingitem_0019</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0020</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0021</t>
+  </si>
+  <si>
+    <t>item_name_etcitem_0022</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(소)</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(중)</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(대)</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(특대)</t>
+  </si>
+  <si>
+    <t>경험치 물약_P(극대)</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(소)</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(중)</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(대)</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(특대)</t>
+  </si>
+  <si>
+    <t>경험치 물약_C(극대)</t>
+  </si>
+  <si>
+    <t>전투 보고서(소)</t>
+  </si>
+  <si>
+    <t>전투 보고서(중)</t>
+  </si>
+  <si>
+    <t>전투 보고서(대)</t>
+  </si>
+  <si>
+    <t>전투 보고서(특대)</t>
+  </si>
+  <si>
+    <t>전투 보고서(극대)</t>
+  </si>
+  <si>
+    <t>시나리오 스킵 티켓</t>
   </si>
 </sst>
 </file>
@@ -2387,7 +2320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2530,22 +2463,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2613,7 +2535,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2626,11 +2547,7 @@
     <xf numFmtId="0" fontId="40" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2863,109 +2780,109 @@
     <row r="2" spans="2:11" s="31" customFormat="1"/>
     <row r="3" spans="2:11" s="31" customFormat="1">
       <c r="B3" s="32" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="31" customFormat="1"/>
     <row r="5" spans="2:11" s="31" customFormat="1">
       <c r="B5" s="33" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>378</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="2:11" s="31" customFormat="1">
       <c r="J6" s="36" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:11" s="31" customFormat="1">
       <c r="J7" s="36" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:11" s="31" customFormat="1">
       <c r="J8" s="36" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="31" customFormat="1">
       <c r="J9" s="36" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:11" s="31" customFormat="1">
       <c r="J10" s="36" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="2:11" s="31" customFormat="1">
       <c r="J11" s="36" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="31" customFormat="1">
       <c r="B12" s="39" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="J12" s="34"/>
     </row>
     <row r="13" spans="2:11" s="31" customFormat="1"/>
     <row r="14" spans="2:11" s="31" customFormat="1">
       <c r="B14" s="33" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="31" customFormat="1">
       <c r="B15" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>379</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="2:11" s="31" customFormat="1" ht="15">
       <c r="B16" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="31" customFormat="1">
       <c r="B17" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="31" customFormat="1">
@@ -2973,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="31" customFormat="1">
@@ -2981,109 +2898,109 @@
     </row>
     <row r="20" spans="2:10" s="31" customFormat="1">
       <c r="B20" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="31" customFormat="1" ht="15">
       <c r="B21" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="31" customFormat="1">
       <c r="B22" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="31" customFormat="1" ht="13.5">
       <c r="B23" s="29" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="31" customFormat="1" ht="13.5">
       <c r="B24" s="36" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15">
       <c r="B27" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="13.5">
       <c r="B29" s="29" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="13.5">
       <c r="B30" s="36" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15">
       <c r="B33" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="13.5">
       <c r="B35" s="29" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="13.5">
       <c r="B36" s="41" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15">
       <c r="B39" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="13.5">
       <c r="B41" s="29" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -3094,25 +3011,25 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15">
       <c r="B45" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="13.5">
       <c r="B47" s="29" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -3176,48 +3093,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3237,7 +3154,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -3246,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -3266,7 +3183,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -3285,7 +3202,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -3301,7 +3218,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -3317,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -3333,7 +3250,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -3349,7 +3266,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -3365,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -3381,7 +3298,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -3395,7 +3312,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -3409,7 +3326,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3421,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3433,7 +3350,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3445,7 +3362,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3457,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3469,7 +3386,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3574,48 +3491,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3635,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -3644,7 +3561,7 @@
         <v>20001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
@@ -3662,7 +3579,7 @@
         <v>20002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
@@ -3680,7 +3597,7 @@
         <v>20003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
@@ -3689,12 +3606,12 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="52">
+      <c r="A8" s="51">
         <f t="shared" si="0"/>
         <v>20004</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>377</v>
+      <c r="B8" s="52" t="s">
+        <v>351</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>27</v>
@@ -3706,56 +3623,56 @@
       <c r="A9" s="48">
         <v>30001</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>410</v>
-      </c>
-      <c r="C9" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" s="51">
+      <c r="A10" s="50">
         <f>A9+1</f>
         <v>30002</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>411</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="51">
-        <f t="shared" ref="A11:A13" si="1">A10+1</f>
+      <c r="A11" s="50">
+        <f t="shared" ref="A11" si="1">A10+1</f>
         <v>30003</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="51"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3783,51 +3700,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3847,7 +3764,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3855,10 +3772,10 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -3873,10 +3790,10 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3891,10 +3808,10 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -3905,10 +3822,10 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -3919,10 +3836,10 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -3933,10 +3850,10 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -3947,10 +3864,10 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -3961,10 +3878,10 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3975,10 +3892,10 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -3989,10 +3906,10 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4003,10 +3920,10 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4017,10 +3934,10 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -4031,10 +3948,10 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>363</v>
+        <v>337</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -4045,10 +3962,10 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -4059,10 +3976,10 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -4073,10 +3990,10 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -4087,10 +4004,10 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -4101,10 +4018,10 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -4115,10 +4032,10 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -4129,10 +4046,10 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -4143,10 +4060,10 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -4157,10 +4074,10 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
@@ -4171,10 +4088,10 @@
         <v>40023</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -4183,182 +4100,182 @@
       <c r="A28" s="48">
         <v>50001</v>
       </c>
-      <c r="B28" s="50" t="s">
-        <v>400</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>405</v>
-      </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
+      <c r="B28" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="51">
+      <c r="A29" s="50">
         <f>A28+1</f>
         <v>50002</v>
       </c>
-      <c r="B29" s="50" t="s">
-        <v>401</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>406</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
+      <c r="B29" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="51">
+      <c r="A30" s="50">
         <f t="shared" ref="A30:A32" si="1">A29+1</f>
         <v>50003</v>
       </c>
-      <c r="B30" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="B30" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <f t="shared" si="1"/>
         <v>50004</v>
       </c>
-      <c r="B31" s="50" t="s">
-        <v>403</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>408</v>
-      </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
+      <c r="B31" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="51">
+      <c r="A32" s="50">
         <f t="shared" si="1"/>
         <v>50005</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>404</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>409</v>
-      </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
+      <c r="B32" s="49" t="s">
+        <v>378</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="51"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="51"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="51"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="51"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4373,8 +4290,8 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4387,48 +4304,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -4448,7 +4365,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -4457,10 +4374,10 @@
         <v>70001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>399</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4475,10 +4392,10 @@
         <v>70002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>400</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4489,14 +4406,14 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="6">
-        <f t="shared" ref="A7:A26" si="0">A6+1</f>
+        <f t="shared" ref="A7:A31" si="0">A6+1</f>
         <v>70003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>401</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4507,10 +4424,10 @@
         <v>70004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>402</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4521,10 +4438,10 @@
         <v>70005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>403</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4535,10 +4452,10 @@
         <v>70006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>404</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4549,10 +4466,10 @@
         <v>70007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>405</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -4563,10 +4480,10 @@
         <v>70008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>35</v>
+        <v>406</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4577,10 +4494,10 @@
         <v>70009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>36</v>
+        <v>407</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4591,10 +4508,10 @@
         <v>70010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>408</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4605,10 +4522,10 @@
         <v>70011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -4619,10 +4536,10 @@
         <v>70012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -4633,24 +4550,24 @@
         <v>70013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="13.5">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>70014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -4661,10 +4578,10 @@
         <v>70015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -4675,10 +4592,10 @@
         <v>70016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
+        <v>409</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4689,10 +4606,10 @@
         <v>70017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>43</v>
+        <v>410</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -4703,10 +4620,10 @@
         <v>70018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>411</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4717,10 +4634,10 @@
         <v>70019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4731,10 +4648,10 @@
         <v>70020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>46</v>
+        <v>413</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -4745,10 +4662,10 @@
         <v>70021</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -4759,191 +4676,191 @@
         <v>70022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="12.75">
-      <c r="A27" s="43">
+      <c r="A27" s="6">
+        <f t="shared" si="0"/>
+        <v>70023</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="12.75">
+      <c r="A28" s="6">
+        <f t="shared" si="0"/>
+        <v>70024</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75">
+      <c r="A29" s="6">
+        <f t="shared" si="0"/>
+        <v>70025</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.75">
+      <c r="A30" s="6">
+        <f t="shared" si="0"/>
+        <v>70026</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="12.75">
+      <c r="A31" s="6">
+        <f t="shared" si="0"/>
+        <v>70027</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" ht="12.75">
+      <c r="A32" s="43">
         <v>80001</v>
       </c>
-      <c r="B27" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="1:5" ht="12.75">
-      <c r="A28" s="42">
-        <f>A27+1</f>
+      <c r="B32" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.75">
+      <c r="A33" s="42">
+        <f>A32+1</f>
         <v>80002</v>
       </c>
-      <c r="B28" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="C28" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75">
-      <c r="A29" s="42">
-        <f t="shared" ref="A29:A53" si="1">A28+1</f>
+      <c r="B33" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.75">
+      <c r="A34" s="42">
+        <f t="shared" ref="A34:A55" si="1">A33+1</f>
         <v>80003</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-    </row>
-    <row r="30" spans="1:5" ht="12.75">
-      <c r="A30" s="42">
+      <c r="B34" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" ht="12.75">
+      <c r="A35" s="42">
         <f t="shared" si="1"/>
         <v>80004</v>
       </c>
-      <c r="B30" s="42" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75">
-      <c r="A31" s="42">
+      <c r="B35" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.75">
+      <c r="A36" s="42">
         <f t="shared" si="1"/>
         <v>80005</v>
       </c>
-      <c r="B31" s="42" t="s">
-        <v>223</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" s="42">
+      <c r="B36" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" spans="1:5" ht="12.75">
+      <c r="A37" s="42">
         <f t="shared" si="1"/>
         <v>80006</v>
       </c>
-      <c r="B32" s="42" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75">
-      <c r="A33" s="42">
+      <c r="B37" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" spans="1:5" ht="12.75">
+      <c r="A38" s="42">
         <f t="shared" si="1"/>
         <v>80007</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" s="42">
+      <c r="B38" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+    </row>
+    <row r="39" spans="1:5" ht="12.75">
+      <c r="A39" s="42">
         <f t="shared" si="1"/>
         <v>80008</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="42">
-        <f t="shared" si="1"/>
-        <v>80009</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="42">
-        <f t="shared" si="1"/>
-        <v>80010</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="42">
-        <f t="shared" si="1"/>
-        <v>80011</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="42">
-        <f t="shared" si="1"/>
-        <v>80012</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="42">
-        <f t="shared" si="1"/>
-        <v>80013</v>
-      </c>
       <c r="B39" s="42" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
@@ -4951,13 +4868,13 @@
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="42">
         <f t="shared" si="1"/>
-        <v>80014</v>
+        <v>80009</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
@@ -4965,13 +4882,13 @@
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="42">
         <f t="shared" si="1"/>
-        <v>80015</v>
+        <v>80010</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
@@ -4979,13 +4896,13 @@
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="42">
         <f t="shared" si="1"/>
-        <v>80016</v>
+        <v>80011</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -4993,13 +4910,13 @@
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="42">
         <f t="shared" si="1"/>
-        <v>80017</v>
+        <v>80012</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
@@ -5007,13 +4924,13 @@
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="42">
         <f t="shared" si="1"/>
-        <v>80018</v>
+        <v>80013</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
@@ -5021,13 +4938,13 @@
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="42">
         <f t="shared" si="1"/>
-        <v>80019</v>
+        <v>80014</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
@@ -5035,13 +4952,13 @@
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="42">
         <f t="shared" si="1"/>
-        <v>80020</v>
+        <v>80015</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
@@ -5049,13 +4966,13 @@
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="42">
         <f t="shared" si="1"/>
-        <v>80021</v>
+        <v>80016</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
@@ -5063,13 +4980,13 @@
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="42">
         <f t="shared" si="1"/>
-        <v>80022</v>
+        <v>80017</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D48" s="42"/>
       <c r="E48" s="42"/>
@@ -5077,13 +4994,13 @@
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="42">
         <f t="shared" si="1"/>
-        <v>80023</v>
+        <v>80018</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D49" s="42"/>
       <c r="E49" s="42"/>
@@ -5091,13 +5008,13 @@
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
       <c r="A50" s="42">
         <f t="shared" si="1"/>
-        <v>80024</v>
+        <v>80019</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
@@ -5105,13 +5022,13 @@
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
       <c r="A51" s="42">
         <f t="shared" si="1"/>
-        <v>80025</v>
+        <v>80020</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D51" s="42"/>
       <c r="E51" s="42"/>
@@ -5119,13 +5036,13 @@
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
       <c r="A52" s="42">
         <f t="shared" si="1"/>
-        <v>80026</v>
+        <v>80021</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D52" s="42"/>
       <c r="E52" s="42"/>
@@ -5133,85 +5050,85 @@
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
       <c r="A53" s="42">
         <f t="shared" si="1"/>
-        <v>80027</v>
+        <v>80022</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D53" s="42"/>
       <c r="E53" s="42"/>
     </row>
-    <row r="54" spans="1:5" ht="12.75">
-      <c r="A54" s="57">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="42">
+        <f t="shared" si="1"/>
+        <v>80023</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="42">
+        <f t="shared" si="1"/>
+        <v>80024</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="1:5" ht="12.75">
+      <c r="A56" s="56">
         <v>90001</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" ht="12.75">
-      <c r="A55" s="6">
-        <f>A54+1</f>
+      <c r="B56" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="12.75">
+      <c r="A57" s="6">
+        <f>A56+1</f>
         <v>90002</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" ht="12.75">
-      <c r="A56" s="6">
-        <f>A55+1</f>
+      <c r="B57" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="12.75">
+      <c r="A58" s="6">
+        <f>A57+1</f>
         <v>90003</v>
       </c>
-      <c r="B56" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-    </row>
-    <row r="57" spans="1:5" ht="12.75">
-      <c r="A57" s="58">
-        <f>A56+1</f>
-        <v>90004</v>
-      </c>
-      <c r="B57" s="60" t="s">
-        <v>416</v>
-      </c>
-      <c r="C57" s="49" t="s">
-        <v>418</v>
-      </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-    </row>
-    <row r="58" spans="1:5" ht="12.75">
-      <c r="A58" s="58">
-        <f>A57+1</f>
-        <v>90005</v>
-      </c>
-      <c r="B58" s="60" t="s">
-        <v>417</v>
-      </c>
-      <c r="C58" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
+      <c r="B58" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5241,48 +5158,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -5302,7 +5219,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -5310,10 +5227,10 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -5327,10 +5244,10 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5340,10 +5257,10 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5353,10 +5270,10 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5366,10 +5283,10 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5379,10 +5296,10 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5392,10 +5309,10 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5405,10 +5322,10 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -5418,10 +5335,10 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5431,10 +5348,10 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -5444,10 +5361,10 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -5457,10 +5374,10 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5470,10 +5387,10 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -5483,10 +5400,10 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5496,10 +5413,10 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -5509,10 +5426,10 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -5522,10 +5439,10 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -5535,10 +5452,10 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -5548,10 +5465,10 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -5561,10 +5478,10 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -5574,10 +5491,10 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -5587,10 +5504,10 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -5600,10 +5517,10 @@
         <v>40023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -5613,10 +5530,10 @@
         <v>40024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5626,10 +5543,10 @@
         <v>40025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -5639,10 +5556,10 @@
         <v>40026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -5652,10 +5569,10 @@
         <v>40027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -5665,10 +5582,10 @@
         <v>40028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -5678,10 +5595,10 @@
         <v>40029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -5691,10 +5608,10 @@
         <v>40030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -5704,10 +5621,10 @@
         <v>40031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -5717,10 +5634,10 @@
         <v>40032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -5730,10 +5647,10 @@
         <v>40033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -5743,10 +5660,10 @@
         <v>40034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -5756,10 +5673,10 @@
         <v>40035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -5769,10 +5686,10 @@
         <v>40036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -5782,10 +5699,10 @@
         <v>40037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -5795,10 +5712,10 @@
         <v>40038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -5808,10 +5725,10 @@
         <v>40039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -5821,10 +5738,10 @@
         <v>40040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -5834,10 +5751,10 @@
         <v>40041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -5847,10 +5764,10 @@
         <v>40042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -5860,10 +5777,10 @@
         <v>40043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -5873,10 +5790,10 @@
         <v>40044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -5886,10 +5803,10 @@
         <v>40045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -5899,10 +5816,10 @@
         <v>40046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -5912,10 +5829,10 @@
         <v>40047</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -5925,10 +5842,10 @@
         <v>40048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -5938,10 +5855,10 @@
         <v>40049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -5951,10 +5868,10 @@
         <v>40050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -5964,10 +5881,10 @@
         <v>40051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -5977,10 +5894,10 @@
         <v>40052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -5990,10 +5907,10 @@
         <v>40053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -6003,10 +5920,10 @@
         <v>40054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -6016,10 +5933,10 @@
         <v>40055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -6029,10 +5946,10 @@
         <v>40056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -6042,10 +5959,10 @@
         <v>40057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -6055,10 +5972,10 @@
         <v>40058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -6068,10 +5985,10 @@
         <v>40059</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -6081,10 +5998,10 @@
         <v>40060</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -6094,10 +6011,10 @@
         <v>40061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -6107,10 +6024,10 @@
         <v>40062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -6120,10 +6037,10 @@
         <v>40063</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -6156,48 +6073,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -6217,7 +6134,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -6225,10 +6142,10 @@
         <v>70001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="28"/>
@@ -6242,10 +6159,10 @@
         <v>70002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -6255,10 +6172,10 @@
         <v>70003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -6268,7 +6185,7 @@
         <v>70004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -6279,7 +6196,7 @@
         <v>70005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
@@ -6290,7 +6207,7 @@
         <v>70006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
@@ -6301,7 +6218,7 @@
         <v>70007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
@@ -6312,7 +6229,7 @@
         <v>70008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -6323,7 +6240,7 @@
         <v>70009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -6334,7 +6251,7 @@
         <v>70010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
@@ -6345,7 +6262,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="12"/>
@@ -6356,7 +6273,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12"/>
@@ -6367,7 +6284,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
@@ -6378,7 +6295,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
@@ -6389,7 +6306,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
@@ -6400,7 +6317,7 @@
         <v>70016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="12"/>
@@ -6411,7 +6328,7 @@
         <v>70017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
@@ -6422,7 +6339,7 @@
         <v>70018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
@@ -6433,7 +6350,7 @@
         <v>70019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77B9D73-B020-4A59-BEF8-5DC8DCE26636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B354D8BE-76E8-48B1-84CF-D9E9A6A91E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="2640" windowWidth="26100" windowHeight="16530" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="!item" sheetId="3" r:id="rId5"/>
     <sheet name="!dialog" sheetId="4" r:id="rId6"/>
     <sheet name="!story" sheetId="5" r:id="rId7"/>
+    <sheet name="!system_참고" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="491">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -1956,12 +1957,352 @@
   <si>
     <t>시나리오 스킵 티켓</t>
   </si>
+  <si>
+    <t>플러스 문자 포맷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이 포맷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">월 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{1}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일 포맷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}cm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신장 포맷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 레벨 {0}을 달성해야 선택할 수 있습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>적절치 않은 호감도 레벨을 선택했을때 뜨는 팝업 메시지</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>악마</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>천사</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱커</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜러</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>서포터</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐러</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>성급</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>인연 레벨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 레벨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁극 스킬 레벨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOVE_LV1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOVE_LV2</t>
+  </si>
+  <si>
+    <t>LOVE_LV3</t>
+  </si>
+  <si>
+    <t>LOVE_LV4</t>
+  </si>
+  <si>
+    <t>LOVE_LV5</t>
+  </si>
+  <si>
+    <t>호감도 레벨1 명칭</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 레벨2 명칭</t>
+  </si>
+  <si>
+    <t>호감도 레벨3 명칭</t>
+  </si>
+  <si>
+    <t>호감도 레벨4 명칭</t>
+  </si>
+  <si>
+    <t>호감도 레벨5 명칭</t>
+  </si>
+  <si>
+    <t>전투력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 방어력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 방어력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 사거리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡혈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>명중</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 회복</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 리스트 UI에서 표시될 제목</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 정보</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 정보 UI, 제목</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 정보 UI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 업</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>승급</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 강화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 강화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 강화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 전달 달성률</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전달 반응</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팟 발견</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킵하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 전달</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 팝업</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>취미</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치 상세정보</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원전달 팝업 제목</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치 팝업 제목</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비중입니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현되지 않은 내용 노티</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2257,6 +2598,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -2467,7 +2822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2548,6 +2903,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3079,7 +3438,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4290,8 +4649,8 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6058,8 +6417,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6360,4 +6719,950 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69578751-0CC4-473E-B5D3-5E39F70D05CF}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="12.75">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12.75">
+      <c r="A3" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.75">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="str">
+        <f>TEXT("+{0}","@")</f>
+        <v>+{0}</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.75">
+      <c r="A6" s="4">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="58" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75">
+      <c r="A7" s="4">
+        <f t="shared" ref="A7:A65" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="58" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="58" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="58"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="58"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="59" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="59" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="58"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.75">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="58"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="59" t="s">
+        <v>431</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="58"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="58"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="58"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="58"/>
+    </row>
+    <row r="21" spans="1:6" ht="12.75">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="58"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.75">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="58"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.75">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="59" t="s">
+        <v>437</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="58"/>
+    </row>
+    <row r="24" spans="1:6" ht="12.75">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="58"/>
+    </row>
+    <row r="25" spans="1:6" ht="12.75">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="1:6" ht="12.75">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.75">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="58"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="58"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="58" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="58"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="58"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="58"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="58"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="58"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="59" t="s">
+        <v>460</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="58"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A42" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="59" t="s">
+        <v>461</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="58"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A43" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="58"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A44" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="58"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A45" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="58"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A46" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="58" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A47" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="58" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A48" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A49" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="61" t="s">
+        <v>470</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A50" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A51" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A52" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A53" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A54" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A55" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A56" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A57" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A58" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A59" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A60" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A61" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A62" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="58" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A63" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A64" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="58" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A65" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="61" t="s">
+        <v>489</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="58" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B354D8BE-76E8-48B1-84CF-D9E9A6A91E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F573C-64EB-4E46-A8CC-483C780AD9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -3438,7 +3438,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6417,7 +6417,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -6728,8 +6728,8 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F573C-64EB-4E46-A8CC-483C780AD9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD4EDE9-0D4E-4F8F-AB37-E6511F8D4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41430" yWindow="570" windowWidth="35370" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
-    <sheet name="!system" sheetId="1" r:id="rId2"/>
-    <sheet name="!character" sheetId="2" r:id="rId3"/>
-    <sheet name="!skill" sheetId="6" r:id="rId4"/>
-    <sheet name="!item" sheetId="3" r:id="rId5"/>
-    <sheet name="!dialog" sheetId="4" r:id="rId6"/>
-    <sheet name="!story" sheetId="5" r:id="rId7"/>
+    <sheet name="system" sheetId="1" r:id="rId2"/>
+    <sheet name="character" sheetId="2" r:id="rId3"/>
+    <sheet name="skill" sheetId="6" r:id="rId4"/>
+    <sheet name="item" sheetId="3" r:id="rId5"/>
+    <sheet name="dialog" sheetId="4" r:id="rId6"/>
+    <sheet name="story" sheetId="5" r:id="rId7"/>
     <sheet name="!system_참고" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="492">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -541,10 +541,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>System_Data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -598,26 +594,6 @@
   </si>
   <si>
     <t>데이터 범위 설명</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Story_Data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dialog_Data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item_Data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_Data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Character_Data</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2295,6 +2271,34 @@
   </si>
   <si>
     <t>구현되지 않은 내용 노티</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>System_Lang_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Lang_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_Lang_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Lang_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialog_Lang_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_Lang_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>System_Etc_Lang_Data</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3124,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EFF124-ACE2-4719-AA18-3ED5E3FDF9E4}">
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3139,109 +3143,109 @@
     <row r="2" spans="2:11" s="31" customFormat="1"/>
     <row r="3" spans="2:11" s="31" customFormat="1">
       <c r="B3" s="32" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="31" customFormat="1"/>
     <row r="5" spans="2:11" s="31" customFormat="1">
       <c r="B5" s="33" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="2:11" s="31" customFormat="1">
       <c r="J6" s="36" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:11" s="31" customFormat="1">
       <c r="J7" s="36" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K7" s="33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:11" s="31" customFormat="1">
       <c r="J8" s="36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="31" customFormat="1">
       <c r="J9" s="36" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="2:11" s="31" customFormat="1">
       <c r="J10" s="36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="2:11" s="31" customFormat="1">
       <c r="J11" s="36" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="31" customFormat="1">
       <c r="B12" s="39" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J12" s="34"/>
     </row>
     <row r="13" spans="2:11" s="31" customFormat="1"/>
     <row r="14" spans="2:11" s="31" customFormat="1">
       <c r="B14" s="33" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="31" customFormat="1">
       <c r="B15" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="2:11" s="31" customFormat="1" ht="15">
       <c r="B16" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="31" customFormat="1">
       <c r="B17" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="31" customFormat="1">
@@ -3249,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="31" customFormat="1">
@@ -3257,109 +3261,109 @@
     </row>
     <row r="20" spans="2:10" s="31" customFormat="1">
       <c r="B20" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="31" customFormat="1" ht="15">
       <c r="B21" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="31" customFormat="1">
       <c r="B22" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="31" customFormat="1" ht="13.5">
       <c r="B23" s="29" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="31" customFormat="1" ht="13.5">
       <c r="B24" s="36" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15">
       <c r="B27" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="13.5">
       <c r="B29" s="29" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="13.5">
       <c r="B30" s="36" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15">
       <c r="B33" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="13.5">
       <c r="B35" s="29" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="13.5">
       <c r="B36" s="41" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15">
       <c r="B39" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="13.5">
       <c r="B41" s="29" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -3370,25 +3374,25 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15">
       <c r="B45" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="13.5">
       <c r="B47" s="29" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -3438,7 +3442,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3452,48 +3456,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>485</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3513,7 +3517,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -3522,7 +3526,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -3542,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -3561,7 +3565,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -3577,7 +3581,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -3593,7 +3597,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -3609,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -3625,7 +3629,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -3641,7 +3645,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -3657,7 +3661,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -3671,7 +3675,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -3685,7 +3689,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3697,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3709,7 +3713,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3721,7 +3725,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3733,7 +3737,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3745,7 +3749,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3835,7 +3839,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3850,48 +3854,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>486</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3911,7 +3915,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -3920,7 +3924,7 @@
         <v>20001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
@@ -3938,7 +3942,7 @@
         <v>20002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
@@ -3956,7 +3960,7 @@
         <v>20003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
@@ -3970,7 +3974,7 @@
         <v>20004</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>27</v>
@@ -3983,10 +3987,10 @@
         <v>30001</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -3997,10 +4001,10 @@
         <v>30002</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4011,10 +4015,10 @@
         <v>30003</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -4044,7 +4048,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4059,7 +4063,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>487</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>144</v>
@@ -4068,42 +4072,42 @@
     </row>
     <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4123,7 +4127,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4131,7 +4135,7 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>132</v>
@@ -4149,7 +4153,7 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>133</v>
@@ -4167,7 +4171,7 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>134</v>
@@ -4181,7 +4185,7 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>135</v>
@@ -4195,7 +4199,7 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>136</v>
@@ -4209,7 +4213,7 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>137</v>
@@ -4223,7 +4227,7 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>138</v>
@@ -4237,7 +4241,7 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>139</v>
@@ -4251,7 +4255,7 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>140</v>
@@ -4265,7 +4269,7 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>141</v>
@@ -4279,7 +4283,7 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>142</v>
@@ -4293,7 +4297,7 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>143</v>
@@ -4307,7 +4311,7 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>145</v>
@@ -4321,7 +4325,7 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>146</v>
@@ -4335,7 +4339,7 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>147</v>
@@ -4349,7 +4353,7 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>152</v>
@@ -4363,7 +4367,7 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>153</v>
@@ -4377,7 +4381,7 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>149</v>
@@ -4391,7 +4395,7 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>148</v>
@@ -4405,7 +4409,7 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>154</v>
@@ -4419,7 +4423,7 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>150</v>
@@ -4433,7 +4437,7 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>151</v>
@@ -4447,7 +4451,7 @@
         <v>40023</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C27" s="46" t="s">
         <v>155</v>
@@ -4460,10 +4464,10 @@
         <v>50001</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
@@ -4474,10 +4478,10 @@
         <v>50002</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
@@ -4488,10 +4492,10 @@
         <v>50003</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="50"/>
@@ -4502,10 +4506,10 @@
         <v>50004</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="50"/>
@@ -4516,10 +4520,10 @@
         <v>50005</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
@@ -4649,8 +4653,8 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4663,48 +4667,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>488</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -4724,7 +4728,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -4733,10 +4737,10 @@
         <v>70001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4751,10 +4755,10 @@
         <v>70002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4769,10 +4773,10 @@
         <v>70003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4783,10 +4787,10 @@
         <v>70004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4797,10 +4801,10 @@
         <v>70005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4811,10 +4815,10 @@
         <v>70006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4825,10 +4829,10 @@
         <v>70007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -4839,10 +4843,10 @@
         <v>70008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4853,10 +4857,10 @@
         <v>70009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4867,10 +4871,10 @@
         <v>70010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4881,7 +4885,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>28</v>
@@ -4895,7 +4899,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
@@ -4909,7 +4913,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>30</v>
@@ -4923,7 +4927,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>31</v>
@@ -4937,7 +4941,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
@@ -4951,10 +4955,10 @@
         <v>70016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4965,10 +4969,10 @@
         <v>70017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -4979,10 +4983,10 @@
         <v>70018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4993,10 +4997,10 @@
         <v>70019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -5007,10 +5011,10 @@
         <v>70020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -5021,7 +5025,7 @@
         <v>70021</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -5035,7 +5039,7 @@
         <v>70022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>34</v>
@@ -5049,7 +5053,7 @@
         <v>70023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -5063,10 +5067,10 @@
         <v>70024</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5077,7 +5081,7 @@
         <v>70025</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -5091,7 +5095,7 @@
         <v>70026</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>37</v>
@@ -5105,7 +5109,7 @@
         <v>70027</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
@@ -5118,7 +5122,7 @@
         <v>80001</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>42</v>
@@ -5132,7 +5136,7 @@
         <v>80002</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>43</v>
@@ -5146,7 +5150,7 @@
         <v>80003</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>44</v>
@@ -5160,7 +5164,7 @@
         <v>80004</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>45</v>
@@ -5174,7 +5178,7 @@
         <v>80005</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C36" s="42" t="s">
         <v>115</v>
@@ -5188,7 +5192,7 @@
         <v>80006</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>46</v>
@@ -5202,7 +5206,7 @@
         <v>80007</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C38" s="42" t="s">
         <v>47</v>
@@ -5216,7 +5220,7 @@
         <v>80008</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>48</v>
@@ -5230,7 +5234,7 @@
         <v>80009</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>116</v>
@@ -5244,7 +5248,7 @@
         <v>80010</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>117</v>
@@ -5258,7 +5262,7 @@
         <v>80011</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>118</v>
@@ -5272,7 +5276,7 @@
         <v>80012</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>119</v>
@@ -5286,7 +5290,7 @@
         <v>80013</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>120</v>
@@ -5300,7 +5304,7 @@
         <v>80014</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C45" s="42" t="s">
         <v>121</v>
@@ -5314,7 +5318,7 @@
         <v>80015</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>122</v>
@@ -5328,7 +5332,7 @@
         <v>80016</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C47" s="42" t="s">
         <v>123</v>
@@ -5342,7 +5346,7 @@
         <v>80017</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C48" s="42" t="s">
         <v>124</v>
@@ -5356,7 +5360,7 @@
         <v>80018</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>125</v>
@@ -5370,7 +5374,7 @@
         <v>80019</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>126</v>
@@ -5384,7 +5388,7 @@
         <v>80020</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>127</v>
@@ -5398,7 +5402,7 @@
         <v>80021</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>128</v>
@@ -5412,7 +5416,7 @@
         <v>80022</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>129</v>
@@ -5426,7 +5430,7 @@
         <v>80023</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>130</v>
@@ -5440,7 +5444,7 @@
         <v>80024</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>131</v>
@@ -5453,7 +5457,7 @@
         <v>90001</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>39</v>
@@ -5467,7 +5471,7 @@
         <v>90002</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>40</v>
@@ -5481,7 +5485,7 @@
         <v>90003</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C58" s="45" t="s">
         <v>41</v>
@@ -5502,8 +5506,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5517,48 +5521,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>489</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -5578,7 +5582,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -5586,7 +5590,7 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>49</v>
@@ -5603,7 +5607,7 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>50</v>
@@ -5616,7 +5620,7 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>51</v>
@@ -5629,7 +5633,7 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>52</v>
@@ -5642,7 +5646,7 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>53</v>
@@ -5655,7 +5659,7 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>54</v>
@@ -5668,7 +5672,7 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>55</v>
@@ -5681,7 +5685,7 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>56</v>
@@ -5694,7 +5698,7 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>57</v>
@@ -5707,7 +5711,7 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>58</v>
@@ -5720,7 +5724,7 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>59</v>
@@ -5733,7 +5737,7 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>60</v>
@@ -5746,7 +5750,7 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>61</v>
@@ -5759,7 +5763,7 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>62</v>
@@ -5772,7 +5776,7 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>63</v>
@@ -5785,7 +5789,7 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>64</v>
@@ -5798,7 +5802,7 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>65</v>
@@ -5811,7 +5815,7 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>66</v>
@@ -5824,7 +5828,7 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>67</v>
@@ -5837,7 +5841,7 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>68</v>
@@ -5850,7 +5854,7 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>69</v>
@@ -5863,7 +5867,7 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>70</v>
@@ -5876,7 +5880,7 @@
         <v>40023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>71</v>
@@ -5889,7 +5893,7 @@
         <v>40024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>72</v>
@@ -5902,7 +5906,7 @@
         <v>40025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>73</v>
@@ -5915,7 +5919,7 @@
         <v>40026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>74</v>
@@ -5928,7 +5932,7 @@
         <v>40027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>75</v>
@@ -5941,7 +5945,7 @@
         <v>40028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>76</v>
@@ -5954,7 +5958,7 @@
         <v>40029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>77</v>
@@ -5967,7 +5971,7 @@
         <v>40030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>78</v>
@@ -5980,7 +5984,7 @@
         <v>40031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>79</v>
@@ -5993,7 +5997,7 @@
         <v>40032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>80</v>
@@ -6006,7 +6010,7 @@
         <v>40033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>81</v>
@@ -6019,7 +6023,7 @@
         <v>40034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>82</v>
@@ -6032,7 +6036,7 @@
         <v>40035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>83</v>
@@ -6045,7 +6049,7 @@
         <v>40036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>84</v>
@@ -6058,7 +6062,7 @@
         <v>40037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>85</v>
@@ -6071,7 +6075,7 @@
         <v>40038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>86</v>
@@ -6084,7 +6088,7 @@
         <v>40039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>87</v>
@@ -6097,7 +6101,7 @@
         <v>40040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>88</v>
@@ -6110,7 +6114,7 @@
         <v>40041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>89</v>
@@ -6123,7 +6127,7 @@
         <v>40042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>90</v>
@@ -6136,7 +6140,7 @@
         <v>40043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>91</v>
@@ -6149,7 +6153,7 @@
         <v>40044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>92</v>
@@ -6162,7 +6166,7 @@
         <v>40045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>93</v>
@@ -6175,7 +6179,7 @@
         <v>40046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>94</v>
@@ -6188,7 +6192,7 @@
         <v>40047</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>95</v>
@@ -6201,7 +6205,7 @@
         <v>40048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>96</v>
@@ -6214,7 +6218,7 @@
         <v>40049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>97</v>
@@ -6227,7 +6231,7 @@
         <v>40050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>98</v>
@@ -6240,7 +6244,7 @@
         <v>40051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>99</v>
@@ -6253,7 +6257,7 @@
         <v>40052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>100</v>
@@ -6266,7 +6270,7 @@
         <v>40053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>101</v>
@@ -6279,7 +6283,7 @@
         <v>40054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>102</v>
@@ -6292,7 +6296,7 @@
         <v>40055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>103</v>
@@ -6305,7 +6309,7 @@
         <v>40056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>104</v>
@@ -6318,7 +6322,7 @@
         <v>40057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>105</v>
@@ -6331,7 +6335,7 @@
         <v>40058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>106</v>
@@ -6344,7 +6348,7 @@
         <v>40059</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>107</v>
@@ -6357,7 +6361,7 @@
         <v>40060</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>108</v>
@@ -6370,7 +6374,7 @@
         <v>40061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>109</v>
@@ -6383,7 +6387,7 @@
         <v>40062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>110</v>
@@ -6396,7 +6400,7 @@
         <v>40063</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>111</v>
@@ -6417,8 +6421,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6432,48 +6436,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -6493,7 +6497,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -6501,7 +6505,7 @@
         <v>70001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>112</v>
@@ -6518,7 +6522,7 @@
         <v>70002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>113</v>
@@ -6531,7 +6535,7 @@
         <v>70003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>114</v>
@@ -6544,7 +6548,7 @@
         <v>70004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -6555,7 +6559,7 @@
         <v>70005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
@@ -6566,7 +6570,7 @@
         <v>70006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
@@ -6577,7 +6581,7 @@
         <v>70007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
@@ -6588,7 +6592,7 @@
         <v>70008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -6599,7 +6603,7 @@
         <v>70009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -6610,7 +6614,7 @@
         <v>70010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
@@ -6621,7 +6625,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="12"/>
@@ -6632,7 +6636,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12"/>
@@ -6643,7 +6647,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
@@ -6654,7 +6658,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
@@ -6665,7 +6669,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
@@ -6676,7 +6680,7 @@
         <v>70016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="12"/>
@@ -6687,7 +6691,7 @@
         <v>70017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
@@ -6698,7 +6702,7 @@
         <v>70018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
@@ -6709,7 +6713,7 @@
         <v>70019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
@@ -6728,8 +6732,8 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6743,48 +6747,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>491</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>161</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>159</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -6804,7 +6808,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -6820,7 +6824,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="58" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -6830,12 +6834,12 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="58" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -6845,12 +6849,12 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="58" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -6860,12 +6864,12 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="58" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -6875,12 +6879,12 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="59" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="58" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -6890,7 +6894,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="59" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="59" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -6916,7 +6920,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="59" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -6929,7 +6933,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="59" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -6942,7 +6946,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="59" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -6955,7 +6959,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="59" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -6968,7 +6972,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="60" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -6981,7 +6985,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="59" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -6994,7 +6998,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="59" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -7007,7 +7011,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="59" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -7020,7 +7024,7 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="59" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -7033,7 +7037,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="59" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -7046,7 +7050,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="59" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -7059,7 +7063,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="59" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -7072,7 +7076,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="59" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -7085,7 +7089,7 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="59" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -7098,7 +7102,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="59" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -7111,7 +7115,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="59" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -7124,7 +7128,7 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="59" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -7137,7 +7141,7 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="59" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -7150,12 +7154,12 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="58" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -7165,12 +7169,12 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="58" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
@@ -7180,12 +7184,12 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="58" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -7195,12 +7199,12 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="58" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
@@ -7210,12 +7214,12 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="58" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
@@ -7225,7 +7229,7 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="59" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -7238,7 +7242,7 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="59" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -7251,7 +7255,7 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="59" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -7264,7 +7268,7 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="59" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -7277,7 +7281,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="59" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -7290,7 +7294,7 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="59" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -7303,7 +7307,7 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="59" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -7316,7 +7320,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="59" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -7329,7 +7333,7 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="59" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -7342,7 +7346,7 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="59" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -7355,7 +7359,7 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="59" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -7368,12 +7372,12 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="59" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="58" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
@@ -7383,12 +7387,12 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="59" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="58" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
@@ -7398,12 +7402,12 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="59" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
@@ -7413,12 +7417,12 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="61" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
@@ -7428,12 +7432,12 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="61" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
@@ -7443,12 +7447,12 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="61" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
@@ -7458,12 +7462,12 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="61" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
@@ -7473,12 +7477,12 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="61" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -7488,12 +7492,12 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="61" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
@@ -7503,12 +7507,12 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="61" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
@@ -7518,12 +7522,12 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="61" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
@@ -7533,12 +7537,12 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="61" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
@@ -7548,12 +7552,12 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="61" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="58" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
@@ -7563,12 +7567,12 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="59" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="58" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
@@ -7578,12 +7582,12 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="59" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="58" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
@@ -7593,12 +7597,12 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="59" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="58" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
@@ -7608,12 +7612,12 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="59" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="58" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
@@ -7623,12 +7627,12 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="59" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="58" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
@@ -7638,12 +7642,12 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="59" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="58" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
@@ -7653,12 +7657,12 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="61" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="58" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD4EDE9-0D4E-4F8F-AB37-E6511F8D4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5A7CF3-84F7-429C-969D-4AC947708415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41430" yWindow="570" windowWidth="35370" windowHeight="15435" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="720" windowWidth="24135" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -542,9 +542,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>string</t>
@@ -2299,6 +2296,10 @@
   </si>
   <si>
     <t>System_Etc_Lang_Data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3128,8 +3129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EFF124-ACE2-4719-AA18-3ED5E3FDF9E4}">
   <dimension ref="A1:AB58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3143,109 +3144,109 @@
     <row r="2" spans="2:11" s="31" customFormat="1"/>
     <row r="3" spans="2:11" s="31" customFormat="1">
       <c r="B3" s="32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="31" customFormat="1"/>
     <row r="5" spans="2:11" s="31" customFormat="1">
       <c r="B5" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="2:11" s="31" customFormat="1">
       <c r="J6" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="37" t="s">
         <v>183</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="7" spans="2:11" s="31" customFormat="1">
       <c r="J7" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="33" t="s">
         <v>185</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:11" s="31" customFormat="1">
       <c r="J8" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:11" s="31" customFormat="1">
       <c r="J9" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="2:11" s="31" customFormat="1">
       <c r="J10" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:11" s="31" customFormat="1">
       <c r="J11" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="2:11" s="31" customFormat="1">
       <c r="B12" s="39" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J12" s="34"/>
     </row>
     <row r="13" spans="2:11" s="31" customFormat="1"/>
     <row r="14" spans="2:11" s="31" customFormat="1">
       <c r="B14" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="31" customFormat="1">
       <c r="B15" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="2:11" s="31" customFormat="1" ht="15">
       <c r="B16" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="31" customFormat="1">
       <c r="B17" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="31" customFormat="1">
@@ -3253,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="31" customFormat="1">
@@ -3261,109 +3262,109 @@
     </row>
     <row r="20" spans="2:10" s="31" customFormat="1">
       <c r="B20" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="2:10" s="31" customFormat="1" ht="15">
       <c r="B21" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="31" customFormat="1">
       <c r="B22" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="31" customFormat="1" ht="13.5">
       <c r="B23" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="31" customFormat="1" ht="13.5">
       <c r="B24" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15">
       <c r="B27" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="13.5">
       <c r="B29" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="13.5">
       <c r="B30" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15">
       <c r="B33" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="13.5">
       <c r="B35" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="13.5">
       <c r="B36" s="41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15">
       <c r="B39" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="13.5">
       <c r="B41" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -3374,25 +3375,25 @@
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15">
       <c r="B45" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="13.5">
       <c r="B47" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -3441,8 +3442,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3456,28 +3457,28 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -3485,19 +3486,19 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3517,7 +3518,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -3526,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -3546,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -3565,7 +3566,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -3581,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -3597,7 +3598,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -3613,7 +3614,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -3629,7 +3630,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -3645,7 +3646,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -3661,7 +3662,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -3675,7 +3676,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -3689,7 +3690,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3701,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3713,7 +3714,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3725,7 +3726,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3737,7 +3738,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3749,7 +3750,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3839,7 +3840,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3854,28 +3855,28 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -3883,19 +3884,19 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3915,7 +3916,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -3924,7 +3925,7 @@
         <v>20001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
@@ -3942,7 +3943,7 @@
         <v>20002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
@@ -3960,7 +3961,7 @@
         <v>20003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
@@ -3974,7 +3975,7 @@
         <v>20004</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>27</v>
@@ -3987,10 +3988,10 @@
         <v>30001</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -4001,10 +4002,10 @@
         <v>30002</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4015,10 +4016,10 @@
         <v>30003</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -4048,7 +4049,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4063,7 +4064,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>144</v>
@@ -4072,22 +4073,22 @@
     </row>
     <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4095,19 +4096,19 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4127,7 +4128,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4135,7 +4136,7 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>132</v>
@@ -4153,7 +4154,7 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>133</v>
@@ -4171,7 +4172,7 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>134</v>
@@ -4185,7 +4186,7 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>135</v>
@@ -4199,7 +4200,7 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>136</v>
@@ -4213,7 +4214,7 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>137</v>
@@ -4227,7 +4228,7 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>138</v>
@@ -4241,7 +4242,7 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>139</v>
@@ -4255,7 +4256,7 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>140</v>
@@ -4269,7 +4270,7 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>141</v>
@@ -4283,7 +4284,7 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>142</v>
@@ -4297,7 +4298,7 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>143</v>
@@ -4311,7 +4312,7 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>145</v>
@@ -4325,7 +4326,7 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>146</v>
@@ -4339,7 +4340,7 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>147</v>
@@ -4353,7 +4354,7 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>152</v>
@@ -4367,7 +4368,7 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>153</v>
@@ -4381,7 +4382,7 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>149</v>
@@ -4395,7 +4396,7 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>148</v>
@@ -4409,7 +4410,7 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>154</v>
@@ -4423,7 +4424,7 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>150</v>
@@ -4437,7 +4438,7 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>151</v>
@@ -4451,7 +4452,7 @@
         <v>40023</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C27" s="46" t="s">
         <v>155</v>
@@ -4464,10 +4465,10 @@
         <v>50001</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
@@ -4478,10 +4479,10 @@
         <v>50002</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
@@ -4492,10 +4493,10 @@
         <v>50003</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="50"/>
@@ -4506,10 +4507,10 @@
         <v>50004</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="50"/>
@@ -4520,10 +4521,10 @@
         <v>50005</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
@@ -4654,7 +4655,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4667,28 +4668,28 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -4696,19 +4697,19 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -4728,7 +4729,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -4737,10 +4738,10 @@
         <v>70001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4755,10 +4756,10 @@
         <v>70002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4773,10 +4774,10 @@
         <v>70003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4787,10 +4788,10 @@
         <v>70004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4801,10 +4802,10 @@
         <v>70005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4815,10 +4816,10 @@
         <v>70006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4829,10 +4830,10 @@
         <v>70007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -4843,10 +4844,10 @@
         <v>70008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4857,10 +4858,10 @@
         <v>70009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4871,10 +4872,10 @@
         <v>70010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4885,7 +4886,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>28</v>
@@ -4899,7 +4900,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
@@ -4913,7 +4914,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>30</v>
@@ -4927,7 +4928,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>31</v>
@@ -4941,7 +4942,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
@@ -4955,10 +4956,10 @@
         <v>70016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4969,10 +4970,10 @@
         <v>70017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -4983,10 +4984,10 @@
         <v>70018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4997,10 +4998,10 @@
         <v>70019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -5011,10 +5012,10 @@
         <v>70020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -5025,7 +5026,7 @@
         <v>70021</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -5039,7 +5040,7 @@
         <v>70022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>34</v>
@@ -5053,7 +5054,7 @@
         <v>70023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -5067,10 +5068,10 @@
         <v>70024</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5081,7 +5082,7 @@
         <v>70025</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -5095,7 +5096,7 @@
         <v>70026</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>37</v>
@@ -5109,7 +5110,7 @@
         <v>70027</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
@@ -5122,7 +5123,7 @@
         <v>80001</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>42</v>
@@ -5136,7 +5137,7 @@
         <v>80002</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>43</v>
@@ -5150,7 +5151,7 @@
         <v>80003</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>44</v>
@@ -5164,7 +5165,7 @@
         <v>80004</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>45</v>
@@ -5178,7 +5179,7 @@
         <v>80005</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" s="42" t="s">
         <v>115</v>
@@ -5192,7 +5193,7 @@
         <v>80006</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>46</v>
@@ -5206,7 +5207,7 @@
         <v>80007</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C38" s="42" t="s">
         <v>47</v>
@@ -5220,7 +5221,7 @@
         <v>80008</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>48</v>
@@ -5234,7 +5235,7 @@
         <v>80009</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>116</v>
@@ -5248,7 +5249,7 @@
         <v>80010</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>117</v>
@@ -5262,7 +5263,7 @@
         <v>80011</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>118</v>
@@ -5276,7 +5277,7 @@
         <v>80012</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>119</v>
@@ -5290,7 +5291,7 @@
         <v>80013</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>120</v>
@@ -5304,7 +5305,7 @@
         <v>80014</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C45" s="42" t="s">
         <v>121</v>
@@ -5318,7 +5319,7 @@
         <v>80015</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>122</v>
@@ -5332,7 +5333,7 @@
         <v>80016</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C47" s="42" t="s">
         <v>123</v>
@@ -5346,7 +5347,7 @@
         <v>80017</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" s="42" t="s">
         <v>124</v>
@@ -5360,7 +5361,7 @@
         <v>80018</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>125</v>
@@ -5374,7 +5375,7 @@
         <v>80019</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>126</v>
@@ -5388,7 +5389,7 @@
         <v>80020</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>127</v>
@@ -5402,7 +5403,7 @@
         <v>80021</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>128</v>
@@ -5416,7 +5417,7 @@
         <v>80022</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>129</v>
@@ -5430,7 +5431,7 @@
         <v>80023</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>130</v>
@@ -5444,7 +5445,7 @@
         <v>80024</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>131</v>
@@ -5457,7 +5458,7 @@
         <v>90001</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>39</v>
@@ -5471,7 +5472,7 @@
         <v>90002</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>40</v>
@@ -5485,7 +5486,7 @@
         <v>90003</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" s="45" t="s">
         <v>41</v>
@@ -5507,7 +5508,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5521,28 +5522,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
@@ -5550,19 +5551,19 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -5582,7 +5583,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -5590,7 +5591,7 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>49</v>
@@ -5607,7 +5608,7 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>50</v>
@@ -5620,7 +5621,7 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>51</v>
@@ -5633,7 +5634,7 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>52</v>
@@ -5646,7 +5647,7 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>53</v>
@@ -5659,7 +5660,7 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>54</v>
@@ -5672,7 +5673,7 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>55</v>
@@ -5685,7 +5686,7 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>56</v>
@@ -5698,7 +5699,7 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>57</v>
@@ -5711,7 +5712,7 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>58</v>
@@ -5724,7 +5725,7 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>59</v>
@@ -5737,7 +5738,7 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>60</v>
@@ -5750,7 +5751,7 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>61</v>
@@ -5763,7 +5764,7 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>62</v>
@@ -5776,7 +5777,7 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>63</v>
@@ -5789,7 +5790,7 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>64</v>
@@ -5802,7 +5803,7 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>65</v>
@@ -5815,7 +5816,7 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>66</v>
@@ -5828,7 +5829,7 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>67</v>
@@ -5841,7 +5842,7 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>68</v>
@@ -5854,7 +5855,7 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>69</v>
@@ -5867,7 +5868,7 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>70</v>
@@ -5880,7 +5881,7 @@
         <v>40023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>71</v>
@@ -5893,7 +5894,7 @@
         <v>40024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>72</v>
@@ -5906,7 +5907,7 @@
         <v>40025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>73</v>
@@ -5919,7 +5920,7 @@
         <v>40026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>74</v>
@@ -5932,7 +5933,7 @@
         <v>40027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>75</v>
@@ -5945,7 +5946,7 @@
         <v>40028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>76</v>
@@ -5958,7 +5959,7 @@
         <v>40029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>77</v>
@@ -5971,7 +5972,7 @@
         <v>40030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>78</v>
@@ -5984,7 +5985,7 @@
         <v>40031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>79</v>
@@ -5997,7 +5998,7 @@
         <v>40032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>80</v>
@@ -6010,7 +6011,7 @@
         <v>40033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>81</v>
@@ -6023,7 +6024,7 @@
         <v>40034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>82</v>
@@ -6036,7 +6037,7 @@
         <v>40035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>83</v>
@@ -6049,7 +6050,7 @@
         <v>40036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>84</v>
@@ -6062,7 +6063,7 @@
         <v>40037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>85</v>
@@ -6075,7 +6076,7 @@
         <v>40038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>86</v>
@@ -6088,7 +6089,7 @@
         <v>40039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>87</v>
@@ -6101,7 +6102,7 @@
         <v>40040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>88</v>
@@ -6114,7 +6115,7 @@
         <v>40041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>89</v>
@@ -6127,7 +6128,7 @@
         <v>40042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>90</v>
@@ -6140,7 +6141,7 @@
         <v>40043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>91</v>
@@ -6153,7 +6154,7 @@
         <v>40044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>92</v>
@@ -6166,7 +6167,7 @@
         <v>40045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>93</v>
@@ -6179,7 +6180,7 @@
         <v>40046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>94</v>
@@ -6192,7 +6193,7 @@
         <v>40047</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>95</v>
@@ -6205,7 +6206,7 @@
         <v>40048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>96</v>
@@ -6218,7 +6219,7 @@
         <v>40049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>97</v>
@@ -6231,7 +6232,7 @@
         <v>40050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>98</v>
@@ -6244,7 +6245,7 @@
         <v>40051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>99</v>
@@ -6257,7 +6258,7 @@
         <v>40052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>100</v>
@@ -6270,7 +6271,7 @@
         <v>40053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>101</v>
@@ -6283,7 +6284,7 @@
         <v>40054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>102</v>
@@ -6296,7 +6297,7 @@
         <v>40055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>103</v>
@@ -6309,7 +6310,7 @@
         <v>40056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>104</v>
@@ -6322,7 +6323,7 @@
         <v>40057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>105</v>
@@ -6335,7 +6336,7 @@
         <v>40058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>106</v>
@@ -6348,7 +6349,7 @@
         <v>40059</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>107</v>
@@ -6361,7 +6362,7 @@
         <v>40060</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>108</v>
@@ -6374,7 +6375,7 @@
         <v>40061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>109</v>
@@ -6387,7 +6388,7 @@
         <v>40062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>110</v>
@@ -6400,7 +6401,7 @@
         <v>40063</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>111</v>
@@ -6421,8 +6422,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6436,28 +6437,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>160</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
@@ -6465,19 +6466,19 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -6497,7 +6498,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75">
@@ -6505,7 +6506,7 @@
         <v>70001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>112</v>
@@ -6522,7 +6523,7 @@
         <v>70002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>113</v>
@@ -6535,7 +6536,7 @@
         <v>70003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>114</v>
@@ -6548,7 +6549,7 @@
         <v>70004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -6559,7 +6560,7 @@
         <v>70005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
@@ -6570,7 +6571,7 @@
         <v>70006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
@@ -6581,7 +6582,7 @@
         <v>70007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
@@ -6592,7 +6593,7 @@
         <v>70008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -6603,7 +6604,7 @@
         <v>70009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -6614,7 +6615,7 @@
         <v>70010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
@@ -6625,7 +6626,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="12"/>
@@ -6636,7 +6637,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12"/>
@@ -6647,7 +6648,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
@@ -6658,7 +6659,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
@@ -6669,7 +6670,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
@@ -6680,7 +6681,7 @@
         <v>70016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="12"/>
@@ -6691,7 +6692,7 @@
         <v>70017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
@@ -6702,7 +6703,7 @@
         <v>70018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
@@ -6713,7 +6714,7 @@
         <v>70019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
@@ -6733,7 +6734,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6747,28 +6748,28 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>160</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
@@ -6776,19 +6777,19 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -6808,7 +6809,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -6824,7 +6825,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="58" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -6834,12 +6835,12 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -6849,12 +6850,12 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -6864,12 +6865,12 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -6879,12 +6880,12 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="58" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -6894,7 +6895,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6907,7 +6908,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -6920,7 +6921,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -6933,7 +6934,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -6946,7 +6947,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -6959,7 +6960,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -6972,7 +6973,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -6985,7 +6986,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="59" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -6998,7 +6999,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -7011,7 +7012,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -7024,7 +7025,7 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="59" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -7037,7 +7038,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -7050,7 +7051,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="59" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -7063,7 +7064,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -7076,7 +7077,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -7089,7 +7090,7 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -7102,7 +7103,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -7115,7 +7116,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -7128,7 +7129,7 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -7141,7 +7142,7 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="59" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -7154,12 +7155,12 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -7169,12 +7170,12 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
@@ -7184,12 +7185,12 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="58" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -7199,12 +7200,12 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
@@ -7214,12 +7215,12 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="58" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
@@ -7229,7 +7230,7 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="59" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -7242,7 +7243,7 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -7255,7 +7256,7 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="59" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -7268,7 +7269,7 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -7281,7 +7282,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -7294,7 +7295,7 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -7307,7 +7308,7 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="59" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -7320,7 +7321,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="59" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -7333,7 +7334,7 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="59" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -7346,7 +7347,7 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="59" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -7359,7 +7360,7 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="59" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -7372,12 +7373,12 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="58" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
@@ -7387,12 +7388,12 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="59" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="58" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
@@ -7402,12 +7403,12 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
@@ -7417,12 +7418,12 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
@@ -7432,12 +7433,12 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="61" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
@@ -7447,12 +7448,12 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="61" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
@@ -7462,12 +7463,12 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="61" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
@@ -7477,12 +7478,12 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="61" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -7492,12 +7493,12 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
@@ -7507,12 +7508,12 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="61" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
@@ -7522,12 +7523,12 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="61" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
@@ -7537,12 +7538,12 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="61" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
@@ -7552,12 +7553,12 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="61" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="58" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
@@ -7567,12 +7568,12 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="59" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
@@ -7582,12 +7583,12 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="59" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
@@ -7597,12 +7598,12 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="59" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
@@ -7612,12 +7613,12 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="58" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
@@ -7627,12 +7628,12 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="59" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="58" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
@@ -7642,12 +7643,12 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="59" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="58" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
@@ -7657,12 +7658,12 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="58" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5A7CF3-84F7-429C-969D-4AC947708415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77037FCF-B789-48F0-9836-B6384E2A3F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="720" windowWidth="24135" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="497">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -815,15 +815,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>item_name_itemPiece_0001</t>
-  </si>
-  <si>
-    <t>item_name_itemPiece_0002</t>
-  </si>
-  <si>
-    <t>item_name_itemPiece_0003</t>
-  </si>
-  <si>
     <t>item_name_equipment_0001</t>
   </si>
   <si>
@@ -1194,45 +1185,6 @@
   <si>
     <t>story_narration_episode001_chapter_00011</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_name_usingitem_0001</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0002</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0003</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0004</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0005</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0006</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0007</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0008</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0009</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0010</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0011</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0012</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0013</t>
   </si>
   <si>
     <t>skill_desc_pc_001</t>
@@ -1856,33 +1808,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>item_name_usingitem_0014</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0015</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0016</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0017</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0018</t>
-  </si>
-  <si>
-    <t>item_name_usingitem_0019</t>
-  </si>
-  <si>
-    <t>item_name_etcitem_0020</t>
-  </si>
-  <si>
-    <t>item_name_etcitem_0021</t>
-  </si>
-  <si>
-    <t>item_name_etcitem_0022</t>
-  </si>
-  <si>
     <t>경험치 물약_P(소)</t>
   </si>
   <si>
@@ -2300,6 +2225,100 @@
   </si>
   <si>
     <t>key_1:string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_p_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_c_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0001</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0002</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_sta_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_name_skill_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_name_love_item_0001</t>
+  </si>
+  <si>
+    <t>item_name_love_item_0002</t>
+  </si>
+  <si>
+    <t>item_name_love_item_0003</t>
+  </si>
+  <si>
+    <t>item_name_stage_skip_ticket_0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_eq_growup_0001</t>
+  </si>
+  <si>
+    <t>item_name_eq_growup_0002</t>
+  </si>
+  <si>
+    <t>item_name_eq_growup_0003</t>
+  </si>
+  <si>
+    <t>item_name_eq_growup_piece_0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_eq_growup_piece_0002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_name_eq_growup_piece_0003</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2680,7 +2699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2814,20 +2833,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2907,7 +2917,6 @@
     <xf numFmtId="0" fontId="40" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3144,7 +3153,7 @@
     <row r="2" spans="2:11" s="31" customFormat="1"/>
     <row r="3" spans="2:11" s="31" customFormat="1">
       <c r="B3" s="32" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="31" customFormat="1"/>
@@ -3156,7 +3165,7 @@
         <v>194</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="2:11" s="31" customFormat="1">
@@ -3209,17 +3218,17 @@
     </row>
     <row r="12" spans="2:11" s="31" customFormat="1">
       <c r="B12" s="39" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="J12" s="34"/>
     </row>
     <row r="13" spans="2:11" s="31" customFormat="1"/>
     <row r="14" spans="2:11" s="31" customFormat="1">
       <c r="B14" s="33" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="2:11" s="31" customFormat="1">
@@ -3227,7 +3236,7 @@
         <v>164</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="2:11" s="31" customFormat="1" ht="15">
@@ -3235,10 +3244,10 @@
         <v>157</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="31" customFormat="1">
@@ -3246,7 +3255,7 @@
         <v>163</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="2:10" s="31" customFormat="1">
@@ -3254,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="2:10" s="31" customFormat="1">
@@ -3270,7 +3279,7 @@
         <v>157</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:10" s="31" customFormat="1">
@@ -3280,12 +3289,12 @@
     </row>
     <row r="23" spans="2:10" s="31" customFormat="1" ht="13.5">
       <c r="B23" s="29" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="2:10" s="31" customFormat="1" ht="13.5">
       <c r="B24" s="36" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="2:10">
@@ -3298,7 +3307,7 @@
         <v>157</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -3308,12 +3317,12 @@
     </row>
     <row r="29" spans="2:10" ht="13.5">
       <c r="B29" s="29" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="13.5">
       <c r="B30" s="36" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -3326,7 +3335,7 @@
         <v>157</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -3336,12 +3345,12 @@
     </row>
     <row r="35" spans="2:4" ht="13.5">
       <c r="B35" s="29" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="13.5">
       <c r="B36" s="41" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -3354,7 +3363,7 @@
         <v>157</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -3364,7 +3373,7 @@
     </row>
     <row r="41" spans="2:4" ht="13.5">
       <c r="B41" s="29" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -3383,7 +3392,7 @@
         <v>157</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -3393,7 +3402,7 @@
     </row>
     <row r="47" spans="2:4" ht="13.5">
       <c r="B47" s="29" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -3440,10 +3449,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A21" sqref="A21:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3457,7 +3466,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -3486,7 +3495,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>157</v>
@@ -3562,7 +3571,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A27" si="0">A6+1</f>
+        <f t="shared" ref="A7:A20" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3755,76 +3764,6 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="12.75">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="12.75">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="12.75">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="12.75">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="12.75">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="12.75">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3855,7 +3794,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -3884,7 +3823,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>157</v>
@@ -3925,7 +3864,7 @@
         <v>20001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
@@ -3943,7 +3882,7 @@
         <v>20002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>25</v>
@@ -3961,7 +3900,7 @@
         <v>20003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
@@ -3975,7 +3914,7 @@
         <v>20004</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="C8" s="45" t="s">
         <v>27</v>
@@ -3988,10 +3927,10 @@
         <v>30001</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
@@ -4002,10 +3941,10 @@
         <v>30002</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D10" s="50"/>
       <c r="E10" s="50"/>
@@ -4016,10 +3955,10 @@
         <v>30003</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
@@ -4064,7 +4003,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>144</v>
@@ -4096,7 +4035,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>157</v>
@@ -4136,7 +4075,7 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>132</v>
@@ -4154,7 +4093,7 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>133</v>
@@ -4172,7 +4111,7 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>134</v>
@@ -4186,7 +4125,7 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>135</v>
@@ -4200,7 +4139,7 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>136</v>
@@ -4214,7 +4153,7 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>137</v>
@@ -4228,7 +4167,7 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>138</v>
@@ -4242,7 +4181,7 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>139</v>
@@ -4256,7 +4195,7 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>140</v>
@@ -4270,7 +4209,7 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>141</v>
@@ -4284,7 +4223,7 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>142</v>
@@ -4298,7 +4237,7 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>143</v>
@@ -4312,7 +4251,7 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>145</v>
@@ -4326,7 +4265,7 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>146</v>
@@ -4340,7 +4279,7 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>147</v>
@@ -4354,7 +4293,7 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>152</v>
@@ -4368,7 +4307,7 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>153</v>
@@ -4382,7 +4321,7 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>149</v>
@@ -4396,7 +4335,7 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>148</v>
@@ -4410,7 +4349,7 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>154</v>
@@ -4424,7 +4363,7 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>150</v>
@@ -4438,7 +4377,7 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>151</v>
@@ -4452,7 +4391,7 @@
         <v>40023</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C27" s="46" t="s">
         <v>155</v>
@@ -4465,10 +4404,10 @@
         <v>50001</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="50"/>
@@ -4479,10 +4418,10 @@
         <v>50002</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="50"/>
@@ -4493,10 +4432,10 @@
         <v>50003</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="50"/>
@@ -4507,10 +4446,10 @@
         <v>50004</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="50"/>
@@ -4521,10 +4460,10 @@
         <v>50005</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="50"/>
@@ -4654,21 +4593,21 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="37.5703125" customWidth="1"/>
     <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -4697,7 +4636,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>157</v>
@@ -4738,10 +4677,10 @@
         <v>70001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -4756,10 +4695,10 @@
         <v>70002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>306</v>
+        <v>468</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4774,10 +4713,10 @@
         <v>70003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4788,10 +4727,10 @@
         <v>70004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>308</v>
+        <v>470</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4802,10 +4741,10 @@
         <v>70005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>309</v>
+        <v>471</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4816,10 +4755,10 @@
         <v>70006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>305</v>
+        <v>472</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4830,10 +4769,10 @@
         <v>70007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>306</v>
+        <v>473</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -4844,10 +4783,10 @@
         <v>70008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>307</v>
+        <v>474</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4858,10 +4797,10 @@
         <v>70009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4872,10 +4811,10 @@
         <v>70010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>309</v>
+        <v>476</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4886,7 +4825,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>310</v>
+        <v>477</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>28</v>
@@ -4900,7 +4839,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>311</v>
+        <v>478</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
@@ -4914,7 +4853,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>312</v>
+        <v>479</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>30</v>
@@ -4928,7 +4867,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>31</v>
@@ -4942,7 +4881,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>314</v>
+        <v>481</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
@@ -4956,10 +4895,10 @@
         <v>70016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>315</v>
+        <v>482</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4970,10 +4909,10 @@
         <v>70017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>316</v>
+        <v>483</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -4984,10 +4923,10 @@
         <v>70018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>317</v>
+        <v>484</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4998,10 +4937,10 @@
         <v>70019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>383</v>
+        <v>485</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -5012,10 +4951,10 @@
         <v>70020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>384</v>
+        <v>486</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -5026,7 +4965,7 @@
         <v>70021</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>385</v>
+        <v>487</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -5040,7 +4979,7 @@
         <v>70022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>386</v>
+        <v>488</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>34</v>
@@ -5054,7 +4993,7 @@
         <v>70023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>35</v>
@@ -5067,11 +5006,11 @@
         <f t="shared" si="0"/>
         <v>70024</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>388</v>
+      <c r="B28" s="4" t="s">
+        <v>490</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5082,7 +5021,7 @@
         <v>70025</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>389</v>
+        <v>491</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>36</v>
@@ -5096,7 +5035,7 @@
         <v>70026</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>390</v>
+        <v>492</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>37</v>
@@ -5110,7 +5049,7 @@
         <v>70027</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>391</v>
+        <v>493</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>38</v>
@@ -5123,7 +5062,7 @@
         <v>80001</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>42</v>
@@ -5137,7 +5076,7 @@
         <v>80002</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>43</v>
@@ -5151,7 +5090,7 @@
         <v>80003</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>44</v>
@@ -5165,7 +5104,7 @@
         <v>80004</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>45</v>
@@ -5179,7 +5118,7 @@
         <v>80005</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C36" s="42" t="s">
         <v>115</v>
@@ -5193,7 +5132,7 @@
         <v>80006</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>46</v>
@@ -5207,7 +5146,7 @@
         <v>80007</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C38" s="42" t="s">
         <v>47</v>
@@ -5221,7 +5160,7 @@
         <v>80008</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>48</v>
@@ -5235,7 +5174,7 @@
         <v>80009</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>116</v>
@@ -5249,7 +5188,7 @@
         <v>80010</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>117</v>
@@ -5263,7 +5202,7 @@
         <v>80011</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>118</v>
@@ -5277,7 +5216,7 @@
         <v>80012</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>119</v>
@@ -5291,7 +5230,7 @@
         <v>80013</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>120</v>
@@ -5305,7 +5244,7 @@
         <v>80014</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C45" s="42" t="s">
         <v>121</v>
@@ -5319,7 +5258,7 @@
         <v>80015</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>122</v>
@@ -5333,7 +5272,7 @@
         <v>80016</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C47" s="42" t="s">
         <v>123</v>
@@ -5347,7 +5286,7 @@
         <v>80017</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C48" s="42" t="s">
         <v>124</v>
@@ -5361,7 +5300,7 @@
         <v>80018</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>125</v>
@@ -5375,7 +5314,7 @@
         <v>80019</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>126</v>
@@ -5389,7 +5328,7 @@
         <v>80020</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>127</v>
@@ -5403,7 +5342,7 @@
         <v>80021</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>128</v>
@@ -5417,7 +5356,7 @@
         <v>80022</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>129</v>
@@ -5431,7 +5370,7 @@
         <v>80023</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>130</v>
@@ -5445,7 +5384,7 @@
         <v>80024</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>131</v>
@@ -5458,7 +5397,7 @@
         <v>90001</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>195</v>
+        <v>494</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>39</v>
@@ -5472,7 +5411,7 @@
         <v>90002</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>196</v>
+        <v>495</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>40</v>
@@ -5485,8 +5424,8 @@
         <f>A57+1</f>
         <v>90003</v>
       </c>
-      <c r="B58" s="57" t="s">
-        <v>197</v>
+      <c r="B58" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="C58" s="45" t="s">
         <v>41</v>
@@ -5507,7 +5446,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -5522,7 +5461,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -5551,7 +5490,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>157</v>
@@ -5591,7 +5530,7 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>49</v>
@@ -5608,7 +5547,7 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>50</v>
@@ -5621,7 +5560,7 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>51</v>
@@ -5634,7 +5573,7 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>52</v>
@@ -5647,7 +5586,7 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>53</v>
@@ -5660,7 +5599,7 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>54</v>
@@ -5673,7 +5612,7 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>55</v>
@@ -5686,7 +5625,7 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>56</v>
@@ -5699,7 +5638,7 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>57</v>
@@ -5712,7 +5651,7 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>58</v>
@@ -5725,7 +5664,7 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>59</v>
@@ -5738,7 +5677,7 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>60</v>
@@ -5751,7 +5690,7 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>61</v>
@@ -5764,7 +5703,7 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>62</v>
@@ -5777,7 +5716,7 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>63</v>
@@ -5790,7 +5729,7 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>64</v>
@@ -5803,7 +5742,7 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>65</v>
@@ -5816,7 +5755,7 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>66</v>
@@ -5829,7 +5768,7 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>67</v>
@@ -5842,7 +5781,7 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>68</v>
@@ -5855,7 +5794,7 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>69</v>
@@ -5868,7 +5807,7 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>70</v>
@@ -5881,7 +5820,7 @@
         <v>40023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>71</v>
@@ -5894,7 +5833,7 @@
         <v>40024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>72</v>
@@ -5907,7 +5846,7 @@
         <v>40025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>73</v>
@@ -5920,7 +5859,7 @@
         <v>40026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>74</v>
@@ -5933,7 +5872,7 @@
         <v>40027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>75</v>
@@ -5946,7 +5885,7 @@
         <v>40028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>76</v>
@@ -5959,7 +5898,7 @@
         <v>40029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>77</v>
@@ -5972,7 +5911,7 @@
         <v>40030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>78</v>
@@ -5985,7 +5924,7 @@
         <v>40031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>79</v>
@@ -5998,7 +5937,7 @@
         <v>40032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>80</v>
@@ -6011,7 +5950,7 @@
         <v>40033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>81</v>
@@ -6024,7 +5963,7 @@
         <v>40034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>82</v>
@@ -6037,7 +5976,7 @@
         <v>40035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>83</v>
@@ -6050,7 +5989,7 @@
         <v>40036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>84</v>
@@ -6063,7 +6002,7 @@
         <v>40037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>85</v>
@@ -6076,7 +6015,7 @@
         <v>40038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>86</v>
@@ -6089,7 +6028,7 @@
         <v>40039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>87</v>
@@ -6102,7 +6041,7 @@
         <v>40040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>88</v>
@@ -6115,7 +6054,7 @@
         <v>40041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>89</v>
@@ -6128,7 +6067,7 @@
         <v>40042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>90</v>
@@ -6141,7 +6080,7 @@
         <v>40043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>91</v>
@@ -6154,7 +6093,7 @@
         <v>40044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>92</v>
@@ -6167,7 +6106,7 @@
         <v>40045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>93</v>
@@ -6180,7 +6119,7 @@
         <v>40046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>94</v>
@@ -6193,7 +6132,7 @@
         <v>40047</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>95</v>
@@ -6206,7 +6145,7 @@
         <v>40048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>96</v>
@@ -6219,7 +6158,7 @@
         <v>40049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>97</v>
@@ -6232,7 +6171,7 @@
         <v>40050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>98</v>
@@ -6245,7 +6184,7 @@
         <v>40051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>99</v>
@@ -6258,7 +6197,7 @@
         <v>40052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>100</v>
@@ -6271,7 +6210,7 @@
         <v>40053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>101</v>
@@ -6284,7 +6223,7 @@
         <v>40054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>102</v>
@@ -6297,7 +6236,7 @@
         <v>40055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>103</v>
@@ -6310,7 +6249,7 @@
         <v>40056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>104</v>
@@ -6323,7 +6262,7 @@
         <v>40057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>105</v>
@@ -6336,7 +6275,7 @@
         <v>40058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>106</v>
@@ -6349,7 +6288,7 @@
         <v>40059</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>107</v>
@@ -6362,7 +6301,7 @@
         <v>40060</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>108</v>
@@ -6375,7 +6314,7 @@
         <v>40061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>109</v>
@@ -6388,7 +6327,7 @@
         <v>40062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>110</v>
@@ -6401,7 +6340,7 @@
         <v>40063</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>111</v>
@@ -6437,7 +6376,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -6466,7 +6405,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>157</v>
@@ -6506,7 +6445,7 @@
         <v>70001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>112</v>
@@ -6523,7 +6462,7 @@
         <v>70002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>113</v>
@@ -6536,7 +6475,7 @@
         <v>70003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>114</v>
@@ -6549,7 +6488,7 @@
         <v>70004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -6560,7 +6499,7 @@
         <v>70005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12"/>
@@ -6571,7 +6510,7 @@
         <v>70006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12"/>
@@ -6582,7 +6521,7 @@
         <v>70007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12"/>
@@ -6593,7 +6532,7 @@
         <v>70008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="12"/>
@@ -6604,7 +6543,7 @@
         <v>70009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12"/>
@@ -6615,7 +6554,7 @@
         <v>70010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12"/>
@@ -6626,7 +6565,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="12"/>
@@ -6637,7 +6576,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12"/>
@@ -6648,7 +6587,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="12"/>
@@ -6659,7 +6598,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
@@ -6670,7 +6609,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
@@ -6681,7 +6620,7 @@
         <v>70016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="12"/>
@@ -6692,7 +6631,7 @@
         <v>70017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="12"/>
@@ -6703,7 +6642,7 @@
         <v>70018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12"/>
@@ -6714,7 +6653,7 @@
         <v>70019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="12"/>
@@ -6748,7 +6687,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -6777,7 +6716,7 @@
         <v>156</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>157</v>
@@ -6824,8 +6763,8 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="58" t="s">
-        <v>408</v>
+      <c r="F5" s="57" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -6835,12 +6774,12 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="58" t="s">
-        <v>410</v>
+      <c r="F6" s="57" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -6850,12 +6789,12 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="58" t="s">
-        <v>412</v>
+      <c r="F7" s="57" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -6865,12 +6804,12 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="58" t="s">
-        <v>414</v>
+      <c r="F8" s="57" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -6879,13 +6818,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="59" t="s">
-        <v>415</v>
+      <c r="C9" s="58" t="s">
+        <v>390</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="58" t="s">
-        <v>416</v>
+      <c r="F9" s="57" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -6894,12 +6833,12 @@
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="59" t="s">
-        <v>417</v>
+      <c r="C10" s="58" t="s">
+        <v>392</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="58"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="4">
@@ -6907,12 +6846,12 @@
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="59" t="s">
-        <v>418</v>
+      <c r="C11" s="58" t="s">
+        <v>393</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="58"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="4">
@@ -6920,12 +6859,12 @@
         <v>8</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="59" t="s">
-        <v>419</v>
+      <c r="C12" s="58" t="s">
+        <v>394</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="58"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="4">
@@ -6933,12 +6872,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="59" t="s">
-        <v>420</v>
+      <c r="C13" s="58" t="s">
+        <v>395</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="58"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4">
@@ -6946,12 +6885,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="59" t="s">
-        <v>421</v>
+      <c r="C14" s="58" t="s">
+        <v>396</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="58"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4">
@@ -6959,12 +6898,12 @@
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="59" t="s">
-        <v>422</v>
+      <c r="C15" s="58" t="s">
+        <v>397</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="58"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4">
@@ -6972,12 +6911,12 @@
         <v>12</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="60" t="s">
-        <v>423</v>
+      <c r="C16" s="59" t="s">
+        <v>398</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="58"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="4">
@@ -6985,12 +6924,12 @@
         <v>13</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="59" t="s">
-        <v>424</v>
+      <c r="C17" s="58" t="s">
+        <v>399</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="58"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="4">
@@ -6998,12 +6937,12 @@
         <v>14</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="59" t="s">
-        <v>425</v>
+      <c r="C18" s="58" t="s">
+        <v>400</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="58"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6" ht="12.75">
       <c r="A19" s="4">
@@ -7011,12 +6950,12 @@
         <v>15</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="59" t="s">
-        <v>426</v>
+      <c r="C19" s="58" t="s">
+        <v>401</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="58"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="4">
@@ -7024,12 +6963,12 @@
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="59" t="s">
-        <v>427</v>
+      <c r="C20" s="58" t="s">
+        <v>402</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="58"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="4">
@@ -7037,12 +6976,12 @@
         <v>17</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="59" t="s">
-        <v>428</v>
+      <c r="C21" s="58" t="s">
+        <v>403</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="58"/>
+      <c r="F21" s="57"/>
     </row>
     <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="4">
@@ -7050,12 +6989,12 @@
         <v>18</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="59" t="s">
-        <v>429</v>
+      <c r="C22" s="58" t="s">
+        <v>404</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="58"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="4">
@@ -7063,12 +7002,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="59" t="s">
-        <v>430</v>
+      <c r="C23" s="58" t="s">
+        <v>405</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="58"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="4">
@@ -7076,12 +7015,12 @@
         <v>20</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="59" t="s">
-        <v>431</v>
+      <c r="C24" s="58" t="s">
+        <v>406</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="58"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="4">
@@ -7089,12 +7028,12 @@
         <v>21</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="59" t="s">
-        <v>432</v>
+      <c r="C25" s="58" t="s">
+        <v>407</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="58"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="4">
@@ -7102,12 +7041,12 @@
         <v>22</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="59" t="s">
-        <v>433</v>
+      <c r="C26" s="58" t="s">
+        <v>408</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="58"/>
+      <c r="F26" s="57"/>
     </row>
     <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="4">
@@ -7115,12 +7054,12 @@
         <v>23</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="59" t="s">
-        <v>434</v>
+      <c r="C27" s="58" t="s">
+        <v>409</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="58"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4">
@@ -7128,12 +7067,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="59" t="s">
-        <v>435</v>
+      <c r="C28" s="58" t="s">
+        <v>410</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="58"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="4">
@@ -7141,12 +7080,12 @@
         <v>25</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="59" t="s">
-        <v>436</v>
+      <c r="C29" s="58" t="s">
+        <v>411</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="58"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="4">
@@ -7155,12 +7094,12 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="58" t="s">
-        <v>442</v>
+      <c r="F30" s="57" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -7170,12 +7109,12 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="58" t="s">
-        <v>443</v>
+      <c r="F31" s="57" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
@@ -7185,12 +7124,12 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="58" t="s">
-        <v>444</v>
+      <c r="F32" s="57" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -7200,12 +7139,12 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="58" t="s">
-        <v>445</v>
+      <c r="F33" s="57" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
@@ -7215,12 +7154,12 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="58" t="s">
-        <v>446</v>
+      <c r="F34" s="57" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
@@ -7229,12 +7168,12 @@
         <v>31</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="59" t="s">
-        <v>447</v>
+      <c r="C35" s="58" t="s">
+        <v>422</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="58"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="4">
@@ -7242,12 +7181,12 @@
         <v>32</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="59" t="s">
-        <v>448</v>
+      <c r="C36" s="58" t="s">
+        <v>423</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="58"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="4">
@@ -7255,12 +7194,12 @@
         <v>33</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="59" t="s">
-        <v>449</v>
+      <c r="C37" s="58" t="s">
+        <v>424</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="58"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="4">
@@ -7268,12 +7207,12 @@
         <v>34</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="59" t="s">
-        <v>450</v>
+      <c r="C38" s="58" t="s">
+        <v>425</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="58"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="4">
@@ -7281,12 +7220,12 @@
         <v>35</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="59" t="s">
-        <v>451</v>
+      <c r="C39" s="58" t="s">
+        <v>426</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="58"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="4">
@@ -7294,12 +7233,12 @@
         <v>36</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="59" t="s">
-        <v>452</v>
+      <c r="C40" s="58" t="s">
+        <v>427</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="58"/>
+      <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="4">
@@ -7307,12 +7246,12 @@
         <v>37</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="59" t="s">
-        <v>453</v>
+      <c r="C41" s="58" t="s">
+        <v>428</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="58"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="4">
@@ -7320,12 +7259,12 @@
         <v>38</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="59" t="s">
-        <v>454</v>
+      <c r="C42" s="58" t="s">
+        <v>429</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="58"/>
+      <c r="F42" s="57"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="4">
@@ -7333,12 +7272,12 @@
         <v>39</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="59" t="s">
-        <v>455</v>
+      <c r="C43" s="58" t="s">
+        <v>430</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="58"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="4">
@@ -7346,12 +7285,12 @@
         <v>40</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="59" t="s">
-        <v>456</v>
+      <c r="C44" s="58" t="s">
+        <v>431</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="58"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="4">
@@ -7359,12 +7298,12 @@
         <v>41</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="59" t="s">
-        <v>457</v>
+      <c r="C45" s="58" t="s">
+        <v>432</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="58"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="4">
@@ -7372,13 +7311,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="59" t="s">
-        <v>458</v>
+      <c r="C46" s="58" t="s">
+        <v>433</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="58" t="s">
-        <v>459</v>
+      <c r="F46" s="57" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
@@ -7387,13 +7326,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="59" t="s">
-        <v>458</v>
+      <c r="C47" s="58" t="s">
+        <v>433</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="58" t="s">
-        <v>461</v>
+      <c r="F47" s="57" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
@@ -7402,13 +7341,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="59" t="s">
-        <v>460</v>
+      <c r="C48" s="58" t="s">
+        <v>435</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="58" t="s">
-        <v>462</v>
+      <c r="F48" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
@@ -7417,13 +7356,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="61" t="s">
-        <v>463</v>
+      <c r="C49" s="60" t="s">
+        <v>438</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="58" t="s">
-        <v>462</v>
+      <c r="F49" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
@@ -7432,13 +7371,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="61" t="s">
-        <v>464</v>
+      <c r="C50" s="60" t="s">
+        <v>439</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="58" t="s">
-        <v>462</v>
+      <c r="F50" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
@@ -7447,13 +7386,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="61" t="s">
-        <v>465</v>
+      <c r="C51" s="60" t="s">
+        <v>440</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="58" t="s">
-        <v>462</v>
+      <c r="F51" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
@@ -7462,13 +7401,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="61" t="s">
-        <v>466</v>
+      <c r="C52" s="60" t="s">
+        <v>441</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="58" t="s">
-        <v>462</v>
+      <c r="F52" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
@@ -7477,13 +7416,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="61" t="s">
-        <v>467</v>
+      <c r="C53" s="60" t="s">
+        <v>442</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="58" t="s">
-        <v>462</v>
+      <c r="F53" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -7492,13 +7431,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="61" t="s">
-        <v>468</v>
+      <c r="C54" s="60" t="s">
+        <v>443</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="58" t="s">
-        <v>462</v>
+      <c r="F54" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
@@ -7507,13 +7446,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="61" t="s">
-        <v>469</v>
+      <c r="C55" s="60" t="s">
+        <v>444</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="58" t="s">
-        <v>462</v>
+      <c r="F55" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
@@ -7522,13 +7461,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="61" t="s">
-        <v>470</v>
+      <c r="C56" s="60" t="s">
+        <v>445</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="58" t="s">
-        <v>462</v>
+      <c r="F56" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
@@ -7537,13 +7476,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="61" t="s">
-        <v>471</v>
+      <c r="C57" s="60" t="s">
+        <v>446</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="58" t="s">
-        <v>462</v>
+      <c r="F57" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
@@ -7552,13 +7491,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="61" t="s">
-        <v>472</v>
+      <c r="C58" s="60" t="s">
+        <v>447</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="58" t="s">
-        <v>462</v>
+      <c r="F58" s="57" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
@@ -7567,13 +7506,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="59" t="s">
-        <v>474</v>
+      <c r="C59" s="58" t="s">
+        <v>449</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="58" t="s">
-        <v>473</v>
+      <c r="F59" s="57" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
@@ -7582,13 +7521,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="59" t="s">
-        <v>475</v>
+      <c r="C60" s="58" t="s">
+        <v>450</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="58" t="s">
-        <v>473</v>
+      <c r="F60" s="57" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
@@ -7597,13 +7536,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="59" t="s">
-        <v>476</v>
+      <c r="C61" s="58" t="s">
+        <v>451</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="58" t="s">
-        <v>473</v>
+      <c r="F61" s="57" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
@@ -7612,13 +7551,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="59" t="s">
-        <v>477</v>
+      <c r="C62" s="58" t="s">
+        <v>452</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="58" t="s">
-        <v>473</v>
+      <c r="F62" s="57" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
@@ -7627,13 +7566,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="59" t="s">
-        <v>478</v>
+      <c r="C63" s="58" t="s">
+        <v>453</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="58" t="s">
-        <v>481</v>
+      <c r="F63" s="57" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
@@ -7642,13 +7581,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="59" t="s">
-        <v>479</v>
+      <c r="C64" s="58" t="s">
+        <v>454</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="58" t="s">
-        <v>480</v>
+      <c r="F64" s="57" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
@@ -7657,13 +7596,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="61" t="s">
-        <v>482</v>
+      <c r="C65" s="60" t="s">
+        <v>457</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="58" t="s">
-        <v>483</v>
+      <c r="F65" s="57" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77037FCF-B789-48F0-9836-B6384E2A3F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE386EED-9B51-463F-A249-4A306B50FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="1695" windowWidth="19275" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="554">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -117,15 +117,9 @@
     <t>루시아</t>
   </si>
   <si>
-    <t>로망스 경</t>
-  </si>
-  <si>
     <t>데이지</t>
   </si>
   <si>
-    <t>유스티아</t>
-  </si>
-  <si>
     <t>스테미너 물약(소)</t>
   </si>
   <si>
@@ -378,15 +372,6 @@
     <t>분명 용서해 주실거야.</t>
   </si>
   <si>
-    <t>옛날에 호랑이가 담배를 피웠다.</t>
-  </si>
-  <si>
-    <t>그래서 캐릭터가 담배를 피웠다.</t>
-  </si>
-  <si>
-    <t>그래서 나는 담배를 끊었다.</t>
-  </si>
-  <si>
     <t>나무 글러브</t>
   </si>
   <si>
@@ -436,9 +421,6 @@
   </si>
   <si>
     <t>나무 목걸이</t>
-  </si>
-  <si>
-    <t>근접 전방 1명 공격 (1히트)</t>
   </si>
   <si>
     <t>자신의 체력 회복</t>
@@ -494,10 +476,6 @@
       </rPr>
       <t xml:space="preserve"> 100001 ~ 400000</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>강타</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -701,7 +679,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>윈도우 제목</t>
     </r>
@@ -729,7 +707,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>다이얼</t>
     </r>
@@ -747,7 +725,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>로그</t>
     </r>
@@ -765,7 +743,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>답변</t>
     </r>
@@ -1074,60 +1052,6 @@
   </si>
   <si>
     <t>dialog_talk_me_lucia_00063</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00001</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00002</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00003</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00004</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00005</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00006</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00007</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00008</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00009</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00010</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00012</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00013</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00014</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00015</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00016</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00017</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00018</t>
-  </si>
-  <si>
-    <t>story_narration_episode001_chapter_00019</t>
   </si>
   <si>
     <r>
@@ -1183,13 +1107,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>story_narration_episode001_chapter_00011</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_desc_pc_001</t>
-  </si>
-  <si>
     <t>skill_desc_pc_002</t>
   </si>
   <si>
@@ -1235,9 +1152,6 @@
     <t>skill_name_pc_004</t>
   </si>
   <si>
-    <t>skill_name_pc_005</t>
-  </si>
-  <si>
     <t>skill_name_pc_006</t>
   </si>
   <si>
@@ -1248,9 +1162,6 @@
   </si>
   <si>
     <t>skill_name_pc_009</t>
-  </si>
-  <si>
-    <t>skill_name_pc_010</t>
   </si>
   <si>
     <t>skill_name_pc_011</t>
@@ -1283,7 +1194,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 예시 (스트링이 UI에서 출력될 용도에 따라서 구분 )</t>
     </r>
@@ -1341,7 +1252,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">스트링 아이디를 작성할 때는, </t>
     </r>
@@ -1351,7 +1262,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>시트명</t>
     </r>
@@ -2320,6 +2231,287 @@
   <si>
     <t>item_name_eq_growup_piece_0003</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_name_pc_010</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 공격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_pc_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_name_pc_005</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1존 노말</t>
+  </si>
+  <si>
+    <t>1존 하드</t>
+  </si>
+  <si>
+    <t>1존 베리 하드</t>
+  </si>
+  <si>
+    <t>2존 노말</t>
+  </si>
+  <si>
+    <t>2존 하드</t>
+  </si>
+  <si>
+    <t>2존 베리 하드</t>
+  </si>
+  <si>
+    <t>3존 노말</t>
+  </si>
+  <si>
+    <t>3존 하드</t>
+  </si>
+  <si>
+    <t>3존 베리 하드</t>
+  </si>
+  <si>
+    <t>system_name_zone_9001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포의 여왕 엘리자베스</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_zone_0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_zone_2001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_zone_0003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_zone_3001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_zone_0002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_zone_2002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_zone_3002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_zone_2003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_zone_3003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_stage_0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 2</t>
+  </si>
+  <si>
+    <t>스테이지 3</t>
+  </si>
+  <si>
+    <t>스테이지 4</t>
+  </si>
+  <si>
+    <t>스테이지 5</t>
+  </si>
+  <si>
+    <t>스테이지 6</t>
+  </si>
+  <si>
+    <t>스테이지 7</t>
+  </si>
+  <si>
+    <t>스테이지 8</t>
+  </si>
+  <si>
+    <t>스테이지 9</t>
+  </si>
+  <si>
+    <t>스테이지 10</t>
+  </si>
+  <si>
+    <t>스테이지 11</t>
+  </si>
+  <si>
+    <t>스테이지 12</t>
+  </si>
+  <si>
+    <t>스테이지 13</t>
+  </si>
+  <si>
+    <t>스테이지 14</t>
+  </si>
+  <si>
+    <t>스테이지 15</t>
+  </si>
+  <si>
+    <t>system_name_stage_0002</t>
+  </si>
+  <si>
+    <t>system_name_stage_0003</t>
+  </si>
+  <si>
+    <t>system_name_stage_0004</t>
+  </si>
+  <si>
+    <t>system_name_stage_0005</t>
+  </si>
+  <si>
+    <t>system_name_stage_0006</t>
+  </si>
+  <si>
+    <t>system_name_stage_0007</t>
+  </si>
+  <si>
+    <t>system_name_stage_0008</t>
+  </si>
+  <si>
+    <t>system_name_stage_0009</t>
+  </si>
+  <si>
+    <t>system_name_stage_0010</t>
+  </si>
+  <si>
+    <t>system_name_stage_0011</t>
+  </si>
+  <si>
+    <t>system_name_stage_0012</t>
+  </si>
+  <si>
+    <t>system_name_stage_0013</t>
+  </si>
+  <si>
+    <t>system_name_stage_0014</t>
+  </si>
+  <si>
+    <t>system_name_stage_0015</t>
+  </si>
+  <si>
+    <t>story_boss_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_recomment_level</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">권장 레벨: </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_stage_9001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level 1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_stage_9002</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>system_name_stage_9003</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>system_name_stage_9004</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>순혈 마족으로 이루어진 집단 ‘만마전’을 이끌고 있는 고위 마족. 강력한 흑마법을 사용하며, 적들의 방어를 약화시키는 능력을 가지고 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_name_0005</t>
+  </si>
+  <si>
+    <t>character_name_0006</t>
+  </si>
+  <si>
+    <t>character_name_0007</t>
+  </si>
+  <si>
+    <t>character_name_0008</t>
+  </si>
+  <si>
+    <t>character_name_0009</t>
+  </si>
+  <si>
+    <t>character_name_0010</t>
+  </si>
+  <si>
+    <t>character_name_0011</t>
+  </si>
+  <si>
+    <t>character_name_0012</t>
+  </si>
+  <si>
+    <t>character_name_0013</t>
+  </si>
+  <si>
+    <t>라일라</t>
+  </si>
+  <si>
+    <t>바이올렛</t>
+  </si>
+  <si>
+    <t>클레어</t>
+  </si>
+  <si>
+    <t>에일린</t>
+  </si>
+  <si>
+    <t>마네</t>
+  </si>
+  <si>
+    <t>츠키</t>
+  </si>
+  <si>
+    <t>엘리자베스</t>
+  </si>
+  <si>
+    <t>전열용 루시아</t>
+  </si>
+  <si>
+    <t>전열용 라일라</t>
+  </si>
+  <si>
+    <t>전열용 클레어 1</t>
+  </si>
+  <si>
+    <t>전열용 클레어 2</t>
   </si>
 </sst>
 </file>
@@ -2431,7 +2623,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2523,14 +2715,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2699,7 +2891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2811,33 +3003,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2882,7 +3052,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -2907,10 +3076,6 @@
     <xf numFmtId="0" fontId="41" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2921,6 +3086,38 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3144,299 +3341,299 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="28" width="9.140625" style="31"/>
+    <col min="3" max="28" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="31" customFormat="1"/>
-    <row r="2" spans="2:11" s="31" customFormat="1"/>
-    <row r="3" spans="2:11" s="31" customFormat="1">
-      <c r="B3" s="32" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="31" customFormat="1"/>
-    <row r="5" spans="2:11" s="31" customFormat="1">
-      <c r="B5" s="33" t="s">
+    <row r="1" spans="2:11" s="30" customFormat="1"/>
+    <row r="2" spans="2:11" s="30" customFormat="1"/>
+    <row r="3" spans="2:11" s="30" customFormat="1">
+      <c r="B3" s="31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="30" customFormat="1"/>
+    <row r="5" spans="2:11" s="30" customFormat="1">
+      <c r="B5" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="30" customFormat="1">
+      <c r="J6" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="30" customFormat="1">
+      <c r="J7" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="30" customFormat="1">
+      <c r="J8" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="30" customFormat="1">
+      <c r="J9" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="K9" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="31" customFormat="1">
-      <c r="J6" s="36" t="s">
+    </row>
+    <row r="10" spans="2:11" s="30" customFormat="1">
+      <c r="J10" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="31" customFormat="1">
-      <c r="J7" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="K7" s="33" t="s">
+      <c r="K10" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="30" customFormat="1">
+      <c r="J11" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" s="32" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="31" customFormat="1">
-      <c r="J8" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="31" customFormat="1">
-      <c r="J9" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="31" customFormat="1">
-      <c r="J10" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="31" customFormat="1">
-      <c r="J11" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="31" customFormat="1">
-      <c r="B12" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="2:11" s="31" customFormat="1"/>
-    <row r="14" spans="2:11" s="31" customFormat="1">
-      <c r="B14" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="31" customFormat="1">
+    <row r="12" spans="2:11" s="30" customFormat="1">
+      <c r="B12" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="2:11" s="30" customFormat="1"/>
+    <row r="14" spans="2:11" s="30" customFormat="1">
+      <c r="B14" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="30" customFormat="1">
       <c r="B15" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="31" customFormat="1" ht="15">
+        <v>157</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="30" customFormat="1" ht="15">
       <c r="B16" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="30" customFormat="1">
+      <c r="B17" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="30" customFormat="1">
+      <c r="B18" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="30" customFormat="1">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:10" s="30" customFormat="1">
+      <c r="B20" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="40" t="s">
-        <v>337</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="31" customFormat="1">
-      <c r="B17" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" s="31" customFormat="1">
-      <c r="B18" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="31" customFormat="1">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:10" s="31" customFormat="1">
-      <c r="B20" s="27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" s="31" customFormat="1" ht="15">
+    </row>
+    <row r="21" spans="2:10" s="30" customFormat="1" ht="15">
       <c r="B21" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="31" customFormat="1">
+        <v>150</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="30" customFormat="1">
       <c r="B22" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="31" customFormat="1" ht="13.5">
-      <c r="B23" s="29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="31" customFormat="1" ht="13.5">
-      <c r="B24" s="36" t="s">
-        <v>348</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="30" customFormat="1" ht="13.5">
+      <c r="B23" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" s="30" customFormat="1" ht="13.5">
+      <c r="B24" s="35" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15">
       <c r="B27" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>339</v>
+        <v>150</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="13.5">
-      <c r="B29" s="29" t="s">
-        <v>344</v>
+      <c r="B29" s="28" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="13.5">
-      <c r="B30" s="36" t="s">
-        <v>349</v>
+      <c r="B30" s="35" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15">
       <c r="B33" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>340</v>
+        <v>150</v>
+      </c>
+      <c r="D33" s="39" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="13.5">
-      <c r="B35" s="29" t="s">
-        <v>345</v>
+      <c r="B35" s="28" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="13.5">
-      <c r="B36" s="41" t="s">
-        <v>350</v>
+      <c r="B36" s="40" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15">
       <c r="B39" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>341</v>
+        <v>150</v>
+      </c>
+      <c r="D39" s="39" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="13.5">
-      <c r="B41" s="29" t="s">
-        <v>346</v>
+      <c r="B41" s="28" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="31"/>
+      <c r="B42" s="30"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="31"/>
+      <c r="B43" s="30"/>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15">
       <c r="B45" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>342</v>
+        <v>150</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="13.5">
-      <c r="B47" s="29" t="s">
-        <v>347</v>
+      <c r="B47" s="28" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="31"/>
+      <c r="B48" s="30"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="31"/>
+      <c r="B49" s="30"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="31"/>
+      <c r="B50" s="30"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="31"/>
+      <c r="B51" s="30"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="31"/>
+      <c r="B52" s="30"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="31"/>
+      <c r="B53" s="30"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="31"/>
+      <c r="B54" s="30"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="31"/>
+      <c r="B55" s="30"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="31"/>
+      <c r="B56" s="30"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="31"/>
+      <c r="B57" s="30"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="31"/>
+      <c r="B58" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3449,10 +3646,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3466,48 +3663,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3527,7 +3724,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -3536,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -3545,7 +3742,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="28" t="str">
         <f>'!_ID_RULE'!B18</f>
         <v>범주 1 ~ 20000</v>
       </c>
@@ -3556,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -3571,11 +3768,11 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A20" si="0">A6+1</f>
+        <f t="shared" ref="A7:A49" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -3591,7 +3788,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -3607,7 +3804,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -3623,7 +3820,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -3639,7 +3836,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -3655,7 +3852,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -3671,7 +3868,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
@@ -3685,7 +3882,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>23</v>
@@ -3699,7 +3896,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3711,7 +3908,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3723,7 +3920,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3735,7 +3932,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3747,23 +3944,440 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" s="4">
+      <c r="A20" s="44">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="59">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>483</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>472</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="59">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>473</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="59">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>486</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="59">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>487</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="59">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="59">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>489</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="59">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="59">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>479</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="59">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>491</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="59">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>481</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="59">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>492</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>493</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="59">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>508</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>494</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="59">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>509</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>495</v>
+      </c>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="59">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>510</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>496</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="59">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>497</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="59">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>498</v>
+      </c>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="59">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="60" t="s">
+        <v>513</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="59">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>514</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>500</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="59">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="60" t="s">
+        <v>515</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>501</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="59">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="60" t="s">
+        <v>516</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>502</v>
+      </c>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="59">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>503</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="59">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>518</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>504</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="59">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>519</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="59">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>506</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="59">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>521</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>507</v>
+      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="61">
+        <v>42</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>525</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>526</v>
+      </c>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="59">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>527</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>528</v>
+      </c>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="61">
+        <v>43</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>530</v>
+      </c>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="59">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>531</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>532</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="61">
+        <v>44</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>523</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>524</v>
+      </c>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3776,10 +4390,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3794,48 +4408,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -3855,23 +4469,23 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="44">
+      <c r="A5" s="43">
         <v>20001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="28" t="str">
         <f>'!_ID_RULE'!B23</f>
         <v>범주 20001 ~ 40000</v>
       </c>
@@ -3882,10 +4496,10 @@
         <v>20002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>543</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -3896,86 +4510,212 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="6">
-        <f t="shared" ref="A7:A8" si="0">A6+1</f>
+        <f t="shared" ref="A7:A17" si="0">A6+1</f>
         <v>20003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+        <v>298</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="51">
+      <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>20004</v>
       </c>
-      <c r="B8" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="48">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>20005</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>534</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>20006</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>20007</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>20008</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>20009</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>538</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>20010</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>20011</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>540</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.75">
+      <c r="A16" s="6">
+        <f t="shared" si="0"/>
+        <v>20012</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>541</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+    </row>
+    <row r="17" spans="1:5" ht="12.75">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>20013</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+    </row>
+    <row r="18" spans="1:5" ht="12.75">
+      <c r="A18" s="47">
         <v>30001</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>361</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>364</v>
-      </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" s="50">
-        <f>A9+1</f>
+      <c r="B18" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+    </row>
+    <row r="19" spans="1:5" ht="12.75">
+      <c r="A19" s="49">
+        <f>A18+1</f>
         <v>30002</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>362</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="50">
-        <f t="shared" ref="A11" si="1">A10+1</f>
+      <c r="B19" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" spans="1:5" ht="12.75">
+      <c r="A20" s="49">
+        <f t="shared" ref="A20" si="1">A19+1</f>
         <v>30003</v>
       </c>
-      <c r="B11" s="53" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>366</v>
-      </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="50"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B20" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+    </row>
+    <row r="21" spans="1:5" ht="12.75">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+    </row>
+    <row r="22" spans="1:5" ht="12.75">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3988,7 +4728,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4003,51 +4743,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4067,22 +4807,22 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="43">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.5">
+      <c r="A5" s="42">
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>132</v>
+        <v>470</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>469</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="28" t="str">
         <f>'!_ID_RULE'!B29</f>
         <v>범주 40001 ~ 60000</v>
       </c>
@@ -4093,10 +4833,10 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -4111,10 +4851,10 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -4125,10 +4865,10 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -4139,10 +4879,10 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -4153,10 +4893,10 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -4167,10 +4907,10 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -4181,10 +4921,10 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -4195,10 +4935,10 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -4209,10 +4949,10 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4223,10 +4963,10 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4237,24 +4977,24 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="13.5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>145</v>
+        <v>287</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>469</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -4265,10 +5005,10 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -4279,10 +5019,10 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -4293,10 +5033,10 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -4307,10 +5047,10 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>318</v>
+        <v>471</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -4321,10 +5061,10 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -4335,10 +5075,10 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -4349,10 +5089,10 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -4363,10 +5103,10 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -4377,208 +5117,208 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>323</v>
+        <v>468</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" ht="13.5">
-      <c r="A27" s="45">
+      <c r="A27" s="44">
         <f t="shared" si="0"/>
         <v>40023</v>
       </c>
-      <c r="B27" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="B27" s="44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="48">
+      <c r="A28" s="47">
         <v>50001</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="B28" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="50">
+      <c r="A29" s="49">
         <f>A28+1</f>
         <v>50002</v>
       </c>
-      <c r="B29" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
+      <c r="B29" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="50">
+      <c r="A30" s="49">
         <f t="shared" ref="A30:A32" si="1">A29+1</f>
         <v>50003</v>
       </c>
-      <c r="B30" s="49" t="s">
-        <v>353</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>358</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="B30" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="50">
+      <c r="A31" s="49">
         <f t="shared" si="1"/>
         <v>50004</v>
       </c>
-      <c r="B31" s="49" t="s">
-        <v>354</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
+      <c r="B31" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="50">
+      <c r="A32" s="49">
         <f t="shared" si="1"/>
         <v>50005</v>
       </c>
-      <c r="B32" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>360</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
+      <c r="B32" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4607,48 +5347,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -4668,23 +5408,23 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="44">
+      <c r="A5" s="43">
         <v>70001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="28" t="str">
         <f>'!_ID_RULE'!B35</f>
         <v>범주 70001 ~ 100000</v>
       </c>
@@ -4695,10 +5435,10 @@
         <v>70002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -4713,10 +5453,10 @@
         <v>70003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -4727,10 +5467,10 @@
         <v>70004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -4741,10 +5481,10 @@
         <v>70005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4755,10 +5495,10 @@
         <v>70006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -4769,10 +5509,10 @@
         <v>70007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -4783,10 +5523,10 @@
         <v>70008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4797,10 +5537,10 @@
         <v>70009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4811,10 +5551,10 @@
         <v>70010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4825,10 +5565,10 @@
         <v>70011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -4839,10 +5579,10 @@
         <v>70012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -4853,10 +5593,10 @@
         <v>70013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -4867,10 +5607,10 @@
         <v>70014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>31</v>
+        <v>451</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -4881,10 +5621,10 @@
         <v>70015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -4895,10 +5635,10 @@
         <v>70016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4909,10 +5649,10 @@
         <v>70017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -4923,10 +5663,10 @@
         <v>70018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -4937,10 +5677,10 @@
         <v>70019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -4951,10 +5691,10 @@
         <v>70020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -4965,10 +5705,10 @@
         <v>70021</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -4979,10 +5719,10 @@
         <v>70022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -4993,10 +5733,10 @@
         <v>70023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -5007,10 +5747,10 @@
         <v>70024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5021,10 +5761,10 @@
         <v>70025</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -5035,10 +5775,10 @@
         <v>70026</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -5049,358 +5789,358 @@
         <v>70027</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" s="43">
+      <c r="A32" s="42">
         <v>80001</v>
       </c>
-      <c r="B32" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="B32" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
     </row>
     <row r="33" spans="1:5" ht="12.75">
-      <c r="A33" s="42">
+      <c r="A33" s="41">
         <f>A32+1</f>
         <v>80002</v>
       </c>
-      <c r="B33" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
     </row>
     <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" s="42">
+      <c r="A34" s="41">
         <f t="shared" ref="A34:A55" si="1">A33+1</f>
         <v>80003</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="B34" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
     </row>
     <row r="35" spans="1:5" ht="12.75">
-      <c r="A35" s="42">
+      <c r="A35" s="41">
         <f t="shared" si="1"/>
         <v>80004</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="B35" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
     </row>
     <row r="36" spans="1:5" ht="12.75">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <f t="shared" si="1"/>
         <v>80005</v>
       </c>
-      <c r="B36" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
+      <c r="B36" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
     </row>
     <row r="37" spans="1:5" ht="12.75">
-      <c r="A37" s="42">
+      <c r="A37" s="41">
         <f t="shared" si="1"/>
         <v>80006</v>
       </c>
-      <c r="B37" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
+      <c r="B37" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
     </row>
     <row r="38" spans="1:5" ht="12.75">
-      <c r="A38" s="42">
+      <c r="A38" s="41">
         <f t="shared" si="1"/>
         <v>80007</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
+      <c r="B38" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
     </row>
     <row r="39" spans="1:5" ht="12.75">
-      <c r="A39" s="42">
+      <c r="A39" s="41">
         <f t="shared" si="1"/>
         <v>80008</v>
       </c>
-      <c r="B39" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
+      <c r="B39" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <f t="shared" si="1"/>
         <v>80009</v>
       </c>
-      <c r="B40" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
+      <c r="B40" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="42">
+      <c r="A41" s="41">
         <f t="shared" si="1"/>
         <v>80010</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
+      <c r="B41" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="42">
+      <c r="A42" s="41">
         <f t="shared" si="1"/>
         <v>80011</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
+      <c r="B42" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="42">
+      <c r="A43" s="41">
         <f t="shared" si="1"/>
         <v>80012</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
+      <c r="B43" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="42">
+      <c r="A44" s="41">
         <f t="shared" si="1"/>
         <v>80013</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
+      <c r="B44" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="42">
+      <c r="A45" s="41">
         <f t="shared" si="1"/>
         <v>80014</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
+      <c r="B45" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <f t="shared" si="1"/>
         <v>80015</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
+      <c r="B46" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="42">
+      <c r="A47" s="41">
         <f t="shared" si="1"/>
         <v>80016</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
+      <c r="B47" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="42">
+      <c r="A48" s="41">
         <f t="shared" si="1"/>
         <v>80017</v>
       </c>
-      <c r="B48" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
+      <c r="B48" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="42">
+      <c r="A49" s="41">
         <f t="shared" si="1"/>
         <v>80018</v>
       </c>
-      <c r="B49" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="B49" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <f t="shared" si="1"/>
         <v>80019</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
+      <c r="B50" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="42">
+      <c r="A51" s="41">
         <f t="shared" si="1"/>
         <v>80020</v>
       </c>
-      <c r="B51" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
+      <c r="B51" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <f t="shared" si="1"/>
         <v>80021</v>
       </c>
-      <c r="B52" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
+      <c r="B52" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="42">
+      <c r="A53" s="41">
         <f t="shared" si="1"/>
         <v>80022</v>
       </c>
-      <c r="B53" s="42" t="s">
-        <v>216</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
+      <c r="B53" s="41" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="42">
+      <c r="A54" s="41">
         <f t="shared" si="1"/>
         <v>80023</v>
       </c>
-      <c r="B54" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
+      <c r="B54" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="42">
+      <c r="A55" s="41">
         <f t="shared" si="1"/>
         <v>80024</v>
       </c>
-      <c r="B55" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+      <c r="B55" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
     </row>
     <row r="56" spans="1:5" ht="12.75">
-      <c r="A56" s="56">
+      <c r="A56" s="53">
         <v>90001</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -5411,10 +6151,10 @@
         <v>90002</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -5425,13 +6165,13 @@
         <v>90003</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="C58" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
+        <v>467</v>
+      </c>
+      <c r="C58" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5446,7 +6186,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -5461,48 +6201,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -5522,7 +6262,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -5530,14 +6270,14 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="28" t="str">
         <f>'!_ID_RULE'!B41</f>
         <v>범주 100001 ~ 130000</v>
       </c>
@@ -5547,10 +6287,10 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5560,10 +6300,10 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -5573,10 +6313,10 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -5586,10 +6326,10 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -5599,10 +6339,10 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -5612,10 +6352,10 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -5625,10 +6365,10 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -5638,10 +6378,10 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -5651,10 +6391,10 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -5664,10 +6404,10 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -5677,10 +6417,10 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -5690,10 +6430,10 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -5703,10 +6443,10 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -5716,10 +6456,10 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -5729,10 +6469,10 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -5742,10 +6482,10 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -5755,10 +6495,10 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -5768,10 +6508,10 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -5781,10 +6521,10 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -5794,10 +6534,10 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -5807,10 +6547,10 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -5820,10 +6560,10 @@
         <v>40023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -5833,10 +6573,10 @@
         <v>40024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -5846,10 +6586,10 @@
         <v>40025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -5859,10 +6599,10 @@
         <v>40026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -5872,10 +6612,10 @@
         <v>40027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -5885,10 +6625,10 @@
         <v>40028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -5898,10 +6638,10 @@
         <v>40029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -5911,10 +6651,10 @@
         <v>40030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -5924,10 +6664,10 @@
         <v>40031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -5937,10 +6677,10 @@
         <v>40032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -5950,10 +6690,10 @@
         <v>40033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -5963,10 +6703,10 @@
         <v>40034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -5976,10 +6716,10 @@
         <v>40035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -5989,10 +6729,10 @@
         <v>40036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -6002,10 +6742,10 @@
         <v>40037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -6015,10 +6755,10 @@
         <v>40038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -6028,10 +6768,10 @@
         <v>40039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -6041,10 +6781,10 @@
         <v>40040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -6054,10 +6794,10 @@
         <v>40041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -6067,10 +6807,10 @@
         <v>40042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -6080,10 +6820,10 @@
         <v>40043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -6093,10 +6833,10 @@
         <v>40044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -6106,10 +6846,10 @@
         <v>40045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -6119,10 +6859,10 @@
         <v>40046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -6132,10 +6872,10 @@
         <v>40047</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -6145,10 +6885,10 @@
         <v>40048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -6158,10 +6898,10 @@
         <v>40049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -6171,10 +6911,10 @@
         <v>40050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -6184,10 +6924,10 @@
         <v>40051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -6197,10 +6937,10 @@
         <v>40052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -6210,10 +6950,10 @@
         <v>40053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -6223,10 +6963,10 @@
         <v>40054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -6236,10 +6976,10 @@
         <v>40055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -6249,10 +6989,10 @@
         <v>40056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -6262,10 +7002,10 @@
         <v>40057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -6275,10 +7015,10 @@
         <v>40058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -6288,10 +7028,10 @@
         <v>40059</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -6301,10 +7041,10 @@
         <v>40060</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -6314,10 +7054,10 @@
         <v>40061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -6327,10 +7067,10 @@
         <v>40062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -6340,10 +7080,10 @@
         <v>40063</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -6362,7 +7102,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6376,48 +7116,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -6437,227 +7177,151 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75">
-      <c r="A5" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="68" customFormat="1" ht="27">
+      <c r="A5" s="63">
         <v>70001</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29" t="str">
+      <c r="B5" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>533</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67" t="str">
         <f>'!_ID_RULE'!B47</f>
         <v>범주 130001 ~ 160000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="12.75">
-      <c r="A6" s="4">
-        <v>70002</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75">
-      <c r="A7" s="4">
-        <v>70003</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75">
-      <c r="A8" s="4">
-        <v>70004</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75">
-      <c r="A9" s="4">
-        <v>70005</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="12.75">
-      <c r="A10" s="4">
-        <v>70006</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="12.75">
-      <c r="A11" s="4">
-        <v>70007</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="12.75">
-      <c r="A12" s="4">
-        <v>70008</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:6" ht="12.75">
-      <c r="A13" s="4">
-        <v>70009</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="12.75">
-      <c r="A14" s="4">
-        <v>70010</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="12.75">
-      <c r="A15" s="4">
-        <v>70011</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="12.75">
-      <c r="A16" s="4">
-        <v>70012</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="12.75">
-      <c r="A17" s="4">
-        <v>70013</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" ht="12.75">
-      <c r="A18" s="4">
-        <v>70014</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="12.75">
-      <c r="A19" s="4">
-        <v>70015</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" s="4">
-        <v>70016</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75">
-      <c r="A21" s="4">
-        <v>70017</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" ht="12.75">
-      <c r="A22" s="4">
-        <v>70018</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" ht="12.75">
-      <c r="A23" s="4">
-        <v>70019</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+    <row r="6" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+    </row>
+    <row r="7" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+    </row>
+    <row r="8" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+    </row>
+    <row r="9" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+    </row>
+    <row r="10" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+    </row>
+    <row r="11" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+    </row>
+    <row r="12" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+    </row>
+    <row r="13" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+    </row>
+    <row r="14" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+    </row>
+    <row r="15" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+    </row>
+    <row r="16" spans="1:6" s="68" customFormat="1" ht="12.75">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+    </row>
+    <row r="17" spans="1:5" s="68" customFormat="1" ht="12.75">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+    </row>
+    <row r="18" spans="1:5" s="68" customFormat="1" ht="12.75">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+    </row>
+    <row r="19" spans="1:5" s="68" customFormat="1" ht="12.75">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+    </row>
+    <row r="20" spans="1:5" s="68" customFormat="1" ht="12.75">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+    </row>
+    <row r="21" spans="1:5" s="68" customFormat="1" ht="12.75">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+    </row>
+    <row r="22" spans="1:5" s="68" customFormat="1" ht="12.75">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" s="68" customFormat="1" ht="12.75">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -6687,48 +7351,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="18" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -6748,7 +7412,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -6763,8 +7427,8 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="57" t="s">
-        <v>383</v>
+      <c r="F5" s="54" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -6774,12 +7438,12 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="57" t="s">
-        <v>385</v>
+      <c r="F6" s="54" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -6789,12 +7453,12 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="57" t="s">
-        <v>387</v>
+      <c r="F7" s="54" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -6804,12 +7468,12 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="57" t="s">
-        <v>389</v>
+      <c r="F8" s="54" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -6818,13 +7482,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="58" t="s">
-        <v>390</v>
+      <c r="C9" s="55" t="s">
+        <v>361</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="57" t="s">
-        <v>391</v>
+      <c r="F9" s="54" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -6833,12 +7497,12 @@
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="58" t="s">
-        <v>392</v>
+      <c r="C10" s="55" t="s">
+        <v>363</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="57"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="4">
@@ -6846,12 +7510,12 @@
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="58" t="s">
-        <v>393</v>
+      <c r="C11" s="55" t="s">
+        <v>364</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="57"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="4">
@@ -6859,12 +7523,12 @@
         <v>8</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="58" t="s">
-        <v>394</v>
+      <c r="C12" s="55" t="s">
+        <v>365</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="57"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="4">
@@ -6872,12 +7536,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="58" t="s">
-        <v>395</v>
+      <c r="C13" s="55" t="s">
+        <v>366</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="57"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4">
@@ -6885,12 +7549,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="58" t="s">
-        <v>396</v>
+      <c r="C14" s="55" t="s">
+        <v>367</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="57"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4">
@@ -6898,12 +7562,12 @@
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="58" t="s">
-        <v>397</v>
+      <c r="C15" s="55" t="s">
+        <v>368</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4">
@@ -6911,12 +7575,12 @@
         <v>12</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="59" t="s">
-        <v>398</v>
+      <c r="C16" s="56" t="s">
+        <v>369</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="57"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="4">
@@ -6924,12 +7588,12 @@
         <v>13</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="58" t="s">
-        <v>399</v>
+      <c r="C17" s="55" t="s">
+        <v>370</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="57"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="4">
@@ -6937,12 +7601,12 @@
         <v>14</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="58" t="s">
-        <v>400</v>
+      <c r="C18" s="55" t="s">
+        <v>371</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="57"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" ht="12.75">
       <c r="A19" s="4">
@@ -6950,12 +7614,12 @@
         <v>15</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="58" t="s">
-        <v>401</v>
+      <c r="C19" s="55" t="s">
+        <v>372</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="57"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="4">
@@ -6963,12 +7627,12 @@
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="58" t="s">
-        <v>402</v>
+      <c r="C20" s="55" t="s">
+        <v>373</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="57"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="4">
@@ -6976,12 +7640,12 @@
         <v>17</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="58" t="s">
-        <v>403</v>
+      <c r="C21" s="55" t="s">
+        <v>374</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="57"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="4">
@@ -6989,12 +7653,12 @@
         <v>18</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="58" t="s">
-        <v>404</v>
+      <c r="C22" s="55" t="s">
+        <v>375</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="57"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="4">
@@ -7002,12 +7666,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="58" t="s">
-        <v>405</v>
+      <c r="C23" s="55" t="s">
+        <v>376</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="57"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="4">
@@ -7015,12 +7679,12 @@
         <v>20</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="58" t="s">
-        <v>406</v>
+      <c r="C24" s="55" t="s">
+        <v>377</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="57"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="4">
@@ -7028,12 +7692,12 @@
         <v>21</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="58" t="s">
-        <v>407</v>
+      <c r="C25" s="55" t="s">
+        <v>378</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="57"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="4">
@@ -7041,12 +7705,12 @@
         <v>22</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="58" t="s">
-        <v>408</v>
+      <c r="C26" s="55" t="s">
+        <v>379</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="57"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="4">
@@ -7054,12 +7718,12 @@
         <v>23</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="58" t="s">
-        <v>409</v>
+      <c r="C27" s="55" t="s">
+        <v>380</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="57"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4">
@@ -7067,12 +7731,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="58" t="s">
-        <v>410</v>
+      <c r="C28" s="55" t="s">
+        <v>381</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="57"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="4">
@@ -7080,12 +7744,12 @@
         <v>25</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="58" t="s">
-        <v>411</v>
+      <c r="C29" s="55" t="s">
+        <v>382</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="57"/>
+      <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="4">
@@ -7094,12 +7758,12 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="57" t="s">
-        <v>417</v>
+      <c r="F30" s="54" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -7109,12 +7773,12 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="57" t="s">
-        <v>418</v>
+      <c r="F31" s="54" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
@@ -7124,12 +7788,12 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="57" t="s">
-        <v>419</v>
+      <c r="F32" s="54" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -7139,12 +7803,12 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="57" t="s">
-        <v>420</v>
+      <c r="F33" s="54" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
@@ -7154,12 +7818,12 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="57" t="s">
-        <v>421</v>
+      <c r="F34" s="54" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
@@ -7168,12 +7832,12 @@
         <v>31</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="58" t="s">
-        <v>422</v>
+      <c r="C35" s="55" t="s">
+        <v>393</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="57"/>
+      <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="4">
@@ -7181,12 +7845,12 @@
         <v>32</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="58" t="s">
-        <v>423</v>
+      <c r="C36" s="55" t="s">
+        <v>394</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="57"/>
+      <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="4">
@@ -7194,12 +7858,12 @@
         <v>33</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="58" t="s">
-        <v>424</v>
+      <c r="C37" s="55" t="s">
+        <v>395</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="57"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="4">
@@ -7207,12 +7871,12 @@
         <v>34</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="58" t="s">
-        <v>425</v>
+      <c r="C38" s="55" t="s">
+        <v>396</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="57"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="4">
@@ -7220,12 +7884,12 @@
         <v>35</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="58" t="s">
-        <v>426</v>
+      <c r="C39" s="55" t="s">
+        <v>397</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="57"/>
+      <c r="F39" s="54"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="4">
@@ -7233,12 +7897,12 @@
         <v>36</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="58" t="s">
-        <v>427</v>
+      <c r="C40" s="55" t="s">
+        <v>398</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="57"/>
+      <c r="F40" s="54"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="4">
@@ -7246,12 +7910,12 @@
         <v>37</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="58" t="s">
-        <v>428</v>
+      <c r="C41" s="55" t="s">
+        <v>399</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="57"/>
+      <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="4">
@@ -7259,12 +7923,12 @@
         <v>38</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="58" t="s">
-        <v>429</v>
+      <c r="C42" s="55" t="s">
+        <v>400</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="57"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="4">
@@ -7272,12 +7936,12 @@
         <v>39</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="58" t="s">
-        <v>430</v>
+      <c r="C43" s="55" t="s">
+        <v>401</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="57"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="4">
@@ -7285,12 +7949,12 @@
         <v>40</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="58" t="s">
-        <v>431</v>
+      <c r="C44" s="55" t="s">
+        <v>402</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="57"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="4">
@@ -7298,12 +7962,12 @@
         <v>41</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="58" t="s">
-        <v>432</v>
+      <c r="C45" s="55" t="s">
+        <v>403</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="57"/>
+      <c r="F45" s="54"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="4">
@@ -7311,13 +7975,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="58" t="s">
-        <v>433</v>
+      <c r="C46" s="55" t="s">
+        <v>404</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="57" t="s">
-        <v>434</v>
+      <c r="F46" s="54" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
@@ -7326,13 +7990,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="58" t="s">
-        <v>433</v>
+      <c r="C47" s="55" t="s">
+        <v>404</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="57" t="s">
-        <v>436</v>
+      <c r="F47" s="54" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
@@ -7341,13 +8005,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="58" t="s">
-        <v>435</v>
+      <c r="C48" s="55" t="s">
+        <v>406</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="57" t="s">
-        <v>437</v>
+      <c r="F48" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
@@ -7356,13 +8020,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="60" t="s">
-        <v>438</v>
+      <c r="C49" s="57" t="s">
+        <v>409</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="57" t="s">
-        <v>437</v>
+      <c r="F49" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
@@ -7371,13 +8035,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="60" t="s">
-        <v>439</v>
+      <c r="C50" s="57" t="s">
+        <v>410</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="57" t="s">
-        <v>437</v>
+      <c r="F50" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
@@ -7386,13 +8050,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="60" t="s">
-        <v>440</v>
+      <c r="C51" s="57" t="s">
+        <v>411</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="57" t="s">
-        <v>437</v>
+      <c r="F51" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
@@ -7401,13 +8065,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="60" t="s">
-        <v>441</v>
+      <c r="C52" s="57" t="s">
+        <v>412</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="57" t="s">
-        <v>437</v>
+      <c r="F52" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
@@ -7416,13 +8080,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="60" t="s">
-        <v>442</v>
+      <c r="C53" s="57" t="s">
+        <v>413</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="57" t="s">
-        <v>437</v>
+      <c r="F53" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -7431,13 +8095,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="60" t="s">
-        <v>443</v>
+      <c r="C54" s="57" t="s">
+        <v>414</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="57" t="s">
-        <v>437</v>
+      <c r="F54" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
@@ -7446,13 +8110,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="60" t="s">
-        <v>444</v>
+      <c r="C55" s="57" t="s">
+        <v>415</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="57" t="s">
-        <v>437</v>
+      <c r="F55" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
@@ -7461,13 +8125,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="60" t="s">
-        <v>445</v>
+      <c r="C56" s="57" t="s">
+        <v>416</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="57" t="s">
-        <v>437</v>
+      <c r="F56" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
@@ -7476,13 +8140,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="60" t="s">
-        <v>446</v>
+      <c r="C57" s="57" t="s">
+        <v>417</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="57" t="s">
-        <v>437</v>
+      <c r="F57" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
@@ -7491,13 +8155,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="60" t="s">
-        <v>447</v>
+      <c r="C58" s="57" t="s">
+        <v>418</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="57" t="s">
-        <v>437</v>
+      <c r="F58" s="54" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
@@ -7506,13 +8170,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="58" t="s">
-        <v>449</v>
+      <c r="C59" s="55" t="s">
+        <v>420</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="57" t="s">
-        <v>448</v>
+      <c r="F59" s="54" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
@@ -7521,13 +8185,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="58" t="s">
-        <v>450</v>
+      <c r="C60" s="55" t="s">
+        <v>421</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="57" t="s">
-        <v>448</v>
+      <c r="F60" s="54" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
@@ -7536,13 +8200,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="58" t="s">
-        <v>451</v>
+      <c r="C61" s="55" t="s">
+        <v>422</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="57" t="s">
-        <v>448</v>
+      <c r="F61" s="54" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
@@ -7551,13 +8215,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="58" t="s">
-        <v>452</v>
+      <c r="C62" s="55" t="s">
+        <v>423</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="57" t="s">
-        <v>448</v>
+      <c r="F62" s="54" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
@@ -7566,13 +8230,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="58" t="s">
-        <v>453</v>
+      <c r="C63" s="55" t="s">
+        <v>424</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="57" t="s">
-        <v>456</v>
+      <c r="F63" s="54" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
@@ -7581,13 +8245,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="58" t="s">
-        <v>454</v>
+      <c r="C64" s="55" t="s">
+        <v>425</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="57" t="s">
-        <v>455</v>
+      <c r="F64" s="54" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
@@ -7596,13 +8260,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="60" t="s">
-        <v>457</v>
+      <c r="C65" s="57" t="s">
+        <v>428</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="57" t="s">
-        <v>458</v>
+      <c r="F65" s="54" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE386EED-9B51-463F-A249-4A306B50FE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C83ED5-94B3-4E1D-A879-85D1E60DB18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12045" yWindow="1695" windowWidth="19275" windowHeight="18660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="1275" windowWidth="37215" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="577">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -2513,12 +2513,151 @@
   <si>
     <t>전열용 클레어 2</t>
   </si>
+  <si>
+    <t>system_attribute_synergy_none</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_synergy_electric</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_synergy_veritarium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_synergy_charm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_synergy_mana</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화 된 속성 시너지 효과가 없습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래 그림과 같은 속성 상성에 따라서 우위 속성이 하위 속성에게 추가 데미지를 줍니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_info</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;color=#00ff00&gt;+ {0}%&lt;/color&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증가</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수인족</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>천족</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_information</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_electric</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_charm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_veritarium</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_attribute_mana</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리타리움</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>요력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>드워프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>노움</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="47">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2828,6 +2967,27 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3007,7 +3167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3118,6 +3278,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3646,16 +3812,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -3768,7 +3934,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A49" si="0">A6+1</f>
+        <f t="shared" ref="A7:A61" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3862,7 +4028,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3870,8 +4036,8 @@
       <c r="B13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
+      <c r="C13" s="15" t="s">
+        <v>564</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3885,7 +4051,7 @@
         <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3898,7 +4064,9 @@
       <c r="B15" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
@@ -3910,11 +4078,13 @@
       <c r="B16" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="74" t="s">
+        <v>563</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="13.5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3922,7 +4092,9 @@
       <c r="B17" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="57" t="s">
+        <v>366</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
@@ -3934,7 +4106,9 @@
       <c r="B18" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="56" t="s">
+        <v>364</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
@@ -3946,7 +4120,9 @@
       <c r="B19" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="74" t="s">
+        <v>575</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
@@ -3958,7 +4134,9 @@
       <c r="B20" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="44"/>
+      <c r="C20" s="77" t="s">
+        <v>576</v>
+      </c>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
     </row>
@@ -4313,7 +4491,8 @@
       <c r="E45" s="61"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="61">
+      <c r="A46" s="59">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B46" s="60" t="s">
@@ -4340,8 +4519,9 @@
       <c r="E47" s="61"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="61">
-        <v>43</v>
+      <c r="A48" s="59">
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="B48" s="60" t="s">
         <v>529</v>
@@ -4355,7 +4535,7 @@
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
       <c r="A49" s="59">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="60" t="s">
         <v>531</v>
@@ -4367,8 +4547,9 @@
       <c r="E49" s="61"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="61">
-        <v>44</v>
+      <c r="A50" s="59">
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="B50" s="60" t="s">
         <v>523</v>
@@ -4378,6 +4559,160 @@
       </c>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="59">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>555</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D51" s="72"/>
+      <c r="E51" s="61"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="59">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>556</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D52" s="72"/>
+      <c r="E52" s="61"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="59">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D53" s="72"/>
+      <c r="E53" s="61"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="60" t="s">
+        <v>558</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D54" s="72"/>
+      <c r="E54" s="61"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="59">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="60" t="s">
+        <v>554</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="59">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="60" t="s">
+        <v>561</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>560</v>
+      </c>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57" s="59">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>566</v>
+      </c>
+      <c r="C57" s="75" t="s">
+        <v>565</v>
+      </c>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58" s="59">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="60" t="s">
+        <v>567</v>
+      </c>
+      <c r="C58" s="62" t="s">
+        <v>571</v>
+      </c>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="59">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>572</v>
+      </c>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="59">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="60" t="s">
+        <v>568</v>
+      </c>
+      <c r="C60" s="76" t="s">
+        <v>573</v>
+      </c>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A61" s="59">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="60" t="s">
+        <v>570</v>
+      </c>
+      <c r="C61" s="76" t="s">
+        <v>574</v>
+      </c>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4392,7 +4727,7 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -5333,7 +5668,7 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C83ED5-94B3-4E1D-A879-85D1E60DB18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C511A1BC-60EF-4253-9163-AAEC066C7504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="1275" windowWidth="37215" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="690" windowWidth="37950" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="579">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -2650,6 +2650,14 @@
   </si>
   <si>
     <t>노움</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_limitcount_daily_enter</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 입장 제한</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3812,10 +3820,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3934,7 +3942,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A61" si="0">A6+1</f>
+        <f t="shared" ref="A7:A62" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4713,6 +4721,20 @@
       </c>
       <c r="D61" s="61"/>
       <c r="E61" s="61"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A62" s="59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>577</v>
+      </c>
+      <c r="C62" s="76" t="s">
+        <v>578</v>
+      </c>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C511A1BC-60EF-4253-9163-AAEC066C7504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A935AFE-A5B2-4FF1-A925-8140E4AFA78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="690" windowWidth="37950" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="2940" windowWidth="37950" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="581">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -2658,6 +2658,355 @@
   </si>
   <si>
     <t>일일 입장 제한</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_boss_skill_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>절망의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">모든 적대 대상의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=FF4000&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=FF4000&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">시킨다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어둠의 시야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+모든 적대 대상의 눈 앞에 짙은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어둠을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소환하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">앞이 잘 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=FF4000&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보이지 않게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 만든다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어둠 폭발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=FF4000&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넓고 강력하게 폭발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 일으키는 어둠 구체를 소환하여 모든 적대 대상을 공격한다.
+</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2665,7 +3014,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2996,6 +3345,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3175,7 +3531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3292,6 +3648,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3820,10 +4180,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3942,7 +4302,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A62" si="0">A6+1</f>
+        <f t="shared" ref="A7:A63" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4735,6 +5095,20 @@
       </c>
       <c r="D62" s="61"/>
       <c r="E62" s="61"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63" s="59">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B63" s="78" t="s">
+        <v>579</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>580</v>
+      </c>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A935AFE-A5B2-4FF1-A925-8140E4AFA78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1351C4-7F77-47FE-9C47-5D5468B0B542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="450" yWindow="2940" windowWidth="37950" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2666,7 +2666,7 @@
   </si>
   <si>
     <r>
-      <t>&lt;b&gt;</t>
+      <t>&lt;size=23&gt;&lt;b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2691,11 +2691,214 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;/b&gt;&lt;/size&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대상의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;color=#FF4000&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;color=#FF4000&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시킨다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+&lt;size=23&gt;&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어둠의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/b&gt;&lt;/size&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>안개</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
     </r>
     <r>
       <rPr>
@@ -2704,8 +2907,216 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">&lt;/b&gt;
-</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대상의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앞에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>짙은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어둠을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소환하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앞이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>잘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;color=#FF4000&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2715,7 +3126,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">모든 적대 대상의 </t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만든다</t>
     </r>
     <r>
       <rPr>
@@ -2724,7 +3145,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;color=FF4000&gt;</t>
+      <t>.
+&lt;size=23&gt;&lt;b&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2734,7 +3156,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>방어력&lt;/</t>
+      <t>어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>둠</t>
     </r>
     <r>
       <rPr>
@@ -2743,7 +3175,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>color&gt;</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/b&gt;&lt;/size&gt;</t>
     </r>
     <r>
       <rPr>
@@ -2753,7 +3204,8 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">을 </t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -2762,17 +3214,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;color=FF4000&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+      <t>&lt;color=#FF4000&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>감소</t>
+      <t>넓고</t>
     </r>
     <r>
       <rPr>
@@ -2781,18 +3233,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">시킨다.
-</t>
+      <t>강력하게</t>
     </r>
     <r>
       <rPr>
@@ -2801,17 +3252,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>어둠의 시야</t>
+      <t>폭발</t>
     </r>
     <r>
       <rPr>
@@ -2820,18 +3271,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">
-모든 적대 대상의 눈 앞에 짙은</t>
+      <t>을</t>
     </r>
     <r>
       <rPr>
@@ -2846,11 +3296,11 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>어둠을</t>
+      <t>일으키는</t>
     </r>
     <r>
       <rPr>
@@ -2865,11 +3315,11 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>소환하여</t>
+      <t>어둠</t>
     </r>
     <r>
       <rPr>
@@ -2884,11 +3334,11 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">앞이 잘 </t>
+      <t>구체를</t>
     </r>
     <r>
       <rPr>
@@ -2897,17 +3347,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;color=FF4000&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>보이지 않게</t>
+      <t>소환하여</t>
     </r>
     <r>
       <rPr>
@@ -2916,18 +3366,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 만든다.
-</t>
+      <t>모든</t>
     </r>
     <r>
       <rPr>
@@ -2936,17 +3385,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>어둠 폭발</t>
+      <t>적대</t>
     </r>
     <r>
       <rPr>
@@ -2955,18 +3404,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>대상을</t>
     </r>
     <r>
       <rPr>
@@ -2975,17 +3423,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;color=FF4000&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>넓고 강력하게 폭발</t>
+      <t>공격한다</t>
     </r>
     <r>
       <rPr>
@@ -2994,17 +3442,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>&lt;/color&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">을 일으키는 어둠 구체를 소환하여 모든 적대 대상을 공격한다.
+      <t xml:space="preserve">.
 </t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3531,7 +3969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3648,7 +4086,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4182,8 +4619,8 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5101,10 +5538,10 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B63" s="78" t="s">
+      <c r="B63" s="60" t="s">
         <v>579</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="78" t="s">
         <v>580</v>
       </c>
       <c r="D63" s="61"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1351C4-7F77-47FE-9C47-5D5468B0B542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E5C71-C09D-4199-A0B5-FFBD2D0B087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="2940" windowWidth="37950" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="810" windowWidth="37950" windowHeight="18660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -39,8 +39,881 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rown</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{C8965FD3-CE5A-42CF-83C6-4061A30574D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스트링</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">규약
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{0}: onetime</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시트의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> multiple_type</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참조하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파라메터에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> *multiple + value </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{1}: duriation</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시트의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> multiple </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>백분률</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(*100)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">출력
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{2}: duriation</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시트의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> rate </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>백분률</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(*100)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">출력
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{3}: duriation</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시트의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> time </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">출력
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{4}: duriation</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시트의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> count </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">출력
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{5}: duriation</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시트의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> multiple_type</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>참조하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>해당</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>파라메터에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> *multiple + value </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>를</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">적용
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{6}: duriation</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시트의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> multiple </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>값을</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>백분률</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(*100)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>화</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하여</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">출력
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="705">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -421,39 +1294,6 @@
   </si>
   <si>
     <t>나무 목걸이</t>
-  </si>
-  <si>
-    <t>자신의 체력 회복</t>
-  </si>
-  <si>
-    <t>자신의 공격력 증가</t>
-  </si>
-  <si>
-    <t>근접 전방 1명 공격 (2히트)</t>
-  </si>
-  <si>
-    <t>원거리 전방 1명 공격 (즉발형 1히트)</t>
-  </si>
-  <si>
-    <t>원거리 전방 적을 타겟하고 범위 데미지 (즉발형 6히트) - 주변 스플래쉬</t>
-  </si>
-  <si>
-    <t>원거리 전방 1명 공격(투사체형 1히트)</t>
-  </si>
-  <si>
-    <t>원거리 전방 1명의 방어력 감소</t>
-  </si>
-  <si>
-    <t>원거리 전방 적을 타겟하고 범위 데미지 (투사체형 2히트) - 피격자 뒤로 스플래쉬</t>
-  </si>
-  <si>
-    <t>체력이 가장 낮은 아군 체력 회복</t>
-  </si>
-  <si>
-    <t>원거리 전방 1명의 공격력 감소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">원거리 전방 적 타겟 </t>
   </si>
   <si>
     <r>
@@ -483,39 +1323,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>파워 업</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>스나이핑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 밤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블 샷</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>힐</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>더블 어택</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>마나 쇼크</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>브레이크 아머</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>브레이크 웨폰</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1107,66 +1915,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>skill_desc_pc_002</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_003</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_004</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_005</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_006</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_007</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_008</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_009</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_010</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_017</t>
-  </si>
-  <si>
-    <t>skill_desc_pc_018</t>
-  </si>
-  <si>
-    <t>skill_name_pc_001</t>
-  </si>
-  <si>
-    <t>skill_name_pc_002</t>
-  </si>
-  <si>
-    <t>skill_name_pc_003</t>
-  </si>
-  <si>
-    <t>skill_name_pc_004</t>
-  </si>
-  <si>
-    <t>skill_name_pc_006</t>
-  </si>
-  <si>
-    <t>skill_name_pc_007</t>
-  </si>
-  <si>
-    <t>skill_name_pc_008</t>
-  </si>
-  <si>
-    <t>skill_name_pc_009</t>
-  </si>
-  <si>
-    <t>skill_name_pc_011</t>
-  </si>
-  <si>
     <t>character_name_0001</t>
   </si>
   <si>
@@ -1519,42 +2267,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">40001~50000: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐릭터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  /  50001~60000: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>몬스터</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
@@ -2233,19 +2945,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>skill_name_pc_010</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>일반 공격</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_desc_pc_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_name_pc_005</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -3445,6 +4145,1240 @@
       <t xml:space="preserve">.
 </t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_title_lucia_01</t>
+  </si>
+  <si>
+    <t>skill_title_lucia_02</t>
+  </si>
+  <si>
+    <t>skill_title_lucia_03</t>
+  </si>
+  <si>
+    <t>skill_title_lucia_04</t>
+  </si>
+  <si>
+    <t>skill_title_pc_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마력 개방</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐 올</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_title_laila_01</t>
+  </si>
+  <si>
+    <t>skill_title_laila_02</t>
+  </si>
+  <si>
+    <t>skill_title_laila_03</t>
+  </si>
+  <si>
+    <t>skill_title_violet_01</t>
+  </si>
+  <si>
+    <t>skill_title_violet_02</t>
+  </si>
+  <si>
+    <t>skill_title_daisy_01</t>
+  </si>
+  <si>
+    <t>skill_title_daisy_02</t>
+  </si>
+  <si>
+    <t>skill_title_ailyn_01</t>
+  </si>
+  <si>
+    <t>skill_title_ailyn_02</t>
+  </si>
+  <si>
+    <t>skill_title_claire_01</t>
+  </si>
+  <si>
+    <t>skill_title_claire_02</t>
+  </si>
+  <si>
+    <t>skill_title_claire_03</t>
+  </si>
+  <si>
+    <t>skill_title_elizabath_01</t>
+  </si>
+  <si>
+    <t>skill_title_elizabath_02</t>
+  </si>
+  <si>
+    <t>skill_title_elizabath_03</t>
+  </si>
+  <si>
+    <t>저격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜 라이트닝</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>스나이프 샷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>익스플로전 샷</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리즘 펄스</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리티컬 부스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레디언트 블래스트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이탈 파워</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래시 밤</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_title_violet_03</t>
+  </si>
+  <si>
+    <t>skill_title_daisy_03</t>
+  </si>
+  <si>
+    <t>skill_title_ailyn_03</t>
+  </si>
+  <si>
+    <t>스텔라 스트라이크</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>포커스 퓨리</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Call Lightning</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mana Infusion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distruction Armor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explotion Shot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prism Pulse</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snipe Shot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal All</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical Boost</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stellar Strike</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radiant Blast</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fatal Power</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Focused Fury</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash Bomb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self Heal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bless of Gaia</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉뢰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 회복</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구 파괴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 사격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전 사격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 포착</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 인퓨전</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스트럭트 아머</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원 발현</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬광탄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>응급 치료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 파괴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>별의 분노</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의 분노</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이아의 축복</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자가 회복</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vitality Restoration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이탈리티 리스토레이션</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑의 포식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>빛의 분노</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포의 강림</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy Slash</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤비 슬래시</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celestial Saber Strike</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀레스티얼 세이버 스트라이크</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>절망의 구슬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_pc_001</t>
+  </si>
+  <si>
+    <t>일반 공격입니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 400001 ~ 600000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">400001~500000: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터 스킬 설명 / 500001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">~600000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터 스킬 설명</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">40001~50000: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터 스킬명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  /  50001~60000: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터 스킬명</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 중 현재 체력이 가장 낮은 대상을 {0}만큼 회복시킵니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체의 체력을 {0}만큼 회복시킵니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_laila_01_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_laila_01_2</t>
+  </si>
+  <si>
+    <t>skill_desc_laila_02_1</t>
+  </si>
+  <si>
+    <t>skill_desc_laila_02_2</t>
+  </si>
+  <si>
+    <t>skill_desc_laila_02_3</t>
+  </si>
+  <si>
+    <t>skill_desc_laila_03_1</t>
+  </si>
+  <si>
+    <t>skill_desc_laila_03_2</t>
+  </si>
+  <si>
+    <t>skill_desc_laila_03_3</t>
+  </si>
+  <si>
+    <t>{6}: duriation시트의 multiple 값을 백분률(*100)화 하여 출력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킬</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스트링</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>규약</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{2}: duriation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백분률</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력 (상태이상 적중률)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{1}: onetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> multiple </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백분률</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*100)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">출력 (피해량 퍼센테이지 표현 등) </t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{3}: duriation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력 (상태 지속시간 초)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{4}: duriation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>값을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도트 데미지를 몇 회 준다, 등)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{0}: onetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> multiple_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">해당 효과 연산식에 맞춰서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multiple + value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용 (데미지, 힐량 등)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5}: duriation시트의 multiple_type을 참조하여 해당 효과 연산식에 맞춰서 *multiple + value 를 적용</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{7}: duriation시트의 value 값을 출력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가장 가까운 적을 3번 사격하여 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Predation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beads of Despair</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>어드벤트 오브 호러</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 프리데이션</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>비드 오브 디스페어</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Advent of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orror</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_violet_01_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_violet_02_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 뒤로 3m내에 있는 아군들의 크리티컬을 {3}초간 {6}%만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_violet_03_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_violet_03_2</t>
+  </si>
+  <si>
+    <t>skill_desc_daisy_03_1</t>
+  </si>
+  <si>
+    <t>skill_desc_daisy_03_2</t>
+  </si>
+  <si>
+    <t>{3}초간 주변 반경 3m내에 있는 아군들의 크리티컬 데미지를을 {6}%만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3}초간 모든 아군들의 크리티컬을 {6}%만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3}초간 모든 아군들의 크리티컬 데미지를을 {6}%만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_ailyn_03_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 대상에게 섬광탄을 던져서 대상과 그 주변 반경 3m내의 적들을 2초 동안 기절시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력을 {0}만큼 회복한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{3}초 아군 전체의 물리 방어력을 {6}%, </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력을 {0}만큼 회복하고,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력을 {6}% 만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_ailyn_03_2</t>
+  </si>
+  <si>
+    <t>skill_desc_ailyn_03_3</t>
+  </si>
+  <si>
+    <t>skill_desc_claire_03_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 기운으로 {3}초 동안 자신의 최대 체력을 {6}%만큼 증가시킵니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_claire_03_2</t>
+  </si>
+  <si>
+    <t>skill_desc_elizabath_01_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_elizabath_01_2</t>
+  </si>
+  <si>
+    <t>skill_desc_claire_01_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_claire_02_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_ailyn_01_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_ailyn_02_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_daisy_02_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_daisy_01_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_lucia_01_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_lucia_02_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_lucia_03_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고, {2}% 확률로 {3}초 동안 대상의 마법 방어력을 {6}% 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고, {2}% 확률로 {3}초 동안 대상의 물리 방어력을 {6}% 감소시킨다.</t>
+  </si>
+  <si>
+    <t>{2}% 확률로 {3}초 동안 대상의 물리 방어력을 {6}% 감소시킨다.</t>
+  </si>
+  <si>
+    <t>가장 가까운 적에게 {0}마법 데미지의 낙뢰를 떨어트립니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 체력이 가장 낮은 적을 저격하여 {0}의 물리 데미지를 준다. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 {2}% 확률로 {3}초 동안 자신의 물리 공격력을 {6}% 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}의 물리 데미지를 준다. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강력한 확산형 폭발탄을 발사하여 중심지의 적에게 {0}의 물리 데미지를 주고, </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 탄착 지점에서 폭발이 일어나면서 적 전체에게 {0}의 물리 데미지를 준다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리타리움 에너지를 모아 플라즈마의 형태로 발사하여 가장 가까운 적에게 {0}의 물리 데미지를 준다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적 1명에게 {0}의 물리 데미지를 준다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적에게 강력한 검격으로 {0}%의 물리 데미지를 줍니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리타리움의 기운을 모두 끌어모아 적 전체에게 {0}%의 물리 데미지를 주는 강력한 검기를 쏘아냅니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적에게 절망의 구슬을 날려 {0}마법 데미지를 줍니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_elizabath_02_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_elizabath_02_2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_elizabath_03_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_desc_elizabath_03_2</t>
+  </si>
+  <si>
+    <t>skill_desc_elizabath_03_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강력한 공포의 힘을 소환하여 적 전체에게 {0}의 마법 데미지를 입히고, </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 적들을 암흑의 기운으로 덮어서 {0}의 마법 데미지를 입히고, </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2}% 확률로 {3}초 동안 대상의 마법 방어력을 {6}% 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2}% 확률로 {3}초간 명중을 {6}%만큼 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 {2}% 확률로 {3}초간 명중을 {6}%만큼 감소시킨다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -3452,7 +5386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="48">
+  <fonts count="53">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3790,6 +5724,45 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="&quot;Malgun Gothic&quot;"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3853,7 +5826,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3965,11 +5938,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3985,9 +5995,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4088,6 +6095,32 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4304,307 +6337,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EFF124-ACE2-4719-AA18-3ED5E3FDF9E4}">
-  <dimension ref="A1:AB58"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="1" max="1" width="9.140625" style="29"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="28" width="9.140625" style="30"/>
+    <col min="3" max="28" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="30" customFormat="1"/>
-    <row r="2" spans="2:11" s="30" customFormat="1"/>
-    <row r="3" spans="2:11" s="30" customFormat="1">
-      <c r="B3" s="31" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="30" customFormat="1"/>
-    <row r="5" spans="2:11" s="30" customFormat="1">
-      <c r="B5" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="30" customFormat="1">
-      <c r="J6" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" s="30" customFormat="1">
-      <c r="J7" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" s="30" customFormat="1">
-      <c r="J8" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="30" customFormat="1">
-      <c r="J9" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="K9" s="37" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="30" customFormat="1">
-      <c r="J10" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="30" customFormat="1">
-      <c r="J11" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="30" customFormat="1">
-      <c r="B12" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="2:11" s="30" customFormat="1"/>
-    <row r="14" spans="2:11" s="30" customFormat="1">
-      <c r="B14" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="J14" s="35" t="s">
+    <row r="1" spans="2:11" s="29" customFormat="1"/>
+    <row r="2" spans="2:11" s="29" customFormat="1"/>
+    <row r="3" spans="2:11" s="29" customFormat="1">
+      <c r="B3" s="30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="29" customFormat="1"/>
+    <row r="5" spans="2:11" s="29" customFormat="1">
+      <c r="B5" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="29" customFormat="1">
+      <c r="J6" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="29" customFormat="1">
+      <c r="J7" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="29" customFormat="1">
+      <c r="J8" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" s="29" customFormat="1">
+      <c r="J9" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="29" customFormat="1">
+      <c r="J10" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="29" customFormat="1">
+      <c r="J11" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="29" customFormat="1">
+      <c r="B12" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="2:11" s="29" customFormat="1"/>
+    <row r="14" spans="2:11" s="29" customFormat="1">
+      <c r="B14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="29" customFormat="1">
+      <c r="B15" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="29" customFormat="1" ht="15">
+      <c r="B16" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="29" customFormat="1">
+      <c r="B17" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="29" customFormat="1">
+      <c r="B18" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="29" customFormat="1">
+      <c r="B19"/>
+    </row>
+    <row r="20" spans="2:10" s="29" customFormat="1">
+      <c r="B20" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" s="29" customFormat="1" ht="15">
+      <c r="B21" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="29" customFormat="1">
+      <c r="B22" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" s="29" customFormat="1" ht="13.5">
+      <c r="B23" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="30" customFormat="1">
-      <c r="B15" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="30" customFormat="1" ht="15">
-      <c r="B16" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" s="30" customFormat="1">
-      <c r="B17" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" s="30" customFormat="1">
-      <c r="B18" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="30" customFormat="1">
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="2:10" s="30" customFormat="1">
-      <c r="B20" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" s="30" customFormat="1" ht="15">
-      <c r="B21" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" s="30" customFormat="1">
-      <c r="B22" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" s="30" customFormat="1" ht="13.5">
-      <c r="B23" s="28" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" s="30" customFormat="1" ht="13.5">
-      <c r="B24" s="35" t="s">
-        <v>319</v>
+    <row r="24" spans="2:10" s="29" customFormat="1" ht="13.5">
+      <c r="B24" s="34" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="27" t="s">
-        <v>157</v>
+      <c r="B26" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15">
-      <c r="B27" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>310</v>
+      <c r="B27" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="26" t="s">
-        <v>156</v>
+      <c r="B28" s="25" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="13.5">
-      <c r="B29" s="28" t="s">
-        <v>315</v>
+      <c r="B29" s="27" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="13.5">
-      <c r="B30" s="35" t="s">
-        <v>320</v>
+      <c r="B30" s="27" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="13.5">
+      <c r="B31" s="34" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" ht="15">
-      <c r="B33" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>311</v>
+      <c r="B32" s="34" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" ht="13.5">
-      <c r="B35" s="28" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="13.5">
-      <c r="B36" s="40" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15">
-      <c r="B39" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>312</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15">
+      <c r="B35" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="13.5">
+      <c r="B37" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="13.5">
+      <c r="B38" s="39" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="13.5">
-      <c r="B41" s="28" t="s">
-        <v>317</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15">
+      <c r="B41" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="30"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="30"/>
+      <c r="B42" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="13.5">
+      <c r="B43" s="27" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" ht="15">
-      <c r="B45" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>313</v>
-      </c>
+      <c r="B44" s="29"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="29"/>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="13.5">
-      <c r="B47" s="28" t="s">
-        <v>318</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15">
+      <c r="B47" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="30"/>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="30"/>
+      <c r="B48" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="13.5">
+      <c r="B49" s="27" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="30"/>
+      <c r="B58" s="29"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="29"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4619,8 +6662,8 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4634,48 +6677,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>157</v>
+      <c r="A2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>150</v>
+      <c r="A3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -4694,8 +6737,8 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>156</v>
+      <c r="F4" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -4704,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -4713,7 +6756,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="28" t="str">
+      <c r="F5" s="27" t="str">
         <f>'!_ID_RULE'!B18</f>
         <v>범주 1 ~ 20000</v>
       </c>
@@ -4724,7 +6767,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
@@ -4743,7 +6786,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -4759,7 +6802,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -4775,7 +6818,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -4791,7 +6834,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>16</v>
@@ -4807,7 +6850,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>18</v>
@@ -4823,7 +6866,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>21</v>
@@ -4839,10 +6882,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>564</v>
+        <v>147</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>521</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4853,7 +6896,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
@@ -4867,7 +6910,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>23</v>
@@ -4881,10 +6924,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="74" t="s">
-        <v>563</v>
+        <v>150</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>520</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -4895,10 +6938,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>366</v>
+        <v>151</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>326</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -4909,10 +6952,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>364</v>
+        <v>152</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>324</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -4923,629 +6966,629 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>575</v>
+        <v>153</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>532</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" s="44">
+      <c r="A20" s="43">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>576</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>533</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="59">
+      <c r="A21" s="58">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="58">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="58">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="58">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="58">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="58">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="58">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="58">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="58">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="58">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="58">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>450</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="58">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>451</v>
+      </c>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="58">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>452</v>
+      </c>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="58">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>453</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="58">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>454</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="58">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>469</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>455</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="58">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>456</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="58">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>471</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>457</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="58">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>458</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="58">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>459</v>
+      </c>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="58">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="59" t="s">
+        <v>474</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="58">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="58">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="58">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>477</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>463</v>
+      </c>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="58">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="59" t="s">
+        <v>478</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="58">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="C46" s="61" t="s">
         <v>483</v>
       </c>
-      <c r="C21" s="61" t="s">
-        <v>472</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="59">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="60" t="s">
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="58">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" s="59" t="s">
         <v>484</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>473</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="59">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="60" t="s">
+      <c r="C47" s="61" t="s">
+        <v>485</v>
+      </c>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="58">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="59" t="s">
         <v>486</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>474</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="59">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="60" t="s">
+      <c r="C48" s="61" t="s">
         <v>487</v>
       </c>
-      <c r="C24" s="61" t="s">
-        <v>475</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="59">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B25" s="60" t="s">
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="58">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="59" t="s">
         <v>488</v>
       </c>
-      <c r="C25" s="61" t="s">
-        <v>476</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="59">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B26" s="60" t="s">
+      <c r="C49" s="61" t="s">
         <v>489</v>
       </c>
-      <c r="C26" s="61" t="s">
-        <v>477</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="59">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="60" t="s">
-        <v>485</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="59">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>490</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>479</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="59">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B29" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="C29" s="61" t="s">
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="58">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="59">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B30" s="60" t="s">
+      <c r="C50" s="61" t="s">
         <v>481</v>
       </c>
-      <c r="C30" s="62" t="s">
-        <v>482</v>
-      </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="59">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>492</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>493</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="59">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>508</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>494</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="59">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>509</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>495</v>
-      </c>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="59">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>510</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>496</v>
-      </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="59">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="60" t="s">
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="58">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="C51" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="D51" s="71"/>
+      <c r="E51" s="60"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="C52" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="D52" s="71"/>
+      <c r="E52" s="60"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="58">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="C53" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="60"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="58">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>519</v>
+      </c>
+      <c r="D54" s="71"/>
+      <c r="E54" s="60"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="58">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B55" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="C35" s="62" t="s">
-        <v>497</v>
-      </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="59">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>512</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>498</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="59">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="60" t="s">
-        <v>513</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="59">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>514</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>500</v>
-      </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="59">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="60" t="s">
-        <v>515</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>501</v>
-      </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="59">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B40" s="60" t="s">
+      <c r="C55" s="61" t="s">
         <v>516</v>
       </c>
-      <c r="C40" s="62" t="s">
-        <v>502</v>
-      </c>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="59">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B41" s="60" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="58">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B56" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="C56" s="61" t="s">
         <v>517</v>
       </c>
-      <c r="C41" s="62" t="s">
-        <v>503</v>
-      </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="59">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>518</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>504</v>
-      </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="59">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B43" s="60" t="s">
-        <v>519</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>505</v>
-      </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="59">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B44" s="60" t="s">
-        <v>520</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>506</v>
-      </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="59">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B45" s="60" t="s">
-        <v>521</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>507</v>
-      </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="59">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B46" s="60" t="s">
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57" s="58">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B57" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="C57" s="74" t="s">
+        <v>522</v>
+      </c>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58" s="58">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>528</v>
+      </c>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="58">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B59" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>529</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="58">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B60" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="C46" s="62" t="s">
-        <v>526</v>
-      </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="59">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B47" s="60" t="s">
+      <c r="C60" s="75" t="s">
+        <v>530</v>
+      </c>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A61" s="58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B61" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="C47" s="62" t="s">
-        <v>528</v>
-      </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="59">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>529</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>530</v>
-      </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="59">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B49" s="60" t="s">
+      <c r="C61" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="C49" s="62" t="s">
-        <v>532</v>
-      </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="59">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B50" s="60" t="s">
-        <v>523</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>524</v>
-      </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="59">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>555</v>
-      </c>
-      <c r="C51" s="73" t="s">
-        <v>562</v>
-      </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="61"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="59">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B52" s="60" t="s">
-        <v>556</v>
-      </c>
-      <c r="C52" s="73" t="s">
-        <v>562</v>
-      </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="61"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="59">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B53" s="60" t="s">
-        <v>557</v>
-      </c>
-      <c r="C53" s="73" t="s">
-        <v>562</v>
-      </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="61"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="59">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B54" s="60" t="s">
-        <v>558</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>562</v>
-      </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="61"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="59">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B55" s="60" t="s">
-        <v>554</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>559</v>
-      </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="59">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B56" s="60" t="s">
-        <v>561</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>560</v>
-      </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="59">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B57" s="60" t="s">
-        <v>566</v>
-      </c>
-      <c r="C57" s="75" t="s">
-        <v>565</v>
-      </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="59">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B58" s="60" t="s">
-        <v>567</v>
-      </c>
-      <c r="C58" s="62" t="s">
-        <v>571</v>
-      </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="59">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B59" s="60" t="s">
-        <v>569</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>572</v>
-      </c>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="59">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B60" s="60" t="s">
-        <v>568</v>
-      </c>
-      <c r="C60" s="76" t="s">
-        <v>573</v>
-      </c>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="59">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B61" s="60" t="s">
-        <v>570</v>
-      </c>
-      <c r="C61" s="76" t="s">
-        <v>574</v>
-      </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="59">
+      <c r="A62" s="58">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B62" s="60" t="s">
-        <v>577</v>
-      </c>
-      <c r="C62" s="76" t="s">
-        <v>578</v>
-      </c>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
+      <c r="B62" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="C62" s="75" t="s">
+        <v>535</v>
+      </c>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="59">
+      <c r="A63" s="58">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B63" s="60" t="s">
-        <v>579</v>
-      </c>
-      <c r="C63" s="78" t="s">
-        <v>580</v>
-      </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
+      <c r="B63" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="C63" s="77" t="s">
+        <v>537</v>
+      </c>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5561,7 +7604,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5576,48 +7619,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>157</v>
+      <c r="A2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>150</v>
+      <c r="A3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -5636,24 +7679,24 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>156</v>
+      <c r="F4" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>20001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="28" t="str">
+      <c r="F5" s="27" t="str">
         <f>'!_ID_RULE'!B23</f>
         <v>범주 20001 ~ 40000</v>
       </c>
@@ -5664,10 +7707,10 @@
         <v>20002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -5682,208 +7725,208 @@
         <v>20003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>544</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+        <v>259</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>20004</v>
       </c>
-      <c r="B8" s="71" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="70" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>20005</v>
       </c>
-      <c r="B9" s="71" t="s">
-        <v>534</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>545</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
+      <c r="B9" s="70" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>502</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>20006</v>
       </c>
-      <c r="B10" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>546</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
+      <c r="B10" s="70" t="s">
+        <v>492</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>20007</v>
       </c>
-      <c r="B11" s="71" t="s">
-        <v>536</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>547</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
+      <c r="B11" s="70" t="s">
+        <v>493</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>20008</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>537</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>548</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
+      <c r="B12" s="70" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>20009</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>538</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>549</v>
-      </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
+      <c r="B13" s="70" t="s">
+        <v>495</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
     </row>
     <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>20010</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>539</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>550</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
+      <c r="B14" s="70" t="s">
+        <v>496</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>20011</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>540</v>
-      </c>
-      <c r="C15" s="59" t="s">
-        <v>551</v>
-      </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
+      <c r="B15" s="70" t="s">
+        <v>497</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>20012</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>541</v>
-      </c>
-      <c r="C16" s="59" t="s">
-        <v>552</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
+      <c r="B16" s="70" t="s">
+        <v>498</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>509</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>20013</v>
       </c>
-      <c r="B17" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="C17" s="59" t="s">
-        <v>553</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
+      <c r="B17" s="70" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="1:5" ht="12.75">
-      <c r="A18" s="47">
+      <c r="A18" s="46">
         <v>30001</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>335</v>
-      </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="B18" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:5" ht="12.75">
-      <c r="A19" s="49">
+      <c r="A19" s="48">
         <f>A18+1</f>
         <v>30002</v>
       </c>
-      <c r="B19" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>336</v>
-      </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="B19" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" s="49">
+      <c r="A20" s="48">
         <f t="shared" ref="A20" si="1">A19+1</f>
         <v>30003</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="C20" s="52" t="s">
-        <v>337</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="B20" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>297</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:5" ht="12.75">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="1:5" ht="12.75">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5892,11 +7935,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B56DAE-9D40-4CC5-82CA-304E2DA30E3A}">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B56DAE-9D40-4CC5-82CA-304E2DA30E3A}">
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5911,51 +7957,51 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B1" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.5">
+      <c r="A2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" ht="13.5">
-      <c r="A2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>150</v>
+      <c r="A3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5974,523 +8020,1115 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>156</v>
+      <c r="F4" s="25" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>469</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="28" t="str">
+        <v>542</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="27" t="str">
         <f>'!_ID_RULE'!B29</f>
         <v>범주 40001 ~ 60000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" t="str">
+        <v>538</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>574</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="85" t="str">
         <f>'!_ID_RULE'!B30</f>
-        <v>40001~50000: 캐릭터  /  50001~60000: 몬스터</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>범주 400001 ~ 600000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A27" si="0">A6+1</f>
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>575</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>561</v>
+      </c>
+      <c r="F7" s="82" t="str">
+        <f>'!_ID_RULE'!B31</f>
+        <v>40001~50000: 캐릭터 스킬명  /  50001~60000: 몬스터 스킬명</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.5">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>40004</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>581</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>544</v>
+      </c>
+      <c r="F8" s="82" t="str">
+        <f>'!_ID_RULE'!B32</f>
+        <v>400001~500000: 캐릭터 스킬 설명 / 500001~600000 몬스터 스킬 설명</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.5">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>40005</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>576</v>
+      </c>
+      <c r="E9" s="89" t="s">
+        <v>597</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.5">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>40006</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>580</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>562</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>40007</v>
+      </c>
+      <c r="B11" s="78" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>577</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>598</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>40008</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>563</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>40009</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>564</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.5">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>40010</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>565</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>40011</v>
+      </c>
+      <c r="B15" s="78" t="s">
+        <v>569</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>40012</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="F16" s="93" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>40013</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>551</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="F17" s="93" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>40014</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>570</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>40015</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>552</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>40016</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>553</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>40004</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>40005</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>40006</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>40007</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>40008</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="13.5">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>40017</v>
+      </c>
+      <c r="B21" s="78" t="s">
+        <v>571</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.5">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>40018</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>554</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>40019</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>555</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.5">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>40020</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>556</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.5">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>40021</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>557</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.5">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>40022</v>
+      </c>
+      <c r="B26" s="78" t="s">
+        <v>558</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.5">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>40023</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>559</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.5">
+      <c r="A28" s="4">
+        <v>4100001</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5">
+      <c r="A29" s="4">
+        <v>4100002</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.5">
+      <c r="A30" s="4">
+        <v>4100003</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.5">
+      <c r="A31" s="4">
+        <v>4100004</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5">
+      <c r="A32" s="4">
+        <v>4100102</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>625</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.5">
+      <c r="A33" s="4">
+        <v>4100102</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>626</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.5">
+      <c r="A34" s="4">
+        <v>4100103</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>627</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.5">
+      <c r="A35" s="4">
+        <v>4100104</v>
+      </c>
+      <c r="B35" s="91" t="s">
+        <v>628</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.5">
+      <c r="A36" s="4">
+        <v>4100106</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>629</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.5">
+      <c r="A37" s="4">
+        <v>4100107</v>
+      </c>
+      <c r="B37" s="91" t="s">
+        <v>630</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.5">
+      <c r="A38" s="4">
+        <v>4100108</v>
+      </c>
+      <c r="B38" s="91" t="s">
+        <v>631</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.5">
+      <c r="A39" s="4">
+        <v>4100109</v>
+      </c>
+      <c r="B39" s="91" t="s">
+        <v>632</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.5">
+      <c r="A40" s="4">
+        <v>4100202</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>649</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.5">
+      <c r="A41" s="4">
+        <v>4100203</v>
+      </c>
+      <c r="B41" s="91" t="s">
+        <v>650</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.5">
+      <c r="A42" s="4">
+        <v>4100204</v>
+      </c>
+      <c r="B42" s="91" t="s">
+        <v>652</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.5">
+      <c r="A43" s="4">
+        <v>4100205</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>653</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.5">
+      <c r="A44" s="4">
+        <v>4100302</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>677</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.5">
+      <c r="A45" s="4">
+        <v>4100303</v>
+      </c>
+      <c r="B45" s="91" t="s">
+        <v>676</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.5">
+      <c r="A46" s="4">
+        <v>4100304</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>654</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.5">
+      <c r="A47" s="4">
+        <v>4100305</v>
+      </c>
+      <c r="B47" s="91" t="s">
+        <v>655</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.5">
+      <c r="A48" s="4">
+        <v>4100401</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>674</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" ht="13.5">
+      <c r="A49" s="43">
+        <v>4100402</v>
+      </c>
+      <c r="B49" s="91" t="s">
+        <v>675</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>661</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5">
+      <c r="A50" s="58">
+        <v>4100403</v>
+      </c>
+      <c r="B50" s="91" t="s">
+        <v>659</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>663</v>
+      </c>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.5">
+      <c r="A51" s="43">
+        <v>4100404</v>
+      </c>
+      <c r="B51" s="91" t="s">
+        <v>665</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>662</v>
+      </c>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.5">
+      <c r="A52" s="58">
+        <v>4100405</v>
+      </c>
+      <c r="B52" s="91" t="s">
+        <v>666</v>
+      </c>
+      <c r="C52" s="79" t="s">
+        <v>664</v>
+      </c>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+    </row>
+    <row r="53" spans="1:5" ht="13.5">
+      <c r="A53" s="43">
+        <v>4100406</v>
+      </c>
+      <c r="B53" s="91" t="s">
+        <v>672</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>661</v>
+      </c>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+    </row>
+    <row r="54" spans="1:5" ht="13.5">
+      <c r="A54" s="58">
+        <v>4100502</v>
+      </c>
+      <c r="B54" s="91" t="s">
+        <v>673</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+    </row>
+    <row r="55" spans="1:5" ht="13.5">
+      <c r="A55" s="58">
+        <v>4100503</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>667</v>
+      </c>
+      <c r="C55" s="79" t="s">
+        <v>693</v>
+      </c>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+    </row>
+    <row r="56" spans="1:5" ht="13.5">
+      <c r="A56" s="58">
+        <v>4100504</v>
+      </c>
+      <c r="B56" s="91" t="s">
+        <v>669</v>
+      </c>
+      <c r="C56" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+    </row>
+    <row r="57" spans="1:5" ht="13.5">
+      <c r="A57" s="58">
+        <v>4100602</v>
+      </c>
+      <c r="B57" s="91" t="s">
+        <v>670</v>
+      </c>
+      <c r="C57" s="79" t="s">
+        <v>694</v>
+      </c>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+    </row>
+    <row r="58" spans="1:5" ht="13.5">
+      <c r="A58" s="58">
+        <v>4100603</v>
+      </c>
+      <c r="B58" s="91" t="s">
+        <v>671</v>
+      </c>
+      <c r="C58" s="79" t="s">
+        <v>681</v>
+      </c>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+    </row>
+    <row r="59" spans="1:5" ht="13.5">
+      <c r="A59" s="58">
+        <v>4100604</v>
+      </c>
+      <c r="B59" s="91" t="s">
+        <v>695</v>
+      </c>
+      <c r="C59" s="79" t="s">
+        <v>701</v>
+      </c>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+    </row>
+    <row r="60" spans="1:5" ht="13.5">
+      <c r="A60" s="58">
+        <v>4100605</v>
+      </c>
+      <c r="B60" s="91" t="s">
+        <v>696</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+    </row>
+    <row r="61" spans="1:5" ht="13.5">
+      <c r="A61" s="58">
+        <v>4100606</v>
+      </c>
+      <c r="B61" s="95" t="s">
+        <v>697</v>
+      </c>
+      <c r="C61" s="79" t="s">
+        <v>700</v>
+      </c>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+    </row>
+    <row r="62" spans="1:5" ht="13.5">
+      <c r="A62" s="58">
+        <v>4100607</v>
+      </c>
+      <c r="B62" s="95" t="s">
+        <v>698</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+    </row>
+    <row r="63" spans="1:5" ht="13.5">
+      <c r="A63" s="58">
+        <v>4100608</v>
+      </c>
+      <c r="B63" s="95" t="s">
+        <v>699</v>
+      </c>
+      <c r="C63" s="79" t="s">
+        <v>704</v>
+      </c>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="46">
+        <v>50001</v>
+      </c>
+      <c r="B64" s="47" t="s">
         <v>282</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>40009</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C64" s="48" t="s">
+        <v>287</v>
+      </c>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="48">
+        <f>A64+1</f>
+        <v>50002</v>
+      </c>
+      <c r="B65" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>40010</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C65" s="48" t="s">
+        <v>288</v>
+      </c>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="48">
+        <f t="shared" ref="A66:A68" si="1">A65+1</f>
+        <v>50003</v>
+      </c>
+      <c r="B66" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>40011</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>40012</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.5">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>40013</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>40014</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.5">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>40015</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="C66" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.5">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>40016</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.5">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
-        <v>40017</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.5">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>40018</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.5">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>40019</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" ht="13.5">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>40020</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" ht="13.5">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>40021</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" ht="13.5">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>40022</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" ht="13.5">
-      <c r="A27" s="44">
-        <f t="shared" si="0"/>
-        <v>40023</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="47">
-        <v>50001</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="49">
-        <f>A28+1</f>
-        <v>50002</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="49">
-        <f t="shared" ref="A30:A32" si="1">A29+1</f>
-        <v>50003</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="49">
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="48">
         <f t="shared" si="1"/>
         <v>50004</v>
       </c>
-      <c r="B31" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="49">
+      <c r="B67" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="48">
         <f t="shared" si="1"/>
         <v>50005</v>
       </c>
-      <c r="B32" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="49"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="49"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="49"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
+      <c r="B68" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="48"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="48"/>
+      <c r="E79" s="48"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="48"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="48"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="48"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6515,48 +9153,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="13.5">
-      <c r="A2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>157</v>
+      <c r="A2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>150</v>
+      <c r="A3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -6575,25 +9213,25 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>156</v>
+      <c r="F4" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>70001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="28" t="str">
-        <f>'!_ID_RULE'!B35</f>
+      <c r="F5" s="27" t="str">
+        <f>'!_ID_RULE'!B37</f>
         <v>범주 70001 ~ 100000</v>
       </c>
     </row>
@@ -6603,15 +9241,15 @@
         <v>70002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" t="str">
-        <f>'!_ID_RULE'!B36</f>
+        <f>'!_ID_RULE'!B38</f>
         <v>70001~아이템 명, 장비 명 80001~90000, 조각 이름 90001~100000</v>
       </c>
     </row>
@@ -6621,10 +9259,10 @@
         <v>70003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -6635,10 +9273,10 @@
         <v>70004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -6649,10 +9287,10 @@
         <v>70005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -6663,10 +9301,10 @@
         <v>70006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -6677,10 +9315,10 @@
         <v>70007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -6691,10 +9329,10 @@
         <v>70008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -6705,10 +9343,10 @@
         <v>70009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -6719,10 +9357,10 @@
         <v>70010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -6733,7 +9371,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>26</v>
@@ -6747,7 +9385,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>27</v>
@@ -6761,7 +9399,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
@@ -6775,9 +9413,9 @@
         <v>70014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C18" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="C18" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="4"/>
@@ -6789,7 +9427,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -6803,10 +9441,10 @@
         <v>70016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -6817,10 +9455,10 @@
         <v>70017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -6831,10 +9469,10 @@
         <v>70018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -6845,10 +9483,10 @@
         <v>70019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -6859,10 +9497,10 @@
         <v>70020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -6873,7 +9511,7 @@
         <v>70021</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
@@ -6887,7 +9525,7 @@
         <v>70022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
@@ -6901,7 +9539,7 @@
         <v>70023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>33</v>
@@ -6915,10 +9553,10 @@
         <v>70024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -6929,7 +9567,7 @@
         <v>70025</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -6943,7 +9581,7 @@
         <v>70026</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>35</v>
@@ -6957,7 +9595,7 @@
         <v>70027</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -6966,346 +9604,346 @@
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" s="42">
+      <c r="A32" s="41">
         <v>80001</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="41" t="s">
+      <c r="B32" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5" ht="12.75">
-      <c r="A33" s="41">
+      <c r="A33" s="40">
         <f>A32+1</f>
         <v>80002</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C33" s="41" t="s">
+      <c r="B33" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" s="41">
+      <c r="A34" s="40">
         <f t="shared" ref="A34:A55" si="1">A33+1</f>
         <v>80003</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34" s="41" t="s">
+      <c r="B34" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5" ht="12.75">
-      <c r="A35" s="41">
+      <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>80004</v>
       </c>
-      <c r="B35" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="41" t="s">
+      <c r="B35" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5" ht="12.75">
-      <c r="A36" s="41">
+      <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>80005</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="41" t="s">
+      <c r="B36" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5" ht="12.75">
-      <c r="A37" s="41">
+      <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>80006</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C37" s="41" t="s">
+      <c r="B37" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5" ht="12.75">
-      <c r="A38" s="41">
+      <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>80007</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="C38" s="41" t="s">
+      <c r="B38" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="1:5" ht="12.75">
-      <c r="A39" s="41">
+      <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>80008</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="41" t="s">
+      <c r="B39" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="41">
+      <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>80009</v>
       </c>
-      <c r="B40" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="41" t="s">
+      <c r="B40" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="41">
+      <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>80010</v>
       </c>
-      <c r="B41" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="41" t="s">
+      <c r="B41" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="41">
+      <c r="A42" s="40">
         <f t="shared" si="1"/>
         <v>80011</v>
       </c>
-      <c r="B42" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="41" t="s">
+      <c r="B42" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="41">
+      <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>80012</v>
       </c>
-      <c r="B43" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="C43" s="41" t="s">
+      <c r="B43" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="41">
+      <c r="A44" s="40">
         <f t="shared" si="1"/>
         <v>80013</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="41" t="s">
+      <c r="B44" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="41">
+      <c r="A45" s="40">
         <f t="shared" si="1"/>
         <v>80014</v>
       </c>
-      <c r="B45" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="C45" s="41" t="s">
+      <c r="B45" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="41">
+      <c r="A46" s="40">
         <f t="shared" si="1"/>
         <v>80015</v>
       </c>
-      <c r="B46" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="C46" s="41" t="s">
+      <c r="B46" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="41">
+      <c r="A47" s="40">
         <f t="shared" si="1"/>
         <v>80016</v>
       </c>
-      <c r="B47" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C47" s="41" t="s">
+      <c r="B47" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="41">
+      <c r="A48" s="40">
         <f t="shared" si="1"/>
         <v>80017</v>
       </c>
-      <c r="B48" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="41" t="s">
+      <c r="B48" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="41">
+      <c r="A49" s="40">
         <f t="shared" si="1"/>
         <v>80018</v>
       </c>
-      <c r="B49" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" s="41" t="s">
+      <c r="B49" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="41">
+      <c r="A50" s="40">
         <f t="shared" si="1"/>
         <v>80019</v>
       </c>
-      <c r="B50" s="41" t="s">
-        <v>206</v>
-      </c>
-      <c r="C50" s="41" t="s">
+      <c r="B50" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="41">
+      <c r="A51" s="40">
         <f t="shared" si="1"/>
         <v>80020</v>
       </c>
-      <c r="B51" s="41" t="s">
-        <v>207</v>
-      </c>
-      <c r="C51" s="41" t="s">
+      <c r="B51" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="41">
+      <c r="A52" s="40">
         <f t="shared" si="1"/>
         <v>80021</v>
       </c>
-      <c r="B52" s="41" t="s">
-        <v>208</v>
-      </c>
-      <c r="C52" s="41" t="s">
+      <c r="B52" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="41">
+      <c r="A53" s="40">
         <f t="shared" si="1"/>
         <v>80022</v>
       </c>
-      <c r="B53" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="41" t="s">
+      <c r="B53" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="41">
+      <c r="A54" s="40">
         <f t="shared" si="1"/>
         <v>80023</v>
       </c>
-      <c r="B54" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" s="41" t="s">
+      <c r="B54" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="41">
+      <c r="A55" s="40">
         <f t="shared" si="1"/>
         <v>80024</v>
       </c>
-      <c r="B55" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="C55" s="41" t="s">
+      <c r="B55" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5" ht="12.75">
-      <c r="A56" s="53">
+      <c r="A56" s="52">
         <v>90001</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>37</v>
@@ -7319,7 +9957,7 @@
         <v>90002</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>38</v>
@@ -7333,13 +9971,13 @@
         <v>90003</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="C58" s="44" t="s">
+        <v>427</v>
+      </c>
+      <c r="C58" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7369,48 +10007,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>157</v>
+      <c r="A2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
-      <c r="A3" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>150</v>
+      <c r="A3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -7429,8 +10067,8 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>156</v>
+      <c r="F4" s="25" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
@@ -7438,15 +10076,15 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="28" t="str">
-        <f>'!_ID_RULE'!B41</f>
+      <c r="F5" s="27" t="str">
+        <f>'!_ID_RULE'!B43</f>
         <v>범주 100001 ~ 130000</v>
       </c>
     </row>
@@ -7455,7 +10093,7 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>48</v>
@@ -7468,7 +10106,7 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>49</v>
@@ -7481,7 +10119,7 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>50</v>
@@ -7494,7 +10132,7 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>51</v>
@@ -7507,7 +10145,7 @@
         <v>40006</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>52</v>
@@ -7520,7 +10158,7 @@
         <v>40007</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>53</v>
@@ -7533,7 +10171,7 @@
         <v>40008</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>54</v>
@@ -7546,7 +10184,7 @@
         <v>40009</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>55</v>
@@ -7559,7 +10197,7 @@
         <v>40010</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>56</v>
@@ -7572,7 +10210,7 @@
         <v>40011</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>57</v>
@@ -7585,7 +10223,7 @@
         <v>40012</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>58</v>
@@ -7598,7 +10236,7 @@
         <v>40013</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>59</v>
@@ -7611,7 +10249,7 @@
         <v>40014</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>60</v>
@@ -7624,7 +10262,7 @@
         <v>40015</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>61</v>
@@ -7637,7 +10275,7 @@
         <v>40016</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>62</v>
@@ -7650,7 +10288,7 @@
         <v>40017</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>63</v>
@@ -7663,7 +10301,7 @@
         <v>40018</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>64</v>
@@ -7676,7 +10314,7 @@
         <v>40019</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>65</v>
@@ -7689,7 +10327,7 @@
         <v>40020</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>66</v>
@@ -7702,7 +10340,7 @@
         <v>40021</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>67</v>
@@ -7715,7 +10353,7 @@
         <v>40022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>68</v>
@@ -7728,7 +10366,7 @@
         <v>40023</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>69</v>
@@ -7741,7 +10379,7 @@
         <v>40024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>70</v>
@@ -7754,7 +10392,7 @@
         <v>40025</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>71</v>
@@ -7767,7 +10405,7 @@
         <v>40026</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>72</v>
@@ -7780,7 +10418,7 @@
         <v>40027</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>73</v>
@@ -7793,7 +10431,7 @@
         <v>40028</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>74</v>
@@ -7806,7 +10444,7 @@
         <v>40029</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>75</v>
@@ -7819,7 +10457,7 @@
         <v>40030</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>76</v>
@@ -7832,7 +10470,7 @@
         <v>40031</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>77</v>
@@ -7845,7 +10483,7 @@
         <v>40032</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>78</v>
@@ -7858,7 +10496,7 @@
         <v>40033</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>79</v>
@@ -7871,7 +10509,7 @@
         <v>40034</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>80</v>
@@ -7884,7 +10522,7 @@
         <v>40035</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>81</v>
@@ -7897,7 +10535,7 @@
         <v>40036</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>82</v>
@@ -7910,7 +10548,7 @@
         <v>40037</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>83</v>
@@ -7923,7 +10561,7 @@
         <v>40038</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>84</v>
@@ -7936,7 +10574,7 @@
         <v>40039</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>85</v>
@@ -7949,7 +10587,7 @@
         <v>40040</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>86</v>
@@ -7962,7 +10600,7 @@
         <v>40041</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>87</v>
@@ -7975,7 +10613,7 @@
         <v>40042</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>88</v>
@@ -7988,7 +10626,7 @@
         <v>40043</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>89</v>
@@ -8001,7 +10639,7 @@
         <v>40044</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>90</v>
@@ -8014,7 +10652,7 @@
         <v>40045</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>91</v>
@@ -8027,7 +10665,7 @@
         <v>40046</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>92</v>
@@ -8040,7 +10678,7 @@
         <v>40047</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>93</v>
@@ -8053,7 +10691,7 @@
         <v>40048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>94</v>
@@ -8066,7 +10704,7 @@
         <v>40049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>95</v>
@@ -8079,7 +10717,7 @@
         <v>40050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>96</v>
@@ -8092,7 +10730,7 @@
         <v>40051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>97</v>
@@ -8105,7 +10743,7 @@
         <v>40052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>98</v>
@@ -8118,7 +10756,7 @@
         <v>40053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>99</v>
@@ -8131,7 +10769,7 @@
         <v>40054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>100</v>
@@ -8144,7 +10782,7 @@
         <v>40055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>101</v>
@@ -8157,7 +10795,7 @@
         <v>40056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>102</v>
@@ -8170,7 +10808,7 @@
         <v>40057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>103</v>
@@ -8183,7 +10821,7 @@
         <v>40058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>104</v>
@@ -8196,7 +10834,7 @@
         <v>40059</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>105</v>
@@ -8209,7 +10847,7 @@
         <v>40060</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>106</v>
@@ -8222,7 +10860,7 @@
         <v>40061</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>107</v>
@@ -8235,7 +10873,7 @@
         <v>40062</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>108</v>
@@ -8248,7 +10886,7 @@
         <v>40063</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>109</v>
@@ -8284,48 +10922,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>157</v>
+      <c r="A2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75">
-      <c r="A3" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>150</v>
+      <c r="A3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="12.75">
@@ -8341,155 +10979,155 @@
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="68" customFormat="1" ht="27">
-      <c r="A5" s="63">
+      <c r="F4" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="67" customFormat="1" ht="27">
+      <c r="A5" s="62">
         <v>70001</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>522</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>533</v>
-      </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="67" t="str">
-        <f>'!_ID_RULE'!B47</f>
+      <c r="B5" s="62" t="s">
+        <v>479</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66" t="str">
+        <f>'!_ID_RULE'!B49</f>
         <v>범주 130001 ~ 160000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-    </row>
-    <row r="7" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-    </row>
-    <row r="8" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-    </row>
-    <row r="9" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-    </row>
-    <row r="10" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-    </row>
-    <row r="11" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-    </row>
-    <row r="12" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-    </row>
-    <row r="13" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-    </row>
-    <row r="14" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-    </row>
-    <row r="15" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-    </row>
-    <row r="16" spans="1:6" s="68" customFormat="1" ht="12.75">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-    </row>
-    <row r="17" spans="1:5" s="68" customFormat="1" ht="12.75">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="18" spans="1:5" s="68" customFormat="1" ht="12.75">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-    </row>
-    <row r="19" spans="1:5" s="68" customFormat="1" ht="12.75">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-    </row>
-    <row r="20" spans="1:5" s="68" customFormat="1" ht="12.75">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-    </row>
-    <row r="21" spans="1:5" s="68" customFormat="1" ht="12.75">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-    </row>
-    <row r="22" spans="1:5" s="68" customFormat="1" ht="12.75">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-    </row>
-    <row r="23" spans="1:5" s="68" customFormat="1" ht="12.75">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
+    <row r="6" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+    </row>
+    <row r="7" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+    </row>
+    <row r="9" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+    </row>
+    <row r="10" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+    </row>
+    <row r="11" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+    </row>
+    <row r="13" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+    </row>
+    <row r="14" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+    </row>
+    <row r="15" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+    </row>
+    <row r="16" spans="1:6" s="67" customFormat="1" ht="12.75">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+    </row>
+    <row r="17" spans="1:5" s="67" customFormat="1" ht="12.75">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+    </row>
+    <row r="18" spans="1:5" s="67" customFormat="1" ht="12.75">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+    </row>
+    <row r="19" spans="1:5" s="67" customFormat="1" ht="12.75">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+    </row>
+    <row r="20" spans="1:5" s="67" customFormat="1" ht="12.75">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" s="67" customFormat="1" ht="12.75">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+    </row>
+    <row r="22" spans="1:5" s="67" customFormat="1" ht="12.75">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+    </row>
+    <row r="23" spans="1:5" s="67" customFormat="1" ht="12.75">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8519,48 +11157,48 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>157</v>
+      <c r="A2" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75">
-      <c r="A3" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>150</v>
+      <c r="A3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="12.75">
@@ -8579,8 +11217,8 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>156</v>
+      <c r="F4" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -8595,8 +11233,8 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="54" t="s">
-        <v>354</v>
+      <c r="F5" s="53" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="12.75">
@@ -8606,12 +11244,12 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="54" t="s">
-        <v>356</v>
+      <c r="F6" s="53" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="12.75">
@@ -8621,12 +11259,12 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="54" t="s">
-        <v>358</v>
+      <c r="F7" s="53" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75">
@@ -8636,12 +11274,12 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="54" t="s">
-        <v>360</v>
+      <c r="F8" s="53" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75">
@@ -8650,13 +11288,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="55" t="s">
-        <v>361</v>
+      <c r="C9" s="54" t="s">
+        <v>321</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="54" t="s">
-        <v>362</v>
+      <c r="F9" s="53" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75">
@@ -8665,12 +11303,12 @@
         <v>6</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="55" t="s">
-        <v>363</v>
+      <c r="C10" s="54" t="s">
+        <v>323</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="54"/>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="4">
@@ -8678,12 +11316,12 @@
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="55" t="s">
-        <v>364</v>
+      <c r="C11" s="54" t="s">
+        <v>324</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="54"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="4">
@@ -8691,12 +11329,12 @@
         <v>8</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="55" t="s">
-        <v>365</v>
+      <c r="C12" s="54" t="s">
+        <v>325</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="54"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="4">
@@ -8704,12 +11342,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="55" t="s">
-        <v>366</v>
+      <c r="C13" s="54" t="s">
+        <v>326</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4">
@@ -8717,12 +11355,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="55" t="s">
-        <v>367</v>
+      <c r="C14" s="54" t="s">
+        <v>327</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="54"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4">
@@ -8730,12 +11368,12 @@
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="55" t="s">
-        <v>368</v>
+      <c r="C15" s="54" t="s">
+        <v>328</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="54"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4">
@@ -8743,12 +11381,12 @@
         <v>12</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="56" t="s">
-        <v>369</v>
+      <c r="C16" s="55" t="s">
+        <v>329</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="54"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="4">
@@ -8756,12 +11394,12 @@
         <v>13</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="55" t="s">
-        <v>370</v>
+      <c r="C17" s="54" t="s">
+        <v>330</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="54"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="4">
@@ -8769,12 +11407,12 @@
         <v>14</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="55" t="s">
-        <v>371</v>
+      <c r="C18" s="54" t="s">
+        <v>331</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="54"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" ht="12.75">
       <c r="A19" s="4">
@@ -8782,12 +11420,12 @@
         <v>15</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="55" t="s">
-        <v>372</v>
+      <c r="C19" s="54" t="s">
+        <v>332</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="54"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="4">
@@ -8795,12 +11433,12 @@
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="55" t="s">
-        <v>373</v>
+      <c r="C20" s="54" t="s">
+        <v>333</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="54"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="4">
@@ -8808,12 +11446,12 @@
         <v>17</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="55" t="s">
-        <v>374</v>
+      <c r="C21" s="54" t="s">
+        <v>334</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="54"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="4">
@@ -8821,12 +11459,12 @@
         <v>18</v>
       </c>
       <c r="B22" s="4"/>
-      <c r="C22" s="55" t="s">
-        <v>375</v>
+      <c r="C22" s="54" t="s">
+        <v>335</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="54"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="4">
@@ -8834,12 +11472,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="55" t="s">
-        <v>376</v>
+      <c r="C23" s="54" t="s">
+        <v>336</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="54"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="4">
@@ -8847,12 +11485,12 @@
         <v>20</v>
       </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="55" t="s">
-        <v>377</v>
+      <c r="C24" s="54" t="s">
+        <v>337</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="54"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="4">
@@ -8860,12 +11498,12 @@
         <v>21</v>
       </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="55" t="s">
-        <v>378</v>
+      <c r="C25" s="54" t="s">
+        <v>338</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="54"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="4">
@@ -8873,12 +11511,12 @@
         <v>22</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="55" t="s">
-        <v>379</v>
+      <c r="C26" s="54" t="s">
+        <v>339</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="54"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="4">
@@ -8886,12 +11524,12 @@
         <v>23</v>
       </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="55" t="s">
-        <v>380</v>
+      <c r="C27" s="54" t="s">
+        <v>340</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="54"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="4">
@@ -8899,12 +11537,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="55" t="s">
-        <v>381</v>
+      <c r="C28" s="54" t="s">
+        <v>341</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="54"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="4">
@@ -8912,12 +11550,12 @@
         <v>25</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="55" t="s">
-        <v>382</v>
+      <c r="C29" s="54" t="s">
+        <v>342</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="54"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="4">
@@ -8926,12 +11564,12 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="54" t="s">
-        <v>388</v>
+      <c r="F30" s="53" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -8941,12 +11579,12 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="54" t="s">
-        <v>389</v>
+      <c r="F31" s="53" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
@@ -8956,12 +11594,12 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="54" t="s">
-        <v>390</v>
+      <c r="F32" s="53" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -8971,12 +11609,12 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="54" t="s">
-        <v>391</v>
+      <c r="F33" s="53" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
@@ -8986,12 +11624,12 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="54" t="s">
-        <v>392</v>
+      <c r="F34" s="53" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
@@ -9000,12 +11638,12 @@
         <v>31</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="55" t="s">
-        <v>393</v>
+      <c r="C35" s="54" t="s">
+        <v>353</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="54"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="4">
@@ -9013,12 +11651,12 @@
         <v>32</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="55" t="s">
-        <v>394</v>
+      <c r="C36" s="54" t="s">
+        <v>354</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="54"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="4">
@@ -9026,12 +11664,12 @@
         <v>33</v>
       </c>
       <c r="B37" s="4"/>
-      <c r="C37" s="55" t="s">
-        <v>395</v>
+      <c r="C37" s="54" t="s">
+        <v>355</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="54"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="4">
@@ -9039,12 +11677,12 @@
         <v>34</v>
       </c>
       <c r="B38" s="4"/>
-      <c r="C38" s="55" t="s">
-        <v>396</v>
+      <c r="C38" s="54" t="s">
+        <v>356</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="54"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="4">
@@ -9052,12 +11690,12 @@
         <v>35</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="C39" s="55" t="s">
-        <v>397</v>
+      <c r="C39" s="54" t="s">
+        <v>357</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="54"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="4">
@@ -9065,12 +11703,12 @@
         <v>36</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="C40" s="55" t="s">
-        <v>398</v>
+      <c r="C40" s="54" t="s">
+        <v>358</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="54"/>
+      <c r="F40" s="53"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="4">
@@ -9078,12 +11716,12 @@
         <v>37</v>
       </c>
       <c r="B41" s="4"/>
-      <c r="C41" s="55" t="s">
-        <v>399</v>
+      <c r="C41" s="54" t="s">
+        <v>359</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="54"/>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="4">
@@ -9091,12 +11729,12 @@
         <v>38</v>
       </c>
       <c r="B42" s="4"/>
-      <c r="C42" s="55" t="s">
-        <v>400</v>
+      <c r="C42" s="54" t="s">
+        <v>360</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="54"/>
+      <c r="F42" s="53"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="4">
@@ -9104,12 +11742,12 @@
         <v>39</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="55" t="s">
-        <v>401</v>
+      <c r="C43" s="54" t="s">
+        <v>361</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="54"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="4">
@@ -9117,12 +11755,12 @@
         <v>40</v>
       </c>
       <c r="B44" s="4"/>
-      <c r="C44" s="55" t="s">
-        <v>402</v>
+      <c r="C44" s="54" t="s">
+        <v>362</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="54"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="4">
@@ -9130,12 +11768,12 @@
         <v>41</v>
       </c>
       <c r="B45" s="4"/>
-      <c r="C45" s="55" t="s">
-        <v>403</v>
+      <c r="C45" s="54" t="s">
+        <v>363</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="54"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="4">
@@ -9143,13 +11781,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="55" t="s">
-        <v>404</v>
+      <c r="C46" s="54" t="s">
+        <v>364</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="54" t="s">
-        <v>405</v>
+      <c r="F46" s="53" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
@@ -9158,13 +11796,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="4"/>
-      <c r="C47" s="55" t="s">
-        <v>404</v>
+      <c r="C47" s="54" t="s">
+        <v>364</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="54" t="s">
-        <v>407</v>
+      <c r="F47" s="53" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
@@ -9173,13 +11811,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="4"/>
-      <c r="C48" s="55" t="s">
-        <v>406</v>
+      <c r="C48" s="54" t="s">
+        <v>366</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="54" t="s">
-        <v>408</v>
+      <c r="F48" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
@@ -9188,13 +11826,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="4"/>
-      <c r="C49" s="57" t="s">
-        <v>409</v>
+      <c r="C49" s="56" t="s">
+        <v>369</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="54" t="s">
-        <v>408</v>
+      <c r="F49" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
@@ -9203,13 +11841,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="57" t="s">
-        <v>410</v>
+      <c r="C50" s="56" t="s">
+        <v>370</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="54" t="s">
-        <v>408</v>
+      <c r="F50" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
@@ -9218,13 +11856,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="57" t="s">
-        <v>411</v>
+      <c r="C51" s="56" t="s">
+        <v>371</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="54" t="s">
-        <v>408</v>
+      <c r="F51" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
@@ -9233,13 +11871,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="C52" s="57" t="s">
-        <v>412</v>
+      <c r="C52" s="56" t="s">
+        <v>372</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="54" t="s">
-        <v>408</v>
+      <c r="F52" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
@@ -9248,13 +11886,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="57" t="s">
-        <v>413</v>
+      <c r="C53" s="56" t="s">
+        <v>373</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="54" t="s">
-        <v>408</v>
+      <c r="F53" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -9263,13 +11901,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="C54" s="57" t="s">
-        <v>414</v>
+      <c r="C54" s="56" t="s">
+        <v>374</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="54" t="s">
-        <v>408</v>
+      <c r="F54" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
@@ -9278,13 +11916,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="C55" s="57" t="s">
-        <v>415</v>
+      <c r="C55" s="56" t="s">
+        <v>375</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="54" t="s">
-        <v>408</v>
+      <c r="F55" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
@@ -9293,13 +11931,13 @@
         <v>52</v>
       </c>
       <c r="B56" s="4"/>
-      <c r="C56" s="57" t="s">
-        <v>416</v>
+      <c r="C56" s="56" t="s">
+        <v>376</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="54" t="s">
-        <v>408</v>
+      <c r="F56" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
@@ -9308,13 +11946,13 @@
         <v>53</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="C57" s="57" t="s">
-        <v>417</v>
+      <c r="C57" s="56" t="s">
+        <v>377</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="54" t="s">
-        <v>408</v>
+      <c r="F57" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
@@ -9323,13 +11961,13 @@
         <v>54</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="57" t="s">
-        <v>418</v>
+      <c r="C58" s="56" t="s">
+        <v>378</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="54" t="s">
-        <v>408</v>
+      <c r="F58" s="53" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
@@ -9338,13 +11976,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="55" t="s">
-        <v>420</v>
+      <c r="C59" s="54" t="s">
+        <v>380</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="54" t="s">
-        <v>419</v>
+      <c r="F59" s="53" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
@@ -9353,13 +11991,13 @@
         <v>56</v>
       </c>
       <c r="B60" s="4"/>
-      <c r="C60" s="55" t="s">
-        <v>421</v>
+      <c r="C60" s="54" t="s">
+        <v>381</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="54" t="s">
-        <v>419</v>
+      <c r="F60" s="53" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
@@ -9368,13 +12006,13 @@
         <v>57</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="55" t="s">
-        <v>422</v>
+      <c r="C61" s="54" t="s">
+        <v>382</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="54" t="s">
-        <v>419</v>
+      <c r="F61" s="53" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
@@ -9383,13 +12021,13 @@
         <v>58</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="C62" s="55" t="s">
-        <v>423</v>
+      <c r="C62" s="54" t="s">
+        <v>383</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="54" t="s">
-        <v>419</v>
+      <c r="F62" s="53" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
@@ -9398,13 +12036,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="55" t="s">
-        <v>424</v>
+      <c r="C63" s="54" t="s">
+        <v>384</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="54" t="s">
-        <v>427</v>
+      <c r="F63" s="53" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
@@ -9413,13 +12051,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="55" t="s">
-        <v>425</v>
+      <c r="C64" s="54" t="s">
+        <v>385</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="54" t="s">
-        <v>426</v>
+      <c r="F64" s="53" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
@@ -9428,13 +12066,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="C65" s="57" t="s">
-        <v>428</v>
+      <c r="C65" s="56" t="s">
+        <v>388</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="54" t="s">
-        <v>429</v>
+      <c r="F65" s="53" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5E5C71-C09D-4199-A0B5-FFBD2D0B087C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3276D82-1608-4985-A130-92C310731053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="810" windowWidth="37950" windowHeight="18660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38850" yWindow="2940" windowWidth="37950" windowHeight="18660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="706">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -4338,18 +4338,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>닉뢰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 회복</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어구 파괴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>폭발 사격</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4383,14 +4371,6 @@
   </si>
   <si>
     <t>약점 파괴</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>별의 분노</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>달의 분노</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4776,6 +4756,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> multiple </t>
@@ -4795,6 +4776,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4814,6 +4796,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>(*100)</t>
@@ -4833,6 +4816,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4852,6 +4836,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -5019,6 +5004,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> multiple_type</t>
@@ -5038,6 +5024,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -5057,6 +5044,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -5076,6 +5064,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">multiple + value </t>
@@ -5095,6 +5084,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -5379,6 +5369,30 @@
   </si>
   <si>
     <t>그리고 {2}% 확률로 {3}초간 명중을 {6}%만큼 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중 광선</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬광 폭발</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>충격 사격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>사선의 폭발</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>성물 투척</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>여신의 축복</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5979,7 +5993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6116,8 +6130,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6523,17 +6536,17 @@
     </row>
     <row r="30" spans="2:10" ht="13.5">
       <c r="B30" s="27" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="13.5">
       <c r="B31" s="34" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="34" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -7939,10 +7952,10 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8072,7 +8085,7 @@
         <v>539</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>591</v>
+        <v>704</v>
       </c>
       <c r="D7" s="84" t="s">
         <v>575</v>
@@ -8094,7 +8107,7 @@
         <v>540</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>592</v>
+        <v>705</v>
       </c>
       <c r="D8" s="84" t="s">
         <v>581</v>
@@ -8122,10 +8135,10 @@
         <v>576</v>
       </c>
       <c r="E9" s="89" t="s">
-        <v>597</v>
-      </c>
-      <c r="F9" s="94" t="s">
-        <v>634</v>
+        <v>594</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5">
@@ -8146,7 +8159,7 @@
         <v>562</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5">
@@ -8158,16 +8171,16 @@
         <v>546</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>593</v>
+        <v>702</v>
       </c>
       <c r="D11" s="81" t="s">
         <v>577</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5">
@@ -8179,7 +8192,7 @@
         <v>547</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>578</v>
@@ -8187,8 +8200,8 @@
       <c r="E12" s="73" t="s">
         <v>563</v>
       </c>
-      <c r="F12" s="92" t="s">
-        <v>635</v>
+      <c r="F12" s="15" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5">
@@ -8200,7 +8213,7 @@
         <v>548</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>595</v>
+        <v>703</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>579</v>
@@ -8208,8 +8221,8 @@
       <c r="E13" s="73" t="s">
         <v>564</v>
       </c>
-      <c r="F13" s="92" t="s">
-        <v>637</v>
+      <c r="F13" s="15" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5">
@@ -8221,7 +8234,7 @@
         <v>549</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>582</v>
@@ -8229,8 +8242,8 @@
       <c r="E14" s="73" t="s">
         <v>565</v>
       </c>
-      <c r="F14" s="92" t="s">
-        <v>638</v>
+      <c r="F14" s="15" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5">
@@ -8242,7 +8255,7 @@
         <v>569</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>604</v>
+        <v>701</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>583</v>
@@ -8250,8 +8263,8 @@
       <c r="E15" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="F15" s="93" t="s">
-        <v>640</v>
+      <c r="F15" s="92" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.5">
@@ -8263,7 +8276,7 @@
         <v>550</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>584</v>
@@ -8271,8 +8284,8 @@
       <c r="E16" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="F16" s="93" t="s">
-        <v>633</v>
+      <c r="F16" s="92" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5">
@@ -8284,7 +8297,7 @@
         <v>551</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>585</v>
@@ -8292,8 +8305,8 @@
       <c r="E17" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="F17" s="93" t="s">
-        <v>641</v>
+      <c r="F17" s="92" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5">
@@ -8305,7 +8318,7 @@
         <v>570</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>603</v>
+        <v>700</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>586</v>
@@ -8323,7 +8336,7 @@
         <v>552</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>587</v>
@@ -8341,7 +8354,7 @@
         <v>553</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>588</v>
@@ -8359,13 +8372,13 @@
         <v>571</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>589</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.5">
@@ -8377,13 +8390,13 @@
         <v>554</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5">
@@ -8395,13 +8408,13 @@
         <v>555</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E23" s="55" t="s">
         <v>609</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.5">
@@ -8413,13 +8426,13 @@
         <v>556</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>611</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.5">
@@ -8431,13 +8444,13 @@
         <v>557</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5">
@@ -8449,13 +8462,13 @@
         <v>558</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5">
@@ -8467,13 +8480,13 @@
         <v>559</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5">
@@ -8481,10 +8494,10 @@
         <v>4100001</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -8494,10 +8507,10 @@
         <v>4100002</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -8507,10 +8520,10 @@
         <v>4100003</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="C30" s="14" t="s">
         <v>679</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>684</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -8520,10 +8533,10 @@
         <v>4100004</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -8533,10 +8546,10 @@
         <v>4100102</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -8546,10 +8559,10 @@
         <v>4100102</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -8559,10 +8572,10 @@
         <v>4100103</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -8572,10 +8585,10 @@
         <v>4100104</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -8585,10 +8598,10 @@
         <v>4100106</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -8598,10 +8611,10 @@
         <v>4100107</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -8611,10 +8624,10 @@
         <v>4100108</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -8624,10 +8637,10 @@
         <v>4100109</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -8637,10 +8650,10 @@
         <v>4100202</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -8650,10 +8663,10 @@
         <v>4100203</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -8663,10 +8676,10 @@
         <v>4100204</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -8676,10 +8689,10 @@
         <v>4100205</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -8689,10 +8702,10 @@
         <v>4100302</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -8702,10 +8715,10 @@
         <v>4100303</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -8715,10 +8728,10 @@
         <v>4100304</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -8728,10 +8741,10 @@
         <v>4100305</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -8741,10 +8754,10 @@
         <v>4100401</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -8754,10 +8767,10 @@
         <v>4100402</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -8767,10 +8780,10 @@
         <v>4100403</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -8780,10 +8793,10 @@
         <v>4100404</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -8793,10 +8806,10 @@
         <v>4100405</v>
       </c>
       <c r="B52" s="91" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -8806,10 +8819,10 @@
         <v>4100406</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -8819,10 +8832,10 @@
         <v>4100502</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -8832,10 +8845,10 @@
         <v>4100503</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -8845,10 +8858,10 @@
         <v>4100504</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C56" s="79" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
@@ -8858,10 +8871,10 @@
         <v>4100602</v>
       </c>
       <c r="B57" s="91" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C57" s="79" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
@@ -8871,10 +8884,10 @@
         <v>4100603</v>
       </c>
       <c r="B58" s="91" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
@@ -8884,10 +8897,10 @@
         <v>4100604</v>
       </c>
       <c r="B59" s="91" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C59" s="79" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
@@ -8897,10 +8910,10 @@
         <v>4100605</v>
       </c>
       <c r="B60" s="91" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
@@ -8909,11 +8922,11 @@
       <c r="A61" s="58">
         <v>4100606</v>
       </c>
-      <c r="B61" s="95" t="s">
-        <v>697</v>
+      <c r="B61" s="94" t="s">
+        <v>692</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -8922,11 +8935,11 @@
       <c r="A62" s="58">
         <v>4100607</v>
       </c>
-      <c r="B62" s="95" t="s">
-        <v>698</v>
+      <c r="B62" s="94" t="s">
+        <v>693</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
@@ -8935,11 +8948,11 @@
       <c r="A63" s="58">
         <v>4100608</v>
       </c>
-      <c r="B63" s="95" t="s">
+      <c r="B63" s="94" t="s">
+        <v>694</v>
+      </c>
+      <c r="C63" s="79" t="s">
         <v>699</v>
-      </c>
-      <c r="C63" s="79" t="s">
-        <v>704</v>
       </c>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3276D82-1608-4985-A130-92C310731053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CA840-FDE7-4311-B449-0DF29B0047D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38850" yWindow="2940" windowWidth="37950" windowHeight="18660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="1005" windowWidth="37950" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="735">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -5393,6 +5393,194 @@
   </si>
   <si>
     <t>여신의 축복</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_warnning_boss_enter_01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{0} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지를 클리어해야 입장할 수 있습니다.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_life</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_physics_attack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_magic_attack</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격력</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_physics_defence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_magic_defence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_physics_critical_chance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_magic_critical_chance</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_physics_critical_power_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 크리티컬 데미지 증가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_magic_critical_power_add</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 크리티컬 데미지 증가</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_attack_life_recovery</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 흡수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_evasion</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_accuracy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_heal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>힐량</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_resist</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>강인함</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_weight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stat_auto_recovery</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동 회복</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5400,7 +5588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="53">
+  <fonts count="55">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5777,6 +5965,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -5993,7 +6194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6135,6 +6336,9 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6673,15 +6877,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
     <col min="3" max="3" width="74.140625" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
@@ -6795,7 +6999,7 @@
     </row>
     <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
-        <f t="shared" ref="A7:A63" si="0">A6+1</f>
+        <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -7602,6 +7806,244 @@
       </c>
       <c r="D63" s="60"/>
       <c r="E63" s="60"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A64" s="58">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B64" s="59" t="s">
+        <v>706</v>
+      </c>
+      <c r="C64" s="59" t="s">
+        <v>707</v>
+      </c>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A65" s="58">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B65" s="95" t="s">
+        <v>708</v>
+      </c>
+      <c r="C65" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A66" s="58">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B66" s="95" t="s">
+        <v>709</v>
+      </c>
+      <c r="C66" s="59" t="s">
+        <v>710</v>
+      </c>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A67" s="58">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B67" s="95" t="s">
+        <v>711</v>
+      </c>
+      <c r="C67" s="59" t="s">
+        <v>712</v>
+      </c>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A68" s="58">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="95" t="s">
+        <v>713</v>
+      </c>
+      <c r="C68" s="97" t="s">
+        <v>357</v>
+      </c>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A69" s="58">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B69" s="95" t="s">
+        <v>714</v>
+      </c>
+      <c r="C69" s="97" t="s">
+        <v>358</v>
+      </c>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A70" s="58">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="95" t="s">
+        <v>715</v>
+      </c>
+      <c r="C70" s="97" t="s">
+        <v>716</v>
+      </c>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A71" s="58">
+        <f t="shared" ref="A71:A80" si="1">A70+1</f>
+        <v>67</v>
+      </c>
+      <c r="B71" s="95" t="s">
+        <v>717</v>
+      </c>
+      <c r="C71" s="97" t="s">
+        <v>718</v>
+      </c>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A72" s="58">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="95" t="s">
+        <v>719</v>
+      </c>
+      <c r="C72" s="97" t="s">
+        <v>720</v>
+      </c>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A73" s="58">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B73" s="95" t="s">
+        <v>721</v>
+      </c>
+      <c r="C73" s="97" t="s">
+        <v>722</v>
+      </c>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A74" s="58">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B74" s="95" t="s">
+        <v>723</v>
+      </c>
+      <c r="C74" s="97" t="s">
+        <v>724</v>
+      </c>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A75" s="58">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B75" s="95" t="s">
+        <v>725</v>
+      </c>
+      <c r="C75" s="96" t="s">
+        <v>361</v>
+      </c>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A76" s="58">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B76" s="95" t="s">
+        <v>726</v>
+      </c>
+      <c r="C76" s="96" t="s">
+        <v>362</v>
+      </c>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A77" s="58">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B77" s="95" t="s">
+        <v>727</v>
+      </c>
+      <c r="C77" s="96" t="s">
+        <v>728</v>
+      </c>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A78" s="58">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B78" s="95" t="s">
+        <v>729</v>
+      </c>
+      <c r="C78" s="96" t="s">
+        <v>730</v>
+      </c>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A79" s="58">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B79" s="95" t="s">
+        <v>731</v>
+      </c>
+      <c r="C79" s="96" t="s">
+        <v>732</v>
+      </c>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A80" s="58">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B80" s="95" t="s">
+        <v>733</v>
+      </c>
+      <c r="C80" s="96" t="s">
+        <v>734</v>
+      </c>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7951,8 +8393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B56DAE-9D40-4CC5-82CA-304E2DA30E3A}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C9" sqref="C9"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4CA840-FDE7-4311-B449-0DF29B0047D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8717B541-CED9-4B4C-9176-E546437ECF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1005" windowWidth="37950" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="225" windowWidth="37740" windowHeight="17955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="742">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -4527,14 +4527,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>아군 중 현재 체력이 가장 낮은 대상을 {0}만큼 회복시킵니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 전체의 체력을 {0}만큼 회복시킵니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_desc_laila_01_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -4558,10 +4550,6 @@
   </si>
   <si>
     <t>skill_desc_laila_03_3</t>
-  </si>
-  <si>
-    <t>{6}: duriation시트의 multiple 값을 백분률(*100)화 하여 출력</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4619,494 +4607,6 @@
       </rPr>
       <t>규약</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{2}: duriation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> rate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>값을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>백분률</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(*100)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력 (상태이상 적중률)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{1}: onetime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> multiple </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>값을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>백분률</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(*100)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">출력 (피해량 퍼센테이지 표현 등) </t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{3}: duriation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> time </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>값을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력 (상태 지속시간 초)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{4}: duriation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> count </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>값을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>도트 데미지를 몇 회 준다, 등)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{0}: onetime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> multiple_type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참조하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">해당 효과 연산식에 맞춰서 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">multiple + value </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>적용 (데미지, 힐량 등)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{5}: duriation시트의 multiple_type을 참조하여 해당 효과 연산식에 맞춰서 *multiple + value 를 적용</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{7}: duriation시트의 value 값을 출력</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5167,10 +4667,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>자신의 뒤로 3m내에 있는 아군들의 크리티컬을 {3}초간 {6}%만큼 증가시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_desc_violet_03_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -5184,18 +4680,6 @@
     <t>skill_desc_daisy_03_2</t>
   </si>
   <si>
-    <t>{3}초간 주변 반경 3m내에 있는 아군들의 크리티컬 데미지를을 {6}%만큼 증가시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{3}초간 모든 아군들의 크리티컬을 {6}%만큼 증가시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{3}초간 모든 아군들의 크리티컬 데미지를을 {6}%만큼 증가시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_desc_ailyn_03_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -5204,22 +4688,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>자신의 체력을 {0}만큼 회복한다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{3}초 아군 전체의 물리 방어력을 {6}%, </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신의 체력을 {0}만큼 회복하고,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 공격력을 {6}% 만큼 증가시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_desc_ailyn_03_2</t>
   </si>
   <si>
@@ -5230,10 +4698,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>남은 기운으로 {3}초 동안 자신의 최대 체력을 {6}%만큼 증가시킵니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_desc_claire_03_2</t>
   </si>
   <si>
@@ -5280,60 +4744,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>그리고, {2}% 확률로 {3}초 동안 대상의 마법 방어력을 {6}% 감소시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고, {2}% 확률로 {3}초 동안 대상의 물리 방어력을 {6}% 감소시킨다.</t>
-  </si>
-  <si>
-    <t>{2}% 확률로 {3}초 동안 대상의 물리 방어력을 {6}% 감소시킨다.</t>
-  </si>
-  <si>
-    <t>가장 가까운 적에게 {0}마법 데미지의 낙뢰를 떨어트립니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 체력이 가장 낮은 적을 저격하여 {0}의 물리 데미지를 준다. </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 {2}% 확률로 {3}초 동안 자신의 물리 공격력을 {6}% 증가시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{0}의 물리 데미지를 준다. </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">강력한 확산형 폭발탄을 발사하여 중심지의 적에게 {0}의 물리 데미지를 주고, </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 탄착 지점에서 폭발이 일어나면서 적 전체에게 {0}의 물리 데미지를 준다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리타리움 에너지를 모아 플라즈마의 형태로 발사하여 가장 가까운 적에게 {0}의 물리 데미지를 준다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 가까운 적 1명에게 {0}의 물리 데미지를 준다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 가까운 적에게 강력한 검격으로 {0}%의 물리 데미지를 줍니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>베리타리움의 기운을 모두 끌어모아 적 전체에게 {0}%의 물리 데미지를 주는 강력한 검기를 쏘아냅니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 가까운 적에게 절망의 구슬을 날려 {0}마법 데미지를 줍니다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_desc_elizabath_02_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -5350,26 +4760,6 @@
   </si>
   <si>
     <t>skill_desc_elizabath_03_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강력한 공포의 힘을 소환하여 적 전체에게 {0}의 마법 데미지를 입히고, </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 적들을 암흑의 기운으로 덮어서 {0}의 마법 데미지를 입히고, </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{2}% 확률로 {3}초 동안 대상의 마법 방어력을 {6}% 감소시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{2}% 확률로 {3}초간 명중을 {6}%만큼 감소시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 {2}% 확률로 {3}초간 명중을 {6}%만큼 감소시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>집중 광선</t>
@@ -5437,6 +4827,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -5471,6 +4862,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -5515,15 +4907,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>물리 크리티컬 데미지 증가</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>system_stat_magic_critical_power_add</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>마법 크리티컬 데미지 증가</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5582,13 +4966,501 @@
       <t>자동 회복</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크리티컬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증폭</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크리티컬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>증폭</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_stargrowup</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_growup</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">설명의 경우, 하나의 스킬에 다수의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>skill_data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>행이 엮일 수 있으므로,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pc_skill_data </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">값 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>앞에 4를 붙여서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 스트링 아이디로 할당한다.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓↓↓ 내용 로딩 규약</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>승급하기</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>성장</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[0]: onetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> multiple_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>참조하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">해당 효과 연산식에 맞춰서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">multiple + value </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용 (데미지, 힐량 등)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 중 현재 체력이 가장 낮은 대상을 [0]만큼 회복시킵니다.</t>
+  </si>
+  <si>
+    <t>가장 가까운 적에게 [0]마법 데미지의 낙뢰를 떨어트립니다.</t>
+  </si>
+  <si>
+    <t>아군 전체의 체력을 [0]만큼 회복시킵니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 체력이 가장 낮은 적을 저격하여 [0]의 물리 데미지를 준다. </t>
+  </si>
+  <si>
+    <t>그리고 [2]% 확률로 [3]초 동안 자신의 물리 공격력을 [6]% 증가시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0]의 물리 데미지를 준다. </t>
+  </si>
+  <si>
+    <t>그리고, [2]% 확률로 [3]초 동안 대상의 물리 방어력을 [6]% 감소시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강력한 확산형 폭발탄을 발사하여 중심지의 적에게 [0]의 물리 데미지를 주고, </t>
+  </si>
+  <si>
+    <t>[2]% 확률로 [3]초 동안 대상의 물리 방어력을 [6]% 감소시킨다.</t>
+  </si>
+  <si>
+    <t>그리고 탄착 지점에서 폭발이 일어나면서 적 전체에게 [0]의 물리 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>베리타리움 에너지를 모아 플라즈마의 형태로 발사하여 가장 가까운 적에게 [0]의 물리 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>자신의 뒤로 3m내에 있는 아군들의 크리티컬을 [3]초간 [6]%만큼 증가시킨다.</t>
+  </si>
+  <si>
+    <t>가장 가까운 적 1명에게 [0]의 물리 데미지를 준다.</t>
+  </si>
+  <si>
+    <t>[3]초간 모든 아군들의 크리티컬을 [6]%만큼 증가시킨다.</t>
+  </si>
+  <si>
+    <t>[3]초간 주변 반경 3m내에 있는 아군들의 크리티컬 데미지를을 [6]%만큼 증가시킨다.</t>
+  </si>
+  <si>
+    <t>[3]초간 모든 아군들의 크리티컬 데미지를을 [6]%만큼 증가시킨다.</t>
+  </si>
+  <si>
+    <t>자신의 체력을 [0]만큼 회복한다.</t>
+  </si>
+  <si>
+    <t>자신의 체력을 [0]만큼 회복하고,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3]초 아군 전체의 물리 방어력을 [6]%, </t>
+  </si>
+  <si>
+    <t>물리 공격력을 [6]% 만큼 증가시킨다.</t>
+  </si>
+  <si>
+    <t>가장 가까운 적에게 강력한 검격으로 [0]%의 물리 데미지를 줍니다.</t>
+  </si>
+  <si>
+    <t>베리타리움의 기운을 모두 끌어모아 적 전체에게 [0]%의 물리 데미지를 주는 강력한 검기를 쏘아냅니다.</t>
+  </si>
+  <si>
+    <t>남은 기운으로 [3]초 동안 자신의 최대 체력을 [6]%만큼 증가시킵니다.</t>
+  </si>
+  <si>
+    <t>가장 가까운 적에게 절망의 구슬을 날려 [0]마법 데미지를 줍니다.</t>
+  </si>
+  <si>
+    <t>그리고, [2]% 확률로 [3]초 동안 대상의 마법 방어력을 [6]% 감소시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 적들을 암흑의 기운으로 덮어서 [0]의 마법 데미지를 입히고, </t>
+  </si>
+  <si>
+    <t>[2]% 확률로 [3]초간 명중을 [6]%만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">강력한 공포의 힘을 소환하여 적 전체에게 [0]의 마법 데미지를 입히고, </t>
+  </si>
+  <si>
+    <t>[2]% 확률로 [3]초 동안 대상의 마법 방어력을 [6]% 감소시킨다.</t>
+  </si>
+  <si>
+    <t>그리고 [2]% 확률로 [3]초간 명중을 [6]%만큼 감소시킨다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1]: onetime시트의 multiple 값을 백분률(*100)화 하여 출력 (피해량 퍼센테이지 표현 등) </t>
+  </si>
+  <si>
+    <t>[2]: duriation시트의 rate 값을 백분률(*100)화 하여 출력 (상태이상 적중률)</t>
+  </si>
+  <si>
+    <t>[3]: duriation시트의 time 값을 출력 (상태 지속시간 초)</t>
+  </si>
+  <si>
+    <t>[4]: duriation시트의 count 값을 출력 (도트 데미지를 몇 회 준다, 등)</t>
+  </si>
+  <si>
+    <t>[5]: duriation시트의 multiple_type을 참조하여 해당 효과 연산식에 맞춰서 *multiple + value 를 적용</t>
+  </si>
+  <si>
+    <t>[6]: duriation시트의 multiple 값을 백분률(*100)화 하여 출력</t>
+  </si>
+  <si>
+    <t>[7]: duriation시트의 value 값을 출력</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="55">
+  <fonts count="59">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5978,6 +5850,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -6194,7 +6098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6338,7 +6242,9 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6877,10 +6783,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7813,10 +7719,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>706</v>
+        <v>668</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>707</v>
+        <v>669</v>
       </c>
       <c r="D64" s="60"/>
       <c r="E64" s="60"/>
@@ -7827,7 +7733,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="95" t="s">
-        <v>708</v>
+        <v>670</v>
       </c>
       <c r="C65" s="96" t="s">
         <v>354</v>
@@ -7841,10 +7747,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="95" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>710</v>
+        <v>672</v>
       </c>
       <c r="D66" s="60"/>
       <c r="E66" s="60"/>
@@ -7855,10 +7761,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="95" t="s">
-        <v>711</v>
+        <v>673</v>
       </c>
       <c r="C67" s="59" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
@@ -7869,9 +7775,9 @@
         <v>64</v>
       </c>
       <c r="B68" s="95" t="s">
-        <v>713</v>
-      </c>
-      <c r="C68" s="97" t="s">
+        <v>675</v>
+      </c>
+      <c r="C68" s="59" t="s">
         <v>357</v>
       </c>
       <c r="D68" s="60"/>
@@ -7883,9 +7789,9 @@
         <v>65</v>
       </c>
       <c r="B69" s="95" t="s">
-        <v>714</v>
-      </c>
-      <c r="C69" s="97" t="s">
+        <v>676</v>
+      </c>
+      <c r="C69" s="59" t="s">
         <v>358</v>
       </c>
       <c r="D69" s="60"/>
@@ -7897,24 +7803,24 @@
         <v>66</v>
       </c>
       <c r="B70" s="95" t="s">
-        <v>715</v>
-      </c>
-      <c r="C70" s="97" t="s">
-        <v>716</v>
+        <v>677</v>
+      </c>
+      <c r="C70" s="59" t="s">
+        <v>678</v>
       </c>
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1">
       <c r="A71" s="58">
-        <f t="shared" ref="A71:A80" si="1">A70+1</f>
+        <f t="shared" ref="A71:A82" si="1">A70+1</f>
         <v>67</v>
       </c>
       <c r="B71" s="95" t="s">
-        <v>717</v>
-      </c>
-      <c r="C71" s="97" t="s">
-        <v>718</v>
+        <v>679</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>680</v>
       </c>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
@@ -7925,10 +7831,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="95" t="s">
-        <v>719</v>
+        <v>681</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
@@ -7939,10 +7845,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="95" t="s">
-        <v>721</v>
+        <v>682</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
@@ -7953,10 +7859,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="95" t="s">
-        <v>723</v>
-      </c>
-      <c r="C74" s="97" t="s">
-        <v>724</v>
+        <v>683</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>684</v>
       </c>
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
@@ -7967,7 +7873,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="95" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="C75" s="96" t="s">
         <v>361</v>
@@ -7981,7 +7887,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="95" t="s">
-        <v>726</v>
+        <v>686</v>
       </c>
       <c r="C76" s="96" t="s">
         <v>362</v>
@@ -7995,10 +7901,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="95" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="C77" s="96" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="D77" s="60"/>
       <c r="E77" s="60"/>
@@ -8009,10 +7915,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="95" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="C78" s="96" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="D78" s="60"/>
       <c r="E78" s="60"/>
@@ -8023,10 +7929,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="95" t="s">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="C79" s="96" t="s">
-        <v>732</v>
+        <v>692</v>
       </c>
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
@@ -8037,13 +7943,41 @@
         <v>76</v>
       </c>
       <c r="B80" s="95" t="s">
-        <v>733</v>
+        <v>693</v>
       </c>
       <c r="C80" s="96" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A81" s="58">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B81" s="95" t="s">
+        <v>697</v>
+      </c>
+      <c r="C81" s="96" t="s">
+        <v>702</v>
+      </c>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A82" s="58">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B82" s="95" t="s">
+        <v>698</v>
+      </c>
+      <c r="C82" s="96" t="s">
+        <v>703</v>
+      </c>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8393,11 +8327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B56DAE-9D40-4CC5-82CA-304E2DA30E3A}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8527,7 +8461,7 @@
         <v>539</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>704</v>
+        <v>666</v>
       </c>
       <c r="D7" s="84" t="s">
         <v>575</v>
@@ -8549,7 +8483,7 @@
         <v>540</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>705</v>
+        <v>667</v>
       </c>
       <c r="D8" s="84" t="s">
         <v>581</v>
@@ -8580,7 +8514,7 @@
         <v>594</v>
       </c>
       <c r="F9" s="93" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5">
@@ -8600,8 +8534,8 @@
       <c r="E10" s="90" t="s">
         <v>562</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>634</v>
+      <c r="F10" s="98" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5">
@@ -8613,7 +8547,7 @@
         <v>546</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="D11" s="81" t="s">
         <v>577</v>
@@ -8622,7 +8556,7 @@
         <v>595</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>631</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5">
@@ -8642,8 +8576,8 @@
       <c r="E12" s="73" t="s">
         <v>563</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>630</v>
+      <c r="F12" s="99" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5">
@@ -8655,7 +8589,7 @@
         <v>548</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>703</v>
+        <v>665</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>579</v>
@@ -8664,7 +8598,7 @@
         <v>564</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5">
@@ -8685,7 +8619,7 @@
         <v>565</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>633</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5">
@@ -8697,7 +8631,7 @@
         <v>569</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>583</v>
@@ -8705,8 +8639,8 @@
       <c r="E15" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="F15" s="92" t="s">
-        <v>635</v>
+      <c r="F15" s="15" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.5">
@@ -8726,8 +8660,8 @@
       <c r="E16" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="F16" s="92" t="s">
-        <v>628</v>
+      <c r="F16" s="15" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5">
@@ -8747,8 +8681,8 @@
       <c r="E17" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="F17" s="92" t="s">
-        <v>636</v>
+      <c r="F17" s="15" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5">
@@ -8760,7 +8694,7 @@
         <v>570</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>700</v>
+        <v>662</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>586</v>
@@ -8768,6 +8702,9 @@
       <c r="E18" s="14" t="s">
         <v>573</v>
       </c>
+      <c r="F18" s="92" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="4">
@@ -8786,6 +8723,9 @@
       <c r="E19" s="14" t="s">
         <v>568</v>
       </c>
+      <c r="F19" s="92" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="4">
@@ -8804,6 +8744,9 @@
       <c r="E20" s="14" t="s">
         <v>128</v>
       </c>
+      <c r="F20" s="92" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="4">
@@ -8889,10 +8832,10 @@
         <v>612</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E25" s="54" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5">
@@ -8907,10 +8850,10 @@
         <v>605</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E26" s="54" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5">
@@ -8925,10 +8868,10 @@
         <v>607</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5">
@@ -8949,10 +8892,10 @@
         <v>4100002</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>618</v>
+        <v>705</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -8962,10 +8905,10 @@
         <v>4100003</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -8975,10 +8918,10 @@
         <v>4100004</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>619</v>
+        <v>707</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -8988,10 +8931,10 @@
         <v>4100102</v>
       </c>
       <c r="B32" s="91" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -9001,10 +8944,10 @@
         <v>4100102</v>
       </c>
       <c r="B33" s="91" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
@@ -9014,10 +8957,10 @@
         <v>4100103</v>
       </c>
       <c r="B34" s="91" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -9027,10 +8970,10 @@
         <v>4100104</v>
       </c>
       <c r="B35" s="91" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -9040,10 +8983,10 @@
         <v>4100106</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
@@ -9053,10 +8996,10 @@
         <v>4100107</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -9066,10 +9009,10 @@
         <v>4100108</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -9079,10 +9022,10 @@
         <v>4100109</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -9092,10 +9035,10 @@
         <v>4100202</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -9105,10 +9048,10 @@
         <v>4100203</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -9118,10 +9061,10 @@
         <v>4100204</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -9131,10 +9074,10 @@
         <v>4100205</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>652</v>
+        <v>718</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -9144,10 +9087,10 @@
         <v>4100302</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
@@ -9157,10 +9100,10 @@
         <v>4100303</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>651</v>
+        <v>719</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
@@ -9170,10 +9113,10 @@
         <v>4100304</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>686</v>
+        <v>717</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
@@ -9183,10 +9126,10 @@
         <v>4100305</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>653</v>
+        <v>720</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -9196,10 +9139,10 @@
         <v>4100401</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -9209,10 +9152,10 @@
         <v>4100402</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>656</v>
+        <v>721</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -9222,10 +9165,10 @@
         <v>4100403</v>
       </c>
       <c r="B50" s="91" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>658</v>
+        <v>722</v>
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
@@ -9235,10 +9178,10 @@
         <v>4100404</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>657</v>
+        <v>723</v>
       </c>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
@@ -9248,10 +9191,10 @@
         <v>4100405</v>
       </c>
       <c r="B52" s="91" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>659</v>
+        <v>724</v>
       </c>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
@@ -9261,10 +9204,10 @@
         <v>4100406</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>656</v>
+        <v>721</v>
       </c>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
@@ -9274,10 +9217,10 @@
         <v>4100502</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>687</v>
+        <v>725</v>
       </c>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
@@ -9287,10 +9230,10 @@
         <v>4100503</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>688</v>
+        <v>726</v>
       </c>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
@@ -9300,10 +9243,10 @@
         <v>4100504</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="C56" s="79" t="s">
-        <v>663</v>
+        <v>727</v>
       </c>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
@@ -9313,10 +9256,10 @@
         <v>4100602</v>
       </c>
       <c r="B57" s="91" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="C57" s="79" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
@@ -9326,10 +9269,10 @@
         <v>4100603</v>
       </c>
       <c r="B58" s="91" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>676</v>
+        <v>729</v>
       </c>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
@@ -9339,10 +9282,10 @@
         <v>4100604</v>
       </c>
       <c r="B59" s="91" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="C59" s="79" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
@@ -9352,10 +9295,10 @@
         <v>4100605</v>
       </c>
       <c r="B60" s="91" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>698</v>
+        <v>731</v>
       </c>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
@@ -9365,10 +9308,10 @@
         <v>4100606</v>
       </c>
       <c r="B61" s="94" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>695</v>
+        <v>732</v>
       </c>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
@@ -9378,10 +9321,10 @@
         <v>4100607</v>
       </c>
       <c r="B62" s="94" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
@@ -9391,10 +9334,10 @@
         <v>4100608</v>
       </c>
       <c r="B63" s="94" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="C63" s="79" t="s">
-        <v>699</v>
+        <v>734</v>
       </c>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -11598,7 +11541,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12533,5 +12476,6 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8717B541-CED9-4B4C-9176-E546437ECF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B6CD5E-3559-4FD3-BEB7-5D1A049A5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="225" windowWidth="37740" windowHeight="17955" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19464" yWindow="1536" windowWidth="19056" windowHeight="13704" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="741">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -5222,10 +5222,6 @@
   </si>
   <si>
     <t>승급하기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>성장</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -6466,22 +6462,22 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="29"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="28" width="9.140625" style="29"/>
+    <col min="1" max="1" width="9.109375" style="29"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="28" width="9.109375" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="29" customFormat="1"/>
     <row r="2" spans="2:11" s="29" customFormat="1"/>
-    <row r="3" spans="2:11" s="29" customFormat="1">
+    <row r="3" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="B3" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="29" customFormat="1"/>
-    <row r="5" spans="2:11" s="29" customFormat="1">
+    <row r="5" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="B5" s="31" t="s">
         <v>155</v>
       </c>
@@ -6492,7 +6488,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="29" customFormat="1">
+    <row r="6" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="J6" s="34" t="s">
         <v>156</v>
       </c>
@@ -6500,7 +6496,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="29" customFormat="1">
+    <row r="7" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="J7" s="34" t="s">
         <v>158</v>
       </c>
@@ -6508,7 +6504,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="29" customFormat="1">
+    <row r="8" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="J8" s="34" t="s">
         <v>165</v>
       </c>
@@ -6516,7 +6512,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="29" customFormat="1">
+    <row r="9" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="J9" s="34" t="s">
         <v>164</v>
       </c>
@@ -6524,7 +6520,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="29" customFormat="1">
+    <row r="10" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="J10" s="34" t="s">
         <v>163</v>
       </c>
@@ -6532,7 +6528,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="29" customFormat="1">
+    <row r="11" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="J11" s="34" t="s">
         <v>167</v>
       </c>
@@ -6540,14 +6536,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="29" customFormat="1">
+    <row r="12" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="B12" s="37" t="s">
         <v>266</v>
       </c>
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="2:11" s="29" customFormat="1"/>
-    <row r="14" spans="2:11" s="29" customFormat="1">
+    <row r="14" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="B14" s="31" t="s">
         <v>267</v>
       </c>
@@ -6555,7 +6551,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="29" customFormat="1">
+    <row r="15" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="B15" s="26" t="s">
         <v>138</v>
       </c>
@@ -6563,7 +6559,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="29" customFormat="1" ht="15">
+    <row r="16" spans="2:11" s="29" customFormat="1" ht="13.8">
       <c r="B16" s="24" t="s">
         <v>131</v>
       </c>
@@ -6593,12 +6589,12 @@
     <row r="19" spans="2:10" s="29" customFormat="1">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:10" s="29" customFormat="1">
+    <row r="20" spans="2:10" s="29" customFormat="1" ht="13.8">
       <c r="B20" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="29" customFormat="1" ht="15">
+    <row r="21" spans="2:10" s="29" customFormat="1" ht="13.8">
       <c r="B21" s="24" t="s">
         <v>131</v>
       </c>
@@ -6611,22 +6607,22 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="29" customFormat="1" ht="13.5">
+    <row r="23" spans="2:10" s="29" customFormat="1" ht="15.6">
       <c r="B23" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="29" customFormat="1" ht="13.5">
+    <row r="24" spans="2:10" s="29" customFormat="1" ht="15.6">
       <c r="B24" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" ht="13.8">
       <c r="B26" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15">
+    <row r="27" spans="2:10" ht="13.8">
       <c r="B27" s="24" t="s">
         <v>131</v>
       </c>
@@ -6639,32 +6635,32 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="13.5">
+    <row r="29" spans="2:10" ht="15.6">
       <c r="B29" s="27" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="13.5">
+    <row r="30" spans="2:10" ht="15.6">
       <c r="B30" s="27" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="13.5">
+    <row r="31" spans="2:10" ht="15.6">
       <c r="B31" s="34" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" ht="13.8">
       <c r="B32" s="34" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" ht="13.8">
       <c r="B34" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15">
+    <row r="35" spans="2:4" ht="13.8">
       <c r="B35" s="24" t="s">
         <v>131</v>
       </c>
@@ -6677,22 +6673,22 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="13.5">
+    <row r="37" spans="2:4" ht="15.6">
       <c r="B37" s="27" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="13.5">
+    <row r="38" spans="2:4" ht="15.6">
       <c r="B38" s="39" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" ht="13.8">
       <c r="B40" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="15">
+    <row r="41" spans="2:4" ht="13.8">
       <c r="B41" s="24" t="s">
         <v>131</v>
       </c>
@@ -6705,7 +6701,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="13.5">
+    <row r="43" spans="2:4" ht="15.6">
       <c r="B43" s="27" t="s">
         <v>278</v>
       </c>
@@ -6716,12 +6712,12 @@
     <row r="45" spans="2:4">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" ht="13.8">
       <c r="B46" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="15">
+    <row r="47" spans="2:4" ht="13.8">
       <c r="B47" s="24" t="s">
         <v>131</v>
       </c>
@@ -6734,7 +6730,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="13.5">
+    <row r="49" spans="2:2" ht="15.6">
       <c r="B49" s="27" t="s">
         <v>279</v>
       </c>
@@ -6785,20 +6781,20 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="74.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>390</v>
       </c>
@@ -6824,7 +6820,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -6844,7 +6840,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -6865,7 +6861,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -6884,7 +6880,7 @@
         <v>범주 1 ~ 20000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.2">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -6903,7 +6899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.2">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>3</v>
@@ -6919,7 +6915,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6935,7 +6931,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.2">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6951,7 +6947,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6967,7 +6963,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6983,7 +6979,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6999,7 +6995,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7013,7 +7009,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.2">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7027,7 +7023,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.2">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7041,7 +7037,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7055,7 +7051,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="13.5">
+    <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7069,7 +7065,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7083,7 +7079,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7097,7 +7093,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="43">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7974,7 +7970,7 @@
         <v>698</v>
       </c>
       <c r="C82" s="96" t="s">
-        <v>703</v>
+        <v>370</v>
       </c>
       <c r="D82" s="60"/>
       <c r="E82" s="60"/>
@@ -7996,17 +7992,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>391</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -8052,7 +8048,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -8073,7 +8069,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="42">
         <v>20001</v>
       </c>
@@ -8090,7 +8086,7 @@
         <v>범주 20001 ~ 40000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.2">
       <c r="A6" s="6">
         <f>A5+1</f>
         <v>20002</v>
@@ -8108,7 +8104,7 @@
         <v>20001~30000: 캐릭터  /  30001~40000: 몬스터</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.2">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A17" si="0">A6+1</f>
         <v>20003</v>
@@ -8122,7 +8118,7 @@
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>20004</v>
@@ -8136,7 +8132,7 @@
       <c r="D8" s="58"/>
       <c r="E8" s="58"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.2">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>20005</v>
@@ -8150,7 +8146,7 @@
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>20006</v>
@@ -8164,7 +8160,7 @@
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>20007</v>
@@ -8178,7 +8174,7 @@
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>20008</v>
@@ -8192,7 +8188,7 @@
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="13.2">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>20009</v>
@@ -8206,7 +8202,7 @@
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.2">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>20010</v>
@@ -8220,7 +8216,7 @@
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.2">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>20011</v>
@@ -8234,7 +8230,7 @@
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.2">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>20012</v>
@@ -8248,7 +8244,7 @@
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="13.2">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>20013</v>
@@ -8262,7 +8258,7 @@
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="46">
         <v>30001</v>
       </c>
@@ -8275,7 +8271,7 @@
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="48">
         <f>A18+1</f>
         <v>30002</v>
@@ -8289,7 +8285,7 @@
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="48">
         <f t="shared" ref="A20" si="1">A19+1</f>
         <v>30003</v>
@@ -8303,14 +8299,14 @@
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75">
+    <row r="21" spans="1:5" ht="13.2">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
     </row>
-    <row r="22" spans="1:5" ht="12.75">
+    <row r="22" spans="1:5" ht="13.2">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -8327,24 +8323,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B56DAE-9D40-4CC5-82CA-304E2DA30E3A}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" customWidth="1"/>
-    <col min="4" max="4" width="71.85546875" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" customWidth="1"/>
+    <col min="4" max="4" width="71.88671875" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>392</v>
       </c>
@@ -8353,7 +8349,7 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="20" t="s">
         <v>136</v>
       </c>
@@ -8413,7 +8409,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5">
+    <row r="5" spans="1:6" ht="15.6">
       <c r="A5" s="41">
         <v>40001</v>
       </c>
@@ -8430,7 +8426,7 @@
         <v>범주 40001 ~ 60000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>40002</v>
@@ -8452,7 +8448,7 @@
         <v>범주 400001 ~ 600000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A27" si="0">A6+1</f>
         <v>40003</v>
@@ -8474,7 +8470,7 @@
         <v>40001~50000: 캐릭터 스킬명  /  50001~60000: 몬스터 스킬명</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>40004</v>
@@ -8496,7 +8492,7 @@
         <v>400001~500000: 캐릭터 스킬 설명 / 500001~600000 몬스터 스킬 설명</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>40005</v>
@@ -8517,7 +8513,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>40006</v>
@@ -8538,7 +8534,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>40007</v>
@@ -8559,7 +8555,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>40008</v>
@@ -8580,7 +8576,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>40009</v>
@@ -8598,10 +8594,10 @@
         <v>564</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.5">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>40010</v>
@@ -8619,10 +8615,10 @@
         <v>565</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.5">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>40011</v>
@@ -8640,10 +8636,10 @@
         <v>572</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>40012</v>
@@ -8661,10 +8657,10 @@
         <v>566</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.5">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>40013</v>
@@ -8682,10 +8678,10 @@
         <v>567</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>40014</v>
@@ -8703,10 +8699,10 @@
         <v>573</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>40015</v>
@@ -8724,10 +8720,10 @@
         <v>568</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.5">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>40016</v>
@@ -8745,10 +8741,10 @@
         <v>128</v>
       </c>
       <c r="F20" s="92" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.5">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>40017</v>
@@ -8766,7 +8762,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5">
+    <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>40018</v>
@@ -8784,7 +8780,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>40019</v>
@@ -8802,7 +8798,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>40020</v>
@@ -8820,7 +8816,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>40021</v>
@@ -8838,7 +8834,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>40022</v>
@@ -8856,7 +8852,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>40023</v>
@@ -8874,7 +8870,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="4">
         <v>4100001</v>
       </c>
@@ -8887,7 +8883,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="4">
         <v>4100002</v>
       </c>
@@ -8895,12 +8891,12 @@
         <v>654</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="4">
         <v>4100003</v>
       </c>
@@ -8908,12 +8904,12 @@
         <v>655</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:6" ht="13.5">
+    <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="4">
         <v>4100004</v>
       </c>
@@ -8921,12 +8917,12 @@
         <v>656</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:6" ht="13.5">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="4">
         <v>4100102</v>
       </c>
@@ -8934,12 +8930,12 @@
         <v>618</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5">
+    <row r="33" spans="1:5" ht="15.6">
       <c r="A33" s="4">
         <v>4100102</v>
       </c>
@@ -8947,12 +8943,12 @@
         <v>619</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5">
+    <row r="34" spans="1:5" ht="15.6">
       <c r="A34" s="4">
         <v>4100103</v>
       </c>
@@ -8965,7 +8961,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5">
+    <row r="35" spans="1:5" ht="15.6">
       <c r="A35" s="4">
         <v>4100104</v>
       </c>
@@ -8973,12 +8969,12 @@
         <v>621</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" ht="13.5">
+    <row r="36" spans="1:5" ht="15.6">
       <c r="A36" s="4">
         <v>4100106</v>
       </c>
@@ -8986,12 +8982,12 @@
         <v>622</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" ht="13.5">
+    <row r="37" spans="1:5" ht="15.6">
       <c r="A37" s="4">
         <v>4100107</v>
       </c>
@@ -8999,12 +8995,12 @@
         <v>623</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" ht="13.5">
+    <row r="38" spans="1:5" ht="15.6">
       <c r="A38" s="4">
         <v>4100108</v>
       </c>
@@ -9012,12 +9008,12 @@
         <v>624</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" ht="13.5">
+    <row r="39" spans="1:5" ht="15.6">
       <c r="A39" s="4">
         <v>4100109</v>
       </c>
@@ -9025,12 +9021,12 @@
         <v>625</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" ht="13.5">
+    <row r="40" spans="1:5" ht="15.6">
       <c r="A40" s="4">
         <v>4100202</v>
       </c>
@@ -9038,12 +9034,12 @@
         <v>634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5">
+    <row r="41" spans="1:5" ht="15.6">
       <c r="A41" s="4">
         <v>4100203</v>
       </c>
@@ -9051,12 +9047,12 @@
         <v>635</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5">
+    <row r="42" spans="1:5" ht="15.6">
       <c r="A42" s="4">
         <v>4100204</v>
       </c>
@@ -9064,12 +9060,12 @@
         <v>636</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5">
+    <row r="43" spans="1:5" ht="15.6">
       <c r="A43" s="4">
         <v>4100205</v>
       </c>
@@ -9077,12 +9073,12 @@
         <v>637</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5">
+    <row r="44" spans="1:5" ht="15.6">
       <c r="A44" s="4">
         <v>4100302</v>
       </c>
@@ -9090,12 +9086,12 @@
         <v>653</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:5" ht="13.5">
+    <row r="45" spans="1:5" ht="15.6">
       <c r="A45" s="4">
         <v>4100303</v>
       </c>
@@ -9103,12 +9099,12 @@
         <v>652</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" ht="13.5">
+    <row r="46" spans="1:5" ht="15.6">
       <c r="A46" s="4">
         <v>4100304</v>
       </c>
@@ -9116,12 +9112,12 @@
         <v>638</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:5" ht="13.5">
+    <row r="47" spans="1:5" ht="15.6">
       <c r="A47" s="4">
         <v>4100305</v>
       </c>
@@ -9129,12 +9125,12 @@
         <v>639</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:5" ht="13.5">
+    <row r="48" spans="1:5" ht="15.6">
       <c r="A48" s="4">
         <v>4100401</v>
       </c>
@@ -9147,7 +9143,7 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="1:5" ht="13.5">
+    <row r="49" spans="1:5" ht="15.6">
       <c r="A49" s="43">
         <v>4100402</v>
       </c>
@@ -9155,12 +9151,12 @@
         <v>651</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
     </row>
-    <row r="50" spans="1:5" ht="13.5">
+    <row r="50" spans="1:5" ht="15.6">
       <c r="A50" s="58">
         <v>4100403</v>
       </c>
@@ -9168,12 +9164,12 @@
         <v>640</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
     </row>
-    <row r="51" spans="1:5" ht="13.5">
+    <row r="51" spans="1:5" ht="15.6">
       <c r="A51" s="43">
         <v>4100404</v>
       </c>
@@ -9181,12 +9177,12 @@
         <v>642</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
     </row>
-    <row r="52" spans="1:5" ht="13.5">
+    <row r="52" spans="1:5" ht="15.6">
       <c r="A52" s="58">
         <v>4100405</v>
       </c>
@@ -9194,12 +9190,12 @@
         <v>643</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
     </row>
-    <row r="53" spans="1:5" ht="13.5">
+    <row r="53" spans="1:5" ht="15.6">
       <c r="A53" s="43">
         <v>4100406</v>
       </c>
@@ -9207,12 +9203,12 @@
         <v>648</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
     </row>
-    <row r="54" spans="1:5" ht="13.5">
+    <row r="54" spans="1:5" ht="15.6">
       <c r="A54" s="58">
         <v>4100502</v>
       </c>
@@ -9220,12 +9216,12 @@
         <v>649</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
     </row>
-    <row r="55" spans="1:5" ht="13.5">
+    <row r="55" spans="1:5" ht="15.6">
       <c r="A55" s="58">
         <v>4100503</v>
       </c>
@@ -9233,12 +9229,12 @@
         <v>644</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
     </row>
-    <row r="56" spans="1:5" ht="13.5">
+    <row r="56" spans="1:5" ht="15.6">
       <c r="A56" s="58">
         <v>4100504</v>
       </c>
@@ -9246,12 +9242,12 @@
         <v>645</v>
       </c>
       <c r="C56" s="79" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
     </row>
-    <row r="57" spans="1:5" ht="13.5">
+    <row r="57" spans="1:5" ht="15.6">
       <c r="A57" s="58">
         <v>4100602</v>
       </c>
@@ -9259,12 +9255,12 @@
         <v>646</v>
       </c>
       <c r="C57" s="79" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
     </row>
-    <row r="58" spans="1:5" ht="13.5">
+    <row r="58" spans="1:5" ht="15.6">
       <c r="A58" s="58">
         <v>4100603</v>
       </c>
@@ -9272,12 +9268,12 @@
         <v>647</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
     </row>
-    <row r="59" spans="1:5" ht="13.5">
+    <row r="59" spans="1:5" ht="15.6">
       <c r="A59" s="58">
         <v>4100604</v>
       </c>
@@ -9285,12 +9281,12 @@
         <v>657</v>
       </c>
       <c r="C59" s="79" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
     </row>
-    <row r="60" spans="1:5" ht="13.5">
+    <row r="60" spans="1:5" ht="15.6">
       <c r="A60" s="58">
         <v>4100605</v>
       </c>
@@ -9298,12 +9294,12 @@
         <v>658</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
     </row>
-    <row r="61" spans="1:5" ht="13.5">
+    <row r="61" spans="1:5" ht="15.6">
       <c r="A61" s="58">
         <v>4100606</v>
       </c>
@@ -9311,12 +9307,12 @@
         <v>659</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
     </row>
-    <row r="62" spans="1:5" ht="13.5">
+    <row r="62" spans="1:5" ht="15.6">
       <c r="A62" s="58">
         <v>4100607</v>
       </c>
@@ -9324,12 +9320,12 @@
         <v>660</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
     </row>
-    <row r="63" spans="1:5" ht="13.5">
+    <row r="63" spans="1:5" ht="15.6">
       <c r="A63" s="58">
         <v>4100608</v>
       </c>
@@ -9337,7 +9333,7 @@
         <v>661</v>
       </c>
       <c r="C63" s="79" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -9541,21 +9537,21 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="20" t="s">
         <v>136</v>
       </c>
@@ -9575,7 +9571,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -9595,7 +9591,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -9616,7 +9612,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="42">
         <v>70001</v>
       </c>
@@ -9633,7 +9629,7 @@
         <v>범주 70001 ~ 100000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.2">
       <c r="A6" s="6">
         <f>A5+1</f>
         <v>70002</v>
@@ -9651,7 +9647,7 @@
         <v>70001~아이템 명, 장비 명 80001~90000, 조각 이름 90001~100000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.2">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A31" si="0">A6+1</f>
         <v>70003</v>
@@ -9665,7 +9661,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>70004</v>
@@ -9679,7 +9675,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.2">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>70005</v>
@@ -9693,7 +9689,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>70006</v>
@@ -9707,7 +9703,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>70007</v>
@@ -9721,7 +9717,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>70008</v>
@@ -9735,7 +9731,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="13.2">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>70009</v>
@@ -9749,7 +9745,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.2">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>70010</v>
@@ -9763,7 +9759,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.2">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>70011</v>
@@ -9777,7 +9773,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.2">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>70012</v>
@@ -9791,7 +9787,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="13.2">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>70013</v>
@@ -9805,7 +9801,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="13.2">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>70014</v>
@@ -9819,7 +9815,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="13.2">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>70015</v>
@@ -9833,7 +9829,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="13.2">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>70016</v>
@@ -9847,7 +9843,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75">
+    <row r="21" spans="1:5" ht="13.2">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>70017</v>
@@ -9861,7 +9857,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="12.75">
+    <row r="22" spans="1:5" ht="13.2">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>70018</v>
@@ -9875,7 +9871,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="12.75">
+    <row r="23" spans="1:5" ht="13.2">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>70019</v>
@@ -9889,7 +9885,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="12.75">
+    <row r="24" spans="1:5" ht="13.2">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>70020</v>
@@ -9903,7 +9899,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="12.75">
+    <row r="25" spans="1:5" ht="13.2">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>70021</v>
@@ -9917,7 +9913,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="12.75">
+    <row r="26" spans="1:5" ht="13.2">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>70022</v>
@@ -9931,7 +9927,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="12.75">
+    <row r="27" spans="1:5" ht="13.2">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>70023</v>
@@ -9945,7 +9941,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="12.75">
+    <row r="28" spans="1:5" ht="13.2">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>70024</v>
@@ -9959,7 +9955,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="12.75">
+    <row r="29" spans="1:5" ht="13.2">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>70025</v>
@@ -9973,7 +9969,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="12.75">
+    <row r="30" spans="1:5" ht="13.2">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>70026</v>
@@ -9987,7 +9983,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="12.75">
+    <row r="31" spans="1:5" ht="13.2">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>70027</v>
@@ -10001,7 +9997,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="12.75">
+    <row r="32" spans="1:5" ht="13.2">
       <c r="A32" s="41">
         <v>80001</v>
       </c>
@@ -10014,7 +10010,7 @@
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
     </row>
-    <row r="33" spans="1:5" ht="12.75">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="A33" s="40">
         <f>A32+1</f>
         <v>80002</v>
@@ -10028,7 +10024,7 @@
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75">
+    <row r="34" spans="1:5" ht="13.2">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A55" si="1">A33+1</f>
         <v>80003</v>
@@ -10042,7 +10038,7 @@
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
     </row>
-    <row r="35" spans="1:5" ht="12.75">
+    <row r="35" spans="1:5" ht="13.2">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>80004</v>
@@ -10056,7 +10052,7 @@
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
     </row>
-    <row r="36" spans="1:5" ht="12.75">
+    <row r="36" spans="1:5" ht="13.2">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>80005</v>
@@ -10070,7 +10066,7 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
     </row>
-    <row r="37" spans="1:5" ht="12.75">
+    <row r="37" spans="1:5" ht="13.2">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>80006</v>
@@ -10084,7 +10080,7 @@
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
     </row>
-    <row r="38" spans="1:5" ht="12.75">
+    <row r="38" spans="1:5" ht="13.2">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>80007</v>
@@ -10098,7 +10094,7 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
     </row>
-    <row r="39" spans="1:5" ht="12.75">
+    <row r="39" spans="1:5" ht="13.2">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>80008</v>
@@ -10336,7 +10332,7 @@
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
     </row>
-    <row r="56" spans="1:5" ht="12.75">
+    <row r="56" spans="1:5" ht="13.2">
       <c r="A56" s="52">
         <v>90001</v>
       </c>
@@ -10349,7 +10345,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="12.75">
+    <row r="57" spans="1:5" ht="13.2">
       <c r="A57" s="6">
         <f>A56+1</f>
         <v>90002</v>
@@ -10363,7 +10359,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="12.75">
+    <row r="58" spans="1:5" ht="13.2">
       <c r="A58" s="6">
         <f>A57+1</f>
         <v>90003</v>
@@ -10394,16 +10390,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" customWidth="1"/>
-    <col min="5" max="5" width="81.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.109375" customWidth="1"/>
+    <col min="5" max="5" width="81.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>394</v>
       </c>
@@ -10429,7 +10425,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
+    <row r="3" spans="1:6" ht="13.2">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -10449,7 +10445,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4" spans="1:6" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -10469,7 +10465,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
+    <row r="5" spans="1:6" ht="13.8">
       <c r="A5" s="4">
         <v>40001</v>
       </c>
@@ -10486,7 +10482,7 @@
         <v>범주 100001 ~ 130000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="4">
         <v>40002</v>
       </c>
@@ -10499,7 +10495,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="4">
         <v>40003</v>
       </c>
@@ -10512,7 +10508,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="4">
         <v>40004</v>
       </c>
@@ -10525,7 +10521,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="4">
         <v>40005</v>
       </c>
@@ -10538,7 +10534,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="4">
         <v>40006</v>
       </c>
@@ -10551,7 +10547,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="4">
         <v>40007</v>
       </c>
@@ -10564,7 +10560,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="4">
         <v>40008</v>
       </c>
@@ -10577,7 +10573,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="4">
         <v>40009</v>
       </c>
@@ -10590,7 +10586,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="4">
         <v>40010</v>
       </c>
@@ -10603,7 +10599,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="4">
         <v>40011</v>
       </c>
@@ -10616,7 +10612,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="4">
         <v>40012</v>
       </c>
@@ -10629,7 +10625,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="14.25">
+    <row r="17" spans="1:5" ht="13.8">
       <c r="A17" s="4">
         <v>40013</v>
       </c>
@@ -10642,7 +10638,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="14.25">
+    <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="4">
         <v>40014</v>
       </c>
@@ -10655,7 +10651,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="14.25">
+    <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="4">
         <v>40015</v>
       </c>
@@ -10668,7 +10664,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="14.25">
+    <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="4">
         <v>40016</v>
       </c>
@@ -10681,7 +10677,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="14.25">
+    <row r="21" spans="1:5" ht="13.8">
       <c r="A21" s="4">
         <v>40017</v>
       </c>
@@ -10694,7 +10690,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="14.25">
+    <row r="22" spans="1:5" ht="13.8">
       <c r="A22" s="4">
         <v>40018</v>
       </c>
@@ -10707,7 +10703,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="14.25">
+    <row r="23" spans="1:5" ht="13.8">
       <c r="A23" s="4">
         <v>40019</v>
       </c>
@@ -10720,7 +10716,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="14.25">
+    <row r="24" spans="1:5" ht="13.8">
       <c r="A24" s="4">
         <v>40020</v>
       </c>
@@ -10733,7 +10729,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="14.25">
+    <row r="25" spans="1:5" ht="13.8">
       <c r="A25" s="4">
         <v>40021</v>
       </c>
@@ -10746,7 +10742,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="14.25">
+    <row r="26" spans="1:5" ht="13.8">
       <c r="A26" s="4">
         <v>40022</v>
       </c>
@@ -10759,7 +10755,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="14.25">
+    <row r="27" spans="1:5" ht="13.8">
       <c r="A27" s="4">
         <v>40023</v>
       </c>
@@ -10772,7 +10768,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="14.25">
+    <row r="28" spans="1:5" ht="13.8">
       <c r="A28" s="4">
         <v>40024</v>
       </c>
@@ -10785,7 +10781,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="14.25">
+    <row r="29" spans="1:5" ht="13.8">
       <c r="A29" s="4">
         <v>40025</v>
       </c>
@@ -10798,7 +10794,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="14.25">
+    <row r="30" spans="1:5" ht="13.8">
       <c r="A30" s="4">
         <v>40026</v>
       </c>
@@ -10811,7 +10807,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="14.25">
+    <row r="31" spans="1:5" ht="13.8">
       <c r="A31" s="4">
         <v>40027</v>
       </c>
@@ -10824,7 +10820,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="14.25">
+    <row r="32" spans="1:5" ht="13.8">
       <c r="A32" s="4">
         <v>40028</v>
       </c>
@@ -10837,7 +10833,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="14.25">
+    <row r="33" spans="1:5" ht="13.8">
       <c r="A33" s="4">
         <v>40029</v>
       </c>
@@ -10850,7 +10846,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="14.25">
+    <row r="34" spans="1:5" ht="13.8">
       <c r="A34" s="4">
         <v>40030</v>
       </c>
@@ -10863,7 +10859,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="14.25">
+    <row r="35" spans="1:5" ht="13.8">
       <c r="A35" s="4">
         <v>40031</v>
       </c>
@@ -10876,7 +10872,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="14.25">
+    <row r="36" spans="1:5" ht="13.8">
       <c r="A36" s="4">
         <v>40032</v>
       </c>
@@ -10889,7 +10885,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="14.25">
+    <row r="37" spans="1:5" ht="13.8">
       <c r="A37" s="4">
         <v>40033</v>
       </c>
@@ -10902,7 +10898,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="14.25">
+    <row r="38" spans="1:5" ht="13.8">
       <c r="A38" s="4">
         <v>40034</v>
       </c>
@@ -10915,7 +10911,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="14.25">
+    <row r="39" spans="1:5" ht="13.8">
       <c r="A39" s="4">
         <v>40035</v>
       </c>
@@ -10928,7 +10924,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="14.25">
+    <row r="40" spans="1:5" ht="13.8">
       <c r="A40" s="4">
         <v>40036</v>
       </c>
@@ -10941,7 +10937,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="14.25">
+    <row r="41" spans="1:5" ht="13.8">
       <c r="A41" s="4">
         <v>40037</v>
       </c>
@@ -10954,7 +10950,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="14.25">
+    <row r="42" spans="1:5" ht="13.8">
       <c r="A42" s="4">
         <v>40038</v>
       </c>
@@ -10967,7 +10963,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="14.25">
+    <row r="43" spans="1:5" ht="13.8">
       <c r="A43" s="4">
         <v>40039</v>
       </c>
@@ -10980,7 +10976,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="14.25">
+    <row r="44" spans="1:5" ht="13.8">
       <c r="A44" s="4">
         <v>40040</v>
       </c>
@@ -10993,7 +10989,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="14.25">
+    <row r="45" spans="1:5" ht="13.8">
       <c r="A45" s="4">
         <v>40041</v>
       </c>
@@ -11006,7 +11002,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="14.25">
+    <row r="46" spans="1:5" ht="13.8">
       <c r="A46" s="4">
         <v>40042</v>
       </c>
@@ -11019,7 +11015,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="14.25">
+    <row r="47" spans="1:5" ht="13.8">
       <c r="A47" s="4">
         <v>40043</v>
       </c>
@@ -11032,7 +11028,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="14.25">
+    <row r="48" spans="1:5" ht="13.8">
       <c r="A48" s="4">
         <v>40044</v>
       </c>
@@ -11045,7 +11041,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="14.25">
+    <row r="49" spans="1:5" ht="13.8">
       <c r="A49" s="4">
         <v>40045</v>
       </c>
@@ -11058,7 +11054,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="14.25">
+    <row r="50" spans="1:5" ht="13.8">
       <c r="A50" s="4">
         <v>40046</v>
       </c>
@@ -11071,7 +11067,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="14.25">
+    <row r="51" spans="1:5" ht="13.8">
       <c r="A51" s="4">
         <v>40047</v>
       </c>
@@ -11084,7 +11080,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="14.25">
+    <row r="52" spans="1:5" ht="13.8">
       <c r="A52" s="4">
         <v>40048</v>
       </c>
@@ -11097,7 +11093,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="14.25">
+    <row r="53" spans="1:5" ht="13.8">
       <c r="A53" s="4">
         <v>40049</v>
       </c>
@@ -11110,7 +11106,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="14.25">
+    <row r="54" spans="1:5" ht="13.8">
       <c r="A54" s="4">
         <v>40050</v>
       </c>
@@ -11123,7 +11119,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="14.25">
+    <row r="55" spans="1:5" ht="13.8">
       <c r="A55" s="4">
         <v>40051</v>
       </c>
@@ -11136,7 +11132,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="14.25">
+    <row r="56" spans="1:5" ht="13.8">
       <c r="A56" s="4">
         <v>40052</v>
       </c>
@@ -11149,7 +11145,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="14.25">
+    <row r="57" spans="1:5" ht="13.8">
       <c r="A57" s="4">
         <v>40053</v>
       </c>
@@ -11162,7 +11158,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="14.25">
+    <row r="58" spans="1:5" ht="13.8">
       <c r="A58" s="4">
         <v>40054</v>
       </c>
@@ -11175,7 +11171,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="14.25">
+    <row r="59" spans="1:5" ht="13.8">
       <c r="A59" s="4">
         <v>40055</v>
       </c>
@@ -11188,7 +11184,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="14.25">
+    <row r="60" spans="1:5" ht="13.8">
       <c r="A60" s="4">
         <v>40056</v>
       </c>
@@ -11201,7 +11197,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" ht="14.25">
+    <row r="61" spans="1:5" ht="13.8">
       <c r="A61" s="4">
         <v>40057</v>
       </c>
@@ -11214,7 +11210,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" ht="14.25">
+    <row r="62" spans="1:5" ht="13.8">
       <c r="A62" s="4">
         <v>40058</v>
       </c>
@@ -11227,7 +11223,7 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" ht="14.25">
+    <row r="63" spans="1:5" ht="13.8">
       <c r="A63" s="4">
         <v>40059</v>
       </c>
@@ -11240,7 +11236,7 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" ht="14.25">
+    <row r="64" spans="1:5" ht="13.8">
       <c r="A64" s="4">
         <v>40060</v>
       </c>
@@ -11253,7 +11249,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="14.25">
+    <row r="65" spans="1:5" ht="13.8">
       <c r="A65" s="4">
         <v>40061</v>
       </c>
@@ -11266,7 +11262,7 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" ht="14.25">
+    <row r="66" spans="1:5" ht="13.8">
       <c r="A66" s="4">
         <v>40062</v>
       </c>
@@ -11279,7 +11275,7 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="14.25">
+    <row r="67" spans="1:5" ht="13.8">
       <c r="A67" s="4">
         <v>40063</v>
       </c>
@@ -11309,16 +11305,16 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="4" width="87" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>395</v>
       </c>
@@ -11344,7 +11340,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
+    <row r="3" spans="1:6" ht="13.2">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -11364,7 +11360,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4" spans="1:6" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -11384,7 +11380,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="67" customFormat="1" ht="27">
+    <row r="5" spans="1:6" s="67" customFormat="1" ht="31.2">
       <c r="A5" s="62">
         <v>70001</v>
       </c>
@@ -11401,126 +11397,126 @@
         <v>범주 130001 ~ 160000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="6" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="68"/>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
     </row>
-    <row r="7" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="7" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A7" s="62"/>
       <c r="B7" s="62"/>
       <c r="C7" s="68"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
     </row>
-    <row r="8" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="8" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="C8" s="68"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
     </row>
-    <row r="9" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="9" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A9" s="62"/>
       <c r="B9" s="62"/>
       <c r="C9" s="69"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
     </row>
-    <row r="10" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="10" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A10" s="62"/>
       <c r="B10" s="62"/>
       <c r="C10" s="69"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
     </row>
-    <row r="11" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="11" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A11" s="62"/>
       <c r="B11" s="62"/>
       <c r="C11" s="69"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
     </row>
-    <row r="12" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="12" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A12" s="62"/>
       <c r="B12" s="62"/>
       <c r="C12" s="69"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
     </row>
-    <row r="13" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="13" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A13" s="62"/>
       <c r="B13" s="62"/>
       <c r="C13" s="69"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
     </row>
-    <row r="14" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="14" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A14" s="62"/>
       <c r="B14" s="62"/>
       <c r="C14" s="69"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
     </row>
-    <row r="15" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="15" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A15" s="62"/>
       <c r="B15" s="62"/>
       <c r="C15" s="69"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
     </row>
-    <row r="16" spans="1:6" s="67" customFormat="1" ht="12.75">
+    <row r="16" spans="1:6" s="67" customFormat="1" ht="13.2">
       <c r="A16" s="62"/>
       <c r="B16" s="62"/>
       <c r="C16" s="69"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
     </row>
-    <row r="17" spans="1:5" s="67" customFormat="1" ht="12.75">
+    <row r="17" spans="1:5" s="67" customFormat="1" ht="13.2">
       <c r="A17" s="62"/>
       <c r="B17" s="62"/>
       <c r="C17" s="69"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
     </row>
-    <row r="18" spans="1:5" s="67" customFormat="1" ht="12.75">
+    <row r="18" spans="1:5" s="67" customFormat="1" ht="13.2">
       <c r="A18" s="62"/>
       <c r="B18" s="62"/>
       <c r="C18" s="69"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
     </row>
-    <row r="19" spans="1:5" s="67" customFormat="1" ht="12.75">
+    <row r="19" spans="1:5" s="67" customFormat="1" ht="13.2">
       <c r="A19" s="62"/>
       <c r="B19" s="62"/>
       <c r="C19" s="69"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
     </row>
-    <row r="20" spans="1:5" s="67" customFormat="1" ht="12.75">
+    <row r="20" spans="1:5" s="67" customFormat="1" ht="13.2">
       <c r="A20" s="62"/>
       <c r="B20" s="62"/>
       <c r="C20" s="69"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
     </row>
-    <row r="21" spans="1:5" s="67" customFormat="1" ht="12.75">
+    <row r="21" spans="1:5" s="67" customFormat="1" ht="13.2">
       <c r="A21" s="62"/>
       <c r="B21" s="62"/>
       <c r="C21" s="69"/>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
     </row>
-    <row r="22" spans="1:5" s="67" customFormat="1" ht="12.75">
+    <row r="22" spans="1:5" s="67" customFormat="1" ht="13.2">
       <c r="A22" s="62"/>
       <c r="B22" s="62"/>
       <c r="C22" s="69"/>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
     </row>
-    <row r="23" spans="1:5" s="67" customFormat="1" ht="12.75">
+    <row r="23" spans="1:5" s="67" customFormat="1" ht="13.2">
       <c r="A23" s="62"/>
       <c r="B23" s="62"/>
       <c r="C23" s="69"/>
@@ -11544,16 +11540,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>396</v>
       </c>
@@ -11579,7 +11575,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -11599,7 +11595,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -11620,7 +11616,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.8">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -11635,7 +11631,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -11650,7 +11646,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A65" si="0">A6+1</f>
         <v>3</v>
@@ -11665,7 +11661,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.8">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -11680,7 +11676,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -11695,7 +11691,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -11708,7 +11704,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="53"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11721,7 +11717,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="53"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11734,7 +11730,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="53"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -11747,7 +11743,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="53"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -11760,7 +11756,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="53"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -11773,7 +11769,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="53"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -11786,7 +11782,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -11799,7 +11795,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="53"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -11812,7 +11808,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="53"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -11825,7 +11821,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="53"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -11838,7 +11834,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="53"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -11851,7 +11847,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="53"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -11864,7 +11860,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="53"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -11877,7 +11873,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="53"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -11890,7 +11886,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="53"/>
     </row>
-    <row r="25" spans="1:6" ht="12.75">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -11903,7 +11899,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="53"/>
     </row>
-    <row r="26" spans="1:6" ht="12.75">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -11916,7 +11912,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="53"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B6CD5E-3559-4FD3-BEB7-5D1A049A5E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA35BA17-9C9B-429D-9027-D61833764E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19464" yWindow="1536" windowWidth="19056" windowHeight="13704" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41925" yWindow="1065" windowWidth="34695" windowHeight="18915" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -4684,10 +4684,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>가장 가까운 대상에게 섬광탄을 던져서 대상과 그 주변 반경 3m내의 적들을 2초 동안 기절시킨다.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>skill_desc_ailyn_03_2</t>
   </si>
   <si>
@@ -4798,7 +4794,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>스테이지를 클리어해야 입장할 수 있습니다.</t>
     </r>
@@ -4818,7 +4814,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>물리</t>
     </r>
@@ -4837,7 +4833,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>공격력</t>
     </r>
@@ -4853,7 +4849,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>마법</t>
     </r>
@@ -4872,7 +4868,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>공격력</t>
     </r>
@@ -5087,7 +5083,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>스킬</t>
     </r>
@@ -5105,7 +5101,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">설명의 경우, 하나의 스킬에 다수의 </t>
     </r>
@@ -5123,7 +5119,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>행이 엮일 수 있으므로,</t>
     </r>
@@ -5341,96 +5337,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>아군 중 현재 체력이 가장 낮은 대상을 [0]만큼 회복시킵니다.</t>
-  </si>
-  <si>
-    <t>가장 가까운 적에게 [0]마법 데미지의 낙뢰를 떨어트립니다.</t>
-  </si>
-  <si>
-    <t>아군 전체의 체력을 [0]만큼 회복시킵니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 체력이 가장 낮은 적을 저격하여 [0]의 물리 데미지를 준다. </t>
-  </si>
-  <si>
-    <t>그리고 [2]% 확률로 [3]초 동안 자신의 물리 공격력을 [6]% 증가시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0]의 물리 데미지를 준다. </t>
-  </si>
-  <si>
-    <t>그리고, [2]% 확률로 [3]초 동안 대상의 물리 방어력을 [6]% 감소시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강력한 확산형 폭발탄을 발사하여 중심지의 적에게 [0]의 물리 데미지를 주고, </t>
-  </si>
-  <si>
-    <t>[2]% 확률로 [3]초 동안 대상의 물리 방어력을 [6]% 감소시킨다.</t>
-  </si>
-  <si>
-    <t>그리고 탄착 지점에서 폭발이 일어나면서 적 전체에게 [0]의 물리 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>베리타리움 에너지를 모아 플라즈마의 형태로 발사하여 가장 가까운 적에게 [0]의 물리 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>자신의 뒤로 3m내에 있는 아군들의 크리티컬을 [3]초간 [6]%만큼 증가시킨다.</t>
-  </si>
-  <si>
-    <t>가장 가까운 적 1명에게 [0]의 물리 데미지를 준다.</t>
-  </si>
-  <si>
-    <t>[3]초간 모든 아군들의 크리티컬을 [6]%만큼 증가시킨다.</t>
-  </si>
-  <si>
-    <t>[3]초간 주변 반경 3m내에 있는 아군들의 크리티컬 데미지를을 [6]%만큼 증가시킨다.</t>
-  </si>
-  <si>
-    <t>[3]초간 모든 아군들의 크리티컬 데미지를을 [6]%만큼 증가시킨다.</t>
-  </si>
-  <si>
-    <t>자신의 체력을 [0]만큼 회복한다.</t>
-  </si>
-  <si>
-    <t>자신의 체력을 [0]만큼 회복하고,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3]초 아군 전체의 물리 방어력을 [6]%, </t>
-  </si>
-  <si>
-    <t>물리 공격력을 [6]% 만큼 증가시킨다.</t>
-  </si>
-  <si>
-    <t>가장 가까운 적에게 강력한 검격으로 [0]%의 물리 데미지를 줍니다.</t>
-  </si>
-  <si>
-    <t>베리타리움의 기운을 모두 끌어모아 적 전체에게 [0]%의 물리 데미지를 주는 강력한 검기를 쏘아냅니다.</t>
-  </si>
-  <si>
-    <t>남은 기운으로 [3]초 동안 자신의 최대 체력을 [6]%만큼 증가시킵니다.</t>
-  </si>
-  <si>
-    <t>가장 가까운 적에게 절망의 구슬을 날려 [0]마법 데미지를 줍니다.</t>
-  </si>
-  <si>
-    <t>그리고, [2]% 확률로 [3]초 동안 대상의 마법 방어력을 [6]% 감소시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 적들을 암흑의 기운으로 덮어서 [0]의 마법 데미지를 입히고, </t>
-  </si>
-  <si>
-    <t>[2]% 확률로 [3]초간 명중을 [6]%만큼 감소시킨다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">강력한 공포의 힘을 소환하여 적 전체에게 [0]의 마법 데미지를 입히고, </t>
-  </si>
-  <si>
-    <t>[2]% 확률로 [3]초 동안 대상의 마법 방어력을 [6]% 감소시킨다.</t>
-  </si>
-  <si>
-    <t>그리고 [2]% 확률로 [3]초간 명중을 [6]%만큼 감소시킨다.</t>
-  </si>
-  <si>
     <t xml:space="preserve">[1]: onetime시트의 multiple 값을 백분률(*100)화 하여 출력 (피해량 퍼센테이지 표현 등) </t>
   </si>
   <si>
@@ -5450,6 +5356,130 @@
   </si>
   <si>
     <t>[7]: duriation시트의 value 값을 출력</t>
+  </si>
+  <si>
+    <t>아군 중 현재 체력이 가장 낮은 대상을 &lt;color=#46c746&gt;[0]&lt;/color&gt;만큼 회복시킵니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적에게 &lt;color=#46c746&gt;[0]&lt;/color&gt;마법 데미지의 낙뢰를 떨어트립니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체의 체력을 &lt;color=#46c746&gt;[0]&lt;/color&gt;만큼 회복시킵니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 체력이 가장 낮은 적을 저격하여 &lt;color=#46c746&gt;[0]&lt;/color&gt;의 물리 데미지를 준다. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 &lt;color=#46c746&gt;[2]&lt;/color&gt;% 확률로 &lt;color=#46c746&gt;[3]&lt;/color&gt;초 동안 자신의 물리 공격력을 &lt;color=#46c746&gt;[6]&lt;/color&gt;% 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#46c746&gt;[0]&lt;/color&gt;의 물리 데미지를 준다. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고, &lt;color=#46c746&gt;[2]&lt;/color&gt;% 확률로 &lt;color=#46c746&gt;[3]&lt;/color&gt;초 동안 대상의 물리 방어력을 &lt;color=#46c746&gt;[6]&lt;/color&gt;% 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강력한 확산형 폭발탄을 발사하여 중심지의 적에게 &lt;color=#46c746&gt;[0]&lt;/color&gt;의 물리 데미지를 주고, </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#46c746&gt;[2]&lt;/color&gt;% 확률로 &lt;color=#46c746&gt;[3]&lt;/color&gt;초 동안 대상의 물리 방어력을 &lt;color=#46c746&gt;[6]&lt;/color&gt;% 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 탄착 지점에서 폭발이 일어나면서 적 전체에게 &lt;color=#46c746&gt;[0]&lt;/color&gt;의 물리 데미지를 준다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리타리움 에너지를 모아 플라즈마의 형태로 발사하여 가장 가까운 적에게 &lt;color=#46c746&gt;[0]&lt;/color&gt;의 물리 데미지를 준다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 뒤로 3m내에 있는 아군들의 크리티컬을 &lt;color=#46c746&gt;[3]&lt;/color&gt;초간 &lt;color=#46c746&gt;[6]&lt;/color&gt;%만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적 1명에게 &lt;color=#46c746&gt;[0]&lt;/color&gt;의 물리 데미지를 준다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#46c746&gt;[3]&lt;/color&gt;초간 모든 아군들의 크리티컬을 &lt;color=#46c746&gt;[6]&lt;/color&gt;%만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#46c746&gt;[3]&lt;/color&gt;초간 주변 반경 3m내에 있는 아군들의 크리티컬 데미지를을 &lt;color=#46c746&gt;[6]&lt;/color&gt;%만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#46c746&gt;[3]&lt;/color&gt;초간 모든 아군들의 크리티컬 데미지를을 &lt;color=#46c746&gt;[6]&lt;/color&gt;%만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력을 &lt;color=#46c746&gt;[0]&lt;/color&gt;만큼 회복한다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 대상에게 섬광탄을 던져서 대상과 그 주변 반경 3m내의 적들을 &lt;color=#46c746&gt;2&lt;/color&gt;초 동안 기절시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 체력을 &lt;color=#46c746&gt;[0]&lt;/color&gt;만큼 회복하고,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;color=#46c746&gt;[3]&lt;/color&gt;초 아군 전체의 물리 방어력을 &lt;color=#46c746&gt;[6]&lt;/color&gt;%, </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 공격력을 &lt;color=#46c746&gt;[6]&lt;/color&gt;% 만큼 증가시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적에게 강력한 검격으로 &lt;color=#46c746&gt;[0]&lt;/color&gt;%의 물리 데미지를 줍니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>베리타리움의 기운을 모두 끌어모아 적 전체에게 &lt;color=#46c746&gt;[0]&lt;/color&gt;%의 물리 데미지를 주는 강력한 검기를 쏘아냅니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까운 적에게 절망의 구슬을 날려 &lt;color=#46c746&gt;[0]&lt;/color&gt;마법 데미지를 줍니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고, &lt;color=#46c746&gt;[2]&lt;/color&gt;% 확률로 &lt;color=#46c746&gt;[3]&lt;/color&gt;초 동안 대상의 마법 방어력을 &lt;color=#46c746&gt;[6]&lt;/color&gt;% 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 적들을 암흑의 기운으로 덮어서 &lt;color=#46c746&gt;[0]&lt;/color&gt;의 마법 데미지를 입히고, </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 기운으로 &lt;color=#46c746&gt;[3]&lt;/color&gt;초 동안 자신의 최대 체력을 &lt;color=#46c746&gt;[6]&lt;/color&gt;%만큼 증가시킵니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#46c746&gt;[2]&lt;/color&gt;% 확률로 &lt;color=#46c746&gt;[3]&lt;/color&gt;초간 명중을 &lt;color=#46c746&gt;[6]&lt;/color&gt;%만큼 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">강력한 공포의 힘을 소환하여 적 전체에게 &lt;color=#46c746&gt;[0]&lt;/color&gt;의 마법 데미지를 입히고, </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#46c746&gt;[2]&lt;/color&gt;% 확률로 &lt;color=#46c746&gt;[3]&lt;/color&gt;초 동안 대상의 마법 방어력을 &lt;color=#46c746&gt;[6]&lt;/color&gt;% 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 &lt;color=#46c746&gt;[2]&lt;/color&gt;% 확률로 &lt;color=#46c746&gt;[3]&lt;/color&gt;초간 명중을 &lt;color=#46c746&gt;[6]&lt;/color&gt;%만큼 감소시킨다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5837,7 +5867,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6462,22 +6492,22 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="29"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="28" width="9.109375" style="29"/>
+    <col min="1" max="1" width="9.140625" style="29"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="28" width="9.140625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="29" customFormat="1"/>
     <row r="2" spans="2:11" s="29" customFormat="1"/>
-    <row r="3" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="3" spans="2:11" s="29" customFormat="1">
       <c r="B3" s="30" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="29" customFormat="1"/>
-    <row r="5" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="5" spans="2:11" s="29" customFormat="1">
       <c r="B5" s="31" t="s">
         <v>155</v>
       </c>
@@ -6488,7 +6518,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="6" spans="2:11" s="29" customFormat="1">
       <c r="J6" s="34" t="s">
         <v>156</v>
       </c>
@@ -6496,7 +6526,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="7" spans="2:11" s="29" customFormat="1">
       <c r="J7" s="34" t="s">
         <v>158</v>
       </c>
@@ -6504,7 +6534,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="8" spans="2:11" s="29" customFormat="1">
       <c r="J8" s="34" t="s">
         <v>165</v>
       </c>
@@ -6512,7 +6542,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="9" spans="2:11" s="29" customFormat="1">
       <c r="J9" s="34" t="s">
         <v>164</v>
       </c>
@@ -6520,7 +6550,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="10" spans="2:11" s="29" customFormat="1">
       <c r="J10" s="34" t="s">
         <v>163</v>
       </c>
@@ -6528,7 +6558,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="11" spans="2:11" s="29" customFormat="1">
       <c r="J11" s="34" t="s">
         <v>167</v>
       </c>
@@ -6536,14 +6566,14 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="12" spans="2:11" s="29" customFormat="1">
       <c r="B12" s="37" t="s">
         <v>266</v>
       </c>
       <c r="J12" s="32"/>
     </row>
     <row r="13" spans="2:11" s="29" customFormat="1"/>
-    <row r="14" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="14" spans="2:11" s="29" customFormat="1">
       <c r="B14" s="31" t="s">
         <v>267</v>
       </c>
@@ -6551,7 +6581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="15" spans="2:11" s="29" customFormat="1">
       <c r="B15" s="26" t="s">
         <v>138</v>
       </c>
@@ -6559,7 +6589,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="29" customFormat="1" ht="13.8">
+    <row r="16" spans="2:11" s="29" customFormat="1" ht="15">
       <c r="B16" s="24" t="s">
         <v>131</v>
       </c>
@@ -6589,12 +6619,12 @@
     <row r="19" spans="2:10" s="29" customFormat="1">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:10" s="29" customFormat="1" ht="13.8">
+    <row r="20" spans="2:10" s="29" customFormat="1">
       <c r="B20" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="29" customFormat="1" ht="13.8">
+    <row r="21" spans="2:10" s="29" customFormat="1" ht="15">
       <c r="B21" s="24" t="s">
         <v>131</v>
       </c>
@@ -6607,22 +6637,22 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="29" customFormat="1" ht="15.6">
+    <row r="23" spans="2:10" s="29" customFormat="1" ht="13.5">
       <c r="B23" s="27" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="29" customFormat="1" ht="15.6">
+    <row r="24" spans="2:10" s="29" customFormat="1" ht="13.5">
       <c r="B24" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="13.8">
+    <row r="26" spans="2:10">
       <c r="B26" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="13.8">
+    <row r="27" spans="2:10" ht="15">
       <c r="B27" s="24" t="s">
         <v>131</v>
       </c>
@@ -6635,32 +6665,32 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.6">
+    <row r="29" spans="2:10" ht="13.5">
       <c r="B29" s="27" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15.6">
+    <row r="30" spans="2:10" ht="13.5">
       <c r="B30" s="27" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.6">
+    <row r="31" spans="2:10" ht="13.5">
       <c r="B31" s="34" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="13.8">
+    <row r="32" spans="2:10">
       <c r="B32" s="34" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="13.8">
+    <row r="34" spans="2:4">
       <c r="B34" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="13.8">
+    <row r="35" spans="2:4" ht="15">
       <c r="B35" s="24" t="s">
         <v>131</v>
       </c>
@@ -6673,22 +6703,22 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.6">
+    <row r="37" spans="2:4" ht="13.5">
       <c r="B37" s="27" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.6">
+    <row r="38" spans="2:4" ht="13.5">
       <c r="B38" s="39" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="13.8">
+    <row r="40" spans="2:4">
       <c r="B40" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="13.8">
+    <row r="41" spans="2:4" ht="15">
       <c r="B41" s="24" t="s">
         <v>131</v>
       </c>
@@ -6701,7 +6731,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="15.6">
+    <row r="43" spans="2:4" ht="13.5">
       <c r="B43" s="27" t="s">
         <v>278</v>
       </c>
@@ -6712,12 +6742,12 @@
     <row r="45" spans="2:4">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:4" ht="13.8">
+    <row r="46" spans="2:4">
       <c r="B46" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="13.8">
+    <row r="47" spans="2:4" ht="15">
       <c r="B47" s="24" t="s">
         <v>131</v>
       </c>
@@ -6730,7 +6760,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15.6">
+    <row r="49" spans="2:2" ht="13.5">
       <c r="B49" s="27" t="s">
         <v>279</v>
       </c>
@@ -6781,20 +6811,20 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="42.44140625" customWidth="1"/>
-    <col min="3" max="3" width="74.109375" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>390</v>
       </c>
@@ -6820,7 +6850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -6840,7 +6870,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -6861,7 +6891,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.2">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -6880,7 +6910,7 @@
         <v>범주 1 ~ 20000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -6899,7 +6929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>3</v>
@@ -6915,7 +6945,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="13.2">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6931,7 +6961,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="13.2">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6947,7 +6977,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="13.2">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6963,7 +6993,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="13.2">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6979,7 +7009,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="13.2">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6995,7 +7025,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7009,7 +7039,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="13.2">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7023,7 +7053,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="13.2">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7037,7 +7067,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7051,7 +7081,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6">
+    <row r="17" spans="1:5" ht="13.5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7065,7 +7095,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="13.8">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7079,7 +7109,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="13.8">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7093,7 +7123,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="13.8">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="43">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7715,10 +7745,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="59" t="s">
+        <v>667</v>
+      </c>
+      <c r="C64" s="59" t="s">
         <v>668</v>
-      </c>
-      <c r="C64" s="59" t="s">
-        <v>669</v>
       </c>
       <c r="D64" s="60"/>
       <c r="E64" s="60"/>
@@ -7729,7 +7759,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="95" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C65" s="96" t="s">
         <v>354</v>
@@ -7743,10 +7773,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="95" t="s">
+        <v>670</v>
+      </c>
+      <c r="C66" s="59" t="s">
         <v>671</v>
-      </c>
-      <c r="C66" s="59" t="s">
-        <v>672</v>
       </c>
       <c r="D66" s="60"/>
       <c r="E66" s="60"/>
@@ -7757,10 +7787,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="95" t="s">
+        <v>672</v>
+      </c>
+      <c r="C67" s="59" t="s">
         <v>673</v>
-      </c>
-      <c r="C67" s="59" t="s">
-        <v>674</v>
       </c>
       <c r="D67" s="60"/>
       <c r="E67" s="60"/>
@@ -7771,7 +7801,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="95" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C68" s="59" t="s">
         <v>357</v>
@@ -7785,7 +7815,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="95" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C69" s="59" t="s">
         <v>358</v>
@@ -7799,10 +7829,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="95" t="s">
+        <v>676</v>
+      </c>
+      <c r="C70" s="59" t="s">
         <v>677</v>
-      </c>
-      <c r="C70" s="59" t="s">
-        <v>678</v>
       </c>
       <c r="D70" s="60"/>
       <c r="E70" s="60"/>
@@ -7813,10 +7843,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="95" t="s">
+        <v>678</v>
+      </c>
+      <c r="C71" s="59" t="s">
         <v>679</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>680</v>
       </c>
       <c r="D71" s="60"/>
       <c r="E71" s="60"/>
@@ -7827,10 +7857,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="95" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D72" s="60"/>
       <c r="E72" s="60"/>
@@ -7841,10 +7871,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="95" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D73" s="60"/>
       <c r="E73" s="60"/>
@@ -7855,10 +7885,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="95" t="s">
+        <v>682</v>
+      </c>
+      <c r="C74" s="59" t="s">
         <v>683</v>
-      </c>
-      <c r="C74" s="59" t="s">
-        <v>684</v>
       </c>
       <c r="D74" s="60"/>
       <c r="E74" s="60"/>
@@ -7869,7 +7899,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="95" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C75" s="96" t="s">
         <v>361</v>
@@ -7883,7 +7913,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="95" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C76" s="96" t="s">
         <v>362</v>
@@ -7897,10 +7927,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="95" t="s">
+        <v>686</v>
+      </c>
+      <c r="C77" s="96" t="s">
         <v>687</v>
-      </c>
-      <c r="C77" s="96" t="s">
-        <v>688</v>
       </c>
       <c r="D77" s="60"/>
       <c r="E77" s="60"/>
@@ -7911,10 +7941,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="95" t="s">
+        <v>688</v>
+      </c>
+      <c r="C78" s="96" t="s">
         <v>689</v>
-      </c>
-      <c r="C78" s="96" t="s">
-        <v>690</v>
       </c>
       <c r="D78" s="60"/>
       <c r="E78" s="60"/>
@@ -7925,10 +7955,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="95" t="s">
+        <v>690</v>
+      </c>
+      <c r="C79" s="96" t="s">
         <v>691</v>
-      </c>
-      <c r="C79" s="96" t="s">
-        <v>692</v>
       </c>
       <c r="D79" s="60"/>
       <c r="E79" s="60"/>
@@ -7939,10 +7969,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="95" t="s">
+        <v>692</v>
+      </c>
+      <c r="C80" s="96" t="s">
         <v>693</v>
-      </c>
-      <c r="C80" s="96" t="s">
-        <v>694</v>
       </c>
       <c r="D80" s="60"/>
       <c r="E80" s="60"/>
@@ -7953,10 +7983,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="95" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C81" s="96" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D81" s="60"/>
       <c r="E81" s="60"/>
@@ -7967,7 +7997,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="95" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C82" s="96" t="s">
         <v>370</v>
@@ -7992,17 +8022,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>391</v>
       </c>
@@ -8028,7 +8058,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -8048,7 +8078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -8069,7 +8099,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.2">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="42">
         <v>20001</v>
       </c>
@@ -8086,7 +8116,7 @@
         <v>범주 20001 ~ 40000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="6">
         <f>A5+1</f>
         <v>20002</v>
@@ -8104,7 +8134,7 @@
         <v>20001~30000: 캐릭터  /  30001~40000: 몬스터</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A17" si="0">A6+1</f>
         <v>20003</v>
@@ -8118,7 +8148,7 @@
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
     </row>
-    <row r="8" spans="1:7" ht="13.2">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>20004</v>
@@ -8132,7 +8162,7 @@
       <c r="D8" s="58"/>
       <c r="E8" s="58"/>
     </row>
-    <row r="9" spans="1:7" ht="13.2">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>20005</v>
@@ -8146,7 +8176,7 @@
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
     </row>
-    <row r="10" spans="1:7" ht="13.2">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>20006</v>
@@ -8160,7 +8190,7 @@
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
     </row>
-    <row r="11" spans="1:7" ht="13.2">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>20007</v>
@@ -8174,7 +8204,7 @@
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
     </row>
-    <row r="12" spans="1:7" ht="13.2">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>20008</v>
@@ -8188,7 +8218,7 @@
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
     </row>
-    <row r="13" spans="1:7" ht="13.2">
+    <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>20009</v>
@@ -8202,7 +8232,7 @@
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
     </row>
-    <row r="14" spans="1:7" ht="13.2">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>20010</v>
@@ -8216,7 +8246,7 @@
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
     </row>
-    <row r="15" spans="1:7" ht="13.2">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>20011</v>
@@ -8230,7 +8260,7 @@
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
     </row>
-    <row r="16" spans="1:7" ht="13.2">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>20012</v>
@@ -8244,7 +8274,7 @@
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
     </row>
-    <row r="17" spans="1:5" ht="13.2">
+    <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>20013</v>
@@ -8258,7 +8288,7 @@
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
     </row>
-    <row r="18" spans="1:5" ht="13.8">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="46">
         <v>30001</v>
       </c>
@@ -8271,7 +8301,7 @@
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
     </row>
-    <row r="19" spans="1:5" ht="13.8">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="48">
         <f>A18+1</f>
         <v>30002</v>
@@ -8285,7 +8315,7 @@
       <c r="D19" s="48"/>
       <c r="E19" s="48"/>
     </row>
-    <row r="20" spans="1:5" ht="13.8">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="48">
         <f t="shared" ref="A20" si="1">A19+1</f>
         <v>30003</v>
@@ -8299,14 +8329,14 @@
       <c r="D20" s="48"/>
       <c r="E20" s="48"/>
     </row>
-    <row r="21" spans="1:5" ht="13.2">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
       <c r="E21" s="48"/>
     </row>
-    <row r="22" spans="1:5" ht="13.2">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="48"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48"/>
@@ -8323,24 +8353,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B56DAE-9D40-4CC5-82CA-304E2DA30E3A}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" customWidth="1"/>
-    <col min="4" max="4" width="71.88671875" customWidth="1"/>
-    <col min="5" max="5" width="75.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" customWidth="1"/>
+    <col min="4" max="4" width="71.85546875" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>392</v>
       </c>
@@ -8349,7 +8379,7 @@
       </c>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="20" t="s">
         <v>136</v>
       </c>
@@ -8409,7 +8439,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6">
+    <row r="5" spans="1:6" ht="13.5">
       <c r="A5" s="41">
         <v>40001</v>
       </c>
@@ -8426,7 +8456,7 @@
         <v>범주 40001 ~ 60000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>40002</v>
@@ -8448,7 +8478,7 @@
         <v>범주 400001 ~ 600000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A27" si="0">A6+1</f>
         <v>40003</v>
@@ -8457,7 +8487,7 @@
         <v>539</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D7" s="84" t="s">
         <v>575</v>
@@ -8470,7 +8500,7 @@
         <v>40001~50000: 캐릭터 스킬명  /  50001~60000: 몬스터 스킬명</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>40004</v>
@@ -8479,7 +8509,7 @@
         <v>540</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D8" s="84" t="s">
         <v>581</v>
@@ -8492,7 +8522,7 @@
         <v>400001~500000: 캐릭터 스킬 설명 / 500001~600000 몬스터 스킬 설명</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>40005</v>
@@ -8513,7 +8543,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>40006</v>
@@ -8531,10 +8561,10 @@
         <v>562</v>
       </c>
       <c r="F10" s="98" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>40007</v>
@@ -8543,7 +8573,7 @@
         <v>546</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D11" s="81" t="s">
         <v>577</v>
@@ -8552,10 +8582,10 @@
         <v>595</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.5">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>40008</v>
@@ -8573,10 +8603,10 @@
         <v>563</v>
       </c>
       <c r="F12" s="99" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>40009</v>
@@ -8585,7 +8615,7 @@
         <v>548</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>579</v>
@@ -8594,10 +8624,10 @@
         <v>564</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>40010</v>
@@ -8615,10 +8645,10 @@
         <v>565</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>40011</v>
@@ -8627,7 +8657,7 @@
         <v>569</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>583</v>
@@ -8636,10 +8666,10 @@
         <v>572</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>40012</v>
@@ -8657,10 +8687,10 @@
         <v>566</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>40013</v>
@@ -8678,10 +8708,10 @@
         <v>567</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.5">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>40014</v>
@@ -8690,7 +8720,7 @@
         <v>570</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>586</v>
@@ -8699,10 +8729,10 @@
         <v>573</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>40015</v>
@@ -8720,10 +8750,10 @@
         <v>568</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>40016</v>
@@ -8741,10 +8771,10 @@
         <v>128</v>
       </c>
       <c r="F20" s="92" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>40017</v>
@@ -8762,7 +8792,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6">
+    <row r="22" spans="1:6" ht="13.5">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>40018</v>
@@ -8780,7 +8810,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>40019</v>
@@ -8798,7 +8828,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>40020</v>
@@ -8816,7 +8846,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>40021</v>
@@ -8834,7 +8864,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>40022</v>
@@ -8852,7 +8882,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>40023</v>
@@ -8870,7 +8900,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="4">
         <v>4100001</v>
       </c>
@@ -8883,46 +8913,46 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="4">
         <v>4100002</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="4">
         <v>4100003</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6">
+    <row r="31" spans="1:6" ht="13.5">
       <c r="A31" s="4">
         <v>4100004</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="13.5">
       <c r="A32" s="4">
         <v>4100102</v>
       </c>
@@ -8930,12 +8960,12 @@
         <v>618</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6">
+    <row r="33" spans="1:5" ht="13.5">
       <c r="A33" s="4">
         <v>4100102</v>
       </c>
@@ -8943,12 +8973,12 @@
         <v>619</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6">
+    <row r="34" spans="1:5" ht="13.5">
       <c r="A34" s="4">
         <v>4100103</v>
       </c>
@@ -8961,7 +8991,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6">
+    <row r="35" spans="1:5" ht="13.5">
       <c r="A35" s="4">
         <v>4100104</v>
       </c>
@@ -8969,12 +8999,12 @@
         <v>621</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6">
+    <row r="36" spans="1:5" ht="13.5">
       <c r="A36" s="4">
         <v>4100106</v>
       </c>
@@ -8982,12 +9012,12 @@
         <v>622</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6">
+    <row r="37" spans="1:5" ht="13.5">
       <c r="A37" s="4">
         <v>4100107</v>
       </c>
@@ -8995,12 +9025,12 @@
         <v>623</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6">
+    <row r="38" spans="1:5" ht="13.5">
       <c r="A38" s="4">
         <v>4100108</v>
       </c>
@@ -9008,12 +9038,12 @@
         <v>624</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6">
+    <row r="39" spans="1:5" ht="13.5">
       <c r="A39" s="4">
         <v>4100109</v>
       </c>
@@ -9021,12 +9051,12 @@
         <v>625</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6">
+    <row r="40" spans="1:5" ht="13.5">
       <c r="A40" s="4">
         <v>4100202</v>
       </c>
@@ -9034,12 +9064,12 @@
         <v>634</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6">
+    <row r="41" spans="1:5" ht="13.5">
       <c r="A41" s="4">
         <v>4100203</v>
       </c>
@@ -9047,12 +9077,12 @@
         <v>635</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6">
+    <row r="42" spans="1:5" ht="13.5">
       <c r="A42" s="4">
         <v>4100204</v>
       </c>
@@ -9060,12 +9090,12 @@
         <v>636</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6">
+    <row r="43" spans="1:5" ht="13.5">
       <c r="A43" s="4">
         <v>4100205</v>
       </c>
@@ -9073,38 +9103,38 @@
         <v>637</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6">
+    <row r="44" spans="1:5" ht="13.5">
       <c r="A44" s="4">
         <v>4100302</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6">
+    <row r="45" spans="1:5" ht="13.5">
       <c r="A45" s="4">
         <v>4100303</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="1:5" ht="15.6">
+    <row r="46" spans="1:5" ht="13.5">
       <c r="A46" s="4">
         <v>4100304</v>
       </c>
@@ -9112,12 +9142,12 @@
         <v>638</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
     </row>
-    <row r="47" spans="1:5" ht="15.6">
+    <row r="47" spans="1:5" ht="13.5">
       <c r="A47" s="4">
         <v>4100305</v>
       </c>
@@ -9125,38 +9155,38 @@
         <v>639</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6">
+    <row r="48" spans="1:5" ht="13.5">
       <c r="A48" s="4">
         <v>4100401</v>
       </c>
       <c r="B48" s="91" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6">
+    <row r="49" spans="1:5" ht="13.5">
       <c r="A49" s="43">
         <v>4100402</v>
       </c>
       <c r="B49" s="91" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6">
+    <row r="50" spans="1:5" ht="13.5">
       <c r="A50" s="58">
         <v>4100403</v>
       </c>
@@ -9164,176 +9194,176 @@
         <v>640</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="D50" s="80"/>
       <c r="E50" s="80"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6">
+    <row r="51" spans="1:5" ht="13.5">
       <c r="A51" s="43">
         <v>4100404</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="D51" s="80"/>
       <c r="E51" s="80"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6">
+    <row r="52" spans="1:5" ht="13.5">
       <c r="A52" s="58">
         <v>4100405</v>
       </c>
       <c r="B52" s="91" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C52" s="79" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="D52" s="80"/>
       <c r="E52" s="80"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6">
+    <row r="53" spans="1:5" ht="13.5">
       <c r="A53" s="43">
         <v>4100406</v>
       </c>
       <c r="B53" s="91" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D53" s="80"/>
       <c r="E53" s="80"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6">
+    <row r="54" spans="1:5" ht="13.5">
       <c r="A54" s="58">
         <v>4100502</v>
       </c>
       <c r="B54" s="91" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="D54" s="80"/>
       <c r="E54" s="80"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6">
+    <row r="55" spans="1:5" ht="13.5">
       <c r="A55" s="58">
         <v>4100503</v>
       </c>
       <c r="B55" s="91" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="D55" s="80"/>
       <c r="E55" s="80"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6">
+    <row r="56" spans="1:5" ht="13.5">
       <c r="A56" s="58">
         <v>4100504</v>
       </c>
       <c r="B56" s="91" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C56" s="79" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="D56" s="80"/>
       <c r="E56" s="80"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6">
+    <row r="57" spans="1:5" ht="13.5">
       <c r="A57" s="58">
         <v>4100602</v>
       </c>
       <c r="B57" s="91" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C57" s="79" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="D57" s="80"/>
       <c r="E57" s="80"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6">
+    <row r="58" spans="1:5" ht="13.5">
       <c r="A58" s="58">
         <v>4100603</v>
       </c>
       <c r="B58" s="91" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="D58" s="80"/>
       <c r="E58" s="80"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6">
+    <row r="59" spans="1:5" ht="13.5">
       <c r="A59" s="58">
         <v>4100604</v>
       </c>
       <c r="B59" s="91" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C59" s="79" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="D59" s="80"/>
       <c r="E59" s="80"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6">
+    <row r="60" spans="1:5" ht="13.5">
       <c r="A60" s="58">
         <v>4100605</v>
       </c>
       <c r="B60" s="91" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D60" s="80"/>
       <c r="E60" s="80"/>
     </row>
-    <row r="61" spans="1:5" ht="15.6">
+    <row r="61" spans="1:5" ht="13.5">
       <c r="A61" s="58">
         <v>4100606</v>
       </c>
       <c r="B61" s="94" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="D61" s="80"/>
       <c r="E61" s="80"/>
     </row>
-    <row r="62" spans="1:5" ht="15.6">
+    <row r="62" spans="1:5" ht="13.5">
       <c r="A62" s="58">
         <v>4100607</v>
       </c>
       <c r="B62" s="94" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="D62" s="80"/>
       <c r="E62" s="80"/>
     </row>
-    <row r="63" spans="1:5" ht="15.6">
+    <row r="63" spans="1:5" ht="13.5">
       <c r="A63" s="58">
         <v>4100608</v>
       </c>
       <c r="B63" s="94" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C63" s="79" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="D63" s="80"/>
       <c r="E63" s="80"/>
@@ -9537,21 +9567,21 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="37.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="20" t="s">
         <v>136</v>
       </c>
@@ -9571,7 +9601,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -9591,7 +9621,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -9612,7 +9642,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.2">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="42">
         <v>70001</v>
       </c>
@@ -9629,7 +9659,7 @@
         <v>범주 70001 ~ 100000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="6">
         <f>A5+1</f>
         <v>70002</v>
@@ -9647,7 +9677,7 @@
         <v>70001~아이템 명, 장비 명 80001~90000, 조각 이름 90001~100000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A31" si="0">A6+1</f>
         <v>70003</v>
@@ -9661,7 +9691,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="13.2">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>70004</v>
@@ -9675,7 +9705,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="13.2">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>70005</v>
@@ -9689,7 +9719,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="13.2">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>70006</v>
@@ -9703,7 +9733,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="13.2">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>70007</v>
@@ -9717,7 +9747,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="13.2">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>70008</v>
@@ -9731,7 +9761,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="13.2">
+    <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>70009</v>
@@ -9745,7 +9775,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="13.2">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>70010</v>
@@ -9759,7 +9789,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="13.2">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>70011</v>
@@ -9773,7 +9803,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="13.2">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>70012</v>
@@ -9787,7 +9817,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="13.2">
+    <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>70013</v>
@@ -9801,7 +9831,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="13.2">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>70014</v>
@@ -9815,7 +9845,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="13.2">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>70015</v>
@@ -9829,7 +9859,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="13.2">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>70016</v>
@@ -9843,7 +9873,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="13.2">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>70017</v>
@@ -9857,7 +9887,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="13.2">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>70018</v>
@@ -9871,7 +9901,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="13.2">
+    <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>70019</v>
@@ -9885,7 +9915,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="13.2">
+    <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>70020</v>
@@ -9899,7 +9929,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="13.2">
+    <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>70021</v>
@@ -9913,7 +9943,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="13.2">
+    <row r="26" spans="1:5" ht="12.75">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>70022</v>
@@ -9927,7 +9957,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="13.2">
+    <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>70023</v>
@@ -9941,7 +9971,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="13.2">
+    <row r="28" spans="1:5" ht="12.75">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>70024</v>
@@ -9955,7 +9985,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="13.2">
+    <row r="29" spans="1:5" ht="12.75">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>70025</v>
@@ -9969,7 +9999,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="13.2">
+    <row r="30" spans="1:5" ht="12.75">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>70026</v>
@@ -9983,7 +10013,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="13.2">
+    <row r="31" spans="1:5" ht="12.75">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>70027</v>
@@ -9997,7 +10027,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="13.2">
+    <row r="32" spans="1:5" ht="12.75">
       <c r="A32" s="41">
         <v>80001</v>
       </c>
@@ -10010,7 +10040,7 @@
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="12.75">
       <c r="A33" s="40">
         <f>A32+1</f>
         <v>80002</v>
@@ -10024,7 +10054,7 @@
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
     </row>
-    <row r="34" spans="1:5" ht="13.2">
+    <row r="34" spans="1:5" ht="12.75">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A55" si="1">A33+1</f>
         <v>80003</v>
@@ -10038,7 +10068,7 @@
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
     </row>
-    <row r="35" spans="1:5" ht="13.2">
+    <row r="35" spans="1:5" ht="12.75">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>80004</v>
@@ -10052,7 +10082,7 @@
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
     </row>
-    <row r="36" spans="1:5" ht="13.2">
+    <row r="36" spans="1:5" ht="12.75">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>80005</v>
@@ -10066,7 +10096,7 @@
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
     </row>
-    <row r="37" spans="1:5" ht="13.2">
+    <row r="37" spans="1:5" ht="12.75">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>80006</v>
@@ -10080,7 +10110,7 @@
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
     </row>
-    <row r="38" spans="1:5" ht="13.2">
+    <row r="38" spans="1:5" ht="12.75">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>80007</v>
@@ -10094,7 +10124,7 @@
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
     </row>
-    <row r="39" spans="1:5" ht="13.2">
+    <row r="39" spans="1:5" ht="12.75">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>80008</v>
@@ -10332,7 +10362,7 @@
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
     </row>
-    <row r="56" spans="1:5" ht="13.2">
+    <row r="56" spans="1:5" ht="12.75">
       <c r="A56" s="52">
         <v>90001</v>
       </c>
@@ -10345,7 +10375,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="13.2">
+    <row r="57" spans="1:5" ht="12.75">
       <c r="A57" s="6">
         <f>A56+1</f>
         <v>90002</v>
@@ -10359,7 +10389,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="13.2">
+    <row r="58" spans="1:5" ht="12.75">
       <c r="A58" s="6">
         <f>A57+1</f>
         <v>90003</v>
@@ -10390,16 +10420,16 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.109375" customWidth="1"/>
-    <col min="5" max="5" width="81.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.140625" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>394</v>
       </c>
@@ -10425,7 +10455,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2">
+    <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -10445,7 +10475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2">
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -10465,7 +10495,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.8">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="4">
         <v>40001</v>
       </c>
@@ -10482,7 +10512,7 @@
         <v>범주 100001 ~ 130000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="4">
         <v>40002</v>
       </c>
@@ -10495,7 +10525,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="4">
         <v>40003</v>
       </c>
@@ -10508,7 +10538,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="4">
         <v>40004</v>
       </c>
@@ -10521,7 +10551,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="4">
         <v>40005</v>
       </c>
@@ -10534,7 +10564,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="4">
         <v>40006</v>
       </c>
@@ -10547,7 +10577,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="4">
         <v>40007</v>
       </c>
@@ -10560,7 +10590,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="4">
         <v>40008</v>
       </c>
@@ -10573,7 +10603,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="4">
         <v>40009</v>
       </c>
@@ -10586,7 +10616,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="4">
         <v>40010</v>
       </c>
@@ -10599,7 +10629,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="4">
         <v>40011</v>
       </c>
@@ -10612,7 +10642,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="4">
         <v>40012</v>
       </c>
@@ -10625,7 +10655,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="13.8">
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="4">
         <v>40013</v>
       </c>
@@ -10638,7 +10668,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="13.8">
+    <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="4">
         <v>40014</v>
       </c>
@@ -10651,7 +10681,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="13.8">
+    <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="4">
         <v>40015</v>
       </c>
@@ -10664,7 +10694,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="13.8">
+    <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="4">
         <v>40016</v>
       </c>
@@ -10677,7 +10707,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="13.8">
+    <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="4">
         <v>40017</v>
       </c>
@@ -10690,7 +10720,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="13.8">
+    <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="4">
         <v>40018</v>
       </c>
@@ -10703,7 +10733,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="13.8">
+    <row r="23" spans="1:5" ht="14.25">
       <c r="A23" s="4">
         <v>40019</v>
       </c>
@@ -10716,7 +10746,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="13.8">
+    <row r="24" spans="1:5" ht="14.25">
       <c r="A24" s="4">
         <v>40020</v>
       </c>
@@ -10729,7 +10759,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="13.8">
+    <row r="25" spans="1:5" ht="14.25">
       <c r="A25" s="4">
         <v>40021</v>
       </c>
@@ -10742,7 +10772,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="13.8">
+    <row r="26" spans="1:5" ht="14.25">
       <c r="A26" s="4">
         <v>40022</v>
       </c>
@@ -10755,7 +10785,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="13.8">
+    <row r="27" spans="1:5" ht="14.25">
       <c r="A27" s="4">
         <v>40023</v>
       </c>
@@ -10768,7 +10798,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="13.8">
+    <row r="28" spans="1:5" ht="14.25">
       <c r="A28" s="4">
         <v>40024</v>
       </c>
@@ -10781,7 +10811,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="13.8">
+    <row r="29" spans="1:5" ht="14.25">
       <c r="A29" s="4">
         <v>40025</v>
       </c>
@@ -10794,7 +10824,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="13.8">
+    <row r="30" spans="1:5" ht="14.25">
       <c r="A30" s="4">
         <v>40026</v>
       </c>
@@ -10807,7 +10837,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="13.8">
+    <row r="31" spans="1:5" ht="14.25">
       <c r="A31" s="4">
         <v>40027</v>
       </c>
@@ -10820,7 +10850,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="13.8">
+    <row r="32" spans="1:5" ht="14.25">
       <c r="A32" s="4">
         <v>40028</v>
       </c>
@@ -10833,7 +10863,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="13.8">
+    <row r="33" spans="1:5" ht="14.25">
       <c r="A33" s="4">
         <v>40029</v>
       </c>
@@ -10846,7 +10876,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="13.8">
+    <row r="34" spans="1:5" ht="14.25">
       <c r="A34" s="4">
         <v>40030</v>
       </c>
@@ -10859,7 +10889,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="13.8">
+    <row r="35" spans="1:5" ht="14.25">
       <c r="A35" s="4">
         <v>40031</v>
       </c>
@@ -10872,7 +10902,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="13.8">
+    <row r="36" spans="1:5" ht="14.25">
       <c r="A36" s="4">
         <v>40032</v>
       </c>
@@ -10885,7 +10915,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="13.8">
+    <row r="37" spans="1:5" ht="14.25">
       <c r="A37" s="4">
         <v>40033</v>
       </c>
@@ -10898,7 +10928,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="13.8">
+    <row r="38" spans="1:5" ht="14.25">
       <c r="A38" s="4">
         <v>40034</v>
       </c>
@@ -10911,7 +10941,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" ht="13.8">
+    <row r="39" spans="1:5" ht="14.25">
       <c r="A39" s="4">
         <v>40035</v>
       </c>
@@ -10924,7 +10954,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" ht="13.8">
+    <row r="40" spans="1:5" ht="14.25">
       <c r="A40" s="4">
         <v>40036</v>
       </c>
@@ -10937,7 +10967,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" ht="13.8">
+    <row r="41" spans="1:5" ht="14.25">
       <c r="A41" s="4">
         <v>40037</v>
       </c>
@@ -10950,7 +10980,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:5" ht="13.8">
+    <row r="42" spans="1:5" ht="14.25">
       <c r="A42" s="4">
         <v>40038</v>
       </c>
@@ -10963,7 +10993,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="13.8">
+    <row r="43" spans="1:5" ht="14.25">
       <c r="A43" s="4">
         <v>40039</v>
       </c>
@@ -10976,7 +11006,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:5" ht="13.8">
+    <row r="44" spans="1:5" ht="14.25">
       <c r="A44" s="4">
         <v>40040</v>
       </c>
@@ -10989,7 +11019,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="1:5" ht="13.8">
+    <row r="45" spans="1:5" ht="14.25">
       <c r="A45" s="4">
         <v>40041</v>
       </c>
@@ -11002,7 +11032,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:5" ht="13.8">
+    <row r="46" spans="1:5" ht="14.25">
       <c r="A46" s="4">
         <v>40042</v>
       </c>
@@ -11015,7 +11045,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="1:5" ht="13.8">
+    <row r="47" spans="1:5" ht="14.25">
       <c r="A47" s="4">
         <v>40043</v>
       </c>
@@ -11028,7 +11058,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="13.8">
+    <row r="48" spans="1:5" ht="14.25">
       <c r="A48" s="4">
         <v>40044</v>
       </c>
@@ -11041,7 +11071,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:5" ht="13.8">
+    <row r="49" spans="1:5" ht="14.25">
       <c r="A49" s="4">
         <v>40045</v>
       </c>
@@ -11054,7 +11084,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:5" ht="13.8">
+    <row r="50" spans="1:5" ht="14.25">
       <c r="A50" s="4">
         <v>40046</v>
       </c>
@@ -11067,7 +11097,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:5" ht="13.8">
+    <row r="51" spans="1:5" ht="14.25">
       <c r="A51" s="4">
         <v>40047</v>
       </c>
@@ -11080,7 +11110,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:5" ht="13.8">
+    <row r="52" spans="1:5" ht="14.25">
       <c r="A52" s="4">
         <v>40048</v>
       </c>
@@ -11093,7 +11123,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="13.8">
+    <row r="53" spans="1:5" ht="14.25">
       <c r="A53" s="4">
         <v>40049</v>
       </c>
@@ -11106,7 +11136,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="13.8">
+    <row r="54" spans="1:5" ht="14.25">
       <c r="A54" s="4">
         <v>40050</v>
       </c>
@@ -11119,7 +11149,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="13.8">
+    <row r="55" spans="1:5" ht="14.25">
       <c r="A55" s="4">
         <v>40051</v>
       </c>
@@ -11132,7 +11162,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="13.8">
+    <row r="56" spans="1:5" ht="14.25">
       <c r="A56" s="4">
         <v>40052</v>
       </c>
@@ -11145,7 +11175,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="13.8">
+    <row r="57" spans="1:5" ht="14.25">
       <c r="A57" s="4">
         <v>40053</v>
       </c>
@@ -11158,7 +11188,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="13.8">
+    <row r="58" spans="1:5" ht="14.25">
       <c r="A58" s="4">
         <v>40054</v>
       </c>
@@ -11171,7 +11201,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="13.8">
+    <row r="59" spans="1:5" ht="14.25">
       <c r="A59" s="4">
         <v>40055</v>
       </c>
@@ -11184,7 +11214,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="13.8">
+    <row r="60" spans="1:5" ht="14.25">
       <c r="A60" s="4">
         <v>40056</v>
       </c>
@@ -11197,7 +11227,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" ht="13.8">
+    <row r="61" spans="1:5" ht="14.25">
       <c r="A61" s="4">
         <v>40057</v>
       </c>
@@ -11210,7 +11240,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" ht="13.8">
+    <row r="62" spans="1:5" ht="14.25">
       <c r="A62" s="4">
         <v>40058</v>
       </c>
@@ -11223,7 +11253,7 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" ht="13.8">
+    <row r="63" spans="1:5" ht="14.25">
       <c r="A63" s="4">
         <v>40059</v>
       </c>
@@ -11236,7 +11266,7 @@
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" ht="13.8">
+    <row r="64" spans="1:5" ht="14.25">
       <c r="A64" s="4">
         <v>40060</v>
       </c>
@@ -11249,7 +11279,7 @@
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" ht="13.8">
+    <row r="65" spans="1:5" ht="14.25">
       <c r="A65" s="4">
         <v>40061</v>
       </c>
@@ -11262,7 +11292,7 @@
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" ht="13.8">
+    <row r="66" spans="1:5" ht="14.25">
       <c r="A66" s="4">
         <v>40062</v>
       </c>
@@ -11275,7 +11305,7 @@
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" ht="13.8">
+    <row r="67" spans="1:5" ht="14.25">
       <c r="A67" s="4">
         <v>40063</v>
       </c>
@@ -11305,16 +11335,16 @@
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="4" width="87" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>395</v>
       </c>
@@ -11340,7 +11370,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2">
+    <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -11360,7 +11390,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2">
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -11380,7 +11410,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="67" customFormat="1" ht="31.2">
+    <row r="5" spans="1:6" s="67" customFormat="1" ht="27">
       <c r="A5" s="62">
         <v>70001</v>
       </c>
@@ -11397,126 +11427,126 @@
         <v>범주 130001 ~ 160000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="6" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="68"/>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
     </row>
-    <row r="7" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="7" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A7" s="62"/>
       <c r="B7" s="62"/>
       <c r="C7" s="68"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
     </row>
-    <row r="8" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="8" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A8" s="62"/>
       <c r="B8" s="62"/>
       <c r="C8" s="68"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
     </row>
-    <row r="9" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="9" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A9" s="62"/>
       <c r="B9" s="62"/>
       <c r="C9" s="69"/>
       <c r="D9" s="64"/>
       <c r="E9" s="64"/>
     </row>
-    <row r="10" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="10" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A10" s="62"/>
       <c r="B10" s="62"/>
       <c r="C10" s="69"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
     </row>
-    <row r="11" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="11" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A11" s="62"/>
       <c r="B11" s="62"/>
       <c r="C11" s="69"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
     </row>
-    <row r="12" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="12" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A12" s="62"/>
       <c r="B12" s="62"/>
       <c r="C12" s="69"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
     </row>
-    <row r="13" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="13" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A13" s="62"/>
       <c r="B13" s="62"/>
       <c r="C13" s="69"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
     </row>
-    <row r="14" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="14" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A14" s="62"/>
       <c r="B14" s="62"/>
       <c r="C14" s="69"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
     </row>
-    <row r="15" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="15" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A15" s="62"/>
       <c r="B15" s="62"/>
       <c r="C15" s="69"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
     </row>
-    <row r="16" spans="1:6" s="67" customFormat="1" ht="13.2">
+    <row r="16" spans="1:6" s="67" customFormat="1" ht="12.75">
       <c r="A16" s="62"/>
       <c r="B16" s="62"/>
       <c r="C16" s="69"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
     </row>
-    <row r="17" spans="1:5" s="67" customFormat="1" ht="13.2">
+    <row r="17" spans="1:5" s="67" customFormat="1" ht="12.75">
       <c r="A17" s="62"/>
       <c r="B17" s="62"/>
       <c r="C17" s="69"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
     </row>
-    <row r="18" spans="1:5" s="67" customFormat="1" ht="13.2">
+    <row r="18" spans="1:5" s="67" customFormat="1" ht="12.75">
       <c r="A18" s="62"/>
       <c r="B18" s="62"/>
       <c r="C18" s="69"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
     </row>
-    <row r="19" spans="1:5" s="67" customFormat="1" ht="13.2">
+    <row r="19" spans="1:5" s="67" customFormat="1" ht="12.75">
       <c r="A19" s="62"/>
       <c r="B19" s="62"/>
       <c r="C19" s="69"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
     </row>
-    <row r="20" spans="1:5" s="67" customFormat="1" ht="13.2">
+    <row r="20" spans="1:5" s="67" customFormat="1" ht="12.75">
       <c r="A20" s="62"/>
       <c r="B20" s="62"/>
       <c r="C20" s="69"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
     </row>
-    <row r="21" spans="1:5" s="67" customFormat="1" ht="13.2">
+    <row r="21" spans="1:5" s="67" customFormat="1" ht="12.75">
       <c r="A21" s="62"/>
       <c r="B21" s="62"/>
       <c r="C21" s="69"/>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
     </row>
-    <row r="22" spans="1:5" s="67" customFormat="1" ht="13.2">
+    <row r="22" spans="1:5" s="67" customFormat="1" ht="12.75">
       <c r="A22" s="62"/>
       <c r="B22" s="62"/>
       <c r="C22" s="69"/>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
     </row>
-    <row r="23" spans="1:5" s="67" customFormat="1" ht="13.2">
+    <row r="23" spans="1:5" s="67" customFormat="1" ht="12.75">
       <c r="A23" s="62"/>
       <c r="B23" s="62"/>
       <c r="C23" s="69"/>
@@ -11540,16 +11570,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>396</v>
       </c>
@@ -11575,7 +11605,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="17" t="s">
         <v>130</v>
       </c>
@@ -11595,7 +11625,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -11616,7 +11646,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.8">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -11631,7 +11661,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -11646,7 +11676,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A65" si="0">A6+1</f>
         <v>3</v>
@@ -11661,7 +11691,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -11676,7 +11706,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -11691,7 +11721,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.8">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -11704,7 +11734,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="53"/>
     </row>
-    <row r="11" spans="1:7" ht="13.8">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11717,7 +11747,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="53"/>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11730,7 +11760,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="53"/>
     </row>
-    <row r="13" spans="1:7" ht="13.8">
+    <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -11743,7 +11773,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="53"/>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -11756,7 +11786,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="53"/>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -11769,7 +11799,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="53"/>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -11782,7 +11812,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="53"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -11795,7 +11825,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="53"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -11808,7 +11838,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="53"/>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="12.75">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -11821,7 +11851,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="53"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -11834,7 +11864,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="53"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -11847,7 +11877,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="53"/>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -11860,7 +11890,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="53"/>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -11873,7 +11903,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="53"/>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -11886,7 +11916,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="53"/>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -11899,7 +11929,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="53"/>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -11912,7 +11942,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="53"/>
     </row>
-    <row r="27" spans="1:6" ht="13.8">
+    <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3592794-796B-41A3-809D-83324DC2BA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F6D243-7F40-4302-B549-683886BE01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="690" windowWidth="34770" windowHeight="19395" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="901">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -2575,33 +2575,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1존 노말</t>
-  </si>
-  <si>
-    <t>1존 하드</t>
-  </si>
-  <si>
-    <t>1존 베리 하드</t>
-  </si>
-  <si>
-    <t>2존 노말</t>
-  </si>
-  <si>
-    <t>2존 하드</t>
-  </si>
-  <si>
-    <t>2존 베리 하드</t>
-  </si>
-  <si>
-    <t>3존 노말</t>
-  </si>
-  <si>
-    <t>3존 하드</t>
-  </si>
-  <si>
-    <t>3존 베리 하드</t>
-  </si>
-  <si>
     <t>system_name_zone_9001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -5968,13 +5941,174 @@
   </si>
   <si>
     <t>dialog_Eileen_OriginNG_Part4_Lv1_3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Voice</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>범주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 160001 ~ 180000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>story_zone_normal_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>story_zone_normal_002</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>story_zone_normal_003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>story_zone_hard_003</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙도시 근교</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>반전된 신전</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>숲의 폐허</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>전이된 폐허 위에 자라난 울창한 숲.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀리 중앙도시가 보이는 평원.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반전된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거처. 그리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒤틀린</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여신</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6396,6 +6530,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -6630,7 +6770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6785,6 +6925,10 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7002,26 +7146,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EFF124-ACE2-4719-AA18-3ED5E3FDF9E4}">
   <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="28" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.109375" style="27"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="28" width="9.109375" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="27" customFormat="1"/>
     <row r="2" spans="2:11" s="27" customFormat="1"/>
-    <row r="3" spans="2:11" s="27" customFormat="1">
+    <row r="3" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B3" s="28" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="27" customFormat="1"/>
-    <row r="5" spans="2:11" s="27" customFormat="1">
+    <row r="5" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B5" s="29" t="s">
         <v>93</v>
       </c>
@@ -7032,7 +7176,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="27" customFormat="1">
+    <row r="6" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J6" s="32" t="s">
         <v>94</v>
       </c>
@@ -7040,7 +7184,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="27" customFormat="1">
+    <row r="7" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J7" s="32" t="s">
         <v>96</v>
       </c>
@@ -7048,7 +7192,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="27" customFormat="1">
+    <row r="8" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J8" s="32" t="s">
         <v>103</v>
       </c>
@@ -7056,7 +7200,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="27" customFormat="1">
+    <row r="9" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J9" s="32" t="s">
         <v>102</v>
       </c>
@@ -7064,7 +7208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="27" customFormat="1">
+    <row r="10" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J10" s="32" t="s">
         <v>101</v>
       </c>
@@ -7072,7 +7216,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="27" customFormat="1">
+    <row r="11" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J11" s="32" t="s">
         <v>105</v>
       </c>
@@ -7080,14 +7224,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="27" customFormat="1">
+    <row r="12" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B12" s="35" t="s">
         <v>141</v>
       </c>
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="2:11" s="27" customFormat="1"/>
-    <row r="14" spans="2:11" s="27" customFormat="1">
+    <row r="14" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B14" s="29" t="s">
         <v>142</v>
       </c>
@@ -7095,7 +7239,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="27" customFormat="1">
+    <row r="15" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
@@ -7103,7 +7247,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="27" customFormat="1" ht="15">
+    <row r="16" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B16" s="22" t="s">
         <v>69</v>
       </c>
@@ -7133,12 +7277,12 @@
     <row r="19" spans="2:10" s="27" customFormat="1">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:10" s="27" customFormat="1">
+    <row r="20" spans="2:10" s="27" customFormat="1" ht="13.8">
       <c r="B20" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="27" customFormat="1" ht="15">
+    <row r="21" spans="2:10" s="27" customFormat="1" ht="13.8">
       <c r="B21" s="22" t="s">
         <v>69</v>
       </c>
@@ -7151,22 +7295,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="27" customFormat="1" ht="13.5">
+    <row r="23" spans="2:10" s="27" customFormat="1" ht="15.6">
       <c r="B23" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="27" customFormat="1" ht="13.5">
+    <row r="24" spans="2:10" s="27" customFormat="1" ht="15.6">
       <c r="B24" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" ht="13.8">
       <c r="B26" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15">
+    <row r="27" spans="2:10" ht="13.8">
       <c r="B27" s="22" t="s">
         <v>69</v>
       </c>
@@ -7179,32 +7323,32 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="13.5">
+    <row r="29" spans="2:10" ht="15.6">
       <c r="B29" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="13.5">
+    <row r="30" spans="2:10" ht="15.6">
       <c r="B30" s="25" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="13.5">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.6">
       <c r="B31" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="13.8">
       <c r="B32" s="32" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="13.8">
       <c r="B34" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15">
+    <row r="35" spans="2:4" ht="13.8">
       <c r="B35" s="22" t="s">
         <v>69</v>
       </c>
@@ -7217,22 +7361,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="13.5">
+    <row r="37" spans="2:4" ht="15.6">
       <c r="B37" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="13.5">
+    <row r="38" spans="2:4" ht="15.6">
       <c r="B38" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" ht="13.8">
       <c r="B40" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="15">
+    <row r="41" spans="2:4" ht="13.8">
       <c r="B41" s="22" t="s">
         <v>69</v>
       </c>
@@ -7245,7 +7389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="13.5">
+    <row r="43" spans="2:4" ht="15.6">
       <c r="B43" s="25" t="s">
         <v>153</v>
       </c>
@@ -7256,12 +7400,12 @@
     <row r="45" spans="2:4">
       <c r="B45" s="27"/>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" ht="13.8">
       <c r="B46" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="15">
+    <row r="47" spans="2:4" ht="13.8">
       <c r="B47" s="22" t="s">
         <v>69</v>
       </c>
@@ -7274,42 +7418,53 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="13.5">
+    <row r="49" spans="2:4" ht="15.6">
       <c r="B49" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:4">
       <c r="B50" s="27"/>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="27"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="27"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="27"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="27"/>
-    </row>
-    <row r="55" spans="2:2">
+    <row r="51" spans="2:4" ht="13.8">
+      <c r="B51" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="13.8">
+      <c r="B52" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.6">
+      <c r="B54" s="25" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
       <c r="B55" s="27"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:4">
       <c r="B56" s="27"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:4">
       <c r="B57" s="27"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:4">
       <c r="B58" s="27"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:4">
       <c r="B59" s="27"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:4">
       <c r="B60" s="27"/>
     </row>
   </sheetData>
@@ -7325,20 +7480,20 @@
   </sheetPr>
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="3" width="74.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
@@ -7364,7 +7519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -7384,7 +7539,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -7405,7 +7560,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -7424,7 +7579,7 @@
         <v>범주 1 ~ 20000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.2">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -7443,7 +7598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.2">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>3</v>
@@ -7459,7 +7614,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7475,7 +7630,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.2">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7491,7 +7646,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7507,7 +7662,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7523,7 +7678,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7539,7 +7694,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7548,12 +7703,12 @@
         <v>85</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.2">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7567,7 +7722,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.2">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7581,7 +7736,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7590,12 +7745,12 @@
         <v>88</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="13.5">
+    <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7609,7 +7764,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7623,7 +7778,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7632,12 +7787,12 @@
         <v>91</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7646,7 +7801,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
@@ -7657,10 +7812,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="C21" s="108" t="s">
+        <v>897</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
@@ -7671,10 +7826,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>305</v>
+        <v>307</v>
+      </c>
+      <c r="C22" s="108" t="s">
+        <v>897</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
@@ -7685,10 +7840,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>897</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
@@ -7699,10 +7854,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>307</v>
+        <v>310</v>
+      </c>
+      <c r="C24" s="108" t="s">
+        <v>895</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
@@ -7713,10 +7868,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>308</v>
+        <v>311</v>
+      </c>
+      <c r="C25" s="108" t="s">
+        <v>895</v>
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="58"/>
@@ -7727,10 +7882,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>309</v>
+        <v>312</v>
+      </c>
+      <c r="C26" s="108" t="s">
+        <v>895</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
@@ -7741,10 +7896,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="C27" s="108" t="s">
+        <v>896</v>
       </c>
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
@@ -7755,10 +7910,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="C28" s="108" t="s">
+        <v>896</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
@@ -7769,10 +7924,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="C29" s="108" t="s">
+        <v>896</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
@@ -7783,10 +7938,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="58"/>
@@ -7797,10 +7952,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
@@ -7811,10 +7966,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
@@ -7825,10 +7980,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
@@ -7839,10 +7994,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
@@ -7853,10 +8008,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
@@ -7867,10 +8022,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
@@ -7881,10 +8036,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D37" s="58"/>
       <c r="E37" s="58"/>
@@ -7895,10 +8050,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D38" s="58"/>
       <c r="E38" s="58"/>
@@ -7909,10 +8064,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="58"/>
@@ -7923,10 +8078,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D40" s="58"/>
       <c r="E40" s="58"/>
@@ -7937,10 +8092,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
@@ -7951,10 +8106,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
@@ -7965,10 +8120,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D43" s="58"/>
       <c r="E43" s="58"/>
@@ -7979,10 +8134,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D44" s="58"/>
       <c r="E44" s="58"/>
@@ -7993,10 +8148,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D45" s="58"/>
       <c r="E45" s="58"/>
@@ -8007,10 +8162,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
@@ -8021,10 +8176,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="58"/>
@@ -8035,10 +8190,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="58"/>
@@ -8049,10 +8204,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D49" s="58"/>
       <c r="E49" s="58"/>
@@ -8063,10 +8218,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D50" s="58"/>
       <c r="E50" s="58"/>
@@ -8077,10 +8232,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D51" s="69"/>
       <c r="E51" s="58"/>
@@ -8091,10 +8246,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C52" s="70" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D52" s="69"/>
       <c r="E52" s="58"/>
@@ -8105,10 +8260,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D53" s="69"/>
       <c r="E53" s="58"/>
@@ -8119,10 +8274,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C54" s="70" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D54" s="69"/>
       <c r="E54" s="58"/>
@@ -8133,10 +8288,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D55" s="58"/>
       <c r="E55" s="58"/>
@@ -8147,10 +8302,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
@@ -8161,10 +8316,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C57" s="72" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D57" s="58"/>
       <c r="E57" s="58"/>
@@ -8175,10 +8330,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D58" s="58"/>
       <c r="E58" s="58"/>
@@ -8189,10 +8344,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D59" s="58"/>
       <c r="E59" s="58"/>
@@ -8203,10 +8358,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C60" s="73" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D60" s="58"/>
       <c r="E60" s="58"/>
@@ -8217,10 +8372,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C61" s="73" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
@@ -8231,10 +8386,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C62" s="73" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D62" s="58"/>
       <c r="E62" s="58"/>
@@ -8245,10 +8400,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D63" s="58"/>
       <c r="E63" s="58"/>
@@ -8259,10 +8414,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D64" s="58"/>
       <c r="E64" s="58"/>
@@ -8273,7 +8428,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="93" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C65" s="94" t="s">
         <v>229</v>
@@ -8287,10 +8442,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="93" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D66" s="58"/>
       <c r="E66" s="58"/>
@@ -8301,10 +8456,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D67" s="58"/>
       <c r="E67" s="58"/>
@@ -8315,7 +8470,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C68" s="57" t="s">
         <v>232</v>
@@ -8329,7 +8484,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="93" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C69" s="57" t="s">
         <v>233</v>
@@ -8343,10 +8498,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D70" s="58"/>
       <c r="E70" s="58"/>
@@ -8357,10 +8512,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D71" s="58"/>
       <c r="E71" s="58"/>
@@ -8371,10 +8526,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D72" s="58"/>
       <c r="E72" s="58"/>
@@ -8385,10 +8540,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C73" s="95" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D73" s="58"/>
       <c r="E73" s="58"/>
@@ -8399,10 +8554,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C74" s="57" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D74" s="58"/>
       <c r="E74" s="58"/>
@@ -8413,7 +8568,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C75" s="94" t="s">
         <v>236</v>
@@ -8427,7 +8582,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C76" s="94" t="s">
         <v>237</v>
@@ -8441,10 +8596,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="93" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C77" s="94" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D77" s="58"/>
       <c r="E77" s="58"/>
@@ -8455,10 +8610,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C78" s="94" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D78" s="58"/>
       <c r="E78" s="58"/>
@@ -8469,10 +8624,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C79" s="94" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D79" s="58"/>
       <c r="E79" s="58"/>
@@ -8483,10 +8638,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C80" s="94" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D80" s="58"/>
       <c r="E80" s="58"/>
@@ -8497,10 +8652,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C81" s="94" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D81" s="58"/>
       <c r="E81" s="58"/>
@@ -8511,7 +8666,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C82" s="94" t="s">
         <v>245</v>
@@ -8536,17 +8691,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>266</v>
       </c>
@@ -8572,7 +8727,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -8592,7 +8747,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -8613,7 +8768,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="40">
         <v>20001</v>
       </c>
@@ -8630,7 +8785,7 @@
         <v>범주 20001 ~ 40000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.2">
       <c r="A6" s="6">
         <f>A5+1</f>
         <v>20002</v>
@@ -8639,7 +8794,7 @@
         <v>133</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -8648,7 +8803,7 @@
         <v>20001~30000: 캐릭터  /  30001~40000: 몬스터</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.2">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A17" si="0">A6+1</f>
         <v>20003</v>
@@ -8657,12 +8812,12 @@
         <v>134</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>20004</v>
@@ -8676,133 +8831,133 @@
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.2">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>20005</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>20006</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>20007</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>20008</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="13.2">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>20009</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.2">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>20010</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.2">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>20011</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.2">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>20012</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="13.2">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>20013</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="44">
         <v>30001</v>
       </c>
@@ -8815,7 +8970,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="46">
         <f>A18+1</f>
         <v>30002</v>
@@ -8829,7 +8984,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="46">
         <f t="shared" ref="A20" si="1">A19+1</f>
         <v>30003</v>
@@ -8843,14 +8998,14 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75">
+    <row r="21" spans="1:5" ht="13.2">
       <c r="A21" s="46"/>
       <c r="B21" s="47"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
     </row>
-    <row r="22" spans="1:5" ht="12.75">
+    <row r="22" spans="1:5" ht="13.2">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -8868,23 +9023,23 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" customWidth="1"/>
-    <col min="4" max="4" width="71.85546875" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" customWidth="1"/>
+    <col min="4" max="4" width="71.88671875" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
@@ -8893,7 +9048,7 @@
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -8953,12 +9108,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5">
+    <row r="5" spans="1:6" ht="15.6">
       <c r="A5" s="39">
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>303</v>
@@ -8970,19 +9125,19 @@
         <v>범주 40001 ~ 60000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>67</v>
@@ -8992,892 +9147,892 @@
         <v>범주 400001 ~ 600000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A27" si="0">A6+1</f>
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F7" s="80" t="str">
         <f>'!_ID_RULE'!B31</f>
         <v>40001~50000: 캐릭터 스킬명  /  50001~60000: 몬스터 스킬명</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F8" s="80" t="str">
         <f>'!_ID_RULE'!B32</f>
         <v>400001~500000: 캐릭터 스킬 설명 / 500001~600000 몬스터 스킬 설명</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>442</v>
+      </c>
+      <c r="E9" s="87" t="s">
+        <v>460</v>
+      </c>
+      <c r="F9" s="91" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>40006</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>446</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>428</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>40007</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>461</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>40008</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>429</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>40009</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>40010</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>415</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>40011</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>435</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>40012</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>416</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C16" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>40013</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>417</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>40014</v>
+      </c>
+      <c r="B18" s="76" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>40015</v>
+      </c>
+      <c r="B19" s="76" t="s">
         <v>418</v>
       </c>
-      <c r="D9" s="82" t="s">
-        <v>451</v>
-      </c>
-      <c r="E9" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="F9" s="91" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="13.5">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>40006</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>455</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>437</v>
-      </c>
-      <c r="F10" s="96" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.5">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>40007</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>452</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>470</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="C19" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="F19" s="90" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>40008</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>422</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E12" s="71" t="s">
-        <v>438</v>
-      </c>
-      <c r="F12" s="97" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.5">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>40009</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>423</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="D13" s="12" t="s">
+    <row r="20" spans="1:6" ht="15.6">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>40016</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>419</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>439</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.5">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>40010</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>424</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="E14" s="71" t="s">
-        <v>440</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.5">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>40011</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>444</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.5">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>40012</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>425</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="13.5">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>40013</v>
-      </c>
-      <c r="B17" s="76" t="s">
-        <v>426</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.5">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>40014</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>445</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="F18" s="90" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.5">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>40015</v>
-      </c>
-      <c r="B19" s="76" t="s">
-        <v>427</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="F19" s="90" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.5">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>40016</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>428</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>463</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="90" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.5">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>40017</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>40018</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>40019</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>40020</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>422</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>40021</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>423</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>40022</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.5">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
-        <v>40018</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.5">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>40019</v>
-      </c>
-      <c r="B23" s="76" t="s">
-        <v>430</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="13.5">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>40020</v>
-      </c>
-      <c r="B24" s="76" t="s">
-        <v>431</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="13.5">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>40021</v>
-      </c>
-      <c r="B25" s="76" t="s">
-        <v>432</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="13.5">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>40022</v>
-      </c>
-      <c r="B26" s="76" t="s">
-        <v>433</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>480</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="13.5">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>40023</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="13.5">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="4">
         <v>4100001</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="4">
         <v>4100002</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="4">
         <v>4100003</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="13.5">
+    <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="4">
         <v>4100004</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:6" ht="13.5">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="4">
         <v>4100102</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5">
+    <row r="33" spans="1:5" ht="15.6">
       <c r="A33" s="4">
         <v>4100102</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5">
+    <row r="34" spans="1:5" ht="15.6">
       <c r="A34" s="4">
         <v>4100103</v>
       </c>
       <c r="B34" s="89" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5">
+    <row r="35" spans="1:5" ht="15.6">
       <c r="A35" s="4">
         <v>4100104</v>
       </c>
       <c r="B35" s="89" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="13.5">
+    <row r="36" spans="1:5" ht="15.6">
       <c r="A36" s="4">
         <v>4100106</v>
       </c>
       <c r="B36" s="89" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="13.5">
+    <row r="37" spans="1:5" ht="15.6">
       <c r="A37" s="4">
         <v>4100107</v>
       </c>
       <c r="B37" s="89" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="13.5">
+    <row r="38" spans="1:5" ht="15.6">
       <c r="A38" s="4">
         <v>4100108</v>
       </c>
       <c r="B38" s="89" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="13.5">
+    <row r="39" spans="1:5" ht="15.6">
       <c r="A39" s="4">
         <v>4100109</v>
       </c>
       <c r="B39" s="89" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="13.5">
+    <row r="40" spans="1:5" ht="15.6">
       <c r="A40" s="4">
         <v>4100202</v>
       </c>
       <c r="B40" s="89" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5">
+    <row r="41" spans="1:5" ht="15.6">
       <c r="A41" s="4">
         <v>4100203</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5">
+    <row r="42" spans="1:5" ht="15.6">
       <c r="A42" s="4">
         <v>4100204</v>
       </c>
       <c r="B42" s="89" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5">
+    <row r="43" spans="1:5" ht="15.6">
       <c r="A43" s="4">
         <v>4100205</v>
       </c>
       <c r="B43" s="89" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5">
+    <row r="44" spans="1:5" ht="15.6">
       <c r="A44" s="4">
         <v>4100302</v>
       </c>
       <c r="B44" s="89" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" ht="13.5">
+    <row r="45" spans="1:5" ht="15.6">
       <c r="A45" s="4">
         <v>4100303</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="13.5">
+    <row r="46" spans="1:5" ht="15.6">
       <c r="A46" s="4">
         <v>4100304</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="13.5">
+    <row r="47" spans="1:5" ht="15.6">
       <c r="A47" s="4">
         <v>4100305</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="13.5">
+    <row r="48" spans="1:5" ht="15.6">
       <c r="A48" s="4">
         <v>4100401</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="13.5">
+    <row r="49" spans="1:5" ht="15.6">
       <c r="A49" s="41">
         <v>4100402</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
     </row>
-    <row r="50" spans="1:5" ht="13.5">
+    <row r="50" spans="1:5" ht="15.6">
       <c r="A50" s="56">
         <v>4100403</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D50" s="78"/>
       <c r="E50" s="78"/>
     </row>
-    <row r="51" spans="1:5" ht="13.5">
+    <row r="51" spans="1:5" ht="15.6">
       <c r="A51" s="41">
         <v>4100404</v>
       </c>
       <c r="B51" s="89" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C51" s="77" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D51" s="78"/>
       <c r="E51" s="78"/>
     </row>
-    <row r="52" spans="1:5" ht="13.5">
+    <row r="52" spans="1:5" ht="15.6">
       <c r="A52" s="56">
         <v>4100405</v>
       </c>
       <c r="B52" s="89" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C52" s="77" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
     </row>
-    <row r="53" spans="1:5" ht="13.5">
+    <row r="53" spans="1:5" ht="15.6">
       <c r="A53" s="41">
         <v>4100406</v>
       </c>
       <c r="B53" s="89" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D53" s="78"/>
       <c r="E53" s="78"/>
     </row>
-    <row r="54" spans="1:5" ht="13.5">
+    <row r="54" spans="1:5" ht="15.6">
       <c r="A54" s="56">
         <v>4100502</v>
       </c>
       <c r="B54" s="89" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
     </row>
-    <row r="55" spans="1:5" ht="13.5">
+    <row r="55" spans="1:5" ht="15.6">
       <c r="A55" s="56">
         <v>4100503</v>
       </c>
       <c r="B55" s="89" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="C55" s="77" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D55" s="78"/>
       <c r="E55" s="78"/>
     </row>
-    <row r="56" spans="1:5" ht="13.5">
+    <row r="56" spans="1:5" ht="15.6">
       <c r="A56" s="56">
         <v>4100504</v>
       </c>
       <c r="B56" s="89" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
     </row>
-    <row r="57" spans="1:5" ht="13.5">
+    <row r="57" spans="1:5" ht="15.6">
       <c r="A57" s="56">
         <v>4100602</v>
       </c>
       <c r="B57" s="89" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="C57" s="77" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="D57" s="78"/>
       <c r="E57" s="78"/>
     </row>
-    <row r="58" spans="1:5" ht="13.5">
+    <row r="58" spans="1:5" ht="15.6">
       <c r="A58" s="56">
         <v>4100603</v>
       </c>
       <c r="B58" s="89" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C58" s="77" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
     </row>
-    <row r="59" spans="1:5" ht="13.5">
+    <row r="59" spans="1:5" ht="15.6">
       <c r="A59" s="56">
         <v>4100604</v>
       </c>
       <c r="B59" s="89" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C59" s="77" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="D59" s="78"/>
       <c r="E59" s="78"/>
     </row>
-    <row r="60" spans="1:5" ht="13.5">
+    <row r="60" spans="1:5" ht="15.6">
       <c r="A60" s="56">
         <v>4100605</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
     </row>
-    <row r="61" spans="1:5" ht="13.5">
+    <row r="61" spans="1:5" ht="15.6">
       <c r="A61" s="56">
         <v>4100606</v>
       </c>
       <c r="B61" s="92" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C61" s="77" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D61" s="78"/>
       <c r="E61" s="78"/>
     </row>
-    <row r="62" spans="1:5" ht="13.5">
+    <row r="62" spans="1:5" ht="15.6">
       <c r="A62" s="56">
         <v>4100607</v>
       </c>
       <c r="B62" s="92" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
     </row>
-    <row r="63" spans="1:5" ht="13.5">
+    <row r="63" spans="1:5" ht="15.6">
       <c r="A63" s="56">
         <v>4100608</v>
       </c>
       <c r="B63" s="92" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="78"/>
@@ -10081,21 +10236,21 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -10115,7 +10270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -10135,7 +10290,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -10156,7 +10311,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="40">
         <v>70001</v>
       </c>
@@ -10173,7 +10328,7 @@
         <v>범주 70001 ~ 100000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.2">
       <c r="A6" s="6">
         <f>A5+1</f>
         <v>70002</v>
@@ -10191,7 +10346,7 @@
         <v>70001~아이템 명, 장비 명 80001~90000, 조각 이름 90001~100000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.2">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A31" si="0">A6+1</f>
         <v>70003</v>
@@ -10205,7 +10360,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>70004</v>
@@ -10219,7 +10374,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.2">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>70005</v>
@@ -10233,7 +10388,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>70006</v>
@@ -10247,7 +10402,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>70007</v>
@@ -10261,7 +10416,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>70008</v>
@@ -10275,7 +10430,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="13.2">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>70009</v>
@@ -10289,7 +10444,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.2">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>70010</v>
@@ -10303,7 +10458,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.2">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>70011</v>
@@ -10317,7 +10472,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.2">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>70012</v>
@@ -10331,7 +10486,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="13.2">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>70013</v>
@@ -10345,7 +10500,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="13.2">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>70014</v>
@@ -10359,7 +10514,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="13.2">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>70015</v>
@@ -10373,7 +10528,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="13.2">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>70016</v>
@@ -10387,7 +10542,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75">
+    <row r="21" spans="1:5" ht="13.2">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>70017</v>
@@ -10401,7 +10556,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="12.75">
+    <row r="22" spans="1:5" ht="13.2">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>70018</v>
@@ -10415,7 +10570,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="12.75">
+    <row r="23" spans="1:5" ht="13.2">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>70019</v>
@@ -10429,7 +10584,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="12.75">
+    <row r="24" spans="1:5" ht="13.2">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>70020</v>
@@ -10443,7 +10598,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="12.75">
+    <row r="25" spans="1:5" ht="13.2">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>70021</v>
@@ -10457,7 +10612,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="12.75">
+    <row r="26" spans="1:5" ht="13.2">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>70022</v>
@@ -10471,7 +10626,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="12.75">
+    <row r="27" spans="1:5" ht="13.2">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>70023</v>
@@ -10485,7 +10640,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="12.75">
+    <row r="28" spans="1:5" ht="13.2">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>70024</v>
@@ -10499,7 +10654,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="12.75">
+    <row r="29" spans="1:5" ht="13.2">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>70025</v>
@@ -10513,7 +10668,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="12.75">
+    <row r="30" spans="1:5" ht="13.2">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>70026</v>
@@ -10527,7 +10682,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="12.75">
+    <row r="31" spans="1:5" ht="13.2">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>70027</v>
@@ -10541,7 +10696,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="12.75">
+    <row r="32" spans="1:5" ht="13.2">
       <c r="A32" s="39">
         <v>80001</v>
       </c>
@@ -10554,7 +10709,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="1:5" ht="12.75">
+    <row r="33" spans="1:5" ht="13.2">
       <c r="A33" s="38">
         <f>A32+1</f>
         <v>80002</v>
@@ -10568,7 +10723,7 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75">
+    <row r="34" spans="1:5" ht="13.2">
       <c r="A34" s="38">
         <f t="shared" ref="A34:A55" si="1">A33+1</f>
         <v>80003</v>
@@ -10582,7 +10737,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="1:5" ht="12.75">
+    <row r="35" spans="1:5" ht="13.2">
       <c r="A35" s="38">
         <f t="shared" si="1"/>
         <v>80004</v>
@@ -10596,7 +10751,7 @@
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
     </row>
-    <row r="36" spans="1:5" ht="12.75">
+    <row r="36" spans="1:5" ht="13.2">
       <c r="A36" s="38">
         <f t="shared" si="1"/>
         <v>80005</v>
@@ -10610,7 +10765,7 @@
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="1:5" ht="12.75">
+    <row r="37" spans="1:5" ht="13.2">
       <c r="A37" s="38">
         <f t="shared" si="1"/>
         <v>80006</v>
@@ -10624,7 +10779,7 @@
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
     </row>
-    <row r="38" spans="1:5" ht="12.75">
+    <row r="38" spans="1:5" ht="13.2">
       <c r="A38" s="38">
         <f t="shared" si="1"/>
         <v>80007</v>
@@ -10638,7 +10793,7 @@
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
     </row>
-    <row r="39" spans="1:5" ht="12.75">
+    <row r="39" spans="1:5" ht="13.2">
       <c r="A39" s="38">
         <f t="shared" si="1"/>
         <v>80008</v>
@@ -10876,7 +11031,7 @@
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
     </row>
-    <row r="56" spans="1:5" ht="12.75">
+    <row r="56" spans="1:5" ht="13.2">
       <c r="A56" s="50">
         <v>90001</v>
       </c>
@@ -10889,7 +11044,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="12.75">
+    <row r="57" spans="1:5" ht="13.2">
       <c r="A57" s="6">
         <f>A56+1</f>
         <v>90002</v>
@@ -10903,7 +11058,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="12.75">
+    <row r="58" spans="1:5" ht="13.2">
       <c r="A58" s="6">
         <f>A57+1</f>
         <v>90003</v>
@@ -10934,16 +11089,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" customWidth="1"/>
-    <col min="5" max="5" width="81.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.109375" customWidth="1"/>
+    <col min="5" max="5" width="81.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
@@ -10969,7 +11124,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
+    <row r="3" spans="1:6" ht="13.2">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -10989,7 +11144,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4" spans="1:6" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -11009,15 +11164,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25">
+    <row r="5" spans="1:6" ht="13.8">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -11026,103 +11181,103 @@
         <v>범주 100001 ~ 130000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25">
+    <row r="6" spans="1:6" ht="13.8">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D6" s="98"/>
       <c r="E6" s="98"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25">
+    <row r="7" spans="1:6" ht="13.8">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="C7" s="99" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="D7" s="98"/>
       <c r="E7" s="98"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25">
+    <row r="8" spans="1:6" ht="13.8">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="C8" s="99" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D8" s="98"/>
       <c r="E8" s="98"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25">
+    <row r="9" spans="1:6" ht="13.8">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25">
+    <row r="10" spans="1:6" ht="13.8">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25">
+    <row r="11" spans="1:6" ht="13.8">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D11" s="98"/>
       <c r="E11" s="98"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25">
+    <row r="12" spans="1:6" ht="13.8">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D12" s="98"/>
       <c r="E12" s="98"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25">
+    <row r="13" spans="1:6" ht="13.8">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="C13" s="100" t="s">
         <v>47</v>
@@ -11130,259 +11285,259 @@
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25">
+    <row r="14" spans="1:6" ht="13.8">
       <c r="A14" s="4">
         <v>100010</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D14" s="98"/>
       <c r="E14" s="98"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25">
+    <row r="15" spans="1:6" ht="13.8">
       <c r="A15" s="4">
         <v>100011</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D15" s="98"/>
       <c r="E15" s="98"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:6" ht="13.8">
       <c r="A16" s="4">
         <v>100012</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D16" s="98"/>
       <c r="E16" s="98"/>
     </row>
-    <row r="17" spans="1:5" ht="14.25">
+    <row r="17" spans="1:5" ht="13.8">
       <c r="A17" s="4">
         <v>100013</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
     </row>
-    <row r="18" spans="1:5" ht="14.25">
+    <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="4">
         <v>100014</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
     </row>
-    <row r="19" spans="1:5" ht="14.25">
+    <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="4">
         <v>100015</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
     </row>
-    <row r="20" spans="1:5" ht="14.25">
+    <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="4">
         <v>100016</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="98"/>
     </row>
-    <row r="21" spans="1:5" ht="14.25">
+    <row r="21" spans="1:5" ht="13.8">
       <c r="A21" s="4">
         <v>100017</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="98"/>
     </row>
-    <row r="22" spans="1:5" ht="14.25">
+    <row r="22" spans="1:5" ht="13.8">
       <c r="A22" s="4">
         <v>100018</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
     </row>
-    <row r="23" spans="1:5" ht="14.25">
+    <row r="23" spans="1:5" ht="13.8">
       <c r="A23" s="4">
         <v>100019</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D23" s="98"/>
       <c r="E23" s="98"/>
     </row>
-    <row r="24" spans="1:5" ht="14.25">
+    <row r="24" spans="1:5" ht="13.8">
       <c r="A24" s="4">
         <v>100020</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="98"/>
     </row>
-    <row r="25" spans="1:5" ht="14.25">
+    <row r="25" spans="1:5" ht="13.8">
       <c r="A25" s="4">
         <v>100021</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="98"/>
     </row>
-    <row r="26" spans="1:5" ht="14.25">
+    <row r="26" spans="1:5" ht="13.8">
       <c r="A26" s="4">
         <v>100022</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
     </row>
-    <row r="27" spans="1:5" ht="14.25">
+    <row r="27" spans="1:5" ht="13.8">
       <c r="A27" s="4">
         <v>100023</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
     </row>
-    <row r="28" spans="1:5" ht="14.25">
+    <row r="28" spans="1:5" ht="13.8">
       <c r="A28" s="4">
         <v>100024</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D28" s="101"/>
       <c r="E28" s="101"/>
     </row>
-    <row r="29" spans="1:5" ht="14.25">
+    <row r="29" spans="1:5" ht="13.8">
       <c r="A29" s="4">
         <v>100025</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
     </row>
-    <row r="30" spans="1:5" ht="14.25">
+    <row r="30" spans="1:5" ht="13.8">
       <c r="A30" s="4">
         <v>100026</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
     </row>
-    <row r="31" spans="1:5" ht="14.25">
+    <row r="31" spans="1:5" ht="13.8">
       <c r="A31" s="4">
         <v>100027</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="D31" s="101"/>
       <c r="E31" s="101"/>
     </row>
-    <row r="32" spans="1:5" ht="14.25">
+    <row r="32" spans="1:5" ht="13.8">
       <c r="A32" s="4">
         <v>100028</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
     </row>
-    <row r="33" spans="1:5" ht="14.25">
+    <row r="33" spans="1:5" ht="13.8">
       <c r="A33" s="4">
         <v>100029</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="C33" s="102" t="s">
         <v>47</v>
@@ -11390,181 +11545,181 @@
       <c r="D33" s="101"/>
       <c r="E33" s="101"/>
     </row>
-    <row r="34" spans="1:5" ht="14.25">
+    <row r="34" spans="1:5" ht="13.8">
       <c r="A34" s="4">
         <v>100030</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="C34" s="102" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
     </row>
-    <row r="35" spans="1:5" ht="14.25">
+    <row r="35" spans="1:5" ht="13.8">
       <c r="A35" s="4">
         <v>100031</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="D35" s="101"/>
       <c r="E35" s="101"/>
     </row>
-    <row r="36" spans="1:5" ht="14.25">
+    <row r="36" spans="1:5" ht="13.8">
       <c r="A36" s="4">
         <v>100032</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="D36" s="101"/>
       <c r="E36" s="101"/>
     </row>
-    <row r="37" spans="1:5" ht="14.25">
+    <row r="37" spans="1:5" ht="13.8">
       <c r="A37" s="4">
         <v>100033</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D37" s="101"/>
       <c r="E37" s="101"/>
     </row>
-    <row r="38" spans="1:5" ht="14.25">
+    <row r="38" spans="1:5" ht="13.8">
       <c r="A38" s="4">
         <v>100034</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
     </row>
-    <row r="39" spans="1:5" ht="14.25">
+    <row r="39" spans="1:5" ht="13.8">
       <c r="A39" s="4">
         <v>100035</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
     </row>
-    <row r="40" spans="1:5" ht="14.25">
+    <row r="40" spans="1:5" ht="13.8">
       <c r="A40" s="4">
         <v>100036</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D40" s="101"/>
       <c r="E40" s="101"/>
     </row>
-    <row r="41" spans="1:5" ht="14.25">
+    <row r="41" spans="1:5" ht="13.8">
       <c r="A41" s="4">
         <v>100037</v>
       </c>
       <c r="B41" s="101" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D41" s="101"/>
       <c r="E41" s="101"/>
     </row>
-    <row r="42" spans="1:5" ht="14.25">
+    <row r="42" spans="1:5" ht="13.8">
       <c r="A42" s="4">
         <v>100038</v>
       </c>
       <c r="B42" s="101" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="C42" s="102" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D42" s="101"/>
       <c r="E42" s="101"/>
     </row>
-    <row r="43" spans="1:5" ht="14.25">
+    <row r="43" spans="1:5" ht="13.8">
       <c r="A43" s="4">
         <v>100039</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D43" s="101"/>
       <c r="E43" s="101"/>
     </row>
-    <row r="44" spans="1:5" ht="14.25">
+    <row r="44" spans="1:5" ht="13.8">
       <c r="A44" s="4">
         <v>100040</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
     </row>
-    <row r="45" spans="1:5" ht="14.25">
+    <row r="45" spans="1:5" ht="13.8">
       <c r="A45" s="4">
         <v>100041</v>
       </c>
       <c r="B45" s="101" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="C45" s="102" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D45" s="101"/>
       <c r="E45" s="101"/>
     </row>
-    <row r="46" spans="1:5" ht="14.25">
+    <row r="46" spans="1:5" ht="13.8">
       <c r="A46" s="4">
         <v>100042</v>
       </c>
       <c r="B46" s="101" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="C46" s="102" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D46" s="101"/>
       <c r="E46" s="101"/>
     </row>
-    <row r="47" spans="1:5" ht="14.25">
+    <row r="47" spans="1:5" ht="13.8">
       <c r="A47" s="4">
         <v>100043</v>
       </c>
       <c r="B47" s="101" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="C47" s="102" t="s">
         <v>47</v>
@@ -11572,262 +11727,262 @@
       <c r="D47" s="101"/>
       <c r="E47" s="101"/>
     </row>
-    <row r="48" spans="1:5" ht="14.25">
+    <row r="48" spans="1:5" ht="13.8">
       <c r="A48" s="4">
         <v>100044</v>
       </c>
       <c r="B48" s="101" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="C48" s="102" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D48" s="101"/>
       <c r="E48" s="101"/>
     </row>
-    <row r="49" spans="1:5" ht="14.25">
+    <row r="49" spans="1:5" ht="13.8">
       <c r="A49" s="4">
         <v>100045</v>
       </c>
       <c r="B49" s="101" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="C49" s="102" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D49" s="101"/>
       <c r="E49" s="101"/>
     </row>
-    <row r="50" spans="1:5" ht="14.25">
+    <row r="50" spans="1:5" ht="13.8">
       <c r="A50" s="4">
         <v>100046</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="D50" s="101"/>
       <c r="E50" s="101"/>
     </row>
-    <row r="51" spans="1:5" ht="14.25">
+    <row r="51" spans="1:5" ht="13.8">
       <c r="A51" s="4">
         <v>100047</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="C51" s="102" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D51" s="101"/>
       <c r="E51" s="101"/>
     </row>
-    <row r="52" spans="1:5" ht="14.25">
+    <row r="52" spans="1:5" ht="13.8">
       <c r="A52" s="4">
         <v>100048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="14.25">
+    <row r="53" spans="1:5" ht="13.8">
       <c r="A53" s="4">
         <v>100049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="14.25">
+    <row r="54" spans="1:5" ht="13.8">
       <c r="A54" s="4">
         <v>100050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="14.25">
+    <row r="55" spans="1:5" ht="13.8">
       <c r="A55" s="4">
         <v>100051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="14.25">
+    <row r="56" spans="1:5" ht="13.8">
       <c r="A56" s="4">
         <v>100052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="14.25">
+    <row r="57" spans="1:5" ht="13.8">
       <c r="A57" s="4">
         <v>100053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="14.25">
+    <row r="58" spans="1:5" ht="13.8">
       <c r="A58" s="4">
         <v>100054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="14.25">
+    <row r="59" spans="1:5" ht="13.8">
       <c r="A59" s="4">
         <v>100055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="14.25">
+    <row r="60" spans="1:5" ht="13.8">
       <c r="A60" s="4">
         <v>100056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" ht="14.25">
+    <row r="61" spans="1:5" ht="13.8">
       <c r="A61" s="4">
         <v>100057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" ht="14.25">
+    <row r="62" spans="1:5" ht="13.8">
       <c r="A62" s="4">
         <v>100058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" ht="14.25">
+    <row r="63" spans="1:5" ht="13.8">
       <c r="A63" s="4">
         <v>100059</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="C63" s="104" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
     </row>
-    <row r="64" spans="1:5" ht="14.25">
+    <row r="64" spans="1:5" ht="13.8">
       <c r="A64" s="4">
         <v>100060</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="C64" s="106" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D64" s="105"/>
       <c r="E64" s="105"/>
     </row>
-    <row r="65" spans="1:5" ht="14.25">
+    <row r="65" spans="1:5" ht="13.8">
       <c r="A65" s="4">
         <v>100061</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="C65" s="106" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D65" s="105"/>
       <c r="E65" s="105"/>
     </row>
-    <row r="66" spans="1:5" ht="14.25">
+    <row r="66" spans="1:5" ht="13.8">
       <c r="A66" s="4">
         <v>100062</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C66" s="106" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D66" s="105"/>
       <c r="E66" s="105"/>
     </row>
-    <row r="67" spans="1:5" ht="14.25">
+    <row r="67" spans="1:5" ht="13.8">
       <c r="A67" s="4">
         <v>100063</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="C67" s="106" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D67" s="105"/>
       <c r="E67" s="105"/>
@@ -11837,10 +11992,10 @@
         <v>100064</v>
       </c>
       <c r="B68" s="107" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="C68" s="107" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D68" s="107"/>
       <c r="E68" s="107"/>
@@ -11850,10 +12005,10 @@
         <v>100065</v>
       </c>
       <c r="B69" s="107" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="C69" s="107" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D69" s="107"/>
       <c r="E69" s="107"/>
@@ -11863,10 +12018,10 @@
         <v>100066</v>
       </c>
       <c r="B70" s="107" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="C70" s="107" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="D70" s="107"/>
       <c r="E70" s="107"/>
@@ -11876,10 +12031,10 @@
         <v>100067</v>
       </c>
       <c r="B71" s="107" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="C71" s="107" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D71" s="107"/>
       <c r="E71" s="107"/>
@@ -11889,10 +12044,10 @@
         <v>100068</v>
       </c>
       <c r="B72" s="107" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="C72" s="107" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D72" s="107"/>
       <c r="E72" s="107"/>
@@ -11902,10 +12057,10 @@
         <v>100069</v>
       </c>
       <c r="B73" s="107" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="C73" s="107" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D73" s="107"/>
       <c r="E73" s="107"/>
@@ -11915,10 +12070,10 @@
         <v>100070</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C74" s="107" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D74" s="107"/>
       <c r="E74" s="107"/>
@@ -11928,10 +12083,10 @@
         <v>100071</v>
       </c>
       <c r="B75" s="107" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="C75" s="107" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="D75" s="107"/>
       <c r="E75" s="107"/>
@@ -11946,26 +12101,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62813A6-5160-4E30-B8E4-9330F3259C93}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.140625" customWidth="1"/>
-    <col min="5" max="5" width="81.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.109375" customWidth="1"/>
+    <col min="5" max="5" width="81.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -12027,927 +12182,927 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4">
-        <v>40001</v>
+        <v>160001</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
-      <c r="F5" s="25" t="str">
-        <f>'!_ID_RULE'!B43</f>
-        <v>범주 100001 ~ 130000</v>
+      <c r="F5" s="64" t="str">
+        <f>'!_ID_RULE'!B54</f>
+        <v>범주 160001 ~ 180000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4">
-        <v>40002</v>
+        <v>160002</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="D6" s="98"/>
       <c r="E6" s="98"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4">
-        <v>40003</v>
+        <v>160003</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="D7" s="98"/>
       <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4">
-        <v>40004</v>
+        <v>160004</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="D8" s="98"/>
       <c r="E8" s="98"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4">
-        <v>40005</v>
+        <v>160005</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4">
-        <v>40006</v>
+        <v>160006</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4">
-        <v>40007</v>
+        <v>160007</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="D11" s="98"/>
       <c r="E11" s="98"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4">
-        <v>40008</v>
+        <v>160008</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="D12" s="98"/>
       <c r="E12" s="98"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4">
-        <v>40009</v>
+        <v>160009</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4">
-        <v>40010</v>
+        <v>160010</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D14" s="98"/>
       <c r="E14" s="98"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4">
-        <v>40011</v>
+        <v>160011</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D15" s="98"/>
       <c r="E15" s="98"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4">
-        <v>40012</v>
+        <v>160012</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="D16" s="98"/>
       <c r="E16" s="98"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4">
-        <v>40013</v>
+        <v>160013</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4">
-        <v>40014</v>
+        <v>160014</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4">
-        <v>40015</v>
+        <v>160015</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4">
-        <v>40016</v>
+        <v>160016</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="98"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4">
-        <v>40017</v>
+        <v>160017</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="98"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4">
-        <v>40018</v>
+        <v>160018</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4">
-        <v>40019</v>
+        <v>160019</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="D23" s="98"/>
       <c r="E23" s="98"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4">
-        <v>40020</v>
+        <v>160020</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="98"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4">
-        <v>40021</v>
+        <v>160021</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="98"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4">
-        <v>40022</v>
+        <v>160022</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4">
-        <v>40023</v>
+        <v>160023</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4">
-        <v>40024</v>
+        <v>160024</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D28" s="101"/>
       <c r="E28" s="101"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4">
-        <v>40025</v>
+        <v>160025</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4">
-        <v>40026</v>
+        <v>160026</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="4">
-        <v>40027</v>
+        <v>160027</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="D31" s="101"/>
       <c r="E31" s="101"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="4">
-        <v>40028</v>
+        <v>160028</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="4">
-        <v>40029</v>
+        <v>160029</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="C33" s="101" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="D33" s="101"/>
       <c r="E33" s="101"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="4">
-        <v>40030</v>
+        <v>160030</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="C34" s="101" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="4">
-        <v>40031</v>
+        <v>160031</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C35" s="101" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="D35" s="101"/>
       <c r="E35" s="101"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4">
-        <v>40032</v>
+        <v>160032</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="C36" s="101" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="D36" s="101"/>
       <c r="E36" s="101"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="4">
-        <v>40033</v>
+        <v>160033</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C37" s="101" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="D37" s="101"/>
       <c r="E37" s="101"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="4">
-        <v>40034</v>
+        <v>160034</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C38" s="101" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="4">
-        <v>40035</v>
+        <v>160035</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="C39" s="101" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="4">
-        <v>40036</v>
+        <v>160036</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="C40" s="101" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D40" s="101"/>
       <c r="E40" s="101"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4">
-        <v>40037</v>
+        <v>160037</v>
       </c>
       <c r="B41" s="101" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C41" s="101" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="D41" s="101"/>
       <c r="E41" s="101"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="4">
-        <v>40038</v>
+        <v>160038</v>
       </c>
       <c r="B42" s="101" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C42" s="101" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="D42" s="101"/>
       <c r="E42" s="101"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="4">
-        <v>40039</v>
+        <v>160039</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="C43" s="101" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="D43" s="101"/>
       <c r="E43" s="101"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4">
-        <v>40040</v>
+        <v>160040</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="C44" s="101" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4">
-        <v>40041</v>
+        <v>160041</v>
       </c>
       <c r="B45" s="101" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C45" s="101" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D45" s="101"/>
       <c r="E45" s="101"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4">
-        <v>40042</v>
+        <v>160042</v>
       </c>
       <c r="B46" s="101" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C46" s="101" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D46" s="101"/>
       <c r="E46" s="101"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4">
-        <v>40043</v>
+        <v>160043</v>
       </c>
       <c r="B47" s="101" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C47" s="101" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D47" s="101"/>
       <c r="E47" s="101"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="4">
-        <v>40044</v>
+        <v>160044</v>
       </c>
       <c r="B48" s="101" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="C48" s="101" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D48" s="101"/>
       <c r="E48" s="101"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="4">
-        <v>40045</v>
+        <v>160045</v>
       </c>
       <c r="B49" s="101" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D49" s="101"/>
       <c r="E49" s="101"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="4">
-        <v>40046</v>
+        <v>160046</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="C50" s="101" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D50" s="101"/>
       <c r="E50" s="101"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4">
-        <v>40047</v>
+        <v>160047</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="C51" s="101" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D51" s="101"/>
       <c r="E51" s="101"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4">
-        <v>40048</v>
+        <v>160048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="4">
-        <v>40049</v>
+        <v>160049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="4">
-        <v>40050</v>
+        <v>160050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="4">
-        <v>40051</v>
+        <v>160051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="4">
-        <v>40052</v>
+        <v>160052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="4">
-        <v>40053</v>
+        <v>160053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="4">
-        <v>40054</v>
+        <v>160054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4">
-        <v>40055</v>
+        <v>160055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4">
-        <v>40056</v>
+        <v>160056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4">
-        <v>40057</v>
+        <v>160057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4">
-        <v>40058</v>
+        <v>160058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="4">
-        <v>40059</v>
+        <v>160059</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="4">
-        <v>40060</v>
+        <v>160060</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C64" s="105" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="4">
-        <v>40061</v>
+        <v>160061</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="C65" s="105" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="4">
-        <v>40062</v>
+        <v>160062</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="C66" s="105" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="4">
-        <v>40063</v>
+        <v>160063</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="C67" s="105" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="4">
-        <v>40064</v>
+        <v>160064</v>
       </c>
       <c r="B68" s="107" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="C68" s="107" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="4">
-        <v>40065</v>
+        <v>160065</v>
       </c>
       <c r="B69" s="107" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C69" s="107" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4">
-        <v>40066</v>
+        <v>160066</v>
       </c>
       <c r="B70" s="107" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="C70" s="107" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="4">
-        <v>40067</v>
+        <v>160067</v>
       </c>
       <c r="B71" s="107" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="C71" s="107" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="4">
-        <v>40068</v>
+        <v>160068</v>
       </c>
       <c r="B72" s="107" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C72" s="107" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="4">
-        <v>40069</v>
+        <v>160069</v>
       </c>
       <c r="B73" s="107" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="C73" s="107" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="4">
-        <v>40070</v>
+        <v>160070</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="C74" s="107" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="4">
-        <v>40071</v>
+        <v>160071</v>
       </c>
       <c r="B75" s="107" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C75" s="107" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -12965,20 +13120,20 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="4" width="87" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75">
+    <row r="1" spans="1:6" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>270</v>
       </c>
@@ -13004,7 +13159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75">
+    <row r="3" spans="1:6" ht="13.2">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -13024,7 +13179,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75">
+    <row r="4" spans="1:6" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -13044,15 +13199,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="65" customFormat="1" ht="27">
+    <row r="5" spans="1:6" s="65" customFormat="1" ht="31.2">
       <c r="A5" s="60">
-        <v>70001</v>
+        <v>130001</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="63"/>
@@ -13061,126 +13216,150 @@
         <v>범주 130001 ~ 160000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="65" customFormat="1" ht="12.75">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="66"/>
+    <row r="6" spans="1:6" s="65" customFormat="1" ht="13.2">
+      <c r="A6" s="60">
+        <v>130002</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>891</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>898</v>
+      </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
     </row>
-    <row r="7" spans="1:6" s="65" customFormat="1" ht="12.75">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="66"/>
+    <row r="7" spans="1:6" s="65" customFormat="1" ht="13.2">
+      <c r="A7" s="60">
+        <v>130003</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>892</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>899</v>
+      </c>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
     </row>
-    <row r="8" spans="1:6" s="65" customFormat="1" ht="12.75">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="66"/>
+    <row r="8" spans="1:6" s="65" customFormat="1" ht="15.6">
+      <c r="A8" s="60">
+        <v>130004</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>893</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>900</v>
+      </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
     </row>
-    <row r="9" spans="1:6" s="65" customFormat="1" ht="12.75">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="67"/>
+    <row r="9" spans="1:6" s="65" customFormat="1" ht="15.6">
+      <c r="A9" s="60">
+        <v>130005</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>894</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>900</v>
+      </c>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
     </row>
-    <row r="10" spans="1:6" s="65" customFormat="1" ht="12.75">
+    <row r="10" spans="1:6" s="65" customFormat="1" ht="13.2">
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="67"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
     </row>
-    <row r="11" spans="1:6" s="65" customFormat="1" ht="12.75">
+    <row r="11" spans="1:6" s="65" customFormat="1" ht="13.2">
       <c r="A11" s="60"/>
       <c r="B11" s="60"/>
       <c r="C11" s="67"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
     </row>
-    <row r="12" spans="1:6" s="65" customFormat="1" ht="12.75">
+    <row r="12" spans="1:6" s="65" customFormat="1" ht="13.2">
       <c r="A12" s="60"/>
       <c r="B12" s="60"/>
       <c r="C12" s="67"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
     </row>
-    <row r="13" spans="1:6" s="65" customFormat="1" ht="12.75">
+    <row r="13" spans="1:6" s="65" customFormat="1" ht="13.2">
       <c r="A13" s="60"/>
       <c r="B13" s="60"/>
       <c r="C13" s="67"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
     </row>
-    <row r="14" spans="1:6" s="65" customFormat="1" ht="12.75">
+    <row r="14" spans="1:6" s="65" customFormat="1" ht="13.2">
       <c r="A14" s="60"/>
       <c r="B14" s="60"/>
       <c r="C14" s="67"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
     </row>
-    <row r="15" spans="1:6" s="65" customFormat="1" ht="12.75">
+    <row r="15" spans="1:6" s="65" customFormat="1" ht="13.2">
       <c r="A15" s="60"/>
       <c r="B15" s="60"/>
       <c r="C15" s="67"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
     </row>
-    <row r="16" spans="1:6" s="65" customFormat="1" ht="12.75">
+    <row r="16" spans="1:6" s="65" customFormat="1" ht="13.2">
       <c r="A16" s="60"/>
       <c r="B16" s="60"/>
       <c r="C16" s="67"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
     </row>
-    <row r="17" spans="1:5" s="65" customFormat="1" ht="12.75">
+    <row r="17" spans="1:5" s="65" customFormat="1" ht="13.2">
       <c r="A17" s="60"/>
       <c r="B17" s="60"/>
       <c r="C17" s="67"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
     </row>
-    <row r="18" spans="1:5" s="65" customFormat="1" ht="12.75">
+    <row r="18" spans="1:5" s="65" customFormat="1" ht="13.2">
       <c r="A18" s="60"/>
       <c r="B18" s="60"/>
       <c r="C18" s="67"/>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
     </row>
-    <row r="19" spans="1:5" s="65" customFormat="1" ht="12.75">
+    <row r="19" spans="1:5" s="65" customFormat="1" ht="13.2">
       <c r="A19" s="60"/>
       <c r="B19" s="60"/>
       <c r="C19" s="67"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
     </row>
-    <row r="20" spans="1:5" s="65" customFormat="1" ht="12.75">
+    <row r="20" spans="1:5" s="65" customFormat="1" ht="13.2">
       <c r="A20" s="60"/>
       <c r="B20" s="60"/>
       <c r="C20" s="67"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
     </row>
-    <row r="21" spans="1:5" s="65" customFormat="1" ht="12.75">
+    <row r="21" spans="1:5" s="65" customFormat="1" ht="13.2">
       <c r="A21" s="60"/>
       <c r="B21" s="60"/>
       <c r="C21" s="67"/>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
     </row>
-    <row r="22" spans="1:5" s="65" customFormat="1" ht="12.75">
+    <row r="22" spans="1:5" s="65" customFormat="1" ht="13.2">
       <c r="A22" s="60"/>
       <c r="B22" s="60"/>
       <c r="C22" s="67"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
     </row>
-    <row r="23" spans="1:5" s="65" customFormat="1" ht="12.75">
+    <row r="23" spans="1:5" s="65" customFormat="1" ht="13.2">
       <c r="A23" s="60"/>
       <c r="B23" s="60"/>
       <c r="C23" s="67"/>
@@ -13204,16 +13383,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -13239,7 +13418,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -13259,7 +13438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -13280,7 +13459,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.8">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -13295,7 +13474,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.8">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -13310,7 +13489,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A65" si="0">A6+1</f>
         <v>3</v>
@@ -13325,7 +13504,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.8">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13340,7 +13519,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.8">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13355,7 +13534,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.8">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13368,7 +13547,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="51"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.8">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13381,7 +13560,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="51"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.8">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13394,7 +13573,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="51"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="13.8">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13407,7 +13586,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="51"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.8">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13420,7 +13599,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="51"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.8">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13433,7 +13612,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="51"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -13446,7 +13625,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="51"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75">
+    <row r="17" spans="1:6" ht="13.8">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13459,7 +13638,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="51"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75">
+    <row r="18" spans="1:6" ht="13.8">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -13472,7 +13651,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="51"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75">
+    <row r="19" spans="1:6" ht="13.8">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -13485,7 +13664,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="51"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75">
+    <row r="20" spans="1:6" ht="13.8">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13498,7 +13677,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="51"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75">
+    <row r="21" spans="1:6" ht="13.8">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13511,7 +13690,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="51"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75">
+    <row r="22" spans="1:6" ht="13.8">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -13524,7 +13703,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="51"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75">
+    <row r="23" spans="1:6" ht="13.8">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -13537,7 +13716,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="51"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75">
+    <row r="24" spans="1:6" ht="13.8">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13550,7 +13729,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="51"/>
     </row>
-    <row r="25" spans="1:6" ht="12.75">
+    <row r="25" spans="1:6" ht="13.8">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -13563,7 +13742,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="51"/>
     </row>
-    <row r="26" spans="1:6" ht="12.75">
+    <row r="26" spans="1:6" ht="13.8">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -13576,7 +13755,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="51"/>
     </row>
-    <row r="27" spans="1:6" ht="12.75">
+    <row r="27" spans="1:6" ht="13.8">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F6D243-7F40-4302-B549-683886BE01CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14924B65-AAC9-4DE4-97AD-87E323E3E31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="30936" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="984">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -2035,16 +2035,6 @@
     <t>마나 쇼크</t>
   </si>
   <si>
-    <t>monster_name_001</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_name_002</t>
-  </si>
-  <si>
-    <t>monster_name_003</t>
-  </si>
-  <si>
     <t>코볼트</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -6102,6 +6092,319 @@
       <t>.</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">35001~: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터 설명</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_desc_0002</t>
+  </si>
+  <si>
+    <t>monster_desc_0003</t>
+  </si>
+  <si>
+    <t>monster_desc_0004</t>
+  </si>
+  <si>
+    <t>monster_desc_0005</t>
+  </si>
+  <si>
+    <t>monster_desc_0006</t>
+  </si>
+  <si>
+    <t>monster_desc_0007</t>
+  </si>
+  <si>
+    <t>monster_desc_0008</t>
+  </si>
+  <si>
+    <t>monster_desc_0009</t>
+  </si>
+  <si>
+    <t>monster_desc_0010</t>
+  </si>
+  <si>
+    <t>monster_desc_0011</t>
+  </si>
+  <si>
+    <t>monster_desc_0012</t>
+  </si>
+  <si>
+    <t>monster_desc_0013</t>
+  </si>
+  <si>
+    <t>monster_desc_0014</t>
+  </si>
+  <si>
+    <t>monster_desc_0015</t>
+  </si>
+  <si>
+    <t>monster_desc_0016</t>
+  </si>
+  <si>
+    <t>monster_desc_0017</t>
+  </si>
+  <si>
+    <t>monster_desc_0018</t>
+  </si>
+  <si>
+    <t>monster_desc_0019</t>
+  </si>
+  <si>
+    <t>monster_desc_0020</t>
+  </si>
+  <si>
+    <t>monster_desc_0021</t>
+  </si>
+  <si>
+    <t>monster_desc_0022</t>
+  </si>
+  <si>
+    <t>크루링</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨어울프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이울프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 울프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 울프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 울프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 코볼트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이 코볼트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 코볼트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 코볼트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 고블린</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이 고블린</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 고블린</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 고블린</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 웨어울프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이 웨어울프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 웨어울프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 웨어울프</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 코볼트</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>코볼트이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>크루링이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨어울프이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이 울프이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 울프이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 울프이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 울프이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 코볼트다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 고블린이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이 고블린이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 고블린이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 웨어울프이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이 웨어울프이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 웨어울프이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>레드 웨어울프이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블루 코볼트이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 고블린이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙 코볼트다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레이 코볼트다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 코볼트다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_0001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_name_0002</t>
+  </si>
+  <si>
+    <t>monster_name_0003</t>
+  </si>
+  <si>
+    <t>monster_name_0004</t>
+  </si>
+  <si>
+    <t>monster_name_0005</t>
+  </si>
+  <si>
+    <t>monster_name_0006</t>
+  </si>
+  <si>
+    <t>monster_name_0007</t>
+  </si>
+  <si>
+    <t>monster_name_0008</t>
+  </si>
+  <si>
+    <t>monster_name_0009</t>
+  </si>
+  <si>
+    <t>monster_name_0010</t>
+  </si>
+  <si>
+    <t>monster_name_0011</t>
+  </si>
+  <si>
+    <t>monster_name_0012</t>
+  </si>
+  <si>
+    <t>monster_name_0013</t>
+  </si>
+  <si>
+    <t>monster_name_0014</t>
+  </si>
+  <si>
+    <t>monster_name_0015</t>
+  </si>
+  <si>
+    <t>monster_name_0016</t>
+  </si>
+  <si>
+    <t>monster_name_0017</t>
+  </si>
+  <si>
+    <t>monster_name_0018</t>
+  </si>
+  <si>
+    <t>monster_name_0019</t>
+  </si>
+  <si>
+    <t>monster_name_0020</t>
+  </si>
+  <si>
+    <t>monster_name_0021</t>
+  </si>
+  <si>
+    <t>monster_name_0022</t>
   </si>
 </sst>
 </file>
@@ -6770,7 +7073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6929,6 +7232,7 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7330,17 +7634,17 @@
     </row>
     <row r="30" spans="2:10" ht="15.6">
       <c r="B30" s="25" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.6">
       <c r="B31" s="32" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="13.8">
       <c r="B32" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="13.8">
@@ -7436,7 +7740,7 @@
         <v>69</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -7446,7 +7750,7 @@
     </row>
     <row r="54" spans="2:4" ht="15.6">
       <c r="B54" s="25" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="55" spans="2:4">
@@ -7481,7 +7785,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -7495,7 +7799,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -7524,7 +7828,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>69</v>
@@ -7703,7 +8007,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -7745,7 +8049,7 @@
         <v>88</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -7759,7 +8063,7 @@
         <v>89</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -7773,7 +8077,7 @@
         <v>90</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -7787,7 +8091,7 @@
         <v>91</v>
       </c>
       <c r="C19" s="71" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -7801,7 +8105,7 @@
         <v>92</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
@@ -7812,10 +8116,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C21" s="108" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
@@ -7826,10 +8130,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C22" s="108" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
@@ -7840,10 +8144,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C23" s="108" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
@@ -7854,10 +8158,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C24" s="108" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
@@ -7868,10 +8172,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C25" s="108" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="58"/>
@@ -7882,10 +8186,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C26" s="108" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
@@ -7896,10 +8200,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C27" s="108" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
@@ -7910,10 +8214,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C28" s="108" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
@@ -7924,10 +8228,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C29" s="108" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
@@ -7938,10 +8242,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="58"/>
@@ -7952,10 +8256,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
@@ -7966,10 +8270,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
@@ -7980,10 +8284,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
@@ -7994,10 +8298,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
@@ -8008,10 +8312,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D35" s="58"/>
       <c r="E35" s="58"/>
@@ -8022,10 +8326,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D36" s="58"/>
       <c r="E36" s="58"/>
@@ -8036,10 +8340,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D37" s="58"/>
       <c r="E37" s="58"/>
@@ -8050,10 +8354,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D38" s="58"/>
       <c r="E38" s="58"/>
@@ -8064,10 +8368,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="58"/>
@@ -8078,10 +8382,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D40" s="58"/>
       <c r="E40" s="58"/>
@@ -8092,10 +8396,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
@@ -8106,10 +8410,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
@@ -8120,10 +8424,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D43" s="58"/>
       <c r="E43" s="58"/>
@@ -8134,10 +8438,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D44" s="58"/>
       <c r="E44" s="58"/>
@@ -8148,10 +8452,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D45" s="58"/>
       <c r="E45" s="58"/>
@@ -8162,10 +8466,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
@@ -8176,10 +8480,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C47" s="59" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="58"/>
@@ -8190,10 +8494,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="58"/>
@@ -8204,10 +8508,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C49" s="59" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D49" s="58"/>
       <c r="E49" s="58"/>
@@ -8218,10 +8522,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D50" s="58"/>
       <c r="E50" s="58"/>
@@ -8232,10 +8536,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D51" s="69"/>
       <c r="E51" s="58"/>
@@ -8246,10 +8550,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C52" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D52" s="69"/>
       <c r="E52" s="58"/>
@@ -8260,10 +8564,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D53" s="69"/>
       <c r="E53" s="58"/>
@@ -8274,10 +8578,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C54" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D54" s="69"/>
       <c r="E54" s="58"/>
@@ -8288,10 +8592,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D55" s="58"/>
       <c r="E55" s="58"/>
@@ -8302,10 +8606,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D56" s="58"/>
       <c r="E56" s="58"/>
@@ -8316,10 +8620,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C57" s="72" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D57" s="58"/>
       <c r="E57" s="58"/>
@@ -8330,10 +8634,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D58" s="58"/>
       <c r="E58" s="58"/>
@@ -8344,10 +8648,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="57" t="s">
+        <v>389</v>
+      </c>
+      <c r="C59" s="59" t="s">
         <v>392</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>395</v>
       </c>
       <c r="D59" s="58"/>
       <c r="E59" s="58"/>
@@ -8358,10 +8662,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C60" s="73" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D60" s="58"/>
       <c r="E60" s="58"/>
@@ -8372,10 +8676,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C61" s="73" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
@@ -8386,10 +8690,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C62" s="73" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D62" s="58"/>
       <c r="E62" s="58"/>
@@ -8400,10 +8704,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C63" s="75" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D63" s="58"/>
       <c r="E63" s="58"/>
@@ -8414,10 +8718,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D64" s="58"/>
       <c r="E64" s="58"/>
@@ -8428,10 +8732,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="93" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D65" s="58"/>
       <c r="E65" s="58"/>
@@ -8442,10 +8746,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="93" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D66" s="58"/>
       <c r="E66" s="58"/>
@@ -8456,10 +8760,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="93" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D67" s="58"/>
       <c r="E67" s="58"/>
@@ -8470,10 +8774,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="93" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D68" s="58"/>
       <c r="E68" s="58"/>
@@ -8484,10 +8788,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="93" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D69" s="58"/>
       <c r="E69" s="58"/>
@@ -8498,10 +8802,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="93" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D70" s="58"/>
       <c r="E70" s="58"/>
@@ -8512,10 +8816,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="93" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D71" s="58"/>
       <c r="E71" s="58"/>
@@ -8526,10 +8830,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="93" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C72" s="95" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D72" s="58"/>
       <c r="E72" s="58"/>
@@ -8540,10 +8844,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="93" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C73" s="95" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D73" s="58"/>
       <c r="E73" s="58"/>
@@ -8554,10 +8858,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="93" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C74" s="57" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D74" s="58"/>
       <c r="E74" s="58"/>
@@ -8568,10 +8872,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="93" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C75" s="94" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D75" s="58"/>
       <c r="E75" s="58"/>
@@ -8582,10 +8886,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="93" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C76" s="94" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D76" s="58"/>
       <c r="E76" s="58"/>
@@ -8596,10 +8900,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="93" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C77" s="94" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D77" s="58"/>
       <c r="E77" s="58"/>
@@ -8610,10 +8914,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="93" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C78" s="94" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D78" s="58"/>
       <c r="E78" s="58"/>
@@ -8624,10 +8928,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="93" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C79" s="94" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D79" s="58"/>
       <c r="E79" s="58"/>
@@ -8638,10 +8942,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="93" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C80" s="94" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D80" s="58"/>
       <c r="E80" s="58"/>
@@ -8652,10 +8956,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="93" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C81" s="94" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D81" s="58"/>
       <c r="E81" s="58"/>
@@ -8666,10 +8970,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="93" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C82" s="94" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D82" s="58"/>
       <c r="E82" s="58"/>
@@ -8685,10 +8989,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -8703,7 +9007,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -8732,7 +9036,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>69</v>
@@ -8794,7 +9098,7 @@
         <v>133</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -8803,7 +9107,7 @@
         <v>20001~30000: 캐릭터  /  30001~40000: 몬스터</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2">
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A17" si="0">A6+1</f>
         <v>20003</v>
@@ -8812,10 +9116,13 @@
         <v>134</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
+      <c r="F7" s="13" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="6">
@@ -8837,10 +9144,10 @@
         <v>20005</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
@@ -8851,10 +9158,10 @@
         <v>20006</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
@@ -8865,10 +9172,10 @@
         <v>20007</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
@@ -8879,10 +9186,10 @@
         <v>20008</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
@@ -8893,10 +9200,10 @@
         <v>20009</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
@@ -8907,10 +9214,10 @@
         <v>20010</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
@@ -8921,10 +9228,10 @@
         <v>20011</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
@@ -8935,10 +9242,10 @@
         <v>20012</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
@@ -8949,10 +9256,10 @@
         <v>20013</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
@@ -8962,10 +9269,10 @@
         <v>30001</v>
       </c>
       <c r="B18" s="47" t="s">
+        <v>962</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>167</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>170</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
@@ -8976,41 +9283,579 @@
         <v>30002</v>
       </c>
       <c r="B19" s="47" t="s">
+        <v>963</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>168</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>171</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="46">
-        <f t="shared" ref="A20" si="1">A19+1</f>
+        <f t="shared" ref="A20:A39" si="1">A19+1</f>
         <v>30003</v>
       </c>
       <c r="B20" s="47" t="s">
+        <v>964</v>
+      </c>
+      <c r="C20" s="49" t="s">
         <v>169</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>172</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
     </row>
-    <row r="21" spans="1:5" ht="13.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="46"/>
+    <row r="21" spans="1:5" ht="13.8">
+      <c r="A21" s="46">
+        <f t="shared" si="1"/>
+        <v>30004</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>965</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>921</v>
+      </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
     </row>
-    <row r="22" spans="1:5" ht="13.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+    <row r="22" spans="1:5" ht="13.8">
+      <c r="A22" s="46">
+        <f t="shared" si="1"/>
+        <v>30005</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>966</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>922</v>
+      </c>
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.8">
+      <c r="A23" s="46">
+        <f t="shared" si="1"/>
+        <v>30006</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>967</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>923</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.8">
+      <c r="A24" s="46">
+        <f t="shared" si="1"/>
+        <v>30007</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>968</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>924</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5" ht="13.8">
+      <c r="A25" s="46">
+        <f t="shared" si="1"/>
+        <v>30008</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>969</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>925</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" ht="13.8">
+      <c r="A26" s="46">
+        <f t="shared" si="1"/>
+        <v>30009</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>970</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>926</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.8">
+      <c r="A27" s="46">
+        <f t="shared" si="1"/>
+        <v>30010</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>971</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>927</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.8">
+      <c r="A28" s="46">
+        <f t="shared" si="1"/>
+        <v>30011</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>928</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.8">
+      <c r="A29" s="46">
+        <f t="shared" si="1"/>
+        <v>30012</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>973</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>929</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.8">
+      <c r="A30" s="46">
+        <f t="shared" si="1"/>
+        <v>30013</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>974</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>930</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.8">
+      <c r="A31" s="46">
+        <f t="shared" si="1"/>
+        <v>30014</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>975</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>931</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.8">
+      <c r="A32" s="46">
+        <f t="shared" si="1"/>
+        <v>30015</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>932</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.8">
+      <c r="A33" s="46">
+        <f t="shared" si="1"/>
+        <v>30016</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>977</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>933</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.8">
+      <c r="A34" s="46">
+        <f t="shared" si="1"/>
+        <v>30017</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>934</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.8">
+      <c r="A35" s="46">
+        <f t="shared" si="1"/>
+        <v>30018</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>979</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>935</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.8">
+      <c r="A36" s="46">
+        <f t="shared" si="1"/>
+        <v>30019</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>980</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.8">
+      <c r="A37" s="46">
+        <f t="shared" si="1"/>
+        <v>30020</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>981</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>937</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.8">
+      <c r="A38" s="46">
+        <f t="shared" si="1"/>
+        <v>30021</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>982</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>938</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.8">
+      <c r="A39" s="46">
+        <f t="shared" si="1"/>
+        <v>30022</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>983</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>939</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.8">
+      <c r="A40" s="46">
+        <v>35001</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>899</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>940</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.8">
+      <c r="A41" s="46">
+        <v>35002</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>900</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>941</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="46">
+        <v>35003</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>901</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>942</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="46">
+        <v>35004</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>902</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>943</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="46">
+        <v>35005</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>903</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>944</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="46">
+        <v>35006</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>904</v>
+      </c>
+      <c r="C45" s="110" t="s">
+        <v>945</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="46">
+        <v>35007</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>905</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>946</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="46">
+        <v>35008</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>906</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>947</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="46">
+        <v>35009</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>907</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>948</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="46">
+        <v>35010</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>908</v>
+      </c>
+      <c r="C49" s="110" t="s">
+        <v>959</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="46">
+        <v>35011</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>909</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>960</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="46">
+        <v>35012</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>910</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>961</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="46">
+        <v>35013</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>911</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>949</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="46">
+        <v>35014</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>912</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>950</v>
+      </c>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="46">
+        <v>35015</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>913</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>951</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="46">
+        <v>35016</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>914</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="46">
+        <v>35017</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>915</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>952</v>
+      </c>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57" s="46">
+        <v>35018</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>916</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>953</v>
+      </c>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58" s="46">
+        <v>35019</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>917</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="46">
+        <v>35020</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>918</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="46">
+        <v>35021</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>919</v>
+      </c>
+      <c r="C60" s="49" t="s">
+        <v>956</v>
+      </c>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A61" s="46">
+        <v>35022</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>920</v>
+      </c>
+      <c r="C61" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -9041,7 +9886,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>65</v>
@@ -9073,7 +9918,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>69</v>
@@ -9113,10 +9958,10 @@
         <v>40001</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="84"/>
@@ -9131,13 +9976,13 @@
         <v>40002</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>67</v>
@@ -9153,16 +9998,16 @@
         <v>40003</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F7" s="80" t="str">
         <f>'!_ID_RULE'!B31</f>
@@ -9175,16 +10020,16 @@
         <v>40004</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F8" s="80" t="str">
         <f>'!_ID_RULE'!B32</f>
@@ -9197,19 +10042,19 @@
         <v>40005</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E9" s="87" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6">
@@ -9218,19 +10063,19 @@
         <v>40006</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E10" s="88" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F10" s="96" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6">
@@ -9239,19 +10084,19 @@
         <v>40007</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E11" s="85" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6">
@@ -9260,19 +10105,19 @@
         <v>40008</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
@@ -9281,19 +10126,19 @@
         <v>40009</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6">
@@ -9302,19 +10147,19 @@
         <v>40010</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6">
@@ -9323,19 +10168,19 @@
         <v>40011</v>
       </c>
       <c r="B15" s="76" t="s">
+        <v>432</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>438</v>
-      </c>
       <c r="F15" s="13" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6">
@@ -9344,19 +10189,19 @@
         <v>40012</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6">
@@ -9365,19 +10210,19 @@
         <v>40013</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6">
@@ -9386,19 +10231,19 @@
         <v>40014</v>
       </c>
       <c r="B18" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>439</v>
-      </c>
       <c r="F18" s="90" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6">
@@ -9407,19 +10252,19 @@
         <v>40015</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F19" s="90" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6">
@@ -9428,19 +10273,19 @@
         <v>40016</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F20" s="90" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6">
@@ -9449,16 +10294,16 @@
         <v>40017</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6">
@@ -9467,16 +10312,16 @@
         <v>40018</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6">
@@ -9485,16 +10330,16 @@
         <v>40019</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6">
@@ -9503,16 +10348,16 @@
         <v>40020</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6">
@@ -9521,16 +10366,16 @@
         <v>40021</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E25" s="52" t="s">
         <v>495</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6">
@@ -9539,16 +10384,16 @@
         <v>40022</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="E26" s="52" t="s">
         <v>494</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6">
@@ -9557,16 +10402,16 @@
         <v>40023</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6">
@@ -9574,10 +10419,10 @@
         <v>4100001</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -9587,10 +10432,10 @@
         <v>4100002</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -9600,10 +10445,10 @@
         <v>4100003</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -9613,10 +10458,10 @@
         <v>4100004</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -9626,10 +10471,10 @@
         <v>4100102</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -9639,10 +10484,10 @@
         <v>4100102</v>
       </c>
       <c r="B33" s="89" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -9652,10 +10497,10 @@
         <v>4100103</v>
       </c>
       <c r="B34" s="89" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -9665,10 +10510,10 @@
         <v>4100104</v>
       </c>
       <c r="B35" s="89" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -9678,10 +10523,10 @@
         <v>4100106</v>
       </c>
       <c r="B36" s="89" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -9691,10 +10536,10 @@
         <v>4100107</v>
       </c>
       <c r="B37" s="89" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -9704,10 +10549,10 @@
         <v>4100108</v>
       </c>
       <c r="B38" s="89" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -9717,10 +10562,10 @@
         <v>4100109</v>
       </c>
       <c r="B39" s="89" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -9730,10 +10575,10 @@
         <v>4100202</v>
       </c>
       <c r="B40" s="89" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -9743,10 +10588,10 @@
         <v>4100203</v>
       </c>
       <c r="B41" s="89" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -9756,10 +10601,10 @@
         <v>4100204</v>
       </c>
       <c r="B42" s="89" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -9769,10 +10614,10 @@
         <v>4100205</v>
       </c>
       <c r="B43" s="89" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -9782,10 +10627,10 @@
         <v>4100302</v>
       </c>
       <c r="B44" s="89" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
@@ -9795,10 +10640,10 @@
         <v>4100303</v>
       </c>
       <c r="B45" s="89" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -9808,10 +10653,10 @@
         <v>4100304</v>
       </c>
       <c r="B46" s="89" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -9821,10 +10666,10 @@
         <v>4100305</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -9834,10 +10679,10 @@
         <v>4100401</v>
       </c>
       <c r="B48" s="89" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
@@ -9847,10 +10692,10 @@
         <v>4100402</v>
       </c>
       <c r="B49" s="89" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
@@ -9860,10 +10705,10 @@
         <v>4100403</v>
       </c>
       <c r="B50" s="89" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D50" s="78"/>
       <c r="E50" s="78"/>
@@ -9873,10 +10718,10 @@
         <v>4100404</v>
       </c>
       <c r="B51" s="89" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C51" s="77" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D51" s="78"/>
       <c r="E51" s="78"/>
@@ -9886,10 +10731,10 @@
         <v>4100405</v>
       </c>
       <c r="B52" s="89" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C52" s="77" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
@@ -9899,10 +10744,10 @@
         <v>4100406</v>
       </c>
       <c r="B53" s="89" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D53" s="78"/>
       <c r="E53" s="78"/>
@@ -9912,10 +10757,10 @@
         <v>4100502</v>
       </c>
       <c r="B54" s="89" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
@@ -9925,10 +10770,10 @@
         <v>4100503</v>
       </c>
       <c r="B55" s="89" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C55" s="77" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D55" s="78"/>
       <c r="E55" s="78"/>
@@ -9938,10 +10783,10 @@
         <v>4100504</v>
       </c>
       <c r="B56" s="89" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
@@ -9951,10 +10796,10 @@
         <v>4100602</v>
       </c>
       <c r="B57" s="89" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C57" s="77" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D57" s="78"/>
       <c r="E57" s="78"/>
@@ -9964,10 +10809,10 @@
         <v>4100603</v>
       </c>
       <c r="B58" s="89" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C58" s="77" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
@@ -9977,10 +10822,10 @@
         <v>4100604</v>
       </c>
       <c r="B59" s="89" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C59" s="77" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D59" s="78"/>
       <c r="E59" s="78"/>
@@ -9990,10 +10835,10 @@
         <v>4100605</v>
       </c>
       <c r="B60" s="89" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
@@ -10003,10 +10848,10 @@
         <v>4100606</v>
       </c>
       <c r="B61" s="92" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C61" s="77" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D61" s="78"/>
       <c r="E61" s="78"/>
@@ -10016,10 +10861,10 @@
         <v>4100607</v>
       </c>
       <c r="B62" s="92" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
@@ -10029,10 +10874,10 @@
         <v>4100608</v>
       </c>
       <c r="B63" s="92" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D63" s="78"/>
       <c r="E63" s="78"/>
@@ -10246,7 +11091,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -10275,7 +11120,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>69</v>
@@ -10316,10 +11161,10 @@
         <v>70001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -10334,10 +11179,10 @@
         <v>70002</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -10352,10 +11197,10 @@
         <v>70003</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -10366,10 +11211,10 @@
         <v>70004</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -10380,10 +11225,10 @@
         <v>70005</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -10394,10 +11239,10 @@
         <v>70006</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -10408,10 +11253,10 @@
         <v>70007</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -10422,10 +11267,10 @@
         <v>70008</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -10436,10 +11281,10 @@
         <v>70009</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -10450,10 +11295,10 @@
         <v>70010</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -10464,7 +11309,7 @@
         <v>70011</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>26</v>
@@ -10478,7 +11323,7 @@
         <v>70012</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>27</v>
@@ -10492,7 +11337,7 @@
         <v>70013</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>28</v>
@@ -10506,7 +11351,7 @@
         <v>70014</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>29</v>
@@ -10520,7 +11365,7 @@
         <v>70015</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>30</v>
@@ -10534,10 +11379,10 @@
         <v>70016</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -10548,10 +11393,10 @@
         <v>70017</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -10562,10 +11407,10 @@
         <v>70018</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -10576,10 +11421,10 @@
         <v>70019</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -10590,10 +11435,10 @@
         <v>70020</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -10604,7 +11449,7 @@
         <v>70021</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>31</v>
@@ -10618,7 +11463,7 @@
         <v>70022</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>32</v>
@@ -10632,7 +11477,7 @@
         <v>70023</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>33</v>
@@ -10646,10 +11491,10 @@
         <v>70024</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -10660,7 +11505,7 @@
         <v>70025</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>34</v>
@@ -10674,7 +11519,7 @@
         <v>70026</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>35</v>
@@ -10688,7 +11533,7 @@
         <v>70027</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -11036,7 +11881,7 @@
         <v>90001</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>37</v>
@@ -11050,7 +11895,7 @@
         <v>90002</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>38</v>
@@ -11064,7 +11909,7 @@
         <v>90003</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C58" s="41" t="s">
         <v>39</v>
@@ -11100,7 +11945,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.2">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -11129,7 +11974,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>69</v>
@@ -11169,10 +12014,10 @@
         <v>100001</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -11186,10 +12031,10 @@
         <v>100002</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D6" s="98"/>
       <c r="E6" s="98"/>
@@ -11199,10 +12044,10 @@
         <v>100003</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C7" s="99" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D7" s="98"/>
       <c r="E7" s="98"/>
@@ -11212,10 +12057,10 @@
         <v>100004</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C8" s="99" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D8" s="98"/>
       <c r="E8" s="98"/>
@@ -11225,10 +12070,10 @@
         <v>100005</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C9" s="100" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
@@ -11238,10 +12083,10 @@
         <v>100006</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="C10" s="100" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
@@ -11251,10 +12096,10 @@
         <v>100007</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D11" s="98"/>
       <c r="E11" s="98"/>
@@ -11264,10 +12109,10 @@
         <v>100008</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D12" s="98"/>
       <c r="E12" s="98"/>
@@ -11277,7 +12122,7 @@
         <v>100009</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C13" s="100" t="s">
         <v>47</v>
@@ -11290,10 +12135,10 @@
         <v>100010</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D14" s="98"/>
       <c r="E14" s="98"/>
@@ -11303,10 +12148,10 @@
         <v>100011</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D15" s="98"/>
       <c r="E15" s="98"/>
@@ -11316,10 +12161,10 @@
         <v>100012</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D16" s="98"/>
       <c r="E16" s="98"/>
@@ -11329,10 +12174,10 @@
         <v>100013</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
@@ -11342,10 +12187,10 @@
         <v>100014</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
@@ -11355,10 +12200,10 @@
         <v>100015</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
@@ -11368,10 +12213,10 @@
         <v>100016</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="98"/>
@@ -11381,10 +12226,10 @@
         <v>100017</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="98"/>
@@ -11394,10 +12239,10 @@
         <v>100018</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
@@ -11407,10 +12252,10 @@
         <v>100019</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C23" s="100" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D23" s="98"/>
       <c r="E23" s="98"/>
@@ -11420,10 +12265,10 @@
         <v>100020</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="98"/>
@@ -11433,10 +12278,10 @@
         <v>100021</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="98"/>
@@ -11446,10 +12291,10 @@
         <v>100022</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
@@ -11459,10 +12304,10 @@
         <v>100023</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
@@ -11472,10 +12317,10 @@
         <v>100024</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C28" s="102" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D28" s="101"/>
       <c r="E28" s="101"/>
@@ -11485,10 +12330,10 @@
         <v>100025</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="C29" s="102" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
@@ -11498,10 +12343,10 @@
         <v>100026</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C30" s="103" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
@@ -11511,10 +12356,10 @@
         <v>100027</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D31" s="101"/>
       <c r="E31" s="101"/>
@@ -11524,10 +12369,10 @@
         <v>100028</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C32" s="102" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
@@ -11537,7 +12382,7 @@
         <v>100029</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C33" s="102" t="s">
         <v>47</v>
@@ -11550,10 +12395,10 @@
         <v>100030</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C34" s="102" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
@@ -11563,10 +12408,10 @@
         <v>100031</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="C35" s="102" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D35" s="101"/>
       <c r="E35" s="101"/>
@@ -11576,10 +12421,10 @@
         <v>100032</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C36" s="102" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D36" s="101"/>
       <c r="E36" s="101"/>
@@ -11589,10 +12434,10 @@
         <v>100033</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C37" s="102" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D37" s="101"/>
       <c r="E37" s="101"/>
@@ -11602,10 +12447,10 @@
         <v>100034</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C38" s="102" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
@@ -11615,10 +12460,10 @@
         <v>100035</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C39" s="102" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
@@ -11628,10 +12473,10 @@
         <v>100036</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C40" s="102" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D40" s="101"/>
       <c r="E40" s="101"/>
@@ -11641,10 +12486,10 @@
         <v>100037</v>
       </c>
       <c r="B41" s="101" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C41" s="102" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D41" s="101"/>
       <c r="E41" s="101"/>
@@ -11654,10 +12499,10 @@
         <v>100038</v>
       </c>
       <c r="B42" s="101" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C42" s="102" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D42" s="101"/>
       <c r="E42" s="101"/>
@@ -11667,10 +12512,10 @@
         <v>100039</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C43" s="102" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D43" s="101"/>
       <c r="E43" s="101"/>
@@ -11680,10 +12525,10 @@
         <v>100040</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C44" s="102" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
@@ -11693,10 +12538,10 @@
         <v>100041</v>
       </c>
       <c r="B45" s="101" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C45" s="102" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D45" s="101"/>
       <c r="E45" s="101"/>
@@ -11706,10 +12551,10 @@
         <v>100042</v>
       </c>
       <c r="B46" s="101" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C46" s="102" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D46" s="101"/>
       <c r="E46" s="101"/>
@@ -11719,7 +12564,7 @@
         <v>100043</v>
       </c>
       <c r="B47" s="101" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C47" s="102" t="s">
         <v>47</v>
@@ -11732,10 +12577,10 @@
         <v>100044</v>
       </c>
       <c r="B48" s="101" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C48" s="102" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D48" s="101"/>
       <c r="E48" s="101"/>
@@ -11745,10 +12590,10 @@
         <v>100045</v>
       </c>
       <c r="B49" s="101" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C49" s="102" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D49" s="101"/>
       <c r="E49" s="101"/>
@@ -11758,10 +12603,10 @@
         <v>100046</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D50" s="101"/>
       <c r="E50" s="101"/>
@@ -11771,10 +12616,10 @@
         <v>100047</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C51" s="102" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D51" s="101"/>
       <c r="E51" s="101"/>
@@ -11784,10 +12629,10 @@
         <v>100048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -11797,10 +12642,10 @@
         <v>100049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -11810,10 +12655,10 @@
         <v>100050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -11823,10 +12668,10 @@
         <v>100051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -11836,10 +12681,10 @@
         <v>100052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -11849,10 +12694,10 @@
         <v>100053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -11862,10 +12707,10 @@
         <v>100054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -11875,10 +12720,10 @@
         <v>100055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -11888,10 +12733,10 @@
         <v>100056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -11901,10 +12746,10 @@
         <v>100057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -11914,10 +12759,10 @@
         <v>100058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -11927,10 +12772,10 @@
         <v>100059</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C63" s="104" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
@@ -11940,10 +12785,10 @@
         <v>100060</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C64" s="106" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D64" s="105"/>
       <c r="E64" s="105"/>
@@ -11953,10 +12798,10 @@
         <v>100061</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C65" s="106" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D65" s="105"/>
       <c r="E65" s="105"/>
@@ -11966,10 +12811,10 @@
         <v>100062</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C66" s="106" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D66" s="105"/>
       <c r="E66" s="105"/>
@@ -11979,10 +12824,10 @@
         <v>100063</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="C67" s="106" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D67" s="105"/>
       <c r="E67" s="105"/>
@@ -11992,10 +12837,10 @@
         <v>100064</v>
       </c>
       <c r="B68" s="107" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C68" s="107" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D68" s="107"/>
       <c r="E68" s="107"/>
@@ -12005,10 +12850,10 @@
         <v>100065</v>
       </c>
       <c r="B69" s="107" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C69" s="107" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D69" s="107"/>
       <c r="E69" s="107"/>
@@ -12018,10 +12863,10 @@
         <v>100066</v>
       </c>
       <c r="B70" s="107" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C70" s="107" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D70" s="107"/>
       <c r="E70" s="107"/>
@@ -12031,10 +12876,10 @@
         <v>100067</v>
       </c>
       <c r="B71" s="107" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C71" s="107" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D71" s="107"/>
       <c r="E71" s="107"/>
@@ -12044,10 +12889,10 @@
         <v>100068</v>
       </c>
       <c r="B72" s="107" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C72" s="107" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D72" s="107"/>
       <c r="E72" s="107"/>
@@ -12057,10 +12902,10 @@
         <v>100069</v>
       </c>
       <c r="B73" s="107" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C73" s="107" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="D73" s="107"/>
       <c r="E73" s="107"/>
@@ -12070,10 +12915,10 @@
         <v>100070</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C74" s="107" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D74" s="107"/>
       <c r="E74" s="107"/>
@@ -12083,10 +12928,10 @@
         <v>100071</v>
       </c>
       <c r="B75" s="107" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C75" s="107" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D75" s="107"/>
       <c r="E75" s="107"/>
@@ -12116,7 +12961,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -12145,7 +12990,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>69</v>
@@ -12185,10 +13030,10 @@
         <v>160001</v>
       </c>
       <c r="B5" s="98" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D5" s="98"/>
       <c r="E5" s="98"/>
@@ -12202,10 +13047,10 @@
         <v>160002</v>
       </c>
       <c r="B6" s="98" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D6" s="98"/>
       <c r="E6" s="98"/>
@@ -12215,10 +13060,10 @@
         <v>160003</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D7" s="98"/>
       <c r="E7" s="98"/>
@@ -12228,10 +13073,10 @@
         <v>160004</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D8" s="98"/>
       <c r="E8" s="98"/>
@@ -12241,10 +13086,10 @@
         <v>160005</v>
       </c>
       <c r="B9" s="98" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
@@ -12254,10 +13099,10 @@
         <v>160006</v>
       </c>
       <c r="B10" s="98" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
@@ -12267,10 +13112,10 @@
         <v>160007</v>
       </c>
       <c r="B11" s="98" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D11" s="98"/>
       <c r="E11" s="98"/>
@@ -12280,10 +13125,10 @@
         <v>160008</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D12" s="98"/>
       <c r="E12" s="98"/>
@@ -12293,10 +13138,10 @@
         <v>160009</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
@@ -12306,10 +13151,10 @@
         <v>160010</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D14" s="98"/>
       <c r="E14" s="98"/>
@@ -12319,10 +13164,10 @@
         <v>160011</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D15" s="98"/>
       <c r="E15" s="98"/>
@@ -12332,10 +13177,10 @@
         <v>160012</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D16" s="98"/>
       <c r="E16" s="98"/>
@@ -12345,10 +13190,10 @@
         <v>160013</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
@@ -12358,10 +13203,10 @@
         <v>160014</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
@@ -12371,10 +13216,10 @@
         <v>160015</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
@@ -12384,10 +13229,10 @@
         <v>160016</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D20" s="98"/>
       <c r="E20" s="98"/>
@@ -12397,10 +13242,10 @@
         <v>160017</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="98"/>
@@ -12410,10 +13255,10 @@
         <v>160018</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
@@ -12423,10 +13268,10 @@
         <v>160019</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D23" s="98"/>
       <c r="E23" s="98"/>
@@ -12436,10 +13281,10 @@
         <v>160020</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D24" s="98"/>
       <c r="E24" s="98"/>
@@ -12449,10 +13294,10 @@
         <v>160021</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="98"/>
@@ -12462,10 +13307,10 @@
         <v>160022</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
@@ -12475,10 +13320,10 @@
         <v>160023</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
@@ -12488,10 +13333,10 @@
         <v>160024</v>
       </c>
       <c r="B28" s="101" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C28" s="101" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D28" s="101"/>
       <c r="E28" s="101"/>
@@ -12501,10 +13346,10 @@
         <v>160025</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
@@ -12514,10 +13359,10 @@
         <v>160026</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
@@ -12527,10 +13372,10 @@
         <v>160027</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D31" s="101"/>
       <c r="E31" s="101"/>
@@ -12540,10 +13385,10 @@
         <v>160028</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
@@ -12553,10 +13398,10 @@
         <v>160029</v>
       </c>
       <c r="B33" s="101" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C33" s="101" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D33" s="101"/>
       <c r="E33" s="101"/>
@@ -12566,10 +13411,10 @@
         <v>160030</v>
       </c>
       <c r="B34" s="101" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C34" s="101" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
@@ -12579,10 +13424,10 @@
         <v>160031</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C35" s="101" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D35" s="101"/>
       <c r="E35" s="101"/>
@@ -12592,10 +13437,10 @@
         <v>160032</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C36" s="101" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D36" s="101"/>
       <c r="E36" s="101"/>
@@ -12605,10 +13450,10 @@
         <v>160033</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C37" s="101" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D37" s="101"/>
       <c r="E37" s="101"/>
@@ -12618,10 +13463,10 @@
         <v>160034</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C38" s="101" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
@@ -12631,10 +13476,10 @@
         <v>160035</v>
       </c>
       <c r="B39" s="101" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C39" s="101" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
@@ -12644,10 +13489,10 @@
         <v>160036</v>
       </c>
       <c r="B40" s="101" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C40" s="101" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D40" s="101"/>
       <c r="E40" s="101"/>
@@ -12657,10 +13502,10 @@
         <v>160037</v>
       </c>
       <c r="B41" s="101" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C41" s="101" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D41" s="101"/>
       <c r="E41" s="101"/>
@@ -12670,10 +13515,10 @@
         <v>160038</v>
       </c>
       <c r="B42" s="101" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C42" s="101" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D42" s="101"/>
       <c r="E42" s="101"/>
@@ -12683,10 +13528,10 @@
         <v>160039</v>
       </c>
       <c r="B43" s="101" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C43" s="101" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D43" s="101"/>
       <c r="E43" s="101"/>
@@ -12696,10 +13541,10 @@
         <v>160040</v>
       </c>
       <c r="B44" s="101" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C44" s="101" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
@@ -12709,10 +13554,10 @@
         <v>160041</v>
       </c>
       <c r="B45" s="101" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C45" s="101" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D45" s="101"/>
       <c r="E45" s="101"/>
@@ -12722,10 +13567,10 @@
         <v>160042</v>
       </c>
       <c r="B46" s="101" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C46" s="101" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D46" s="101"/>
       <c r="E46" s="101"/>
@@ -12735,10 +13580,10 @@
         <v>160043</v>
       </c>
       <c r="B47" s="101" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C47" s="101" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D47" s="101"/>
       <c r="E47" s="101"/>
@@ -12748,10 +13593,10 @@
         <v>160044</v>
       </c>
       <c r="B48" s="101" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C48" s="101" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D48" s="101"/>
       <c r="E48" s="101"/>
@@ -12761,10 +13606,10 @@
         <v>160045</v>
       </c>
       <c r="B49" s="101" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D49" s="101"/>
       <c r="E49" s="101"/>
@@ -12774,10 +13619,10 @@
         <v>160046</v>
       </c>
       <c r="B50" s="101" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C50" s="101" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D50" s="101"/>
       <c r="E50" s="101"/>
@@ -12787,10 +13632,10 @@
         <v>160047</v>
       </c>
       <c r="B51" s="101" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C51" s="101" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D51" s="101"/>
       <c r="E51" s="101"/>
@@ -12800,10 +13645,10 @@
         <v>160048</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -12813,10 +13658,10 @@
         <v>160049</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -12826,10 +13671,10 @@
         <v>160050</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -12839,10 +13684,10 @@
         <v>160051</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -12852,10 +13697,10 @@
         <v>160052</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -12865,10 +13710,10 @@
         <v>160053</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -12878,10 +13723,10 @@
         <v>160054</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -12891,10 +13736,10 @@
         <v>160055</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -12904,10 +13749,10 @@
         <v>160056</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -12917,10 +13762,10 @@
         <v>160057</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -12930,10 +13775,10 @@
         <v>160058</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -12943,10 +13788,10 @@
         <v>160059</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -12956,10 +13801,10 @@
         <v>160060</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C64" s="105" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -12969,10 +13814,10 @@
         <v>160061</v>
       </c>
       <c r="B65" s="105" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C65" s="105" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -12982,10 +13827,10 @@
         <v>160062</v>
       </c>
       <c r="B66" s="105" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C66" s="105" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -12995,10 +13840,10 @@
         <v>160063</v>
       </c>
       <c r="B67" s="105" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="C67" s="105" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -13008,10 +13853,10 @@
         <v>160064</v>
       </c>
       <c r="B68" s="107" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C68" s="107" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -13021,10 +13866,10 @@
         <v>160065</v>
       </c>
       <c r="B69" s="107" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C69" s="107" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -13034,10 +13879,10 @@
         <v>160066</v>
       </c>
       <c r="B70" s="107" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C70" s="107" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -13047,10 +13892,10 @@
         <v>160067</v>
       </c>
       <c r="B71" s="107" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C71" s="107" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -13060,10 +13905,10 @@
         <v>160068</v>
       </c>
       <c r="B72" s="107" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C72" s="107" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -13073,10 +13918,10 @@
         <v>160069</v>
       </c>
       <c r="B73" s="107" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C73" s="107" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -13086,10 +13931,10 @@
         <v>160070</v>
       </c>
       <c r="B74" s="107" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C74" s="107" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -13099,10 +13944,10 @@
         <v>160071</v>
       </c>
       <c r="B75" s="107" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C75" s="107" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -13120,7 +13965,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -13135,7 +13980,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.2">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -13164,7 +14009,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>69</v>
@@ -13204,10 +14049,10 @@
         <v>130001</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="63"/>
@@ -13221,10 +14066,10 @@
         <v>130002</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -13234,10 +14079,10 @@
         <v>130003</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
@@ -13247,10 +14092,10 @@
         <v>130004</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C8" s="109" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -13260,10 +14105,10 @@
         <v>130005</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C9" s="109" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -13394,7 +14239,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -13423,7 +14268,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>69</v>
@@ -13471,7 +14316,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.8">
@@ -13481,12 +14326,12 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.8">
@@ -13496,12 +14341,12 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.8">
@@ -13511,12 +14356,12 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="51" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.8">
@@ -13526,12 +14371,12 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.8">
@@ -13541,7 +14386,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="52" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -13554,7 +14399,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="52" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -13567,7 +14412,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="52" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -13580,7 +14425,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="52" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -13593,7 +14438,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="52" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -13606,7 +14451,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -13619,7 +14464,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -13632,7 +14477,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="52" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -13645,7 +14490,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="52" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -13658,7 +14503,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="52" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -13671,7 +14516,7 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="52" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -13684,7 +14529,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="52" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -13697,7 +14542,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -13710,7 +14555,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -13723,7 +14568,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -13736,7 +14581,7 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -13749,7 +14594,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -13762,7 +14607,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="52" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -13775,7 +14620,7 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="52" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -13788,7 +14633,7 @@
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="52" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -13801,12 +14646,12 @@
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="51" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
@@ -13816,12 +14661,12 @@
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
@@ -13831,12 +14676,12 @@
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="51" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
@@ -13846,12 +14691,12 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="51" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
@@ -13861,12 +14706,12 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="51" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
@@ -13876,7 +14721,7 @@
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="52" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -13889,7 +14734,7 @@
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="52" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -13902,7 +14747,7 @@
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="52" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -13915,7 +14760,7 @@
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="52" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -13928,7 +14773,7 @@
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="52" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -13941,7 +14786,7 @@
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="52" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -13954,7 +14799,7 @@
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="52" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -13967,7 +14812,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="52" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -13980,7 +14825,7 @@
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="52" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -13993,7 +14838,7 @@
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="52" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -14006,7 +14851,7 @@
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="52" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -14019,12 +14864,12 @@
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="52" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="51" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1">
@@ -14034,12 +14879,12 @@
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="52" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1">
@@ -14049,12 +14894,12 @@
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="52" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1">
@@ -14064,12 +14909,12 @@
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="54" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
@@ -14079,12 +14924,12 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="54" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1">
@@ -14094,12 +14939,12 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="54" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1">
@@ -14109,12 +14954,12 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="54" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1">
@@ -14124,12 +14969,12 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="54" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1">
@@ -14139,12 +14984,12 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="54" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1">
@@ -14154,12 +14999,12 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
@@ -14169,12 +15014,12 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1">
@@ -14184,12 +15029,12 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="54" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1">
@@ -14199,12 +15044,12 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="54" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1">
@@ -14214,12 +15059,12 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="52" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1">
@@ -14229,12 +15074,12 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="52" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1">
@@ -14244,12 +15089,12 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="52" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1">
@@ -14259,12 +15104,12 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="52" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="51" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
@@ -14274,12 +15119,12 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="51" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1">
@@ -14289,12 +15134,12 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="51" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1">
@@ -14304,12 +15149,12 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="54" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="51" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14924B65-AAC9-4DE4-97AD-87E323E3E31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA138B8-ABA8-4877-8656-742ED5BA71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="30936" windowHeight="17040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40440" yWindow="1320" windowWidth="36135" windowHeight="19395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="985">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -6405,6 +6405,10 @@
   </si>
   <si>
     <t>monster_name_0022</t>
+  </si>
+  <si>
+    <t>system_stat_battlepower</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7073,7 +7077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7233,6 +7237,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7454,22 +7459,22 @@
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="27"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="28" width="9.109375" style="27"/>
+    <col min="1" max="1" width="9.140625" style="27"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="28" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="27" customFormat="1"/>
     <row r="2" spans="2:11" s="27" customFormat="1"/>
-    <row r="3" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="3" spans="2:11" s="27" customFormat="1">
       <c r="B3" s="28" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="27" customFormat="1"/>
-    <row r="5" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="5" spans="2:11" s="27" customFormat="1">
       <c r="B5" s="29" t="s">
         <v>93</v>
       </c>
@@ -7480,7 +7485,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="6" spans="2:11" s="27" customFormat="1">
       <c r="J6" s="32" t="s">
         <v>94</v>
       </c>
@@ -7488,7 +7493,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="7" spans="2:11" s="27" customFormat="1">
       <c r="J7" s="32" t="s">
         <v>96</v>
       </c>
@@ -7496,7 +7501,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="8" spans="2:11" s="27" customFormat="1">
       <c r="J8" s="32" t="s">
         <v>103</v>
       </c>
@@ -7504,7 +7509,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="9" spans="2:11" s="27" customFormat="1">
       <c r="J9" s="32" t="s">
         <v>102</v>
       </c>
@@ -7512,7 +7517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="10" spans="2:11" s="27" customFormat="1">
       <c r="J10" s="32" t="s">
         <v>101</v>
       </c>
@@ -7520,7 +7525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="11" spans="2:11" s="27" customFormat="1">
       <c r="J11" s="32" t="s">
         <v>105</v>
       </c>
@@ -7528,14 +7533,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="12" spans="2:11" s="27" customFormat="1">
       <c r="B12" s="35" t="s">
         <v>141</v>
       </c>
       <c r="J12" s="30"/>
     </row>
     <row r="13" spans="2:11" s="27" customFormat="1"/>
-    <row r="14" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="14" spans="2:11" s="27" customFormat="1">
       <c r="B14" s="29" t="s">
         <v>142</v>
       </c>
@@ -7543,7 +7548,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="15" spans="2:11" s="27" customFormat="1">
       <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
@@ -7551,7 +7556,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="27" customFormat="1" ht="13.8">
+    <row r="16" spans="2:11" s="27" customFormat="1" ht="15">
       <c r="B16" s="22" t="s">
         <v>69</v>
       </c>
@@ -7581,12 +7586,12 @@
     <row r="19" spans="2:10" s="27" customFormat="1">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:10" s="27" customFormat="1" ht="13.8">
+    <row r="20" spans="2:10" s="27" customFormat="1">
       <c r="B20" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="27" customFormat="1" ht="13.8">
+    <row r="21" spans="2:10" s="27" customFormat="1" ht="15">
       <c r="B21" s="22" t="s">
         <v>69</v>
       </c>
@@ -7599,22 +7604,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="27" customFormat="1" ht="15.6">
+    <row r="23" spans="2:10" s="27" customFormat="1" ht="13.5">
       <c r="B23" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="27" customFormat="1" ht="15.6">
+    <row r="24" spans="2:10" s="27" customFormat="1" ht="13.5">
       <c r="B24" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="13.8">
+    <row r="26" spans="2:10">
       <c r="B26" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="13.8">
+    <row r="27" spans="2:10" ht="15">
       <c r="B27" s="22" t="s">
         <v>69</v>
       </c>
@@ -7627,32 +7632,32 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15.6">
+    <row r="29" spans="2:10" ht="13.5">
       <c r="B29" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="15.6">
+    <row r="30" spans="2:10" ht="13.5">
       <c r="B30" s="25" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.6">
+    <row r="31" spans="2:10" ht="13.5">
       <c r="B31" s="32" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="13.8">
+    <row r="32" spans="2:10">
       <c r="B32" s="32" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="13.8">
+    <row r="34" spans="2:4">
       <c r="B34" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="13.8">
+    <row r="35" spans="2:4" ht="15">
       <c r="B35" s="22" t="s">
         <v>69</v>
       </c>
@@ -7665,22 +7670,22 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.6">
+    <row r="37" spans="2:4" ht="13.5">
       <c r="B37" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.6">
+    <row r="38" spans="2:4" ht="13.5">
       <c r="B38" s="37" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="13.8">
+    <row r="40" spans="2:4">
       <c r="B40" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="13.8">
+    <row r="41" spans="2:4" ht="15">
       <c r="B41" s="22" t="s">
         <v>69</v>
       </c>
@@ -7693,7 +7698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="15.6">
+    <row r="43" spans="2:4" ht="13.5">
       <c r="B43" s="25" t="s">
         <v>153</v>
       </c>
@@ -7704,12 +7709,12 @@
     <row r="45" spans="2:4">
       <c r="B45" s="27"/>
     </row>
-    <row r="46" spans="2:4" ht="13.8">
+    <row r="46" spans="2:4">
       <c r="B46" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="13.8">
+    <row r="47" spans="2:4" ht="15">
       <c r="B47" s="22" t="s">
         <v>69</v>
       </c>
@@ -7722,7 +7727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15.6">
+    <row r="49" spans="2:4" ht="13.5">
       <c r="B49" s="25" t="s">
         <v>154</v>
       </c>
@@ -7730,12 +7735,12 @@
     <row r="50" spans="2:4">
       <c r="B50" s="27"/>
     </row>
-    <row r="51" spans="2:4" ht="13.8">
+    <row r="51" spans="2:4">
       <c r="B51" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="13.8">
+    <row r="52" spans="2:4" ht="15">
       <c r="B52" s="22" t="s">
         <v>69</v>
       </c>
@@ -7748,7 +7753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="15.6">
+    <row r="54" spans="2:4" ht="13.5">
       <c r="B54" s="25" t="s">
         <v>887</v>
       </c>
@@ -7782,22 +7787,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="42.44140625" customWidth="1"/>
-    <col min="3" max="3" width="74.109375" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="74.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
@@ -7823,7 +7828,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -7843,7 +7848,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -7864,7 +7869,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.2">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -7883,7 +7888,7 @@
         <v>범주 1 ~ 20000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -7902,7 +7907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>3</v>
@@ -7918,7 +7923,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="13.2">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7934,7 +7939,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="13.2">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7950,7 +7955,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="13.2">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7966,7 +7971,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="13.2">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7982,7 +7987,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="13.2">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7998,7 +8003,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8012,7 +8017,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="13.2">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8026,7 +8031,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="13.2">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8040,7 +8045,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8054,7 +8059,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6">
+    <row r="17" spans="1:5" ht="13.5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8068,7 +8073,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="13.8">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8082,7 +8087,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="13.8">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8096,7 +8101,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="13.8">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8977,6 +8982,19 @@
       </c>
       <c r="D82" s="58"/>
       <c r="E82" s="58"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A83" s="58">
+        <v>79</v>
+      </c>
+      <c r="B83" s="111" t="s">
+        <v>984</v>
+      </c>
+      <c r="C83" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8991,21 +9009,21 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>263</v>
       </c>
@@ -9031,7 +9049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -9051,7 +9069,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -9072,7 +9090,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.2">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="40">
         <v>20001</v>
       </c>
@@ -9089,7 +9107,7 @@
         <v>범주 20001 ~ 40000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="6">
         <f>A5+1</f>
         <v>20002</v>
@@ -9107,7 +9125,7 @@
         <v>20001~30000: 캐릭터  /  30001~40000: 몬스터</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A17" si="0">A6+1</f>
         <v>20003</v>
@@ -9124,7 +9142,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.2">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>20004</v>
@@ -9138,7 +9156,7 @@
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:7" ht="13.2">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>20005</v>
@@ -9152,7 +9170,7 @@
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:7" ht="13.2">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>20006</v>
@@ -9166,7 +9184,7 @@
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:7" ht="13.2">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>20007</v>
@@ -9180,7 +9198,7 @@
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:7" ht="13.2">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>20008</v>
@@ -9194,7 +9212,7 @@
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:7" ht="13.2">
+    <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>20009</v>
@@ -9208,7 +9226,7 @@
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="1:7" ht="13.2">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>20010</v>
@@ -9222,7 +9240,7 @@
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="1:7" ht="13.2">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>20011</v>
@@ -9236,7 +9254,7 @@
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:7" ht="13.2">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>20012</v>
@@ -9250,7 +9268,7 @@
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5" ht="13.2">
+    <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>20013</v>
@@ -9264,7 +9282,7 @@
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="1:5" ht="13.8">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="44">
         <v>30001</v>
       </c>
@@ -9277,7 +9295,7 @@
       <c r="D18" s="46"/>
       <c r="E18" s="46"/>
     </row>
-    <row r="19" spans="1:5" ht="13.8">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="46">
         <f>A18+1</f>
         <v>30002</v>
@@ -9291,7 +9309,7 @@
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
     </row>
-    <row r="20" spans="1:5" ht="13.8">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="46">
         <f t="shared" ref="A20:A39" si="1">A19+1</f>
         <v>30003</v>
@@ -9305,7 +9323,7 @@
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
     </row>
-    <row r="21" spans="1:5" ht="13.8">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="46">
         <f t="shared" si="1"/>
         <v>30004</v>
@@ -9319,7 +9337,7 @@
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
     </row>
-    <row r="22" spans="1:5" ht="13.8">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="46">
         <f t="shared" si="1"/>
         <v>30005</v>
@@ -9333,7 +9351,7 @@
       <c r="D22" s="46"/>
       <c r="E22" s="46"/>
     </row>
-    <row r="23" spans="1:5" ht="13.8">
+    <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="46">
         <f t="shared" si="1"/>
         <v>30006</v>
@@ -9347,7 +9365,7 @@
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
     </row>
-    <row r="24" spans="1:5" ht="13.8">
+    <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="46">
         <f t="shared" si="1"/>
         <v>30007</v>
@@ -9361,7 +9379,7 @@
       <c r="D24" s="46"/>
       <c r="E24" s="46"/>
     </row>
-    <row r="25" spans="1:5" ht="13.8">
+    <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="46">
         <f t="shared" si="1"/>
         <v>30008</v>
@@ -9375,7 +9393,7 @@
       <c r="D25" s="46"/>
       <c r="E25" s="46"/>
     </row>
-    <row r="26" spans="1:5" ht="13.8">
+    <row r="26" spans="1:5" ht="12.75">
       <c r="A26" s="46">
         <f t="shared" si="1"/>
         <v>30009</v>
@@ -9389,7 +9407,7 @@
       <c r="D26" s="46"/>
       <c r="E26" s="46"/>
     </row>
-    <row r="27" spans="1:5" ht="13.8">
+    <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="46">
         <f t="shared" si="1"/>
         <v>30010</v>
@@ -9403,7 +9421,7 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
     </row>
-    <row r="28" spans="1:5" ht="13.8">
+    <row r="28" spans="1:5" ht="12.75">
       <c r="A28" s="46">
         <f t="shared" si="1"/>
         <v>30011</v>
@@ -9417,7 +9435,7 @@
       <c r="D28" s="46"/>
       <c r="E28" s="46"/>
     </row>
-    <row r="29" spans="1:5" ht="13.8">
+    <row r="29" spans="1:5" ht="12.75">
       <c r="A29" s="46">
         <f t="shared" si="1"/>
         <v>30012</v>
@@ -9431,7 +9449,7 @@
       <c r="D29" s="46"/>
       <c r="E29" s="46"/>
     </row>
-    <row r="30" spans="1:5" ht="13.8">
+    <row r="30" spans="1:5" ht="12.75">
       <c r="A30" s="46">
         <f t="shared" si="1"/>
         <v>30013</v>
@@ -9445,7 +9463,7 @@
       <c r="D30" s="46"/>
       <c r="E30" s="46"/>
     </row>
-    <row r="31" spans="1:5" ht="13.8">
+    <row r="31" spans="1:5" ht="12.75">
       <c r="A31" s="46">
         <f t="shared" si="1"/>
         <v>30014</v>
@@ -9459,7 +9477,7 @@
       <c r="D31" s="46"/>
       <c r="E31" s="46"/>
     </row>
-    <row r="32" spans="1:5" ht="13.8">
+    <row r="32" spans="1:5" ht="12.75">
       <c r="A32" s="46">
         <f t="shared" si="1"/>
         <v>30015</v>
@@ -9473,7 +9491,7 @@
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
     </row>
-    <row r="33" spans="1:5" ht="13.8">
+    <row r="33" spans="1:5" ht="12.75">
       <c r="A33" s="46">
         <f t="shared" si="1"/>
         <v>30016</v>
@@ -9487,7 +9505,7 @@
       <c r="D33" s="46"/>
       <c r="E33" s="46"/>
     </row>
-    <row r="34" spans="1:5" ht="13.8">
+    <row r="34" spans="1:5" ht="12.75">
       <c r="A34" s="46">
         <f t="shared" si="1"/>
         <v>30017</v>
@@ -9501,7 +9519,7 @@
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
     </row>
-    <row r="35" spans="1:5" ht="13.8">
+    <row r="35" spans="1:5" ht="12.75">
       <c r="A35" s="46">
         <f t="shared" si="1"/>
         <v>30018</v>
@@ -9515,7 +9533,7 @@
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
     </row>
-    <row r="36" spans="1:5" ht="13.8">
+    <row r="36" spans="1:5" ht="12.75">
       <c r="A36" s="46">
         <f t="shared" si="1"/>
         <v>30019</v>
@@ -9529,7 +9547,7 @@
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
     </row>
-    <row r="37" spans="1:5" ht="13.8">
+    <row r="37" spans="1:5" ht="12.75">
       <c r="A37" s="46">
         <f t="shared" si="1"/>
         <v>30020</v>
@@ -9543,7 +9561,7 @@
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
     </row>
-    <row r="38" spans="1:5" ht="13.8">
+    <row r="38" spans="1:5" ht="12.75">
       <c r="A38" s="46">
         <f t="shared" si="1"/>
         <v>30021</v>
@@ -9557,7 +9575,7 @@
       <c r="D38" s="46"/>
       <c r="E38" s="46"/>
     </row>
-    <row r="39" spans="1:5" ht="13.8">
+    <row r="39" spans="1:5" ht="12.75">
       <c r="A39" s="46">
         <f t="shared" si="1"/>
         <v>30022</v>
@@ -9571,7 +9589,7 @@
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
     </row>
-    <row r="40" spans="1:5" ht="13.8">
+    <row r="40" spans="1:5" ht="12.75">
       <c r="A40" s="46">
         <v>35001</v>
       </c>
@@ -9584,7 +9602,7 @@
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
     </row>
-    <row r="41" spans="1:5" ht="13.8">
+    <row r="41" spans="1:5" ht="12.75">
       <c r="A41" s="46">
         <v>35002</v>
       </c>
@@ -9874,17 +9892,17 @@
       <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" customWidth="1"/>
-    <col min="4" max="4" width="71.88671875" customWidth="1"/>
-    <col min="5" max="5" width="75.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" customWidth="1"/>
+    <col min="4" max="4" width="71.85546875" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>264</v>
       </c>
@@ -9893,7 +9911,7 @@
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -9953,7 +9971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6">
+    <row r="5" spans="1:6" ht="13.5">
       <c r="A5" s="39">
         <v>40001</v>
       </c>
@@ -9970,7 +9988,7 @@
         <v>범주 40001 ~ 60000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="13.5">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>40002</v>
@@ -9992,7 +10010,7 @@
         <v>범주 400001 ~ 600000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="13.5">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A27" si="0">A6+1</f>
         <v>40003</v>
@@ -10014,7 +10032,7 @@
         <v>40001~50000: 캐릭터 스킬명  /  50001~60000: 몬스터 스킬명</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="13.5">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>40004</v>
@@ -10036,7 +10054,7 @@
         <v>400001~500000: 캐릭터 스킬 설명 / 500001~600000 몬스터 스킬 설명</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="13.5">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>40005</v>
@@ -10057,7 +10075,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="13.5">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>40006</v>
@@ -10078,7 +10096,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="13.5">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>40007</v>
@@ -10099,7 +10117,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="13.5">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>40008</v>
@@ -10120,7 +10138,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="13.5">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>40009</v>
@@ -10141,7 +10159,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="13.5">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>40010</v>
@@ -10162,7 +10180,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="13.5">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>40011</v>
@@ -10183,7 +10201,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="13.5">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>40012</v>
@@ -10204,7 +10222,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="13.5">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>40013</v>
@@ -10225,7 +10243,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.6">
+    <row r="18" spans="1:6" ht="13.5">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>40014</v>
@@ -10246,7 +10264,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="13.5">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>40015</v>
@@ -10267,7 +10285,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="13.5">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>40016</v>
@@ -10288,7 +10306,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="13.5">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>40017</v>
@@ -10306,7 +10324,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.6">
+    <row r="22" spans="1:6" ht="13.5">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>40018</v>
@@ -10324,7 +10342,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="13.5">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>40019</v>
@@ -10342,7 +10360,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="13.5">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>40020</v>
@@ -10360,7 +10378,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="13.5">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>40021</v>
@@ -10378,7 +10396,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="13.5">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>40022</v>
@@ -10396,7 +10414,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="13.5">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>40023</v>
@@ -10414,7 +10432,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="13.5">
       <c r="A28" s="4">
         <v>4100001</v>
       </c>
@@ -10427,7 +10445,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="13.5">
       <c r="A29" s="4">
         <v>4100002</v>
       </c>
@@ -10440,7 +10458,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="13.5">
       <c r="A30" s="4">
         <v>4100003</v>
       </c>
@@ -10453,7 +10471,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6">
+    <row r="31" spans="1:6" ht="13.5">
       <c r="A31" s="4">
         <v>4100004</v>
       </c>
@@ -10466,7 +10484,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="13.5">
       <c r="A32" s="4">
         <v>4100102</v>
       </c>
@@ -10479,7 +10497,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6">
+    <row r="33" spans="1:5" ht="13.5">
       <c r="A33" s="4">
         <v>4100102</v>
       </c>
@@ -10492,7 +10510,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6">
+    <row r="34" spans="1:5" ht="13.5">
       <c r="A34" s="4">
         <v>4100103</v>
       </c>
@@ -10505,7 +10523,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6">
+    <row r="35" spans="1:5" ht="13.5">
       <c r="A35" s="4">
         <v>4100104</v>
       </c>
@@ -10518,7 +10536,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6">
+    <row r="36" spans="1:5" ht="13.5">
       <c r="A36" s="4">
         <v>4100106</v>
       </c>
@@ -10531,7 +10549,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6">
+    <row r="37" spans="1:5" ht="13.5">
       <c r="A37" s="4">
         <v>4100107</v>
       </c>
@@ -10544,7 +10562,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6">
+    <row r="38" spans="1:5" ht="13.5">
       <c r="A38" s="4">
         <v>4100108</v>
       </c>
@@ -10557,7 +10575,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6">
+    <row r="39" spans="1:5" ht="13.5">
       <c r="A39" s="4">
         <v>4100109</v>
       </c>
@@ -10570,7 +10588,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6">
+    <row r="40" spans="1:5" ht="13.5">
       <c r="A40" s="4">
         <v>4100202</v>
       </c>
@@ -10583,7 +10601,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6">
+    <row r="41" spans="1:5" ht="13.5">
       <c r="A41" s="4">
         <v>4100203</v>
       </c>
@@ -10596,7 +10614,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6">
+    <row r="42" spans="1:5" ht="13.5">
       <c r="A42" s="4">
         <v>4100204</v>
       </c>
@@ -10609,7 +10627,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6">
+    <row r="43" spans="1:5" ht="13.5">
       <c r="A43" s="4">
         <v>4100205</v>
       </c>
@@ -10622,7 +10640,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6">
+    <row r="44" spans="1:5" ht="13.5">
       <c r="A44" s="4">
         <v>4100302</v>
       </c>
@@ -10635,7 +10653,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6">
+    <row r="45" spans="1:5" ht="13.5">
       <c r="A45" s="4">
         <v>4100303</v>
       </c>
@@ -10648,7 +10666,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="15.6">
+    <row r="46" spans="1:5" ht="13.5">
       <c r="A46" s="4">
         <v>4100304</v>
       </c>
@@ -10661,7 +10679,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="15.6">
+    <row r="47" spans="1:5" ht="13.5">
       <c r="A47" s="4">
         <v>4100305</v>
       </c>
@@ -10674,7 +10692,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6">
+    <row r="48" spans="1:5" ht="13.5">
       <c r="A48" s="4">
         <v>4100401</v>
       </c>
@@ -10687,7 +10705,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6">
+    <row r="49" spans="1:5" ht="13.5">
       <c r="A49" s="41">
         <v>4100402</v>
       </c>
@@ -10700,7 +10718,7 @@
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6">
+    <row r="50" spans="1:5" ht="13.5">
       <c r="A50" s="56">
         <v>4100403</v>
       </c>
@@ -10713,7 +10731,7 @@
       <c r="D50" s="78"/>
       <c r="E50" s="78"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6">
+    <row r="51" spans="1:5" ht="13.5">
       <c r="A51" s="41">
         <v>4100404</v>
       </c>
@@ -10726,7 +10744,7 @@
       <c r="D51" s="78"/>
       <c r="E51" s="78"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6">
+    <row r="52" spans="1:5" ht="13.5">
       <c r="A52" s="56">
         <v>4100405</v>
       </c>
@@ -10739,7 +10757,7 @@
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6">
+    <row r="53" spans="1:5" ht="13.5">
       <c r="A53" s="41">
         <v>4100406</v>
       </c>
@@ -10752,7 +10770,7 @@
       <c r="D53" s="78"/>
       <c r="E53" s="78"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6">
+    <row r="54" spans="1:5" ht="13.5">
       <c r="A54" s="56">
         <v>4100502</v>
       </c>
@@ -10765,7 +10783,7 @@
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6">
+    <row r="55" spans="1:5" ht="13.5">
       <c r="A55" s="56">
         <v>4100503</v>
       </c>
@@ -10778,7 +10796,7 @@
       <c r="D55" s="78"/>
       <c r="E55" s="78"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6">
+    <row r="56" spans="1:5" ht="13.5">
       <c r="A56" s="56">
         <v>4100504</v>
       </c>
@@ -10791,7 +10809,7 @@
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6">
+    <row r="57" spans="1:5" ht="13.5">
       <c r="A57" s="56">
         <v>4100602</v>
       </c>
@@ -10804,7 +10822,7 @@
       <c r="D57" s="78"/>
       <c r="E57" s="78"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6">
+    <row r="58" spans="1:5" ht="13.5">
       <c r="A58" s="56">
         <v>4100603</v>
       </c>
@@ -10817,7 +10835,7 @@
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6">
+    <row r="59" spans="1:5" ht="13.5">
       <c r="A59" s="56">
         <v>4100604</v>
       </c>
@@ -10830,7 +10848,7 @@
       <c r="D59" s="78"/>
       <c r="E59" s="78"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6">
+    <row r="60" spans="1:5" ht="13.5">
       <c r="A60" s="56">
         <v>4100605</v>
       </c>
@@ -10843,7 +10861,7 @@
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
     </row>
-    <row r="61" spans="1:5" ht="15.6">
+    <row r="61" spans="1:5" ht="13.5">
       <c r="A61" s="56">
         <v>4100606</v>
       </c>
@@ -10856,7 +10874,7 @@
       <c r="D61" s="78"/>
       <c r="E61" s="78"/>
     </row>
-    <row r="62" spans="1:5" ht="15.6">
+    <row r="62" spans="1:5" ht="13.5">
       <c r="A62" s="56">
         <v>4100607</v>
       </c>
@@ -10869,7 +10887,7 @@
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
     </row>
-    <row r="63" spans="1:5" ht="15.6">
+    <row r="63" spans="1:5" ht="13.5">
       <c r="A63" s="56">
         <v>4100608</v>
       </c>
@@ -11081,21 +11099,21 @@
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="37.5546875" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -11115,7 +11133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -11135,7 +11153,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -11156,7 +11174,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.2">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="40">
         <v>70001</v>
       </c>
@@ -11173,7 +11191,7 @@
         <v>범주 70001 ~ 100000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.2">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="6">
         <f>A5+1</f>
         <v>70002</v>
@@ -11191,7 +11209,7 @@
         <v>70001~아이템 명, 장비 명 80001~90000, 조각 이름 90001~100000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.2">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A31" si="0">A6+1</f>
         <v>70003</v>
@@ -11205,7 +11223,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="13.2">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>70004</v>
@@ -11219,7 +11237,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="13.2">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>70005</v>
@@ -11233,7 +11251,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="13.2">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>70006</v>
@@ -11247,7 +11265,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="13.2">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>70007</v>
@@ -11261,7 +11279,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="13.2">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>70008</v>
@@ -11275,7 +11293,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="13.2">
+    <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>70009</v>
@@ -11289,7 +11307,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="13.2">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>70010</v>
@@ -11303,7 +11321,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="13.2">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>70011</v>
@@ -11317,7 +11335,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="13.2">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>70012</v>
@@ -11331,7 +11349,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="13.2">
+    <row r="17" spans="1:5" ht="12.75">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>70013</v>
@@ -11345,7 +11363,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="13.2">
+    <row r="18" spans="1:5" ht="12.75">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>70014</v>
@@ -11359,7 +11377,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="13.2">
+    <row r="19" spans="1:5" ht="12.75">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>70015</v>
@@ -11373,7 +11391,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="13.2">
+    <row r="20" spans="1:5" ht="12.75">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>70016</v>
@@ -11387,7 +11405,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="13.2">
+    <row r="21" spans="1:5" ht="12.75">
       <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>70017</v>
@@ -11401,7 +11419,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="13.2">
+    <row r="22" spans="1:5" ht="12.75">
       <c r="A22" s="6">
         <f t="shared" si="0"/>
         <v>70018</v>
@@ -11415,7 +11433,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="13.2">
+    <row r="23" spans="1:5" ht="12.75">
       <c r="A23" s="6">
         <f t="shared" si="0"/>
         <v>70019</v>
@@ -11429,7 +11447,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="13.2">
+    <row r="24" spans="1:5" ht="12.75">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>70020</v>
@@ -11443,7 +11461,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="13.2">
+    <row r="25" spans="1:5" ht="12.75">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>70021</v>
@@ -11457,7 +11475,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="13.2">
+    <row r="26" spans="1:5" ht="12.75">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>70022</v>
@@ -11471,7 +11489,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="13.2">
+    <row r="27" spans="1:5" ht="12.75">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>70023</v>
@@ -11485,7 +11503,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="13.2">
+    <row r="28" spans="1:5" ht="12.75">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>70024</v>
@@ -11499,7 +11517,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="13.2">
+    <row r="29" spans="1:5" ht="12.75">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>70025</v>
@@ -11513,7 +11531,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="13.2">
+    <row r="30" spans="1:5" ht="12.75">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>70026</v>
@@ -11527,7 +11545,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="13.2">
+    <row r="31" spans="1:5" ht="12.75">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>70027</v>
@@ -11541,7 +11559,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="13.2">
+    <row r="32" spans="1:5" ht="12.75">
       <c r="A32" s="39">
         <v>80001</v>
       </c>
@@ -11554,7 +11572,7 @@
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2">
+    <row r="33" spans="1:5" ht="12.75">
       <c r="A33" s="38">
         <f>A32+1</f>
         <v>80002</v>
@@ -11568,7 +11586,7 @@
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="1:5" ht="13.2">
+    <row r="34" spans="1:5" ht="12.75">
       <c r="A34" s="38">
         <f t="shared" ref="A34:A55" si="1">A33+1</f>
         <v>80003</v>
@@ -11582,7 +11600,7 @@
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
     </row>
-    <row r="35" spans="1:5" ht="13.2">
+    <row r="35" spans="1:5" ht="12.75">
       <c r="A35" s="38">
         <f t="shared" si="1"/>
         <v>80004</v>
@@ -11596,7 +11614,7 @@
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
     </row>
-    <row r="36" spans="1:5" ht="13.2">
+    <row r="36" spans="1:5" ht="12.75">
       <c r="A36" s="38">
         <f t="shared" si="1"/>
         <v>80005</v>
@@ -11610,7 +11628,7 @@
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
     </row>
-    <row r="37" spans="1:5" ht="13.2">
+    <row r="37" spans="1:5" ht="12.75">
       <c r="A37" s="38">
         <f t="shared" si="1"/>
         <v>80006</v>
@@ -11624,7 +11642,7 @@
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
     </row>
-    <row r="38" spans="1:5" ht="13.2">
+    <row r="38" spans="1:5" ht="12.75">
       <c r="A38" s="38">
         <f t="shared" si="1"/>
         <v>80007</v>
@@ -11638,7 +11656,7 @@
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
     </row>
-    <row r="39" spans="1:5" ht="13.2">
+    <row r="39" spans="1:5" ht="12.75">
       <c r="A39" s="38">
         <f t="shared" si="1"/>
         <v>80008</v>
@@ -11876,7 +11894,7 @@
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
     </row>
-    <row r="56" spans="1:5" ht="13.2">
+    <row r="56" spans="1:5" ht="12.75">
       <c r="A56" s="50">
         <v>90001</v>
       </c>
@@ -11889,7 +11907,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="13.2">
+    <row r="57" spans="1:5" ht="12.75">
       <c r="A57" s="6">
         <f>A56+1</f>
         <v>90002</v>
@@ -11903,7 +11921,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="13.2">
+    <row r="58" spans="1:5" ht="12.75">
       <c r="A58" s="6">
         <f>A57+1</f>
         <v>90003</v>
@@ -11934,16 +11952,16 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.109375" customWidth="1"/>
-    <col min="5" max="5" width="81.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.140625" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>266</v>
       </c>
@@ -11969,7 +11987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2">
+    <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -11989,7 +12007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2">
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -12009,7 +12027,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.8">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -12026,7 +12044,7 @@
         <v>범주 100001 ~ 130000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.8">
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -12039,7 +12057,7 @@
       <c r="D6" s="98"/>
       <c r="E6" s="98"/>
     </row>
-    <row r="7" spans="1:6" ht="13.8">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -12052,7 +12070,7 @@
       <c r="D7" s="98"/>
       <c r="E7" s="98"/>
     </row>
-    <row r="8" spans="1:6" ht="13.8">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -12065,7 +12083,7 @@
       <c r="D8" s="98"/>
       <c r="E8" s="98"/>
     </row>
-    <row r="9" spans="1:6" ht="13.8">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -12078,7 +12096,7 @@
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
     </row>
-    <row r="10" spans="1:6" ht="13.8">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -12091,7 +12109,7 @@
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
     </row>
-    <row r="11" spans="1:6" ht="13.8">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="4">
         <v>100007</v>
       </c>
@@ -12104,7 +12122,7 @@
       <c r="D11" s="98"/>
       <c r="E11" s="98"/>
     </row>
-    <row r="12" spans="1:6" ht="13.8">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="4">
         <v>100008</v>
       </c>
@@ -12117,7 +12135,7 @@
       <c r="D12" s="98"/>
       <c r="E12" s="98"/>
     </row>
-    <row r="13" spans="1:6" ht="13.8">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="4">
         <v>100009</v>
       </c>
@@ -12130,7 +12148,7 @@
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
     </row>
-    <row r="14" spans="1:6" ht="13.8">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="4">
         <v>100010</v>
       </c>
@@ -12143,7 +12161,7 @@
       <c r="D14" s="98"/>
       <c r="E14" s="98"/>
     </row>
-    <row r="15" spans="1:6" ht="13.8">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="4">
         <v>100011</v>
       </c>
@@ -12156,7 +12174,7 @@
       <c r="D15" s="98"/>
       <c r="E15" s="98"/>
     </row>
-    <row r="16" spans="1:6" ht="13.8">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="4">
         <v>100012</v>
       </c>
@@ -12169,7 +12187,7 @@
       <c r="D16" s="98"/>
       <c r="E16" s="98"/>
     </row>
-    <row r="17" spans="1:5" ht="13.8">
+    <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="4">
         <v>100013</v>
       </c>
@@ -12182,7 +12200,7 @@
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
     </row>
-    <row r="18" spans="1:5" ht="13.8">
+    <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="4">
         <v>100014</v>
       </c>
@@ -12195,7 +12213,7 @@
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
     </row>
-    <row r="19" spans="1:5" ht="13.8">
+    <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="4">
         <v>100015</v>
       </c>
@@ -12208,7 +12226,7 @@
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
     </row>
-    <row r="20" spans="1:5" ht="13.8">
+    <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="4">
         <v>100016</v>
       </c>
@@ -12221,7 +12239,7 @@
       <c r="D20" s="98"/>
       <c r="E20" s="98"/>
     </row>
-    <row r="21" spans="1:5" ht="13.8">
+    <row r="21" spans="1:5" ht="14.25">
       <c r="A21" s="4">
         <v>100017</v>
       </c>
@@ -12234,7 +12252,7 @@
       <c r="D21" s="98"/>
       <c r="E21" s="98"/>
     </row>
-    <row r="22" spans="1:5" ht="13.8">
+    <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="4">
         <v>100018</v>
       </c>
@@ -12247,7 +12265,7 @@
       <c r="D22" s="98"/>
       <c r="E22" s="98"/>
     </row>
-    <row r="23" spans="1:5" ht="13.8">
+    <row r="23" spans="1:5" ht="14.25">
       <c r="A23" s="4">
         <v>100019</v>
       </c>
@@ -12260,7 +12278,7 @@
       <c r="D23" s="98"/>
       <c r="E23" s="98"/>
     </row>
-    <row r="24" spans="1:5" ht="13.8">
+    <row r="24" spans="1:5" ht="14.25">
       <c r="A24" s="4">
         <v>100020</v>
       </c>
@@ -12273,7 +12291,7 @@
       <c r="D24" s="98"/>
       <c r="E24" s="98"/>
     </row>
-    <row r="25" spans="1:5" ht="13.8">
+    <row r="25" spans="1:5" ht="14.25">
       <c r="A25" s="4">
         <v>100021</v>
       </c>
@@ -12286,7 +12304,7 @@
       <c r="D25" s="98"/>
       <c r="E25" s="98"/>
     </row>
-    <row r="26" spans="1:5" ht="13.8">
+    <row r="26" spans="1:5" ht="14.25">
       <c r="A26" s="4">
         <v>100022</v>
       </c>
@@ -12299,7 +12317,7 @@
       <c r="D26" s="98"/>
       <c r="E26" s="98"/>
     </row>
-    <row r="27" spans="1:5" ht="13.8">
+    <row r="27" spans="1:5" ht="14.25">
       <c r="A27" s="4">
         <v>100023</v>
       </c>
@@ -12312,7 +12330,7 @@
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
     </row>
-    <row r="28" spans="1:5" ht="13.8">
+    <row r="28" spans="1:5" ht="14.25">
       <c r="A28" s="4">
         <v>100024</v>
       </c>
@@ -12325,7 +12343,7 @@
       <c r="D28" s="101"/>
       <c r="E28" s="101"/>
     </row>
-    <row r="29" spans="1:5" ht="13.8">
+    <row r="29" spans="1:5" ht="14.25">
       <c r="A29" s="4">
         <v>100025</v>
       </c>
@@ -12338,7 +12356,7 @@
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
     </row>
-    <row r="30" spans="1:5" ht="13.8">
+    <row r="30" spans="1:5" ht="14.25">
       <c r="A30" s="4">
         <v>100026</v>
       </c>
@@ -12351,7 +12369,7 @@
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
     </row>
-    <row r="31" spans="1:5" ht="13.8">
+    <row r="31" spans="1:5" ht="14.25">
       <c r="A31" s="4">
         <v>100027</v>
       </c>
@@ -12364,7 +12382,7 @@
       <c r="D31" s="101"/>
       <c r="E31" s="101"/>
     </row>
-    <row r="32" spans="1:5" ht="13.8">
+    <row r="32" spans="1:5" ht="14.25">
       <c r="A32" s="4">
         <v>100028</v>
       </c>
@@ -12377,7 +12395,7 @@
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
     </row>
-    <row r="33" spans="1:5" ht="13.8">
+    <row r="33" spans="1:5" ht="14.25">
       <c r="A33" s="4">
         <v>100029</v>
       </c>
@@ -12390,7 +12408,7 @@
       <c r="D33" s="101"/>
       <c r="E33" s="101"/>
     </row>
-    <row r="34" spans="1:5" ht="13.8">
+    <row r="34" spans="1:5" ht="14.25">
       <c r="A34" s="4">
         <v>100030</v>
       </c>
@@ -12403,7 +12421,7 @@
       <c r="D34" s="101"/>
       <c r="E34" s="101"/>
     </row>
-    <row r="35" spans="1:5" ht="13.8">
+    <row r="35" spans="1:5" ht="14.25">
       <c r="A35" s="4">
         <v>100031</v>
       </c>
@@ -12416,7 +12434,7 @@
       <c r="D35" s="101"/>
       <c r="E35" s="101"/>
     </row>
-    <row r="36" spans="1:5" ht="13.8">
+    <row r="36" spans="1:5" ht="14.25">
       <c r="A36" s="4">
         <v>100032</v>
       </c>
@@ -12429,7 +12447,7 @@
       <c r="D36" s="101"/>
       <c r="E36" s="101"/>
     </row>
-    <row r="37" spans="1:5" ht="13.8">
+    <row r="37" spans="1:5" ht="14.25">
       <c r="A37" s="4">
         <v>100033</v>
       </c>
@@ -12442,7 +12460,7 @@
       <c r="D37" s="101"/>
       <c r="E37" s="101"/>
     </row>
-    <row r="38" spans="1:5" ht="13.8">
+    <row r="38" spans="1:5" ht="14.25">
       <c r="A38" s="4">
         <v>100034</v>
       </c>
@@ -12455,7 +12473,7 @@
       <c r="D38" s="101"/>
       <c r="E38" s="101"/>
     </row>
-    <row r="39" spans="1:5" ht="13.8">
+    <row r="39" spans="1:5" ht="14.25">
       <c r="A39" s="4">
         <v>100035</v>
       </c>
@@ -12468,7 +12486,7 @@
       <c r="D39" s="101"/>
       <c r="E39" s="101"/>
     </row>
-    <row r="40" spans="1:5" ht="13.8">
+    <row r="40" spans="1:5" ht="14.25">
       <c r="A40" s="4">
         <v>100036</v>
       </c>
@@ -12481,7 +12499,7 @@
       <c r="D40" s="101"/>
       <c r="E40" s="101"/>
     </row>
-    <row r="41" spans="1:5" ht="13.8">
+    <row r="41" spans="1:5" ht="14.25">
       <c r="A41" s="4">
         <v>100037</v>
       </c>
@@ -12494,7 +12512,7 @@
       <c r="D41" s="101"/>
       <c r="E41" s="101"/>
     </row>
-    <row r="42" spans="1:5" ht="13.8">
+    <row r="42" spans="1:5" ht="14.25">
       <c r="A42" s="4">
         <v>100038</v>
       </c>
@@ -12507,7 +12525,7 @@
       <c r="D42" s="101"/>
       <c r="E42" s="101"/>
     </row>
-    <row r="43" spans="1:5" ht="13.8">
+    <row r="43" spans="1:5" ht="14.25">
       <c r="A43" s="4">
         <v>100039</v>
       </c>
@@ -12520,7 +12538,7 @@
       <c r="D43" s="101"/>
       <c r="E43" s="101"/>
     </row>
-    <row r="44" spans="1:5" ht="13.8">
+    <row r="44" spans="1:5" ht="14.25">
       <c r="A44" s="4">
         <v>100040</v>
       </c>
@@ -12533,7 +12551,7 @@
       <c r="D44" s="101"/>
       <c r="E44" s="101"/>
     </row>
-    <row r="45" spans="1:5" ht="13.8">
+    <row r="45" spans="1:5" ht="14.25">
       <c r="A45" s="4">
         <v>100041</v>
       </c>
@@ -12546,7 +12564,7 @@
       <c r="D45" s="101"/>
       <c r="E45" s="101"/>
     </row>
-    <row r="46" spans="1:5" ht="13.8">
+    <row r="46" spans="1:5" ht="14.25">
       <c r="A46" s="4">
         <v>100042</v>
       </c>
@@ -12559,7 +12577,7 @@
       <c r="D46" s="101"/>
       <c r="E46" s="101"/>
     </row>
-    <row r="47" spans="1:5" ht="13.8">
+    <row r="47" spans="1:5" ht="14.25">
       <c r="A47" s="4">
         <v>100043</v>
       </c>
@@ -12572,7 +12590,7 @@
       <c r="D47" s="101"/>
       <c r="E47" s="101"/>
     </row>
-    <row r="48" spans="1:5" ht="13.8">
+    <row r="48" spans="1:5" ht="14.25">
       <c r="A48" s="4">
         <v>100044</v>
       </c>
@@ -12585,7 +12603,7 @@
       <c r="D48" s="101"/>
       <c r="E48" s="101"/>
     </row>
-    <row r="49" spans="1:5" ht="13.8">
+    <row r="49" spans="1:5" ht="14.25">
       <c r="A49" s="4">
         <v>100045</v>
       </c>
@@ -12598,7 +12616,7 @@
       <c r="D49" s="101"/>
       <c r="E49" s="101"/>
     </row>
-    <row r="50" spans="1:5" ht="13.8">
+    <row r="50" spans="1:5" ht="14.25">
       <c r="A50" s="4">
         <v>100046</v>
       </c>
@@ -12611,7 +12629,7 @@
       <c r="D50" s="101"/>
       <c r="E50" s="101"/>
     </row>
-    <row r="51" spans="1:5" ht="13.8">
+    <row r="51" spans="1:5" ht="14.25">
       <c r="A51" s="4">
         <v>100047</v>
       </c>
@@ -12624,7 +12642,7 @@
       <c r="D51" s="101"/>
       <c r="E51" s="101"/>
     </row>
-    <row r="52" spans="1:5" ht="13.8">
+    <row r="52" spans="1:5" ht="14.25">
       <c r="A52" s="4">
         <v>100048</v>
       </c>
@@ -12637,7 +12655,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="1:5" ht="13.8">
+    <row r="53" spans="1:5" ht="14.25">
       <c r="A53" s="4">
         <v>100049</v>
       </c>
@@ -12650,7 +12668,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:5" ht="13.8">
+    <row r="54" spans="1:5" ht="14.25">
       <c r="A54" s="4">
         <v>100050</v>
       </c>
@@ -12663,7 +12681,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="13.8">
+    <row r="55" spans="1:5" ht="14.25">
       <c r="A55" s="4">
         <v>100051</v>
       </c>
@@ -12676,7 +12694,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="13.8">
+    <row r="56" spans="1:5" ht="14.25">
       <c r="A56" s="4">
         <v>100052</v>
       </c>
@@ -12689,7 +12707,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="13.8">
+    <row r="57" spans="1:5" ht="14.25">
       <c r="A57" s="4">
         <v>100053</v>
       </c>
@@ -12702,7 +12720,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="1:5" ht="13.8">
+    <row r="58" spans="1:5" ht="14.25">
       <c r="A58" s="4">
         <v>100054</v>
       </c>
@@ -12715,7 +12733,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="13.8">
+    <row r="59" spans="1:5" ht="14.25">
       <c r="A59" s="4">
         <v>100055</v>
       </c>
@@ -12728,7 +12746,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="1:5" ht="13.8">
+    <row r="60" spans="1:5" ht="14.25">
       <c r="A60" s="4">
         <v>100056</v>
       </c>
@@ -12741,7 +12759,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="1:5" ht="13.8">
+    <row r="61" spans="1:5" ht="14.25">
       <c r="A61" s="4">
         <v>100057</v>
       </c>
@@ -12754,7 +12772,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="1:5" ht="13.8">
+    <row r="62" spans="1:5" ht="14.25">
       <c r="A62" s="4">
         <v>100058</v>
       </c>
@@ -12767,7 +12785,7 @@
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="1:5" ht="13.8">
+    <row r="63" spans="1:5" ht="14.25">
       <c r="A63" s="4">
         <v>100059</v>
       </c>
@@ -12780,7 +12798,7 @@
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
     </row>
-    <row r="64" spans="1:5" ht="13.8">
+    <row r="64" spans="1:5" ht="14.25">
       <c r="A64" s="4">
         <v>100060</v>
       </c>
@@ -12793,7 +12811,7 @@
       <c r="D64" s="105"/>
       <c r="E64" s="105"/>
     </row>
-    <row r="65" spans="1:5" ht="13.8">
+    <row r="65" spans="1:5" ht="14.25">
       <c r="A65" s="4">
         <v>100061</v>
       </c>
@@ -12806,7 +12824,7 @@
       <c r="D65" s="105"/>
       <c r="E65" s="105"/>
     </row>
-    <row r="66" spans="1:5" ht="13.8">
+    <row r="66" spans="1:5" ht="14.25">
       <c r="A66" s="4">
         <v>100062</v>
       </c>
@@ -12819,7 +12837,7 @@
       <c r="D66" s="105"/>
       <c r="E66" s="105"/>
     </row>
-    <row r="67" spans="1:5" ht="13.8">
+    <row r="67" spans="1:5" ht="14.25">
       <c r="A67" s="4">
         <v>100063</v>
       </c>
@@ -12950,13 +12968,13 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.109375" customWidth="1"/>
-    <col min="5" max="5" width="81.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.140625" customWidth="1"/>
+    <col min="5" max="5" width="81.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12965,7 +12983,7 @@
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6">
+    <row r="2" spans="1:6" ht="13.5">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -13969,16 +13987,16 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="4" width="87" customWidth="1"/>
     <col min="5" max="5" width="73" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2">
+    <row r="1" spans="1:6" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
@@ -14004,7 +14022,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2">
+    <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -14024,7 +14042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2">
+    <row r="4" spans="1:6" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -14044,7 +14062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="65" customFormat="1" ht="31.2">
+    <row r="5" spans="1:6" s="65" customFormat="1" ht="27">
       <c r="A5" s="60">
         <v>130001</v>
       </c>
@@ -14061,7 +14079,7 @@
         <v>범주 130001 ~ 160000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="65" customFormat="1" ht="13.2">
+    <row r="6" spans="1:6" s="65" customFormat="1" ht="12.75">
       <c r="A6" s="60">
         <v>130002</v>
       </c>
@@ -14074,7 +14092,7 @@
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
     </row>
-    <row r="7" spans="1:6" s="65" customFormat="1" ht="13.2">
+    <row r="7" spans="1:6" s="65" customFormat="1" ht="12.75">
       <c r="A7" s="60">
         <v>130003</v>
       </c>
@@ -14087,7 +14105,7 @@
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
     </row>
-    <row r="8" spans="1:6" s="65" customFormat="1" ht="15.6">
+    <row r="8" spans="1:6" s="65" customFormat="1" ht="13.5">
       <c r="A8" s="60">
         <v>130004</v>
       </c>
@@ -14100,7 +14118,7 @@
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
     </row>
-    <row r="9" spans="1:6" s="65" customFormat="1" ht="15.6">
+    <row r="9" spans="1:6" s="65" customFormat="1" ht="13.5">
       <c r="A9" s="60">
         <v>130005</v>
       </c>
@@ -14113,98 +14131,98 @@
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
     </row>
-    <row r="10" spans="1:6" s="65" customFormat="1" ht="13.2">
+    <row r="10" spans="1:6" s="65" customFormat="1" ht="12.75">
       <c r="A10" s="60"/>
       <c r="B10" s="60"/>
       <c r="C10" s="67"/>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
     </row>
-    <row r="11" spans="1:6" s="65" customFormat="1" ht="13.2">
+    <row r="11" spans="1:6" s="65" customFormat="1" ht="12.75">
       <c r="A11" s="60"/>
       <c r="B11" s="60"/>
       <c r="C11" s="67"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
     </row>
-    <row r="12" spans="1:6" s="65" customFormat="1" ht="13.2">
+    <row r="12" spans="1:6" s="65" customFormat="1" ht="12.75">
       <c r="A12" s="60"/>
       <c r="B12" s="60"/>
       <c r="C12" s="67"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
     </row>
-    <row r="13" spans="1:6" s="65" customFormat="1" ht="13.2">
+    <row r="13" spans="1:6" s="65" customFormat="1" ht="12.75">
       <c r="A13" s="60"/>
       <c r="B13" s="60"/>
       <c r="C13" s="67"/>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
     </row>
-    <row r="14" spans="1:6" s="65" customFormat="1" ht="13.2">
+    <row r="14" spans="1:6" s="65" customFormat="1" ht="12.75">
       <c r="A14" s="60"/>
       <c r="B14" s="60"/>
       <c r="C14" s="67"/>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
     </row>
-    <row r="15" spans="1:6" s="65" customFormat="1" ht="13.2">
+    <row r="15" spans="1:6" s="65" customFormat="1" ht="12.75">
       <c r="A15" s="60"/>
       <c r="B15" s="60"/>
       <c r="C15" s="67"/>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
     </row>
-    <row r="16" spans="1:6" s="65" customFormat="1" ht="13.2">
+    <row r="16" spans="1:6" s="65" customFormat="1" ht="12.75">
       <c r="A16" s="60"/>
       <c r="B16" s="60"/>
       <c r="C16" s="67"/>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
     </row>
-    <row r="17" spans="1:5" s="65" customFormat="1" ht="13.2">
+    <row r="17" spans="1:5" s="65" customFormat="1" ht="12.75">
       <c r="A17" s="60"/>
       <c r="B17" s="60"/>
       <c r="C17" s="67"/>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
     </row>
-    <row r="18" spans="1:5" s="65" customFormat="1" ht="13.2">
+    <row r="18" spans="1:5" s="65" customFormat="1" ht="12.75">
       <c r="A18" s="60"/>
       <c r="B18" s="60"/>
       <c r="C18" s="67"/>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
     </row>
-    <row r="19" spans="1:5" s="65" customFormat="1" ht="13.2">
+    <row r="19" spans="1:5" s="65" customFormat="1" ht="12.75">
       <c r="A19" s="60"/>
       <c r="B19" s="60"/>
       <c r="C19" s="67"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
     </row>
-    <row r="20" spans="1:5" s="65" customFormat="1" ht="13.2">
+    <row r="20" spans="1:5" s="65" customFormat="1" ht="12.75">
       <c r="A20" s="60"/>
       <c r="B20" s="60"/>
       <c r="C20" s="67"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
     </row>
-    <row r="21" spans="1:5" s="65" customFormat="1" ht="13.2">
+    <row r="21" spans="1:5" s="65" customFormat="1" ht="12.75">
       <c r="A21" s="60"/>
       <c r="B21" s="60"/>
       <c r="C21" s="67"/>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
     </row>
-    <row r="22" spans="1:5" s="65" customFormat="1" ht="13.2">
+    <row r="22" spans="1:5" s="65" customFormat="1" ht="12.75">
       <c r="A22" s="60"/>
       <c r="B22" s="60"/>
       <c r="C22" s="67"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
     </row>
-    <row r="23" spans="1:5" s="65" customFormat="1" ht="13.2">
+    <row r="23" spans="1:5" s="65" customFormat="1" ht="12.75">
       <c r="A23" s="60"/>
       <c r="B23" s="60"/>
       <c r="C23" s="67"/>
@@ -14228,16 +14246,16 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="6" max="6" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.2">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>268</v>
       </c>
@@ -14263,7 +14281,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.2">
+    <row r="3" spans="1:7" ht="12.75">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -14283,7 +14301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.2">
+    <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -14304,7 +14322,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="13.8">
+    <row r="5" spans="1:7" ht="12.75">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -14319,7 +14337,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.8">
+    <row r="6" spans="1:7" ht="12.75">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -14334,7 +14352,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8">
+    <row r="7" spans="1:7" ht="12.75">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A65" si="0">A6+1</f>
         <v>3</v>
@@ -14349,7 +14367,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.8">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -14364,7 +14382,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8">
+    <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -14379,7 +14397,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.8">
+    <row r="10" spans="1:7" ht="12.75">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -14392,7 +14410,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="51"/>
     </row>
-    <row r="11" spans="1:7" ht="13.8">
+    <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -14405,7 +14423,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="51"/>
     </row>
-    <row r="12" spans="1:7" ht="13.8">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -14418,7 +14436,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="51"/>
     </row>
-    <row r="13" spans="1:7" ht="13.8">
+    <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -14431,7 +14449,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="51"/>
     </row>
-    <row r="14" spans="1:7" ht="13.8">
+    <row r="14" spans="1:7" ht="12.75">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14444,7 +14462,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="51"/>
     </row>
-    <row r="15" spans="1:7" ht="13.8">
+    <row r="15" spans="1:7" ht="12.75">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14457,7 +14475,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="51"/>
     </row>
-    <row r="16" spans="1:7" ht="13.8">
+    <row r="16" spans="1:7" ht="12.75">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14470,7 +14488,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="51"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8">
+    <row r="17" spans="1:6" ht="12.75">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14483,7 +14501,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="51"/>
     </row>
-    <row r="18" spans="1:6" ht="13.8">
+    <row r="18" spans="1:6" ht="12.75">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -14496,7 +14514,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="51"/>
     </row>
-    <row r="19" spans="1:6" ht="13.8">
+    <row r="19" spans="1:6" ht="12.75">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -14509,7 +14527,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="51"/>
     </row>
-    <row r="20" spans="1:6" ht="13.8">
+    <row r="20" spans="1:6" ht="12.75">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -14522,7 +14540,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="51"/>
     </row>
-    <row r="21" spans="1:6" ht="13.8">
+    <row r="21" spans="1:6" ht="12.75">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -14535,7 +14553,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="51"/>
     </row>
-    <row r="22" spans="1:6" ht="13.8">
+    <row r="22" spans="1:6" ht="12.75">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -14548,7 +14566,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="51"/>
     </row>
-    <row r="23" spans="1:6" ht="13.8">
+    <row r="23" spans="1:6" ht="12.75">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -14561,7 +14579,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="51"/>
     </row>
-    <row r="24" spans="1:6" ht="13.8">
+    <row r="24" spans="1:6" ht="12.75">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -14574,7 +14592,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="51"/>
     </row>
-    <row r="25" spans="1:6" ht="13.8">
+    <row r="25" spans="1:6" ht="12.75">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -14587,7 +14605,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="51"/>
     </row>
-    <row r="26" spans="1:6" ht="13.8">
+    <row r="26" spans="1:6" ht="12.75">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -14600,7 +14618,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="51"/>
     </row>
-    <row r="27" spans="1:6" ht="13.8">
+    <row r="27" spans="1:6" ht="12.75">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>23</v>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA138B8-ABA8-4877-8656-742ED5BA71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7628C13-3C6B-4629-834F-8F779914779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40440" yWindow="1320" windowWidth="36135" windowHeight="19395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="988">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -6407,7 +6407,17 @@
     <t>monster_name_0022</t>
   </si>
   <si>
+    <t>보유한 전달 횟수가 부족하여 근원 전달을 종료합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>system_stat_battlepower</t>
+  </si>
+  <si>
+    <t>전투력</t>
+  </si>
+  <si>
+    <t>system_notice_quit_essence_not_enough_point</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7077,7 +7087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7237,7 +7247,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7787,15 +7796,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
     <col min="3" max="3" width="74.140625" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
@@ -8984,17 +8993,30 @@
       <c r="E82" s="58"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A83" s="58">
+      <c r="A83" s="56">
         <v>79</v>
       </c>
-      <c r="B83" s="111" t="s">
-        <v>984</v>
-      </c>
-      <c r="C83" s="72" t="s">
-        <v>225</v>
+      <c r="B83" s="93" t="s">
+        <v>985</v>
+      </c>
+      <c r="C83" s="94" t="s">
+        <v>986</v>
       </c>
       <c r="D83" s="58"/>
       <c r="E83" s="58"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A84" s="56">
+        <v>80</v>
+      </c>
+      <c r="B84" s="93" t="s">
+        <v>987</v>
+      </c>
+      <c r="C84" s="59" t="s">
+        <v>984</v>
+      </c>
+      <c r="D84" s="58"/>
+      <c r="E84" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7628C13-3C6B-4629-834F-8F779914779D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36792FA9-8BDF-46F4-B48B-E5D688F68F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="1005" windowWidth="30510" windowHeight="19395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="992">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -6418,6 +6418,22 @@
   </si>
   <si>
     <t>system_notice_quit_essence_not_enough_point</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_information_essense_guide</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_notice_complete_sending_essence</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 전달 완료</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원전달 가능한 곳을 찾아보세요.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6425,7 +6441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="60">
+  <fonts count="61">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6853,6 +6869,13 @@
       <name val="Arial Unicode MS"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -7087,7 +7110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7247,6 +7270,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7796,10 +7822,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9017,6 +9043,32 @@
       </c>
       <c r="D84" s="58"/>
       <c r="E84" s="58"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A85" s="56">
+        <v>81</v>
+      </c>
+      <c r="B85" s="57" t="s">
+        <v>988</v>
+      </c>
+      <c r="C85" s="108" t="s">
+        <v>991</v>
+      </c>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A86" s="111">
+        <v>82</v>
+      </c>
+      <c r="B86" s="112" t="s">
+        <v>989</v>
+      </c>
+      <c r="C86" s="113" t="s">
+        <v>990</v>
+      </c>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36792FA9-8BDF-46F4-B48B-E5D688F68F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6A84C-6BD0-49F3-A540-FC59B487A0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="1005" windowWidth="30510" windowHeight="19395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6433,7 +6433,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>근원전달 가능한 곳을 찾아보세요.</t>
+    <t>스팟을 찾아보세요.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7110,7 +7110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7270,8 +7270,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -7825,7 +7824,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -9058,13 +9057,13 @@
       <c r="E85" s="58"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A86" s="111">
+      <c r="A86" s="56">
         <v>82</v>
       </c>
-      <c r="B86" s="112" t="s">
+      <c r="B86" s="111" t="s">
         <v>989</v>
       </c>
-      <c r="C86" s="113" t="s">
+      <c r="C86" s="112" t="s">
         <v>990</v>
       </c>
       <c r="D86" s="58"/>

--- a/Android/ExcelData/StringTable.xlsx
+++ b/Android/ExcelData/StringTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\프로그램 SVN\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158690B7-10D9-4F32-8A9C-3E32FA279C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9741280E-BA4E-4C27-9B3A-F923698223A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2988" yWindow="756" windowWidth="25524" windowHeight="16368" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!_ID_RULE" sheetId="7" r:id="rId1"/>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="1138">
   <si>
     <t>범주 1 ~ 20000</t>
   </si>
@@ -5947,21 +5947,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">35001~: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
-      </rPr>
-      <t>몬스터 설명</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>monster_desc_0001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -6453,23 +6438,101 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">75001~: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+    <t>item_desc_p_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_p_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_c_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_sta_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0001</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0002</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0003</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0004</t>
+  </si>
+  <si>
+    <t>item_desc_skill_exp_potion_0005</t>
+  </si>
+  <si>
+    <t>item_desc_love_item_0001</t>
+  </si>
+  <si>
+    <t>item_desc_love_item_0002</t>
+  </si>
+  <si>
+    <t>item_desc_love_item_0003</t>
+  </si>
+  <si>
+    <t>item_desc_stage_skip_ticket_0001</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_0001</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_0002</t>
+  </si>
+  <si>
+    <t>item_desc_eq_growup_0003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>아이템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>경험치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -6479,137 +6542,76 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>설명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>물약</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  / 85001~: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>_P(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>장비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>설명</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0001</t>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0002</t>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_desc_p_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0001</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0002</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_desc_c_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0001</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0002</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0003</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0004</t>
-  </si>
-  <si>
-    <t>item_desc_sta_potion_0005</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0001</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0002</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0003</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0004</t>
-  </si>
-  <si>
-    <t>item_desc_skill_exp_potion_0005</t>
-  </si>
-  <si>
-    <t>item_desc_love_item_0001</t>
-  </si>
-  <si>
-    <t>item_desc_love_item_0002</t>
-  </si>
-  <si>
-    <t>item_desc_love_item_0003</t>
-  </si>
-  <si>
-    <t>item_desc_stage_skip_ticket_0001</t>
-  </si>
-  <si>
-    <t>item_desc_eq_growup_0001</t>
-  </si>
-  <si>
-    <t>item_desc_eq_growup_0002</t>
-  </si>
-  <si>
-    <t>item_desc_eq_growup_0003</t>
-  </si>
-  <si>
+      <t>경험치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6618,7 +6620,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -6628,7 +6630,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_P(</t>
     </r>
     <r>
       <rPr>
@@ -6638,7 +6640,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>중</t>
     </r>
     <r>
       <rPr>
@@ -6648,8 +6650,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_P(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6658,7 +6683,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>소</t>
+      <t>경험치</t>
     </r>
     <r>
       <rPr>
@@ -6668,21 +6693,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6691,7 +6703,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -6701,7 +6713,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_P(</t>
     </r>
     <r>
       <rPr>
@@ -6711,7 +6723,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>대</t>
     </r>
     <r>
       <rPr>
@@ -6721,8 +6733,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_P(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6731,7 +6766,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>중</t>
+      <t>경험치</t>
     </r>
     <r>
       <rPr>
@@ -6741,31 +6776,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6774,7 +6786,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -6784,7 +6796,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_P(</t>
     </r>
     <r>
       <rPr>
@@ -6794,7 +6806,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>특대</t>
     </r>
     <r>
       <rPr>
@@ -6804,8 +6816,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_P(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6814,7 +6849,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>대</t>
+      <t>경험치</t>
     </r>
     <r>
       <rPr>
@@ -6824,31 +6859,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6857,7 +6869,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -6867,7 +6879,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_P(</t>
     </r>
     <r>
       <rPr>
@@ -6877,7 +6889,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>극대</t>
     </r>
     <r>
       <rPr>
@@ -6887,8 +6899,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_P(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6897,7 +6932,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>특대</t>
+      <t>경험치</t>
     </r>
     <r>
       <rPr>
@@ -6907,31 +6942,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6940,7 +6952,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -6950,7 +6962,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_C(</t>
     </r>
     <r>
       <rPr>
@@ -6960,7 +6972,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>소</t>
     </r>
     <r>
       <rPr>
@@ -6970,8 +6982,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_P(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -6980,7 +7015,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>극대</t>
+      <t>경험치</t>
     </r>
     <r>
       <rPr>
@@ -6990,31 +7025,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7023,7 +7035,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -7033,7 +7045,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_C(</t>
     </r>
     <r>
       <rPr>
@@ -7043,7 +7055,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>중</t>
     </r>
     <r>
       <rPr>
@@ -7053,8 +7065,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_C(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7063,7 +7098,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>소</t>
+      <t>경험치</t>
     </r>
     <r>
       <rPr>
@@ -7073,31 +7108,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7106,7 +7118,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -7116,7 +7128,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_C(</t>
     </r>
     <r>
       <rPr>
@@ -7126,7 +7138,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>대</t>
     </r>
     <r>
       <rPr>
@@ -7136,8 +7148,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_C(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7146,7 +7181,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>중</t>
+      <t>경험치</t>
     </r>
     <r>
       <rPr>
@@ -7156,31 +7191,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7189,7 +7201,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -7199,7 +7211,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_C(</t>
     </r>
     <r>
       <rPr>
@@ -7209,7 +7221,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>특대</t>
     </r>
     <r>
       <rPr>
@@ -7219,8 +7231,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_C(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7229,7 +7264,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>대</t>
+      <t>경험치</t>
     </r>
     <r>
       <rPr>
@@ -7239,31 +7274,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7272,7 +7284,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -7282,7 +7294,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>_C(</t>
     </r>
     <r>
       <rPr>
@@ -7292,7 +7304,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>극대</t>
     </r>
     <r>
       <rPr>
@@ -7302,8 +7314,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_C(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7312,7 +7347,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>특대</t>
+      <t>스테미너</t>
     </r>
     <r>
       <rPr>
@@ -7322,31 +7357,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7355,7 +7367,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경험치</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -7365,7 +7377,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -7375,7 +7387,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>소</t>
     </r>
     <r>
       <rPr>
@@ -7385,8 +7397,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_C(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7395,7 +7430,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>극대</t>
+      <t>스테미너</t>
     </r>
     <r>
       <rPr>
@@ -7405,31 +7440,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7438,7 +7450,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스테미너</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -7448,7 +7460,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -7458,7 +7470,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>중</t>
     </r>
     <r>
       <rPr>
@@ -7468,8 +7480,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7478,7 +7513,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>소</t>
+      <t>스테미너</t>
     </r>
     <r>
       <rPr>
@@ -7488,31 +7523,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7521,7 +7533,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스테미너</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -7531,7 +7543,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -7541,7 +7553,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>대</t>
     </r>
     <r>
       <rPr>
@@ -7551,8 +7563,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7561,7 +7596,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>중</t>
+      <t>스테미너</t>
     </r>
     <r>
       <rPr>
@@ -7571,31 +7606,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7604,7 +7616,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스테미너</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -7614,7 +7626,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -7624,7 +7636,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>특대</t>
     </r>
     <r>
       <rPr>
@@ -7634,8 +7646,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7644,7 +7680,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>대</t>
+      <t>스테미너</t>
     </r>
     <r>
       <rPr>
@@ -7654,31 +7690,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7687,7 +7700,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스테미너</t>
+      <t>물약</t>
     </r>
     <r>
       <rPr>
@@ -7697,7 +7710,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -7707,7 +7720,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>극대</t>
     </r>
     <r>
       <rPr>
@@ -7717,8 +7730,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
-    </r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7727,6 +7763,295 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>전투</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>특대</t>
     </r>
     <r>
@@ -7743,23 +8068,709 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전투</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보고서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>극대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>츄러스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와플</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>케이크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시나리오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티켓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하급</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정령석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중급</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정련석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상급</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정련석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>_desc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터, 아이템 등의 설명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_itemgoods_quantity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 수량 : {0}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 조각</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 조각이다. 일정 개수를 모으면 숨겨진 힘이 해방된다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_desc_character_piece</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_characeter_piece</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_name_equipment_piece</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>system_desc_equipment_piece</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} 조각</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 조각. 일정 개수를 모아 변환할 수 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">75001~: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  / 85001~: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  /  95001~: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+      <t>조각 설명</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_desc_equipment_0001</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0002</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0003</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0004</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0005</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0006</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0007</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0008</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0009</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0010</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0011</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0012</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0013</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0014</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0015</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0016</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0017</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0018</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0019</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0020</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0021</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0022</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0023</t>
+  </si>
+  <si>
+    <t>item_desc_equipment_0024</t>
+  </si>
+  <si>
+    <t>나무로 만든 단검이다</t>
+  </si>
+  <si>
+    <t>나무로 만든 한손검이다</t>
+  </si>
+  <si>
+    <t>나무로 만든 양손검이다</t>
+  </si>
+  <si>
+    <t>나무로 만든 장창이다</t>
+  </si>
+  <si>
+    <t>나무로 만든 글로브다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 도끼다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 활이다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 지팡이다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 완드다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>낡아버린 책이다.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -7771,7 +8782,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스테미너</t>
+      <t>낡아버린</t>
     </r>
     <r>
       <rPr>
@@ -7791,7 +8802,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>물약</t>
+      <t>가죽</t>
     </r>
     <r>
       <rPr>
@@ -7801,7 +8812,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -7811,37 +8822,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>극대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t>갑옷이다.</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -7854,7 +8835,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>전투</t>
+      <t>낡아버린</t>
     </r>
     <r>
       <rPr>
@@ -7874,7 +8855,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>보고서</t>
+      <t>사슬</t>
     </r>
     <r>
       <rPr>
@@ -7884,7 +8865,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -7894,17 +8875,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t>갑옷</t>
     </r>
     <r>
       <rPr>
@@ -7914,17 +8885,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t>이다.</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -7937,7 +8898,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>전투</t>
+      <t>낡아버린</t>
     </r>
     <r>
       <rPr>
@@ -7957,7 +8918,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>보고서</t>
+      <t>판금</t>
     </r>
     <r>
       <rPr>
@@ -7967,7 +8928,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -7977,17 +8938,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t>갑옷</t>
     </r>
     <r>
       <rPr>
@@ -7997,17 +8948,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t>이다.</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8020,7 +8961,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>전투</t>
+      <t>낡아버린</t>
     </r>
     <r>
       <rPr>
@@ -8040,7 +8981,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>보고서</t>
+      <t>천</t>
     </r>
     <r>
       <rPr>
@@ -8050,7 +8991,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -8060,17 +9001,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t>신발</t>
     </r>
     <r>
       <rPr>
@@ -8080,17 +9011,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t>이다.</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8103,7 +9024,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>전투</t>
+      <t>낡아버린</t>
     </r>
     <r>
       <rPr>
@@ -8123,7 +9044,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>보고서</t>
+      <t>가죽</t>
     </r>
     <r>
       <rPr>
@@ -8133,7 +9054,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -8143,17 +9064,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>특대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t>신발</t>
     </r>
     <r>
       <rPr>
@@ -8163,17 +9074,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t>이다.</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8186,7 +9087,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>전투</t>
+      <t>낡아버린</t>
     </r>
     <r>
       <rPr>
@@ -8206,7 +9107,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>보고서</t>
+      <t>사슬</t>
     </r>
     <r>
       <rPr>
@@ -8216,7 +9117,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -8226,37 +9127,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>극대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t>신발이다.</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -8269,17 +9140,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>츄러스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
+      <t>낡아버린</t>
     </r>
     <r>
       <rPr>
@@ -8289,11 +9150,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -8302,17 +9160,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>와플</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
+      <t>판금</t>
     </r>
     <r>
       <rPr>
@@ -8322,11 +9170,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -8335,18 +9180,33 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>베리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>신발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이다.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>구리로 만든 반지이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉성한 반지이다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 반지이다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -8355,31 +9215,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>케이크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
+      <t>구리로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -8388,15 +9234,14 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>시나리오</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+      <t>만든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8408,15 +9253,118 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스킵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+      <t>목걸이이다.</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉성한 목걸이이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무로 만든 목걸이이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>25001~: 캐릭터 설명  /  35001: 몬스터 설명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_desc_0001</t>
+  </si>
+  <si>
+    <t>character_desc_0002</t>
+  </si>
+  <si>
+    <t>character_desc_0003</t>
+  </si>
+  <si>
+    <t>character_desc_0004</t>
+  </si>
+  <si>
+    <t>character_desc_0005</t>
+  </si>
+  <si>
+    <t>character_desc_0006</t>
+  </si>
+  <si>
+    <t>character_desc_0007</t>
+  </si>
+  <si>
+    <t>character_desc_0008</t>
+  </si>
+  <si>
+    <t>character_desc_0009</t>
+  </si>
+  <si>
+    <t>character_desc_0010</t>
+  </si>
+  <si>
+    <t>character_desc_0011</t>
+  </si>
+  <si>
+    <t>character_desc_0012</t>
+  </si>
+  <si>
+    <t>character_desc_0013</t>
+  </si>
+  <si>
+    <t>시스터 루시아이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>보라머리 라일라이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍둥이 바이올렛이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍둥이 데이지이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족 클레어이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>여주인공 에일린이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주를 좋아하는 마네이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼 츠키이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 엘리자베스이다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 루시아</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -8424,215 +9372,34 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>티켓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하급</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정령석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중급</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정련석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상급</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정련석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>_desc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터, 아이템 등의 설명</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_itemgoods_quantity</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>보유 수량 : {0}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+      <t>라일라</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 클레어</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 정령석의 조각이다. 조각을 모아 하급 정령석을 만들 수 있다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 정령석의 조각이다. 조각을 모아 중급 정령석을 만들 수 있다.</t>
+  </si>
+  <si>
+    <t>상급 정령석의 조각이다. 조각을 모아 상급 정령석을 만들 수 있다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="62">
+  <fonts count="64">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9074,6 +9841,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -9308,7 +10088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -9471,6 +10251,13 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="59" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9686,28 +10473,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EFF124-ACE2-4719-AA18-3ED5E3FDF9E4}">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="27"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="28" width="9.140625" style="27"/>
+    <col min="1" max="1" width="9.109375" style="27"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="28" width="9.109375" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="27" customFormat="1"/>
     <row r="2" spans="2:11" s="27" customFormat="1"/>
-    <row r="3" spans="2:11" s="27" customFormat="1">
+    <row r="3" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B3" s="28" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:11" s="27" customFormat="1"/>
-    <row r="5" spans="2:11" s="27" customFormat="1">
+    <row r="5" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B5" s="29" t="s">
         <v>93</v>
       </c>
@@ -9718,7 +10505,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:11" s="27" customFormat="1">
+    <row r="6" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J6" s="32" t="s">
         <v>94</v>
       </c>
@@ -9726,7 +10513,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="27" customFormat="1">
+    <row r="7" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J7" s="32" t="s">
         <v>96</v>
       </c>
@@ -9734,7 +10521,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="27" customFormat="1">
+    <row r="8" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J8" s="32" t="s">
         <v>103</v>
       </c>
@@ -9742,7 +10529,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="2:11" s="27" customFormat="1">
+    <row r="9" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J9" s="32" t="s">
         <v>102</v>
       </c>
@@ -9750,7 +10537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:11" s="27" customFormat="1">
+    <row r="10" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J10" s="32" t="s">
         <v>101</v>
       </c>
@@ -9758,7 +10545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:11" s="27" customFormat="1">
+    <row r="11" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="J11" s="32" t="s">
         <v>105</v>
       </c>
@@ -9766,19 +10553,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="2:11" s="27" customFormat="1">
+    <row r="12" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B12" s="35" t="s">
         <v>141</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K12" s="113" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="27" customFormat="1"/>
-    <row r="14" spans="2:11" s="27" customFormat="1">
+    <row r="14" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B14" s="29" t="s">
         <v>142</v>
       </c>
@@ -9786,7 +10573,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="2:11" s="27" customFormat="1">
+    <row r="15" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
@@ -9794,7 +10581,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="27" customFormat="1" ht="15">
+    <row r="16" spans="2:11" s="27" customFormat="1" ht="13.8">
       <c r="B16" s="22" t="s">
         <v>69</v>
       </c>
@@ -9824,12 +10611,12 @@
     <row r="19" spans="2:10" s="27" customFormat="1">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:10" s="27" customFormat="1">
+    <row r="20" spans="2:10" s="27" customFormat="1" ht="13.8">
       <c r="B20" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="2:10" s="27" customFormat="1" ht="15">
+    <row r="21" spans="2:10" s="27" customFormat="1" ht="13.8">
       <c r="B21" s="22" t="s">
         <v>69</v>
       </c>
@@ -9842,170 +10629,172 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="27" customFormat="1" ht="13.5">
+    <row r="23" spans="2:10" s="27" customFormat="1" ht="15.6">
       <c r="B23" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="27" customFormat="1" ht="13.5">
+    <row r="24" spans="2:10" s="27" customFormat="1" ht="15.6">
       <c r="B24" s="32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="24" t="s">
+    <row r="25" spans="2:10" s="27" customFormat="1" ht="15.6">
+      <c r="B25" s="118" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="13.8">
+      <c r="B27" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15">
-      <c r="B27" s="22" t="s">
+    <row r="28" spans="2:10" ht="13.8">
+      <c r="B28" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D28" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="23" t="s">
+    <row r="29" spans="2:10">
+      <c r="B29" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="13.5">
-      <c r="B29" s="25" t="s">
+    <row r="30" spans="2:10" ht="15.6">
+      <c r="B30" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="13.5">
-      <c r="B30" s="25" t="s">
+    <row r="31" spans="2:10" ht="15.6">
+      <c r="B31" s="25" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="13.5">
-      <c r="B31" s="32" t="s">
+    <row r="32" spans="2:10" ht="15.6">
+      <c r="B32" s="32" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="32" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="24" t="s">
+    <row r="33" spans="2:4" ht="13.8">
+      <c r="B33" s="32" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="13.8">
+      <c r="B35" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="15">
-      <c r="B35" s="22" t="s">
+    <row r="36" spans="2:4" ht="13.8">
+      <c r="B36" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D36" s="36" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="23" t="s">
+    <row r="37" spans="2:4">
+      <c r="B37" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="13.5">
-      <c r="B37" s="25" t="s">
+    <row r="38" spans="2:4" ht="15.6">
+      <c r="B38" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="13.5">
-      <c r="B38" s="37" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="13.5">
+    <row r="39" spans="2:4" ht="15.6">
       <c r="B39" s="37" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="37"/>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.6">
+      <c r="B40" s="37" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="37"/>
+    </row>
+    <row r="42" spans="2:4" ht="13.8">
+      <c r="B42" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="15">
-      <c r="B42" s="22" t="s">
+    <row r="43" spans="2:4" ht="13.8">
+      <c r="B43" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D43" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="23" t="s">
+    <row r="44" spans="2:4">
+      <c r="B44" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="13.5">
-      <c r="B44" s="25" t="s">
+    <row r="45" spans="2:4" ht="15.6">
+      <c r="B45" s="25" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="27"/>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="27"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="27"/>
+    </row>
+    <row r="48" spans="2:4" ht="13.8">
+      <c r="B48" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="15">
-      <c r="B48" s="22" t="s">
+    <row r="49" spans="2:4" ht="13.8">
+      <c r="B49" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D49" s="36" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="23" t="s">
+    <row r="50" spans="2:4">
+      <c r="B50" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="13.5">
-      <c r="B50" s="25" t="s">
+    <row r="51" spans="2:4" ht="15.6">
+      <c r="B51" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="27"/>
-    </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="27"/>
+    </row>
+    <row r="53" spans="2:4" ht="13.8">
+      <c r="B53" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="15">
-      <c r="B53" s="22" t="s">
+    <row r="54" spans="2:4" ht="13.8">
+      <c r="B54" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D54" s="36" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="23" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="13.5">
-      <c r="B55" s="25" t="s">
+    <row r="56" spans="2:4" ht="15.6">
+      <c r="B56" s="25" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="27"/>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="27"/>
@@ -10021,6 +10810,9 @@
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="27"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -10033,22 +10825,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="74.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>261</v>
       </c>
@@ -10074,7 +10866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -10094,7 +10886,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -10115,7 +10907,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -10134,7 +10926,7 @@
         <v>범주 1 ~ 20000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.2">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>2</v>
@@ -10153,7 +10945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.2">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>3</v>
@@ -10169,7 +10961,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10185,7 +10977,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.2">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -10201,7 +10993,7 @@
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -10217,7 +11009,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -10233,7 +11025,7 @@
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -10249,7 +11041,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5">
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -10263,7 +11055,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.2">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -10277,7 +11069,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.2">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -10291,7 +11083,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.8">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -10305,7 +11097,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="13.5">
+    <row r="17" spans="1:5" ht="15.6">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -10319,7 +11111,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="13.8">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -10333,7 +11125,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="13.8">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -10347,7 +11139,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="13.8">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -11234,10 +12026,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="93" t="s">
+        <v>982</v>
+      </c>
+      <c r="C83" s="94" t="s">
         <v>983</v>
-      </c>
-      <c r="C83" s="94" t="s">
-        <v>984</v>
       </c>
       <c r="D83" s="58"/>
       <c r="E83" s="58"/>
@@ -11247,10 +12039,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="93" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C84" s="59" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D84" s="58"/>
       <c r="E84" s="58"/>
@@ -11260,10 +12052,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C85" s="108" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D85" s="58"/>
       <c r="E85" s="58"/>
@@ -11273,10 +12065,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="111" t="s">
+        <v>986</v>
+      </c>
+      <c r="C86" s="112" t="s">
         <v>987</v>
-      </c>
-      <c r="C86" s="112" t="s">
-        <v>988</v>
       </c>
       <c r="D86" s="58"/>
       <c r="E86" s="58"/>
@@ -11286,10 +12078,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="111" t="s">
+        <v>989</v>
+      </c>
+      <c r="C87" s="112" t="s">
         <v>990</v>
-      </c>
-      <c r="C87" s="112" t="s">
-        <v>991</v>
       </c>
       <c r="D87" s="58"/>
       <c r="E87" s="58"/>
@@ -11299,10 +12091,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="111" t="s">
+        <v>991</v>
+      </c>
+      <c r="C88" s="112" t="s">
         <v>992</v>
-      </c>
-      <c r="C88" s="112" t="s">
-        <v>993</v>
       </c>
       <c r="D88" s="58"/>
       <c r="E88" s="58"/>
@@ -11312,13 +12104,65 @@
         <v>85</v>
       </c>
       <c r="B89" s="111" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C89" s="112" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D89" s="58"/>
       <c r="E89" s="58"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A90" s="56">
+        <v>86</v>
+      </c>
+      <c r="B90" s="111" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C90" s="112" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A91" s="56">
+        <v>87</v>
+      </c>
+      <c r="B91" s="111" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C91" s="112" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A92" s="56">
+        <v>88</v>
+      </c>
+      <c r="B92" s="111" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C92" s="112" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D92" s="58"/>
+      <c r="E92" s="58"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A93" s="56">
+        <v>89</v>
+      </c>
+      <c r="B93" s="111" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C93" s="112" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -11331,23 +12175,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
@@ -11373,7 +12217,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -11393,7 +12237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -11414,7 +12258,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="40">
         <v>20001</v>
       </c>
@@ -11431,7 +12275,7 @@
         <v>범주 20001 ~ 40000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="13.2">
       <c r="A6" s="6">
         <f>A5+1</f>
         <v>20002</v>
@@ -11449,7 +12293,7 @@
         <v>20001~30000: 캐릭터  /  30001~40000: 몬스터</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="13.2">
       <c r="A7" s="6">
         <f t="shared" ref="A7:A17" si="0">A6+1</f>
         <v>20003</v>
@@ -11462,11 +12306,12 @@
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="13" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75">
+      <c r="F7" t="str">
+        <f>'!_ID_RULE'!B25</f>
+        <v>25001~: 캐릭터 설명  /  35001: 몬스터 설명</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
         <v>20004</v>
@@ -11480,7 +12325,7 @@
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.2">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>20005</v>
@@ -11494,7 +12339,7 @@
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>20006</v>
@@ -11508,7 +12353,7 @@
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>20007</v>
@@ -11522,7 +12367,7 @@
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>20008</v>
@@ -11536,7 +12381,7 @@
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="13.2">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>20009</v>
@@ -11550,7 +12395,7 @@
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="13.2">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
         <v>20010</v>
@@ -11564,7 +12409,7 @@
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="13.2">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>20011</v>
@@ -11578,7 +12423,7 @@
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="13.2">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>20012</v>
@@ -11592,7 +12437,7 @@
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="13.2">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>20013</v>
@@ -11606,598 +12451,767 @@
       <c r="D17" s="56"/>
       <c r="E17" s="56"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
-      <c r="A18" s="44">
+    <row r="18" spans="1:5" ht="13.8">
+      <c r="A18" s="40">
+        <v>25001</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+    </row>
+    <row r="19" spans="1:5" ht="13.8">
+      <c r="A19" s="6">
+        <v>25002</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C19" s="119" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="1:5" ht="13.8">
+      <c r="A20" s="6">
+        <v>25003</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C20" s="119" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+    </row>
+    <row r="21" spans="1:5" ht="13.8">
+      <c r="A21" s="6">
+        <v>25004</v>
+      </c>
+      <c r="B21" s="68" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C21" s="119" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+    </row>
+    <row r="22" spans="1:5" ht="13.8">
+      <c r="A22" s="6">
+        <v>25005</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C22" s="119" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.8">
+      <c r="A23" s="6">
+        <v>25006</v>
+      </c>
+      <c r="B23" s="68" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.8">
+      <c r="A24" s="6">
+        <v>25007</v>
+      </c>
+      <c r="B24" s="68" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C24" s="119" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+    </row>
+    <row r="25" spans="1:5" ht="13.8">
+      <c r="A25" s="6">
+        <v>25008</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C25" s="119" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+    </row>
+    <row r="26" spans="1:5" ht="13.8">
+      <c r="A26" s="6">
+        <v>25009</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C26" s="119" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+    </row>
+    <row r="27" spans="1:5" ht="13.8">
+      <c r="A27" s="6">
+        <v>25010</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C27" s="119" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+    </row>
+    <row r="28" spans="1:5" ht="13.8">
+      <c r="A28" s="6">
+        <v>25011</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C28" s="120" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+    </row>
+    <row r="29" spans="1:5" ht="13.8">
+      <c r="A29" s="6">
+        <v>25012</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C29" s="119" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+    </row>
+    <row r="30" spans="1:5" ht="13.8">
+      <c r="A30" s="6">
+        <v>25013</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C30" s="119" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+    </row>
+    <row r="31" spans="1:5" ht="13.8">
+      <c r="A31" s="44">
         <v>30001</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B31" s="47" t="s">
+        <v>959</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+    </row>
+    <row r="32" spans="1:5" ht="13.8">
+      <c r="A32" s="46">
+        <f>A31+1</f>
+        <v>30002</v>
+      </c>
+      <c r="B32" s="47" t="s">
         <v>960</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-    </row>
-    <row r="19" spans="1:5" ht="12.75">
-      <c r="A19" s="46">
-        <f>A18+1</f>
-        <v>30002</v>
-      </c>
-      <c r="B19" s="47" t="s">
+      <c r="C32" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.8">
+      <c r="A33" s="46">
+        <f t="shared" ref="A33:A52" si="1">A32+1</f>
+        <v>30003</v>
+      </c>
+      <c r="B33" s="47" t="s">
         <v>961</v>
       </c>
-      <c r="C19" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="1:5" ht="12.75">
-      <c r="A20" s="46">
-        <f t="shared" ref="A20:A39" si="1">A19+1</f>
-        <v>30003</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>962</v>
-      </c>
-      <c r="C20" s="49" t="s">
+      <c r="C33" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-    </row>
-    <row r="21" spans="1:5" ht="12.75">
-      <c r="A21" s="46">
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+    </row>
+    <row r="34" spans="1:5" ht="13.8">
+      <c r="A34" s="46">
         <f t="shared" si="1"/>
         <v>30004</v>
       </c>
-      <c r="B21" s="47" t="s">
-        <v>963</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>919</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-    </row>
-    <row r="22" spans="1:5" ht="12.75">
-      <c r="A22" s="46">
+      <c r="B34" s="47" t="s">
+        <v>962</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>918</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+    </row>
+    <row r="35" spans="1:5" ht="13.8">
+      <c r="A35" s="46">
         <f t="shared" si="1"/>
         <v>30005</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>964</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>920</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-    </row>
-    <row r="23" spans="1:5" ht="12.75">
-      <c r="A23" s="46">
+      <c r="B35" s="47" t="s">
+        <v>963</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+    </row>
+    <row r="36" spans="1:5" ht="13.8">
+      <c r="A36" s="46">
         <f t="shared" si="1"/>
         <v>30006</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>965</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>921</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-    </row>
-    <row r="24" spans="1:5" ht="12.75">
-      <c r="A24" s="46">
+      <c r="B36" s="47" t="s">
+        <v>964</v>
+      </c>
+      <c r="C36" s="49" t="s">
+        <v>920</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+    </row>
+    <row r="37" spans="1:5" ht="13.8">
+      <c r="A37" s="46">
         <f t="shared" si="1"/>
         <v>30007</v>
       </c>
-      <c r="B24" s="47" t="s">
-        <v>966</v>
-      </c>
-      <c r="C24" s="49" t="s">
-        <v>922</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-    </row>
-    <row r="25" spans="1:5" ht="12.75">
-      <c r="A25" s="46">
+      <c r="B37" s="47" t="s">
+        <v>965</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+    </row>
+    <row r="38" spans="1:5" ht="13.8">
+      <c r="A38" s="46">
         <f t="shared" si="1"/>
         <v>30008</v>
       </c>
-      <c r="B25" s="47" t="s">
-        <v>967</v>
-      </c>
-      <c r="C25" s="49" t="s">
-        <v>923</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-    </row>
-    <row r="26" spans="1:5" ht="12.75">
-      <c r="A26" s="46">
+      <c r="B38" s="47" t="s">
+        <v>966</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>922</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+    </row>
+    <row r="39" spans="1:5" ht="13.8">
+      <c r="A39" s="46">
         <f t="shared" si="1"/>
         <v>30009</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>968</v>
-      </c>
-      <c r="C26" s="49" t="s">
-        <v>924</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-    </row>
-    <row r="27" spans="1:5" ht="12.75">
-      <c r="A27" s="46">
+      <c r="B39" s="47" t="s">
+        <v>967</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>923</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+    </row>
+    <row r="40" spans="1:5" ht="13.8">
+      <c r="A40" s="46">
         <f t="shared" si="1"/>
         <v>30010</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>969</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>925</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-    </row>
-    <row r="28" spans="1:5" ht="12.75">
-      <c r="A28" s="46">
+      <c r="B40" s="47" t="s">
+        <v>968</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>924</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.8">
+      <c r="A41" s="46">
         <f t="shared" si="1"/>
         <v>30011</v>
       </c>
-      <c r="B28" s="47" t="s">
-        <v>970</v>
-      </c>
-      <c r="C28" s="49" t="s">
-        <v>926</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-    </row>
-    <row r="29" spans="1:5" ht="12.75">
-      <c r="A29" s="46">
+      <c r="B41" s="47" t="s">
+        <v>969</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>925</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+    </row>
+    <row r="42" spans="1:5" ht="13.8">
+      <c r="A42" s="46">
         <f t="shared" si="1"/>
         <v>30012</v>
       </c>
-      <c r="B29" s="47" t="s">
-        <v>971</v>
-      </c>
-      <c r="C29" s="49" t="s">
-        <v>927</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-    </row>
-    <row r="30" spans="1:5" ht="12.75">
-      <c r="A30" s="46">
+      <c r="B42" s="47" t="s">
+        <v>970</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>926</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.8">
+      <c r="A43" s="46">
         <f t="shared" si="1"/>
         <v>30013</v>
       </c>
-      <c r="B30" s="47" t="s">
-        <v>972</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>928</v>
-      </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-    </row>
-    <row r="31" spans="1:5" ht="12.75">
-      <c r="A31" s="46">
+      <c r="B43" s="47" t="s">
+        <v>971</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>927</v>
+      </c>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+    </row>
+    <row r="44" spans="1:5" ht="13.8">
+      <c r="A44" s="46">
         <f t="shared" si="1"/>
         <v>30014</v>
       </c>
-      <c r="B31" s="47" t="s">
-        <v>973</v>
-      </c>
-      <c r="C31" s="49" t="s">
-        <v>929</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.75">
-      <c r="A32" s="46">
+      <c r="B44" s="47" t="s">
+        <v>972</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>928</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.8">
+      <c r="A45" s="46">
         <f t="shared" si="1"/>
         <v>30015</v>
       </c>
-      <c r="B32" s="47" t="s">
-        <v>974</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>930</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75">
-      <c r="A33" s="46">
+      <c r="B45" s="47" t="s">
+        <v>973</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>929</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+    </row>
+    <row r="46" spans="1:5" ht="13.8">
+      <c r="A46" s="46">
         <f t="shared" si="1"/>
         <v>30016</v>
       </c>
-      <c r="B33" s="47" t="s">
-        <v>975</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>931</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75">
-      <c r="A34" s="46">
+      <c r="B46" s="47" t="s">
+        <v>974</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>930</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+    </row>
+    <row r="47" spans="1:5" ht="13.8">
+      <c r="A47" s="46">
         <f t="shared" si="1"/>
         <v>30017</v>
       </c>
-      <c r="B34" s="47" t="s">
-        <v>976</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>932</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-    </row>
-    <row r="35" spans="1:5" ht="12.75">
-      <c r="A35" s="46">
+      <c r="B47" s="47" t="s">
+        <v>975</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>931</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.8">
+      <c r="A48" s="46">
         <f t="shared" si="1"/>
         <v>30018</v>
       </c>
-      <c r="B35" s="47" t="s">
-        <v>977</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>933</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-    </row>
-    <row r="36" spans="1:5" ht="12.75">
-      <c r="A36" s="46">
+      <c r="B48" s="47" t="s">
+        <v>976</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>932</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="1:5" ht="13.8">
+      <c r="A49" s="46">
         <f t="shared" si="1"/>
         <v>30019</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>978</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>934</v>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-    </row>
-    <row r="37" spans="1:5" ht="12.75">
-      <c r="A37" s="46">
+      <c r="B49" s="47" t="s">
+        <v>977</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>933</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.8">
+      <c r="A50" s="46">
         <f t="shared" si="1"/>
         <v>30020</v>
       </c>
-      <c r="B37" s="47" t="s">
-        <v>979</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>935</v>
-      </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-    </row>
-    <row r="38" spans="1:5" ht="12.75">
-      <c r="A38" s="46">
+      <c r="B50" s="47" t="s">
+        <v>978</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>934</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.8">
+      <c r="A51" s="46">
         <f t="shared" si="1"/>
         <v>30021</v>
       </c>
-      <c r="B38" s="47" t="s">
-        <v>980</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>936</v>
-      </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-    </row>
-    <row r="39" spans="1:5" ht="12.75">
-      <c r="A39" s="46">
+      <c r="B51" s="47" t="s">
+        <v>979</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>935</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.8">
+      <c r="A52" s="46">
         <f t="shared" si="1"/>
         <v>30022</v>
       </c>
-      <c r="B39" s="47" t="s">
-        <v>981</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>937</v>
-      </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-    </row>
-    <row r="40" spans="1:5" ht="12.75">
-      <c r="A40" s="46">
-        <v>35001</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>897</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>938</v>
-      </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-    </row>
-    <row r="41" spans="1:5" ht="12.75">
-      <c r="A41" s="46">
-        <v>35002</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>898</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>939</v>
-      </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="46">
-        <v>35003</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>899</v>
-      </c>
-      <c r="C42" s="49" t="s">
-        <v>940</v>
-      </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="46">
-        <v>35004</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>900</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>941</v>
-      </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="46">
-        <v>35005</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>901</v>
-      </c>
-      <c r="C44" s="49" t="s">
-        <v>942</v>
-      </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="46">
-        <v>35006</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>902</v>
-      </c>
-      <c r="C45" s="110" t="s">
-        <v>943</v>
-      </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="46">
-        <v>35007</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>903</v>
-      </c>
-      <c r="C46" s="49" t="s">
-        <v>944</v>
-      </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="46">
-        <v>35008</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>904</v>
-      </c>
-      <c r="C47" s="49" t="s">
-        <v>945</v>
-      </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="46">
-        <v>35009</v>
-      </c>
-      <c r="B48" s="47" t="s">
-        <v>905</v>
-      </c>
-      <c r="C48" s="49" t="s">
-        <v>946</v>
-      </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="46">
-        <v>35010</v>
-      </c>
-      <c r="B49" s="47" t="s">
-        <v>906</v>
-      </c>
-      <c r="C49" s="110" t="s">
-        <v>957</v>
-      </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="46">
-        <v>35011</v>
-      </c>
-      <c r="B50" s="47" t="s">
-        <v>907</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>958</v>
-      </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="46">
-        <v>35012</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>908</v>
-      </c>
-      <c r="C51" s="49" t="s">
-        <v>959</v>
-      </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="46">
-        <v>35013</v>
-      </c>
       <c r="B52" s="47" t="s">
-        <v>909</v>
+        <v>980</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="D52" s="46"/>
       <c r="E52" s="46"/>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="13.8">
       <c r="A53" s="46">
-        <v>35014</v>
+        <v>35001</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="D53" s="46"/>
       <c r="E53" s="46"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="13.8">
       <c r="A54" s="46">
-        <v>35015</v>
+        <v>35002</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="D54" s="46"/>
       <c r="E54" s="46"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
       <c r="A55" s="46">
-        <v>35016</v>
+        <v>35003</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
       <c r="D55" s="46"/>
       <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1">
       <c r="A56" s="46">
-        <v>35017</v>
+        <v>35004</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="D56" s="46"/>
       <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1">
       <c r="A57" s="46">
-        <v>35018</v>
+        <v>35005</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="D57" s="46"/>
       <c r="E57" s="46"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1">
       <c r="A58" s="46">
-        <v>35019</v>
+        <v>35006</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>915</v>
-      </c>
-      <c r="C58" s="49" t="s">
-        <v>952</v>
+        <v>901</v>
+      </c>
+      <c r="C58" s="110" t="s">
+        <v>942</v>
       </c>
       <c r="D58" s="46"/>
       <c r="E58" s="46"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1">
       <c r="A59" s="46">
-        <v>35020</v>
+        <v>35007</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="C59" s="49" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="D59" s="46"/>
       <c r="E59" s="46"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1">
       <c r="A60" s="46">
-        <v>35021</v>
+        <v>35008</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="D60" s="46"/>
       <c r="E60" s="46"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1">
       <c r="A61" s="46">
-        <v>35022</v>
+        <v>35009</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="C61" s="49" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="D61" s="46"/>
       <c r="E61" s="46"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A62" s="46">
+        <v>35010</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>905</v>
+      </c>
+      <c r="C62" s="110" t="s">
+        <v>956</v>
+      </c>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63" s="46">
+        <v>35011</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>906</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>957</v>
+      </c>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A64" s="46">
+        <v>35012</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>907</v>
+      </c>
+      <c r="C64" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A65" s="46">
+        <v>35013</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>908</v>
+      </c>
+      <c r="C65" s="49" t="s">
+        <v>946</v>
+      </c>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A66" s="46">
+        <v>35014</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>909</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>947</v>
+      </c>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A67" s="46">
+        <v>35015</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>910</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>948</v>
+      </c>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A68" s="46">
+        <v>35016</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>911</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A69" s="46">
+        <v>35017</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>912</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>949</v>
+      </c>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A70" s="46">
+        <v>35018</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>913</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>950</v>
+      </c>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A71" s="46">
+        <v>35019</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>914</v>
+      </c>
+      <c r="C71" s="49" t="s">
+        <v>951</v>
+      </c>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A72" s="46">
+        <v>35020</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>915</v>
+      </c>
+      <c r="C72" s="49" t="s">
+        <v>952</v>
+      </c>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A73" s="46">
+        <v>35021</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>916</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>953</v>
+      </c>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A74" s="46">
+        <v>35022</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>917</v>
+      </c>
+      <c r="C74" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -12216,17 +13230,17 @@
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" customWidth="1"/>
-    <col min="4" max="4" width="71.85546875" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" customWidth="1"/>
+    <col min="4" max="4" width="71.88671875" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.5">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>263</v>
       </c>
@@ -12235,7 +13249,7 @@
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="13.5">
+    <row r="2" spans="1:6" ht="15.6">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -12295,7 +13309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.5">
+    <row r="5" spans="1:6" ht="15.6">
       <c r="A5" s="39">
         <v>40001</v>
       </c>
@@ -12308,11 +13322,11 @@
       <c r="D5" s="9"/>
       <c r="E5" s="84"/>
       <c r="F5" s="25" t="str">
-        <f>'!_ID_RULE'!B29</f>
+        <f>'!_ID_RULE'!B30</f>
         <v>범주 40001 ~ 60000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="4">
         <f>A5+1</f>
         <v>40002</v>
@@ -12330,11 +13344,11 @@
         <v>67</v>
       </c>
       <c r="F6" s="83" t="str">
-        <f>'!_ID_RULE'!B30</f>
+        <f>'!_ID_RULE'!B31</f>
         <v>범주 400001 ~ 600000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.5">
+    <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="4">
         <f t="shared" ref="A7:A27" si="0">A6+1</f>
         <v>40003</v>
@@ -12352,11 +13366,11 @@
         <v>423</v>
       </c>
       <c r="F7" s="80" t="str">
-        <f>'!_ID_RULE'!B31</f>
+        <f>'!_ID_RULE'!B32</f>
         <v>40001~50000: 캐릭터 스킬명  /  50001~60000: 몬스터 스킬명</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.5">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>40004</v>
@@ -12374,11 +13388,11 @@
         <v>406</v>
       </c>
       <c r="F8" s="80" t="str">
-        <f>'!_ID_RULE'!B32</f>
+        <f>'!_ID_RULE'!B33</f>
         <v>400001~500000: 캐릭터 스킬 설명 / 500001~600000: 몬스터 스킬 설명</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.5">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="4">
         <f t="shared" si="0"/>
         <v>40005</v>
@@ -12399,7 +13413,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.5">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>40006</v>
@@ -12420,7 +13434,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.5">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="4">
         <f t="shared" si="0"/>
         <v>40007</v>
@@ -12441,7 +13455,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.5">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="4">
         <f t="shared" si="0"/>
         <v>40008</v>
@@ -12462,7 +13476,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.5">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="4">
         <f t="shared" si="0"/>
         <v>40009</v>
@@ -12483,7 +13497,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.5">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
         <v>40010</v>
@@ -12504,7 +13518,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.5">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
         <v>40011</v>
@@ -12525,7 +13539,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.5">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>40012</v>
@@ -12546,7 +13560,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>40013</v>
@@ -12567,7 +13581,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5">
+    <row r="18" spans="1:6" ht="15.6">
       <c r="A18" s="4">
         <f t="shared" si="0"/>
         <v>40014</v>
@@ -12588,7 +13602,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>40015</v>
@@ -12609,7 +13623,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>40016</v>
@@ -12630,7 +13644,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="4">
         <f t="shared" si="0"/>
         <v>40017</v>
@@ -12648,7 +13662,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5">
+    <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>40018</v>
@@ -12666,7 +13680,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="4">
         <f t="shared" si="0"/>
         <v>40019</v>
@@ -12684,7 +13698,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="4">
         <f t="shared" si="0"/>
         <v>40020</v>
@@ -12702,7 +13716,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="4">
         <f t="shared" si="0"/>
         <v>40021</v>
@@ -12720,7 +13734,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="4">
         <f t="shared" si="0"/>
         <v>40022</v>
@@ -12738,7 +13752,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="4">
         <f t="shared" si="0"/>
         <v>40023</v>
@@ -12756,7 +13770,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="4">
         <v>4100001</v>
       </c>
@@ -12769,7 +13783,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:6" ht="13.5">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="4">
         <v>4100002</v>
       </c>
@@ -12782,7 +13796,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="13.5">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="4">
         <v>4100003</v>
       </c>
@@ -12795,7 +13809,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:6" ht="13.5">
+    <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="4">
         <v>4100004</v>
       </c>
@@ -12808,7 +13822,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:6" ht="13.5">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="4">
         <v>4100102</v>
       </c>
@@ -12821,7 +13835,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="13.5">
+    <row r="33" spans="1:5" ht="15.6">
       <c r="A33" s="4">
         <v>4100102</v>
       </c>
@@ -12834,7 +13848,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="13.5">
+    <row r="34" spans="1:5" ht="15.6">
       <c r="A34" s="4">
         <v>4100103</v>
       </c>
@@ -12847,7 +13861,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="13.5">
+    <row r="35" spans="1:5" ht="15.6">
       <c r="A35" s="4">
         <v>4100104</v>
       </c>
@@ -12860,7 +13874,7 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="13.5">
+    <row r="36" spans="1:5" ht="15.6">
       <c r="A36" s="4">
         <v>4100106</v>
       </c>
@@ -12873,7 +13887,7 @@
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="13.5">
+    <row r="37" spans="1:5" ht="15.6">
       <c r="A37" s="4">
         <v>4100107</v>
       </c>
@@ -12886,7 +13900,7 @@
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="13.5">
+    <row r="38" spans="1:5" ht="15.6">
       <c r="A38" s="4">
         <v>4100108</v>
       </c>
@@ -12899,7 +13913,7 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="13.5">
+    <row r="39" spans="1:5" ht="15.6">
       <c r="A39" s="4">
         <v>4100109</v>
       </c>
@@ -12912,7 +13926,7 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="13.5">
+    <row r="40" spans="1:5" ht="15.6">
       <c r="A40" s="4">
         <v>4100202</v>
       </c>
@@ -12925,7 +13939,7 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="13.5">
+    <row r="41" spans="1:5" ht="15.6">
       <c r="A41" s="4">
         <v>4100203</v>
       </c>
@@ -12938,7 +13952,7 @@
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="13.5">
+    <row r="42" spans="1:5" ht="15.6">
       <c r="A42" s="4">
         <v>4100204</v>
       </c>
@@ -12951,7 +13965,7 @@
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="13.5">
+    <row r="43" spans="1:5" ht="15.6">
       <c r="A43" s="4">
         <v>4100205</v>
       </c>
@@ -12964,7 +13978,7 @@
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" ht="13.5">
+    <row r="44" spans="1:5" ht="15.6">
       <c r="A44" s="4">
         <v>4100302</v>
       </c>
@@ -12977,7 +13991,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" ht="13.5">
+    <row r="45" spans="1:5" ht="15.6">
       <c r="A45" s="4">
         <v>4100303</v>
       </c>
@@ -12990,7 +14004,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="13.5">
+    <row r="46" spans="1:5" ht="15.6">
       <c r="A46" s="4">
         <v>4100304</v>
       </c>
@@ -13003,7 +14017,7 @@
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="13.5">
+    <row r="47" spans="1:5" ht="15.6">
       <c r="A47" s="4">
         <v>4100305</v>
       </c>
@@ -13016,7 +14030,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="13.5">
+    <row r="48" spans="1:5" ht="15.6">
       <c r="A48" s="4">
         <v>4100401</v>
       </c>
@@ -13029,7 +14043,7 @@
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="13.5">
+    <row r="49" spans="1:5" ht="15.6">
       <c r="A49" s="41">
         <v>4100402</v>
       </c>
@@ -13042,7 +14056,7 @@
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
     </row>
-    <row r="50" spans="1:5" ht="13.5">
+    <row r="50" spans="1:5" ht="15.6">
       <c r="A50" s="56">
         <v>4100403</v>
       </c>
@@ -13055,7 +14069,7 @@
       <c r="D50" s="78"/>
       <c r="E50" s="78"/>
     </row>
-    <row r="51" spans="1:5" ht="13.5">
+    <row r="51" spans="1:5" ht="15.6">
       <c r="A51" s="41">
         <v>4100404</v>
       </c>
@@ -13068,7 +14082,7 @@
       <c r="D51" s="78"/>
       <c r="E51" s="78"/>
     </row>
-    <row r="52" spans="1:5" ht="13.5">
+    <row r="52" spans="1:5" ht="15.6">
       <c r="A52" s="56">
         <v>4100405</v>
       </c>
@@ -13081,7 +14095,7 @@
       <c r="D52" s="78"/>
       <c r="E52" s="78"/>
     </row>
-    <row r="53" spans="1:5" ht="13.5">
+    <row r="53" spans="1:5" ht="15.6">
       <c r="A53" s="41">
         <v>4100406</v>
       </c>
@@ -13094,7 +14108,7 @@
       <c r="D53" s="78"/>
       <c r="E53" s="78"/>
     </row>
-    <row r="54" spans="1:5" ht="13.5">
+    <row r="54" spans="1:5" ht="15.6">
       <c r="A54" s="56">
         <v>4100502</v>
       </c>
@@ -13107,7 +14121,7 @@
       <c r="D54" s="78"/>
       <c r="E54" s="78"/>
     </row>
-    <row r="55" spans="1:5" ht="13.5">
+    <row r="55" spans="1:5" ht="15.6">
       <c r="A55" s="56">
         <v>4100503</v>
       </c>
@@ -13120,7 +14134,7 @@
       <c r="D55" s="78"/>
       <c r="E55" s="78"/>
     </row>
-    <row r="56" spans="1:5" ht="13.5">
+    <row r="56" spans="1:5" ht="15.6">
       <c r="A56" s="56">
         <v>4100504</v>
       </c>
@@ -13133,7 +14147,7 @@
       <c r="D56" s="78"/>
       <c r="E56" s="78"/>
     </row>
-    <row r="57" spans="1:5" ht="13.5">
+    <row r="57" spans="1:5" ht="15.6">
       <c r="A57" s="56">
         <v>4100602</v>
       </c>
@@ -13146,7 +14160,7 @@
       <c r="D57" s="78"/>
       <c r="E57" s="78"/>
     </row>
-    <row r="58" spans="1:5" ht="13.5">
+    <row r="58" spans="1:5" ht="15.6">
       <c r="A58" s="56">
         <v>4100603</v>
       </c>
@@ -13159,7 +14173,7 @@
       <c r="D58" s="78"/>
       <c r="E58" s="78"/>
     </row>
-    <row r="59" spans="1:5" ht="13.5">
+    <row r="59" spans="1:5" ht="15.6">
       <c r="A59" s="56">
         <v>4100604</v>
       </c>
@@ -13172,7 +14186,7 @@
       <c r="D59" s="78"/>
       <c r="E59" s="78"/>
     </row>
-    <row r="60" spans="1:5" ht="13.5">
+    <row r="60" spans="1:5" ht="15.6">
       <c r="A60" s="56">
         <v>4100605</v>
       </c>
@@ -13185,7 +14199,7 @@
       <c r="D60" s="78"/>
       <c r="E60" s="78"/>
     </row>
-    <row r="61" spans="1:5" ht="13.5">
+    <row r="61" spans="1:5" ht="15.6">
       <c r="A61" s="56">
         <v>4100606</v>
       </c>
@@ -13198,7 +14212,7 @@
       <c r="D61" s="78"/>
       <c r="E61" s="78"/>
     </row>
-    <row r="62" spans="1:5" ht="13.5">
+    <row r="62" spans="1:5" ht="15.6">
       <c r="A62" s="56">
         <v>4100607</v>
       </c>
@@ -13211,7 +14225,7 @@
       <c r="D62" s="78"/>
       <c r="E62" s="78"/>
     </row>
-    <row r="63" spans="1:5" ht="13.5">
+    <row r="63" spans="1:5" ht="15.6">
       <c r="A63" s="56">
         <v>4100608</v>
       </c>
@@ -13417,27 +14431,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C58"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="37.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="18" t="s">
         <v>74</v>
       </c>
@@ -13457,7 +14471,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="13.2">
       <c r="A3" s="15" t="s">
         <v>68</v>
       </c>
@@ -13477,7 +14491,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -13498,7 +14512,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="40">
         <v>70001</v>
       </c>
@@ -13511,11 +14